--- a/Tutoriales/pandas/Comandos Pandas.xlsx
+++ b/Tutoriales/pandas/Comandos Pandas.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseMaría\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseMaría\Documents\CURSOS\data_science\mitrabajo\Mirepositorio\Tutoriales\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D981F465-B0EA-4B8D-AAB5-48D814580884}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DC1632-F4AE-4E12-AD9E-F713D239CEE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF4018AA-EEB9-4756-B82D-183D37B3B80A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="GENERALES" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$D$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GENERALES!$A$2:$D$133</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="367">
   <si>
     <t>FUNCIONES DE PANDAS</t>
   </si>
@@ -66,9 +67,6 @@
     <t>Creo variable con la url</t>
   </si>
   <si>
-    <t>Transformo en DataFrame. Sep es el separador que usa para diferenciar las columnas</t>
-  </si>
-  <si>
     <t>ILOC</t>
   </si>
   <si>
@@ -225,9 +223,6 @@
     <t>Mustra las posiciones totales del índice.</t>
   </si>
   <si>
-    <t>Muestra información general de la tabla, COLUMNAS,DTYPE NOT NULL COUNT.</t>
-  </si>
-  <si>
     <t>Muestra nº de filas y de columnas en una tupla   (7,4)</t>
   </si>
   <si>
@@ -730,9 +725,6 @@
     </r>
   </si>
   <si>
-    <t>Transformo en DataFrame. Sep es el separador que usa para diferenciar las columnas y por donde está indexada</t>
-  </si>
-  <si>
     <t>HEAD</t>
   </si>
   <si>
@@ -781,31 +773,278 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>.tail</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+      <t>.tail (15)</t>
+    </r>
+  </si>
+  <si>
+    <t>Muestra por defecto las 5 ultimas filas pero puedo ordenar que muestre mas</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chipo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.shape[0]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chipo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.columns</t>
+    </r>
+  </si>
+  <si>
+    <t>Muestra índice de la tabla</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>usuarios</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.dtypes</t>
+    </r>
+  </si>
+  <si>
+    <t>Muestra el tipo de datos de todas las columnas de la tabla</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>usuarios</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>.tail (15)</t>
-    </r>
-  </si>
-  <si>
-    <t>Muestra por defecto las 5 ultimas filas pero puedo ordenar que muestre mas</t>
+      <t>.iloc[:,5]</t>
+    </r>
+  </si>
+  <si>
+    <t>Muestra todas las filas de la columna 5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>usuarios</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.describe()</t>
+    </r>
+  </si>
+  <si>
+    <t>Muestra resumen estadístico de la tabla. Count/Mean/std/Min/Max/25%/50%/75%</t>
+  </si>
+  <si>
+    <t>DESCRIBE</t>
+  </si>
+  <si>
+    <t>VALUE_COUNTS+ TAIL</t>
+  </si>
+  <si>
+    <t>Muestra el total de las veces que se repite un valor en una serie.</t>
+  </si>
+  <si>
+    <t>Muestra las 5 ultimas posiciones de los valores menos repetidos</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>usuarios</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.occupation.describe()</t>
+    </r>
+  </si>
+  <si>
+    <t>Muestra resumen estadístico de una columna. Count/Mean/std/Min/Max/25%/50%/75%</t>
+  </si>
+  <si>
+    <t>DESCRIBE .COLUMNA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>usuarios</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>["age"].mean() </t>
+    </r>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>Muestra la media de los valores de una columna</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>usuarios_age=usuarios</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.groupby("age").count()</t>
+    </r>
+  </si>
+  <si>
+    <t>GROUPBY +COUNT</t>
+  </si>
+  <si>
+    <t>Agrupo la tabla por columna ("age) y con count saco los valores omitiendo los nulos</t>
+  </si>
+  <si>
+    <t>BORRAR</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>usuarios.age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.value_counts().tail()</t>
+    </r>
+  </si>
+  <si>
+    <t>Muestra las 5 ultimas posiciones de los valores menos repetidos en la columna age</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>usuarios.age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.value_counts().tail()</t>
+    </r>
+  </si>
+  <si>
+    <t>TAIL. COLUMNA</t>
   </si>
   <si>
     <r>
@@ -826,10 +1065,218 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.shape[0]</t>
-    </r>
-  </si>
-  <si>
+      <t>["order_id"].min()</t>
+    </r>
+  </si>
+  <si>
+    <t>Muestra el valor mínimo de una serie</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>food</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> = pd.read_csv("../Occupation/food_100.csv")</t>
+    </r>
+  </si>
+  <si>
+    <t>Transformo en DataFrame</t>
+  </si>
+  <si>
+    <t>Muestra todas las filas de todas las  columnas menos la primera</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>food</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.columns[105]</t>
+    </r>
+  </si>
+  <si>
+    <t>[POSICION COLUMNA]</t>
+  </si>
+  <si>
+    <t>["NOMBRE COLUMNA"]</t>
+  </si>
+  <si>
+    <t>Muestra el nombre de la columna 105 de la data</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>food</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>["product_name"].values[19]</t>
+    </r>
+  </si>
+  <si>
+    <t>Muestra el valor de la columna product_name en la fila 19</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>food</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.at[18, "product_name"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  devuelve el valor de la columna que esta a la derecha de la coma en la posición 18</t>
+    </r>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>Borra una columna</t>
+  </si>
+  <si>
+    <r>
+      <t>de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>food</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>["creator"])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>food</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.dtypes[104]</t>
+    </r>
+  </si>
+  <si>
+    <t>Muestra el tipo de datos de una columna por posicion</t>
+  </si>
+  <si>
+    <t>VALUES</t>
+  </si>
+  <si>
+    <t>Muestra el valor máximo de chipo en columna item_price en forma DataFrame</t>
+  </si>
+  <si>
+    <t>Muestra el valor máximo de chipo en colum item_price en valor sin mostrar columnas</t>
+  </si>
+  <si>
+    <r>
+      <t>max(</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -848,46 +1295,124 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.columns</t>
-    </r>
-  </si>
-  <si>
-    <t>Muestra índice de la tabla</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>usuarios</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.dtypes</t>
-    </r>
-  </si>
-  <si>
-    <t>Muestra el tipo de datos de todas las columnas de la tabla</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>usuarios</t>
+      <t>.item_price)</t>
+    </r>
+  </si>
+  <si>
+    <t>Borro los valores duplicados en esas columnas item_name y quantity</t>
+  </si>
+  <si>
+    <t>VAL DUPLICADOS COLUM</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chipo_dropped = chipo_dropped</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.drop_duplicates(["item_name", "quantity"])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chipo_dropped</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[chipo_dropped.quantity == 1]</t>
+    </r>
+  </si>
+  <si>
+    <t>Muestra los valores de tabla en una columna que son igual a 1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chipo_dropped</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[chipo_dropped.quantity &gt; 10]</t>
+    </r>
+  </si>
+  <si>
+    <t>Muestra los valores de tabla en una columna que son mayor  a 10</t>
+  </si>
+  <si>
+    <t>Muestra los valores de tabla en una columna que son menor  a 10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chipo_dropped</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[chipo_dropped.quantity &lt;10]</t>
+    </r>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>food</t>
     </r>
     <r>
       <rPr>
@@ -896,145 +1421,18 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>.iloc[:,5]</t>
-    </r>
-  </si>
-  <si>
-    <t>Muestra todas las filas de la columna 5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>usuarios</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.describe()</t>
-    </r>
-  </si>
-  <si>
-    <t>Muestra resumen estadístico de la tabla. Count/Mean/std/Min/Max/25%/50%/75%</t>
-  </si>
-  <si>
-    <t>DESCRIBE</t>
-  </si>
-  <si>
-    <t>VALUE_COUNTS+ TAIL</t>
-  </si>
-  <si>
-    <t>Muestra el total de las veces que se repite un valor en una serie.</t>
-  </si>
-  <si>
-    <t>Muestra las 5 ultimas posiciones de los valores menos repetidos</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>usuarios</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.occupation.describe()</t>
-    </r>
-  </si>
-  <si>
-    <t>Muestra resumen estadístico de una columna. Count/Mean/std/Min/Max/25%/50%/75%</t>
-  </si>
-  <si>
-    <t>DESCRIBE .COLUMNA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>usuarios</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>["age"].mean() </t>
-    </r>
-  </si>
-  <si>
-    <t>MEAN</t>
-  </si>
-  <si>
-    <t>Muestra la media de los valores de una columna</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>usuarios_age=usuarios</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.groupby("age").count()</t>
-    </r>
-  </si>
-  <si>
-    <t>GROUPBY +COUNT</t>
-  </si>
-  <si>
-    <t>Agrupo la tabla por columna ("age) y con count saco los valores omitiendo los nulos</t>
-  </si>
-  <si>
-    <t>BORRAR</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>usuarios.age</t>
+      <t>.iloc[ :,1:]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>chipo_dropped</t>
     </r>
     <r>
       <rPr>
@@ -1043,36 +1441,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>.value_counts().tail()</t>
-    </r>
-  </si>
-  <si>
-    <t>Muestra las 5 ultimas posiciones de los valores menos repetidos en la columna age</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>usuarios.age</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.value_counts().tail()</t>
-    </r>
-  </si>
-  <si>
-    <t>TAIL. COLUMNA</t>
+      <t>.loc[:, ["item_name", "item_price"]]</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1093,24 +1463,83 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>["order_id"].min()</t>
-    </r>
-  </si>
-  <si>
-    <t>Muestra el valor mínimo de una serie</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>food</t>
+      <t>.sort_values(["quantity"], ascending=True)</t>
+    </r>
+  </si>
+  <si>
+    <t>Muestra los valores de una columna ordenados de menor a mayor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SORT </t>
+  </si>
+  <si>
+    <t>Muestra los valores de 2 columnas ordenados de mayor a menor</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>discipline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.sort_values(by=["Yellow Cards","Red Cards"],ascending=False)</t>
+    </r>
+  </si>
+  <si>
+    <t>ROUND ( )</t>
+  </si>
+  <si>
+    <t>Devuelve el valor con dos decimales; acota los decimales</t>
+  </si>
+  <si>
+    <t>STARTSWHITH</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>euro12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[euro12.Team.str.startswith("G")]</t>
+    </r>
+  </si>
+  <si>
+    <t>Muestra un valor en una columna buscando por una de sus letras STR (Cadena)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>euro12</t>
     </r>
     <r>
       <rPr>
@@ -1119,24 +1548,24 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t> = pd.read_csv("../Occupation/food_100.csv")</t>
-    </r>
-  </si>
-  <si>
-    <t>Transformo en DataFrame</t>
-  </si>
-  <si>
-    <t>Muestra todas las filas de todas las  columnas menos la primera</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>food</t>
+      <t>.iloc[:,0:8]</t>
+    </r>
+  </si>
+  <si>
+    <t>selecciono las 7 primeras columnas con todas sus filas</t>
+  </si>
+  <si>
+    <t>Muestra todas las columnas menos las tres últimas</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>euro12</t>
     </r>
     <r>
       <rPr>
@@ -1145,305 +1574,18 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>.columns[105]</t>
-    </r>
-  </si>
-  <si>
-    <t>[POSICION COLUMNA]</t>
-  </si>
-  <si>
-    <t>["NOMBRE COLUMNA"]</t>
-  </si>
-  <si>
-    <t>Muestra el nombre de la columna 105 de la data</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>food</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>["product_name"].values[19]</t>
-    </r>
-  </si>
-  <si>
-    <t>Muestra el valor de la columna product_name en la fila 19</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>food</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.at[18, "product_name"]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>at</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  devuelve el valor de la columna que esta a la derecha de la coma en la posición 18</t>
-    </r>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>Borra una columna</t>
-  </si>
-  <si>
-    <r>
-      <t>de</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>l(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>food</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>["creator"])</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>food</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.dtypes[104]</t>
-    </r>
-  </si>
-  <si>
-    <t>Muestra el tipo de datos de una columna por posicion</t>
-  </si>
-  <si>
-    <t>VALUES</t>
-  </si>
-  <si>
-    <t>MAX EN COLUMNA</t>
-  </si>
-  <si>
-    <t>Muestra el valor máximo de chipo en columna item_price en forma DataFrame</t>
-  </si>
-  <si>
-    <t>Muestra el valor máximo de chipo en colum item_price en valor sin mostrar columnas</t>
-  </si>
-  <si>
-    <r>
-      <t>max(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chipo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.item_price)</t>
-    </r>
-  </si>
-  <si>
-    <t>Borro los valores duplicados en esas columnas item_name y quantity</t>
-  </si>
-  <si>
-    <t>VAL DUPLICADOS COLUM</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chipo_dropped = chipo_dropped</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.drop_duplicates(["item_name", "quantity"])</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chipo_dropped</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[chipo_dropped.quantity == 1]</t>
-    </r>
-  </si>
-  <si>
-    <t>Muestra los valores de tabla en una columna que son igual a 1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chipo_dropped</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[chipo_dropped.quantity &gt; 10]</t>
-    </r>
-  </si>
-  <si>
-    <t>Muestra los valores de tabla en una columna que son mayor  a 10</t>
-  </si>
-  <si>
-    <t>Muestra los valores de tabla en una columna que son menor  a 10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chipo_dropped</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[chipo_dropped.quantity &lt;10]</t>
-    </r>
-  </si>
-  <si>
-    <t>LOC</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>food</t>
+      <t>.iloc[:,0:-3]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>euro12</t>
     </r>
     <r>
       <rPr>
@@ -1452,18 +1594,27 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>.iloc[ :,1:]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>chipo_dropped</t>
+      <t>.loc[[3,7,12],["Shooting Accuracy"]]</t>
+    </r>
+  </si>
+  <si>
+    <t>Muestra tres filas  no consecutivas de la columna "Shooting...</t>
+  </si>
+  <si>
+    <t>ACTUALIZO INDICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cambio el indice por defecto que había y ahora tomo como indice la columna Team</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>euro12.</t>
     </r>
     <r>
       <rPr>
@@ -1472,198 +1623,10 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>.loc[:, ["item_name", "item_price"]]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chipo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.sort_values(["quantity"], ascending=True)</t>
-    </r>
-  </si>
-  <si>
-    <t>Muestra los valores de una columna ordenados de menor a mayor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SORT </t>
-  </si>
-  <si>
-    <t>Muestra los valores de 2 columnas ordenados de mayor a menor</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>discipline</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.sort_values(by=["Yellow Cards","Red Cards"],ascending=False)</t>
-    </r>
-  </si>
-  <si>
-    <t>ROUND ( )</t>
-  </si>
-  <si>
-    <t>Media =chipo.["item_price"].mean()                   Media.round(2)</t>
-  </si>
-  <si>
-    <t>Devuelve el valor con dos decimales; acota los decimales</t>
-  </si>
-  <si>
-    <t>STARTSWHITH</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>euro12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[euro12.Team.str.startswith("G")]</t>
-    </r>
-  </si>
-  <si>
-    <t>Muestra un valor en una columna buscando por una de sus letras STR (Cadena)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>euro12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.iloc[:,0:8]</t>
-    </r>
-  </si>
-  <si>
-    <t>selecciono las 7 primeras columnas con todas sus filas</t>
-  </si>
-  <si>
-    <t>Muestra todas las columnas menos las tres últimas</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>euro12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.iloc[:,0:-3]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>euro12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.loc[[3,7,12],["Shooting Accuracy"]]</t>
-    </r>
-  </si>
-  <si>
-    <t>Muestra tres filas  no consecutivas de la columna "Shooting...</t>
-  </si>
-  <si>
-    <t>ACTUALIZO INDICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cambio el indice por defecto que había y ahora tomo como indice la columna Team</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>euro12.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>[["England","Italy","Russia"],["Shooting Accuracy"]]</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">raw_data = {'regiment': ['Nighthawks', 'Nighthawks', 'Nighthawks', 'Nighthawks', 'Dragoons', 'Dragoons', 'Dragoons', 'Dragoons', 'Scouts', 'Scouts', 'Scouts', 'Scouts'],…........} </t>
-  </si>
-  <si>
     <t>army = pd.DataFrame(data=raw_data)</t>
   </si>
   <si>
@@ -1671,28 +1634,6 @@
   </si>
   <si>
     <t>CREAR DATA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>euro12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.set_index('Team' inplace=True)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2342,86 +2283,504 @@
     <t>DATAFRAME AL INVERSO</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+    <t>Borra las columnas seleccionadas por nombre, independoentemente de su posición</t>
+  </si>
+  <si>
+    <t>DEL   (COLUMNA)</t>
+  </si>
+  <si>
+    <t>DROP  (COLUMNAS)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chipo.item_price[chipo.item_price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> == max(chipo.item_price)]</t>
+    </r>
+  </si>
+  <si>
+    <t>ILOC + LOC</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>titanic</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.drop(["name","sex","age"], axis=1)</t>
-    </r>
-  </si>
-  <si>
-    <t>Borra las columnas seleccionadas por nombre, independoentemente de su posición</t>
-  </si>
-  <si>
-    <t>DEL   (COLUMNA)</t>
-  </si>
-  <si>
-    <t>DROP  (COLUMNAS)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chipo.item_price[chipo.item_price</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> == max(chipo.item_price)]</t>
-    </r>
-  </si>
-  <si>
-    <t>ILOC + LOC</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.iloc[14,:].loc[["sibsp","parch"]]</t>
+    </r>
+  </si>
+  <si>
+    <t>Muestra los valore de dos columnas en una fila</t>
+  </si>
+  <si>
+    <t>ALEATORIO DATA</t>
+  </si>
+  <si>
+    <t>Creo data a pertir de una lista llamada cols</t>
+  </si>
+  <si>
+    <r>
+      <t>new_data=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>pd.DataFrame(cols)</t>
+    </r>
+  </si>
+  <si>
+    <t>MATRIZ BOOLEANA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>titanic_3=titanic.rename</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(columns={"sex":"gender"})</t>
+    </r>
+  </si>
+  <si>
+    <t>RENAME</t>
+  </si>
+  <si>
+    <t>Cambia el nombre de una columna</t>
+  </si>
+  <si>
+    <t>BOOLEANO</t>
+  </si>
+  <si>
+    <t>Crea una matriz array booleana con una condición sex== female</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>array_f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e=titanic["sex"]=="female"</t>
+    </r>
+  </si>
+  <si>
+    <t>Filtro una matriz por una columna cumpliendo condicion con un booleano</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>woman_titanic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=titanic[titanic['gender'] == </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'female'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Muestra número de filas. Accedo por posición [0]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>titanic</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.dropna(how='any')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>titanic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.dropna( )</t>
+    </r>
+  </si>
+  <si>
+    <t>DROPNA (FILAS)</t>
+  </si>
+  <si>
+    <t>Borra las filas donde falta algun alemeneto</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>titanic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.dropna(axis="columns" )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>titanic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.dropna(haw="all" )</t>
+    </r>
+  </si>
+  <si>
+    <t>Borra las columnas donde falta algún elemento</t>
+  </si>
+  <si>
+    <t>Borra las filas donde faltan todos los elementos</t>
+  </si>
+  <si>
+    <t>DROPNA (FILAS))</t>
+  </si>
+  <si>
+    <t>Borra las filas donde falta algún elemento</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>titanic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.dropna(thresh=2)</t>
+    </r>
+  </si>
+  <si>
+    <t>Mantiene las filas donde no faltan mas de dos elementos</t>
+  </si>
+  <si>
+    <t>ISNULL</t>
+  </si>
+  <si>
+    <t>VALORES NAN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>titanic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.isnull().sum()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ratio_nan = ((titanic.isnull().sum() / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>.iloc[14,:].loc[["sibsp","parch"]]</t>
-    </r>
-  </si>
-  <si>
-    <t>Muestra los valore de dos columnas en una fila</t>
-  </si>
-  <si>
-    <t>ALEATORIO DATA</t>
+      <t>(titanic))*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>).sort_values(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ascending</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>ISNULL / RATIO</t>
+  </si>
+  <si>
+    <t>Cuenta los valores nulos por fila de todas las filas con nombre de la fila</t>
+  </si>
+  <si>
+    <t>Calcula el ratio de valores Nan de todas las columnas y lo da con los nombres/columna</t>
+  </si>
+  <si>
+    <t>PIVOT_TABLE</t>
+  </si>
+  <si>
+    <t>Cambio la disposicion de la tabla y calculo la suma de valores por los nuevos criterios</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>titanic_7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> = pd.pivot_table(titanic, values='survived', index=['pclass'],columns=['sex'], aggfunc=np.sum)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>titanic_7.loc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[:,"counted[total]"] =titanic_7.sum(axis=1)</t>
+    </r>
+  </si>
+  <si>
+    <t>SUM (AXIS=1)</t>
+  </si>
+  <si>
+    <t>Muestra en una columna que añade a la derecha la suma de los valores de la fila</t>
+  </si>
+  <si>
+    <t>DATOS CONDICION  con LOC</t>
+  </si>
+  <si>
+    <t>Creo una variable y guardo las posiciónes de la tabla en la cuales la columna señeccionada por LOC cumple la condición. Luego la data llama a esa posición Loc.</t>
+  </si>
+  <si>
+    <t>GRAFICAS</t>
+  </si>
+  <si>
+    <t>MATPLOTLIB</t>
+  </si>
+  <si>
+    <t>Representa el hitograma de una columna determonada</t>
   </si>
   <si>
     <r>
@@ -2442,144 +2801,690 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.sample(5,random_state=18326)</t>
-    </r>
-  </si>
-  <si>
-    <t>SAMPLE/RANDOM</t>
-  </si>
-  <si>
-    <t>titanic.sample(5,random_state=18326, axis=1)</t>
-  </si>
-  <si>
-    <t>Saca 5 filas aleatoriamente del DataFrame. Random_state=regs totales ( filas x colum)</t>
-  </si>
-  <si>
-    <t>Saco 5 columnas aleatoriamente</t>
-  </si>
-  <si>
-    <t>Creo data a pertir de una lista llamada cols</t>
-  </si>
-  <si>
-    <r>
-      <t>new_data=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>pd.DataFrame(cols)</t>
-    </r>
-  </si>
-  <si>
-    <t>MATRIZ BOOLEANA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>titanic_3=titanic.rename</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(columns={"sex":"gender"})</t>
-    </r>
-  </si>
-  <si>
-    <t>RENAME</t>
-  </si>
-  <si>
-    <t>Cambia el nombre de una columna</t>
-  </si>
-  <si>
-    <t>BOOLEANO</t>
-  </si>
-  <si>
-    <t>Crea una matriz array booleana con una condición sex== female</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>array_f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>e=titanic["sex"]=="female"</t>
-    </r>
-  </si>
-  <si>
-    <t>Filtro una matriz por una columna cumpliendo condicion con un booleano</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>woman_titanic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=titanic[titanic['gender'] == </t>
-    </r>
+      <t>["sex"].value_counts().plot(kind="bar",color=["b","r"],alpha=alpha_color)</t>
+    </r>
+  </si>
+  <si>
+    <t>data.sum() me da por columnas la suma  y si añado  sum( ) me suma la tabla entera</t>
+  </si>
+  <si>
+    <t>SUM( ).SUM ()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.sum().sum()</t>
+    </r>
+  </si>
+  <si>
+    <t>Calcula la cantidad de los valores no nulos por cada fila.</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>Calcula la cantidad de los valores  nulos por cada fila.</t>
+  </si>
+  <si>
+    <t>IST NULL</t>
+  </si>
+  <si>
+    <t>PERCENTILES</t>
+  </si>
+  <si>
+    <t>data.describe(percentiles=[ ])</t>
+  </si>
+  <si>
+    <t>Por defecto da los percs[0.25 0.50 0.75] pero puedo acotar y pedirle uno de ellos ej[0.25 ]</t>
+  </si>
+  <si>
+    <t>DESVIACION</t>
+  </si>
+  <si>
+    <t>day_stats['std'] = data.std(axis = 1)</t>
+  </si>
+  <si>
+    <t>Muestra la desviación por filas</t>
+  </si>
+  <si>
+    <t>day_stats['mean'] = data.mean(axis = 1</t>
+  </si>
+  <si>
+    <t>Muestra la media por filas</t>
+  </si>
+  <si>
+    <t>MEDAN</t>
+  </si>
+  <si>
+    <t>day_stats['max'] = data.max(axis = 1)</t>
+  </si>
+  <si>
+    <t>Muestra el máximo por filas</t>
+  </si>
+  <si>
+    <t>day_stats['min'] = data.min(axis = 1</t>
+  </si>
+  <si>
+    <t>Muestra el mínimo por filas</t>
+  </si>
+  <si>
+    <t>PARSE_DATES</t>
+  </si>
+  <si>
+    <t>Me une  columnas en una y le indico las posiciones de las columnas</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> = pd.read_csv(data_url, sep = "\s+", parse_dates=[[0,1,2]])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.isnull().sum()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a.notnull().sum()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Media =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chipo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.["item_price"].mean()                   Media.round(2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>titanic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>['age'].hist() </t>
+    </r>
+  </si>
+  <si>
+    <t>VALORES TRUE</t>
+  </si>
+  <si>
+    <t>FECHAS</t>
+  </si>
+  <si>
+    <t>Es como groupby para fechas</t>
+  </si>
+  <si>
+    <t>RESAMPLE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>weekly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> = data.resample(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>').agg(['min','max','mean','std'])</t>
+    </r>
+  </si>
+  <si>
+    <t>df=pd.read_csv(address)</t>
+  </si>
+  <si>
+    <t>Para los archivos separdos por comas no hace falta poner separador</t>
+  </si>
+  <si>
+    <t>LAMBDA MAYUSCULAS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>usuarios</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.tail( )</t>
+    </r>
+  </si>
+  <si>
+    <t>capitalizer = lambda x: x.capitalize()</t>
+  </si>
+  <si>
+    <t>is_male = titanic.loc[:,'sex'] == 'male'                                                              d1 = titanic.loc [is_male]</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'female'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <t>Muestra número de filas. Accedo por posición [0]</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>stud_alcoh</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>['Mjob'] = stud_alcoh['Mjob'].apply(capitalizer)</t>
+    </r>
+  </si>
+  <si>
+    <t>Muestra los géneros en dos columnas con rotulos male, female</t>
+  </si>
+  <si>
+    <t>Función lambda que devuelve True o false si los valores de una colum son &gt; que 17</t>
+  </si>
+  <si>
+    <t>Crea la columna legal_drinker y la añade a la tabla con los valores del lambda anterior</t>
+  </si>
+  <si>
+    <r>
+      <t>majority = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>lambda</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF001080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: (x &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>stud_alcoh</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>['legal_drinker'] = stud_alcoh['age'].apply(lambda x: (x &gt; 17))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> f=stud_alcoh</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[['Mjob', 'Fjob']].apply(lambda x: x.str.capitalize())</t>
+    </r>
+  </si>
+  <si>
+    <t>LAMBDA- APPLY-MAYUSCULAS</t>
+  </si>
+  <si>
+    <t>En dos posiciones aplica lambda anterior y convierte en mayusculas las columnas</t>
+  </si>
+  <si>
+    <t>En una posicion  aplica lambda  anterior y convierte en mayusculas la columna</t>
+  </si>
+  <si>
+    <t>LAMBDA -CONDICION VALORES</t>
+  </si>
+  <si>
+    <t>AÑADE UNA COLUMNA</t>
+  </si>
+  <si>
+    <t>Añade columna en la posición que indico y la igualo a un lambda que mete valores</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>stud_alcoh</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">['legal_drinker'] = LAMBDA </t>
+    </r>
+  </si>
+  <si>
+    <t>Función lambda que llama a la función de pandas capitalize que convierte en mayusculas</t>
+  </si>
+  <si>
+    <t>Multiplica tanto valores como strings por 10 en toda la tabla</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stud_alcoh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 10</t>
+    </r>
+  </si>
+  <si>
+    <t>DUPLICAR DATOS EN COLUM</t>
+  </si>
+  <si>
+    <t>Me combierte todos los datos de la colum a str y los duplica. Ej: 2=&gt;22   ab=&gt; abab</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>stud_alcoh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.applymap(lambda x: str(x)*2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>pd1 = stud_alcoh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.applymap(lambda x: str(x) + "_s")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>convierte todos los datos a str y añade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> _s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a la derecha de cada dato</t>
+    </r>
+  </si>
+  <si>
+    <t>AÑADIR A LA DRCHA  DE CADA VALOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULTIPLICAR </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stud_alcoh</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[stud_alcoh.select_dtypes(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>include</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=["number"]).columns] *= 10</t>
+    </r>
+  </si>
+  <si>
+    <t>Selecciona las columnas de la tabla con números y aplica multiplicación solo a esos valores</t>
+  </si>
+  <si>
+    <t>Muestra inform.  general de la data; COLUMNAS,DTYPE datos columnas NOT NULL COUNT.</t>
+  </si>
+  <si>
+    <t>La columna Year de crime la convierte en type datatime 64 formato "%Y" de year</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>crime.Yea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>r = pd.to_datetime(crime.Year, format=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'%Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>')</t>
+    </r>
+  </si>
+  <si>
+    <t>FECHA DE NUM=&gt;DATATIME64</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>euro12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.set_index('Team', inplace=True)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2600,8 +3505,135 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.dropna(how='any')</t>
-    </r>
+      <t>.drop(["name","sex","age"],axis=1)</t>
+    </r>
+  </si>
+  <si>
+    <t>RESETEO INDICE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>crime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.reset_index(drop=True, inplace=True)</t>
+    </r>
+  </si>
+  <si>
+    <t>Me quita el índice que había pero desaparece y me pone indice por defecto</t>
+  </si>
+  <si>
+    <r>
+      <t>population =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> crime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>['Population'].resample('10AS').max()</t>
+    </r>
+  </si>
+  <si>
+    <t>RESAMPLE  FRECUENCIA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>crime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.idxmax(0)</t>
+    </r>
+  </si>
+  <si>
+    <t>MAX               EN COLUMNA</t>
+  </si>
+  <si>
+    <t>MAX               EN FILA</t>
+  </si>
+  <si>
+    <t>MIN                 EN FILA</t>
+  </si>
+  <si>
+    <t>MAX               IDXMAX()</t>
+  </si>
+  <si>
+    <t>Muestra el máximo sobre el eje solicitado</t>
+  </si>
+  <si>
+    <t>plt.xticks(rotation="vertical)</t>
+  </si>
+  <si>
+    <t>Me gira las legendas a vertical en el eje</t>
+  </si>
+  <si>
+    <t>Muestra la gráfica</t>
+  </si>
+  <si>
+    <t>Crea la leyenda</t>
+  </si>
+  <si>
+    <t>Pone etiquetas al eje X</t>
+  </si>
+  <si>
+    <t>plt.xlabel("Lo que queramos")</t>
+  </si>
+  <si>
+    <t>Pone etiquetas al eje y</t>
+  </si>
+  <si>
+    <t>plt.legend( )</t>
+  </si>
+  <si>
+    <t>plt.show( )</t>
+  </si>
+  <si>
+    <t>reample es frecuencia,que le marquemos, toma valor de una columna en ese intervalo</t>
+  </si>
+  <si>
+    <t>Transformo en DataFrame. Sep="\t indica que el texto está separado con un tabulador</t>
+  </si>
+  <si>
+    <t>Transformo en DataFrame. Sep es el separador que usa para diferenciar las columnas y por donde está indexada con|</t>
   </si>
   <si>
     <r>
@@ -2622,14 +3654,48 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.dropna( )</t>
-    </r>
-  </si>
-  <si>
-    <t>DROPNA (FILAS)</t>
-  </si>
-  <si>
-    <t>Borra las filas donde falta algun alemeneto</t>
+      <t>.sample(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,random_state=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18326</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, axis=1)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2650,332 +3716,120 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.dropna(axis="columns" )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>titanic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.dropna(haw="all" )</t>
-    </r>
-  </si>
-  <si>
-    <t>Borra las columnas donde falta algún elemento</t>
-  </si>
-  <si>
-    <t>Borra las filas donde faltan todos los elementos</t>
-  </si>
-  <si>
-    <t>DROPNA (FILAS))</t>
-  </si>
-  <si>
-    <t>Borra las filas donde falta algún elemento</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>titanic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.dropna(thresh=2)</t>
-    </r>
-  </si>
-  <si>
-    <t>Mantiene las filas donde no faltan mas de dos elementos</t>
-  </si>
-  <si>
-    <t>ISNULL</t>
-  </si>
-  <si>
-    <t>VALORES NAN</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>titanic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.isnull().sum()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ratio_nan = ((titanic.isnull().sum() / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF795E26"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>len</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(titanic))*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF098658"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>).sort_values(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF001080"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ascending</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>False</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+      <t>.sample(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,random_state=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18326</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
-    <t>ISNULL / RATIO</t>
-  </si>
-  <si>
-    <t>Cuenta los valores nulos por fila de todas las filas con nombre de la fila</t>
-  </si>
-  <si>
-    <t>Calcula el ratio de valores Nan de todas las columnas y lo da con los nombres/columna</t>
-  </si>
-  <si>
-    <t>PIVOT_TABLE</t>
-  </si>
-  <si>
-    <t>Cambio la disposicion de la tabla y calculo la suma de valores por los nuevos criterios</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>titanic_7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> = pd.pivot_table(titanic, values='survived', index=['pclass'],columns=['sex'], aggfunc=np.sum)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>titanic_7.loc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[:,"counted[total]"] =titanic_7.sum(axis=1)</t>
-    </r>
-  </si>
-  <si>
-    <t>SUM (AXIS=1)</t>
-  </si>
-  <si>
-    <t>Muestra en una columna que añade a la derecha la suma de los valores de la fila</t>
-  </si>
-  <si>
-    <t>DATOS CONDICION  con LOC</t>
-  </si>
-  <si>
-    <r>
-      <t>is_male = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>titanic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.loc[:,'sex'] == 'male'                                                              d1 =</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> titanic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.loc [is_male]</t>
-    </r>
-  </si>
-  <si>
-    <t>Creo una variable y guardo las posiciónes de la tabla en la cuales la columna señeccionada por LOC cumple la condición. Luego la data llama a esa posición Loc.</t>
-  </si>
-  <si>
-    <t>GRAFICAS</t>
-  </si>
-  <si>
-    <t>MATPLOTLIB</t>
-  </si>
-  <si>
-    <t>titanic['age'].hist() </t>
-  </si>
-  <si>
-    <t>Representa el hitograma de una columna determonada</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>titanic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>["sex"].value_counts().plot(kind="bar",color=["b","r"],alpha=alpha_color)</t>
-    </r>
-  </si>
-  <si>
-    <t>Muestra los geberos en dos columnas con rotulos male, female</t>
+    <t>SAMPLE/  RANDOM</t>
+  </si>
+  <si>
+    <t>SAMPLE   /RANDOM</t>
+  </si>
+  <si>
+    <t>Me muestra 5 filas de la tabla seleccionadas de manera aleatoria</t>
+  </si>
+  <si>
+    <t>Me muestra 5 columnas de la tabla saleccionadas de manera aleatoria</t>
+  </si>
+  <si>
+    <t>Calcula  una lista de 398  nums aleatorios entre 15000 y 73001.. 398= nº filas nueva colum</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>owners</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> = np.random.randint(15000, high=73001, size=398)</t>
+    </r>
+  </si>
+  <si>
+    <t>RANDOM-RANDIT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cars_union["owners"]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> = pd.Series(np.random.randint(15000, 73000, size=len(cars_union)))</t>
+    </r>
+  </si>
+  <si>
+    <t>Anexo la nueva lista de nums aleatorios a la tabla y a la nueva column la llamo owners</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3124,8 +3978,51 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF001080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF098658"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3140,7 +4037,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3152,12 +4055,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3180,11 +4095,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3208,39 +4136,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3556,26 +4551,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265136A6-C067-4B28-9F45-A6266FF6FD67}">
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="83.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="86.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="88.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -3627,10 +4623,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3641,1054 +4637,1060 @@
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>108</v>
+        <v>295</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>69</v>
+      <c r="C7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>162</v>
+        <v>157</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="22" t="s">
+        <v>1</v>
+      </c>
       <c r="B10" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>235</v>
+        <v>157</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>221</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="C12" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>20</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>110</v>
+        <v>134</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>153</v>
+        <v>146</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>171</v>
+        <v>162</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>176</v>
+        <v>167</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>178</v>
+        <v>169</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>180</v>
+        <v>185</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>192</v>
+        <v>183</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>199</v>
+        <v>186</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>198</v>
+        <v>189</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>227</v>
+        <v>217</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>168</v>
+        <v>135</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>169</v>
+        <v>154</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>173</v>
+        <v>164</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>190</v>
+        <v>181</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>176</v>
+        <v>166</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>178</v>
+        <v>171</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>182</v>
+        <v>173</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>196</v>
+        <v>187</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>198</v>
+        <v>192</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>167</v>
+        <v>158</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>72</v>
+        <v>312</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>77</v>
+        <v>298</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>90</v>
+        <v>71</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>101</v>
+        <v>84</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>114</v>
+        <v>97</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>41</v>
+        <v>108</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="C59" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="D59" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>135</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>136</v>
+      <c r="A66" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>146</v>
+        <v>50</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>151</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="D69" s="40" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>218</v>
+        <v>127</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>239</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>267</v>
+        <v>50</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>266</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>37</v>
+        <v>288</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>127</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>105</v>
+        <v>50</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>86</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -4696,55 +5698,55 @@
         <v>2</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>91</v>
+        <v>317</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>202</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B84" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="C84" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="D84" s="46" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B85" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="C85" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="D85" s="43" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -4752,13 +5754,13 @@
         <v>2</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>206</v>
+        <v>33</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>205</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -4766,13 +5768,13 @@
         <v>2</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>207</v>
+        <v>34</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>208</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -4780,13 +5782,13 @@
         <v>2</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>211</v>
+        <v>58</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>210</v>
+        <v>57</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>212</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -4794,311 +5796,721 @@
         <v>2</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>269</v>
+        <v>342</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>268</v>
+        <v>338</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>270</v>
+        <v>343</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>130</v>
+        <v>339</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>222</v>
+        <v>339</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>223</v>
+        <v>340</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>220</v>
+        <v>279</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>221</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>248</v>
+        <v>341</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>248</v>
+        <v>103</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>252</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>251</v>
+        <v>40</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>253</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>254</v>
+        <v>60</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>246</v>
+        <v>61</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>255</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>257</v>
+        <v>2</v>
+      </c>
+      <c r="B97" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="C97" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="D97" s="37" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>216</v>
+        <v>2</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>213</v>
+        <v>87</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>228</v>
+        <v>2</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>230</v>
+        <v>89</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>228</v>
+        <v>2</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>230</v>
+        <v>91</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>231</v>
+        <v>90</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>233</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>240</v>
+        <v>2</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>236</v>
+        <v>91</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>240</v>
+        <v>2</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>236</v>
+        <v>91</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>259</v>
+        <v>2</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>260</v>
+        <v>278</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>276</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>259</v>
+        <v>2</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>261</v>
+        <v>199</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>264</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>274</v>
+        <v>2</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>275</v>
+        <v>203</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="D106" s="21" t="s">
-        <v>277</v>
+        <v>202</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C110" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="D110" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C107" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="6"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="6"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="6"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="6"/>
+      <c r="A111" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
+      <c r="A112" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
+      <c r="A113" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
+      <c r="A114" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="B124" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D98" xr:uid="{85ED3410-72EE-453D-8BB3-FB7E07F682B1}"/>
+  <autoFilter ref="A2:D133" xr:uid="{85ED3410-72EE-453D-8BB3-FB7E07F682B1}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -5106,4 +6518,833 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D5941C-FB78-4889-88FE-7F91BE6284E0}">
+  <dimension ref="A1:D134"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="83.5703125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="12"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="12"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="12"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="12"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="21"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="12"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="12"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="12"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="12"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="12"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="12"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="12"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="29"/>
+    </row>
+    <row r="62" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="29"/>
+    </row>
+    <row r="63" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="33"/>
+    </row>
+    <row r="64" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="33"/>
+    </row>
+    <row r="65" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="33"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="15"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="13"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="6"/>
+    </row>
+    <row r="79" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="10"/>
+    </row>
+    <row r="80" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="10"/>
+    </row>
+    <row r="81" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="10"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+    </row>
+    <row r="83" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="10"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="5"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="6"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="6"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="6"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="6"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="16"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tutoriales/pandas/Comandos Pandas.xlsx
+++ b/Tutoriales/pandas/Comandos Pandas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseMaría\Documents\CURSOS\data_science\mitrabajo\Mirepositorio\Tutoriales\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617DF95B-F3D9-4178-9C3B-36E185AA7BD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA3016B-9E68-4565-BBF6-4DDEF81B7ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF4018AA-EEB9-4756-B82D-183D37B3B80A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AF4018AA-EEB9-4756-B82D-183D37B3B80A}"/>
   </bookViews>
   <sheets>
     <sheet name="GENERALES" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="CONCEPTOS" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GENERALES!$A$2:$D$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GENERALES!$A$2:$D$203</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="590">
   <si>
     <t>FUNCIONES DE PANDAS</t>
   </si>
@@ -4180,9 +4180,6 @@
     <t>Para visualización de graficas</t>
   </si>
   <si>
-    <t>import matplotlib.pyplot as plt</t>
-  </si>
-  <si>
     <t>s.plot.bar(y="Quantity", stacked=True)</t>
   </si>
   <si>
@@ -5518,9 +5515,6 @@
       </rPr>
       <t>.sort_values(["quantity"],ascending=True)</t>
     </r>
-  </si>
-  <si>
-    <t>chipo_quantity.plot(kind='bar')                                     plt.xlabel('Item Name')                                       plt.ylabel('Quantity')                                                                                                           plt.title('Most boughts')                                                          plt.show()</t>
   </si>
   <si>
     <t>Diagrama tipo de barras con etiquetas y título</t>
@@ -5551,6 +5545,550 @@
   <si>
     <r>
       <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.set_index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>('App'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>).T.plot(kind='bar', stacked=True)</t>
+    </r>
+  </si>
+  <si>
+    <t>males = (titanic['Sex'] == 'male').sum()                                                                         females = (titanic['Sex'] == 'female').sum()                                                               proportions = [males, females]                                                                                   plt.pie(  proportions, labels = ['Males', 'Females'], shadow = False, colors = ['blue','red'],explode = (0.15 , 0),    autopct = '%1.1f%%'startangle = 90,plt.axis('equal')plt.title("Sex Proportion")plt.tight_layout()                              plt.show()</t>
+  </si>
+  <si>
+    <t>Diagrama de quesos con dos categorias</t>
+  </si>
+  <si>
+    <t>scatterplot diagrama de puntos</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lm = sns.lmplot(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF001080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Age'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF001080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Fare'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF001080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> titanic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF001080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Sex'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF001080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fit_reg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)                                                                                               lm.set(title = 'Fare x Age')                                                                                                                                                                                                                     axes = lm.axes                                                                                                                                                                                                                                             axes[0,0].set_ylim(-5,)                                                                                                                                                                                                        axes[0,0].set_xlim(-5,85)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df = titanic.Fare.sort_values(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF001080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ascending</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)                                                                                                                                                                           binsVal = np.arange(0,600,10)                                                                                                                                                                                                                           plt.hist(df, bins = binsVal)                                                                                                                                                                                                                         plt.xlabel('Fare')                                                                                                                                                                                                                                            plt.ylabel('Frequency')                                                                                                                                                                                                                                                 plt.title('Fare Payed Histrogram')                                                                                                                                                                                                        plt.show()</t>
+    </r>
+  </si>
+  <si>
+    <t>np arange (crea bins intervalo)  plt.hist (crea el plot)</t>
+  </si>
+  <si>
+    <t>Distribución de edades por generos</t>
+  </si>
+  <si>
+    <t>En horizontal diagrama de barras</t>
+  </si>
+  <si>
+    <t>Muestra de generos en dos columnas</t>
+  </si>
+  <si>
+    <r>
+      <t>appl_open =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> apple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Adj Close</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'].plot(title = "Apple Stock")                                                                                                    fig = appl_open.get_figure ()                                                                                                          fig.set_size_inches(13.5, 9)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>revenue_per_price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.plot()                                                                                                                                  plt.xlabel('Unit Price (in intervals of '+str(price_interval)+')')                                                                      plt.ylabel('Revenue')                                                                                                                                                                            plt.show()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>plt.bar(chipo_quantity.index, chipo_quantity.quantity,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>label=0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>color="red</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">")   plt.legend()                                                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>plt.xticks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(rotation="vertical")                                                                                                                             plt.ylabel("-label")                                                                                                                          plt.xlabel("100000label")                                                                                                                                   plt.show()</t>
+    </r>
+  </si>
+  <si>
+    <t>LEN  COLUMNS</t>
+  </si>
+  <si>
+    <t>Agrupo la tabla por columna ("age) y  count saca los valores sin los nulos. Da una cifra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cada valor toma como uno, cuenta valores Ej Cuantes edades hay?   Toma valores que no se repiten como 50,60,40 cont count son 3, no incluye los Nan. Además me </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Muestra los valores con todos los elementos de la columna indicando cuantas veces se repiten cada uno.                                                                                                   Ej [1123344455] devuelve: 1-2 , 2-1,3-2,4-3,5-2   Ejemplo cual es el plato más pedido, como se habrá pedido varias veces cada plato, agrupa nombre del plato con el número de veces que se ha pedido cada uno en la serie.</t>
+  </si>
+  <si>
+    <t>DATAFRAME  ULTIMAS FILAS  PONER LAS PRIMERAS</t>
+  </si>
+  <si>
+    <t>CAMBIA LAS COLUMNAS DE LA DCHA A LA IZDA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.loc[:, ::-1]</t>
+    </r>
+  </si>
+  <si>
+    <t>day_stats['mean'] = data.mean(axis = 1)</t>
+  </si>
+  <si>
+    <t>titanic_7 = pd.pivot_table(titanic, values='survived', index=['pclass'],columns=['sex'], aggfunc=np.sum)</t>
+  </si>
+  <si>
+    <t>df_2=df.pivot_table("new_deaths",index=["date"],columns=['location'])</t>
+  </si>
+  <si>
+    <t>Cambio indice "location a columnas, cambio columna "date a indice  y tome los valores de new_deaths</t>
+  </si>
+  <si>
+    <t>GROUPBAY + SUM</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>usuarios_age=usuarios</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.groupby("name").sum()</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Agrupo la tabla por colum ("name) y .SUM saca los valores fila por fila. </t>
+  </si>
+  <si>
+    <t>df_2['mean']=df_2.mean(axis=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Añade una columna que llamo "mean"con el calculo de  la media </t>
+  </si>
+  <si>
+    <t>chipo.columns</t>
+  </si>
+  <si>
+    <t>chipo.shape</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="18"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -5617,7 +6155,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">drop("United Kingdom", axis=0)                                                                                </t>
+      <t xml:space="preserve">drop("United Kingdom", axis=0)                                                                                                                      </t>
     </r>
     <r>
       <rPr>
@@ -5671,555 +6209,32 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>df</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.set_index</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>('App'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>).T.plot(kind='bar', stacked=True)</t>
-    </r>
-  </si>
-  <si>
-    <t>males = (titanic['Sex'] == 'male').sum()                                                                         females = (titanic['Sex'] == 'female').sum()                                                               proportions = [males, females]                                                                                   plt.pie(  proportions, labels = ['Males', 'Females'], shadow = False, colors = ['blue','red'],explode = (0.15 , 0),    autopct = '%1.1f%%'startangle = 90,plt.axis('equal')plt.title("Sex Proportion")plt.tight_layout()                              plt.show()</t>
-  </si>
-  <si>
-    <t>Diagrama de quesos con dos categorias</t>
-  </si>
-  <si>
-    <t>scatterplot diagrama de puntos</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lm = sns.lmplot(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF001080"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Age'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF001080"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Fare'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF001080"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> =</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> titanic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF001080"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Sex'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF001080"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fit_reg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>False</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)                                                                                               lm.set(title = 'Fare x Age')                                                                                                                                                                                                                     axes = lm.axes                                                                                                                                                                                                                                             axes[0,0].set_ylim(-5,)                                                                                                                                                                                                        axes[0,0].set_xlim(-5,85)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>df = titanic.Fare.sort_values(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF001080"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ascending</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>False</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)                                                                                                                                                                           binsVal = np.arange(0,600,10)                                                                                                                                                                                                                           plt.hist(df, bins = binsVal)                                                                                                                                                                                                                         plt.xlabel('Fare')                                                                                                                                                                                                                                            plt.ylabel('Frequency')                                                                                                                                                                                                                                                 plt.title('Fare Payed Histrogram')                                                                                                                                                                                                        plt.show()</t>
-    </r>
-  </si>
-  <si>
-    <t>np arange (crea bins intervalo)  plt.hist (crea el plot)</t>
-  </si>
-  <si>
-    <t>Distribución de edades por generos</t>
-  </si>
-  <si>
-    <t>En horizontal diagrama de barras</t>
-  </si>
-  <si>
-    <t>Muestra de generos en dos columnas</t>
-  </si>
-  <si>
-    <r>
-      <t>appl_open =</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> apple</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>'Adj Close</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>'].plot(title = "Apple Stock")                                                                                                    fig = appl_open.get_figure ()                                                                                                          fig.set_size_inches(13.5, 9)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>revenue_per_price</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.plot()                                                                                                                                  plt.xlabel('Unit Price (in intervals of '+str(price_interval)+')')                                                                      plt.ylabel('Revenue')                                                                                                                                                                            plt.show()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>plt.bar(chipo_quantity.index, chipo_quantity.quantity,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>label=0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>color="red</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">")   plt.legend()                                                                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>plt.xticks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(rotation="vertical")                                                                                                                             plt.ylabel("-label")                                                                                                                          plt.xlabel("100000label")                                                                                                                                   plt.show()</t>
-    </r>
-  </si>
-  <si>
-    <t>LEN  COLUMNS</t>
-  </si>
-  <si>
-    <t>Agrupo la tabla por columna ("age) y  count saca los valores sin los nulos. Da una cifra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cada valor toma como uno, cuenta valores Ej Cuantes edades hay?   Toma valores que no se repiten como 50,60,40 cont count son 3, no incluye los Nan. Además me </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Muestra los valores con todos los elementos de la columna indicando cuantas veces se repiten cada uno.                                                                                                   Ej [1123344455] devuelve: 1-2 , 2-1,3-2,4-3,5-2   Ejemplo cual es el plato más pedido, como se habrá pedido varias veces cada plato, agrupa nombre del plato con el número de veces que se ha pedido cada uno en la serie.</t>
-  </si>
-  <si>
-    <t>DATAFRAME  ULTIMAS FILAS  PONER LAS PRIMERAS</t>
-  </si>
-  <si>
-    <t>CAMBIA LAS COLUMNAS DE LA DCHA A LA IZDA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>df</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.loc[:, ::-1]</t>
-    </r>
-  </si>
-  <si>
-    <t>day_stats['mean'] = data.mean(axis = 1)</t>
-  </si>
-  <si>
-    <t>titanic_7 = pd.pivot_table(titanic, values='survived', index=['pclass'],columns=['sex'], aggfunc=np.sum)</t>
-  </si>
-  <si>
-    <t>df_2=df.pivot_table("new_deaths",index=["date"],columns=['location'])</t>
-  </si>
-  <si>
-    <t>Cambio indice "location a columnas, cambio columna "date a indice  y tome los valores de new_deaths</t>
-  </si>
-  <si>
-    <t>GROUPBAY + SUM</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>usuarios_age=usuarios</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.groupby("name").sum()</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Agrupo la tabla por colum ("name) y .SUM saca los valores fila por fila. </t>
-  </si>
-  <si>
-    <t>df_2['mean']=df_2.mean(axis=1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Añade una columna que llamo "mean"con el calculo de  la media </t>
-  </si>
-  <si>
-    <t>chipo.columns</t>
-  </si>
-  <si>
-    <t>chipo.shape</t>
+    <t>chipo_quantity.plot(kind='bar')                                                               plt.xlabel('Item Name')                                                           plt.ylabel('Quantity')                                                                                                           plt.title('Most boughts')                                                          plt.show()</t>
+  </si>
+  <si>
+    <t>import matplotlib.pyplot as plt</t>
+  </si>
+  <si>
+    <t>df = df.drop(df[df.score &lt; 50].index)</t>
+  </si>
+  <si>
+    <t>Eliminar todas las filas donde la columna 'puntuación' es &lt;50:</t>
+  </si>
+  <si>
+    <t>def.loc[~(def==0).all(axis=1)]</t>
+  </si>
+  <si>
+    <t>Eliminamos las filas cuyos valores son 0 en todas sus columnas</t>
+  </si>
+  <si>
+    <t>BORRAR CON CODICION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="57">
+  <fonts count="58">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6591,6 +6606,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="20">
     <fill>
@@ -6744,7 +6766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7153,6 +7175,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7171,8 +7196,9 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7539,7 +7565,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13287375" y="13848182"/>
+          <a:off x="15297150" y="16454857"/>
           <a:ext cx="2635250" cy="2178866"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7627,7 +7653,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13242015" y="29797375"/>
+          <a:off x="15251790" y="53397150"/>
           <a:ext cx="3054150" cy="1698625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8111,7 +8137,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13197747" y="10985501"/>
+          <a:off x="15207522" y="13598526"/>
           <a:ext cx="2841866" cy="2286000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8993,10 +9019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265136A6-C067-4B28-9F45-A6266FF6FD67}">
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A43" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9008,16 +9034,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="103" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2" s="88" t="s">
         <v>2</v>
@@ -9031,7 +9057,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="103" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B3" s="88" t="s">
         <v>2</v>
@@ -9045,7 +9071,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="103" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B4" s="88" t="s">
         <v>2</v>
@@ -9059,7 +9085,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="103" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B5" s="88" t="s">
         <v>2</v>
@@ -9073,7 +9099,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="103" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B6" s="88" t="s">
         <v>2</v>
@@ -9087,7 +9113,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="103" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B7" s="88" t="s">
         <v>2</v>
@@ -9101,13 +9127,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="103" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B8" s="88" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>411</v>
+        <v>584</v>
       </c>
       <c r="D8" s="90" t="s">
         <v>410</v>
@@ -9115,10 +9141,10 @@
     </row>
     <row r="9" spans="1:4" s="4" customFormat="1">
       <c r="A9" s="91" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C9" s="128" t="s">
         <v>4</v>
@@ -9129,13 +9155,13 @@
     </row>
     <row r="10" spans="1:4" s="4" customFormat="1">
       <c r="A10" s="91" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D10" s="128" t="s">
         <v>313</v>
@@ -9143,10 +9169,10 @@
     </row>
     <row r="11" spans="1:4" s="4" customFormat="1">
       <c r="A11" s="91" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B11" s="97" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C11" s="69" t="s">
         <v>373</v>
@@ -9157,10 +9183,10 @@
     </row>
     <row r="12" spans="1:4" s="4" customFormat="1" ht="30">
       <c r="A12" s="91" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C12" s="92" t="s">
         <v>378</v>
@@ -9171,10 +9197,10 @@
     </row>
     <row r="13" spans="1:4" s="4" customFormat="1">
       <c r="A13" s="91" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>257</v>
@@ -9185,10 +9211,10 @@
     </row>
     <row r="14" spans="1:4" s="4" customFormat="1">
       <c r="A14" s="91" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C14" s="69" t="s">
         <v>88</v>
@@ -9199,10 +9225,10 @@
     </row>
     <row r="15" spans="1:4" s="3" customFormat="1" ht="30">
       <c r="A15" s="91" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C15" s="94" t="s">
         <v>55</v>
@@ -9213,10 +9239,10 @@
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" s="91" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B16" s="97" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C16" s="96" t="s">
         <v>327</v>
@@ -9227,10 +9253,10 @@
     </row>
     <row r="17" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="91" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B17" s="97" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C17" s="96" t="s">
         <v>190</v>
@@ -9244,7 +9270,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="98" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C18" s="99" t="s">
         <v>10</v>
@@ -9258,10 +9284,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>472</v>
-      </c>
-      <c r="C19" s="183" t="s">
-        <v>584</v>
+        <v>471</v>
+      </c>
+      <c r="C19" s="177" t="s">
+        <v>581</v>
       </c>
       <c r="D19" s="99" t="s">
         <v>12</v>
@@ -9272,7 +9298,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="98" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C20" s="99" t="s">
         <v>15</v>
@@ -9286,7 +9312,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="98" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C21" s="99" t="s">
         <v>63</v>
@@ -9300,7 +9326,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="98" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C22" s="99" t="s">
         <v>13</v>
@@ -9314,7 +9340,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="98" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C23" s="99" t="s">
         <v>64</v>
@@ -9339,7 +9365,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="100" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B25" s="102" t="s">
         <v>33</v>
@@ -9353,7 +9379,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="100" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B26" s="102" t="s">
         <v>33</v>
@@ -9367,16 +9393,16 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="100" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B27" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="182" t="s">
-        <v>583</v>
+      <c r="C27" s="176" t="s">
+        <v>580</v>
       </c>
       <c r="D27" s="101" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -9384,13 +9410,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="102" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C28" s="101" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D28" s="101" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -9398,21 +9424,21 @@
         <v>8</v>
       </c>
       <c r="B29" s="102" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C29" s="101" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D29" s="101" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="3" customFormat="1">
       <c r="A30" s="148" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B30" s="151" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C30" s="149" t="s">
         <v>280</v>
@@ -9423,10 +9449,10 @@
     </row>
     <row r="31" spans="1:4" s="3" customFormat="1">
       <c r="A31" s="148" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B31" s="151" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C31" s="149" t="s">
         <v>281</v>
@@ -9437,24 +9463,24 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="148" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B32" s="102" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C32" s="101" t="s">
+        <v>517</v>
+      </c>
+      <c r="D32" s="101" t="s">
         <v>518</v>
-      </c>
-      <c r="D32" s="101" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="61" t="s">
+        <v>480</v>
+      </c>
+      <c r="B33" s="72" t="s">
         <v>481</v>
-      </c>
-      <c r="B33" s="72" t="s">
-        <v>482</v>
       </c>
       <c r="C33" s="86" t="s">
         <v>18</v>
@@ -9465,7 +9491,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="61" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B34" s="72" t="s">
         <v>56</v>
@@ -9479,7 +9505,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="61" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B35" s="72" t="s">
         <v>60</v>
@@ -9493,7 +9519,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="61" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B36" s="72" t="s">
         <v>60</v>
@@ -9507,10 +9533,10 @@
     </row>
     <row r="37" spans="1:4" s="3" customFormat="1" ht="29.25" customHeight="1">
       <c r="A37" s="142" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B37" s="130" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>181</v>
@@ -9521,33 +9547,33 @@
     </row>
     <row r="38" spans="1:4" s="3" customFormat="1" ht="30">
       <c r="A38" s="142" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B38" s="130" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C38" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>457</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="61" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B39" s="72" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C39" s="86" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D39" s="104"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="61" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B40" s="72" t="s">
         <v>6</v>
@@ -9561,7 +9587,7 @@
     </row>
     <row r="41" spans="1:4" s="108" customFormat="1" ht="14.25" customHeight="1">
       <c r="A41" s="61" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B41" s="72" t="s">
         <v>114</v>
@@ -9575,7 +9601,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="61" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B42" s="72" t="s">
         <v>114</v>
@@ -9589,7 +9615,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="61" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B43" s="72" t="s">
         <v>114</v>
@@ -9603,7 +9629,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="61" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B44" s="72" t="s">
         <v>92</v>
@@ -9617,7 +9643,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="143" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B45" s="72" t="s">
         <v>273</v>
@@ -9631,7 +9657,7 @@
     </row>
     <row r="46" spans="1:4" s="4" customFormat="1" ht="30">
       <c r="A46" s="143" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B46" s="73" t="s">
         <v>273</v>
@@ -9645,21 +9671,21 @@
     </row>
     <row r="47" spans="1:4" s="4" customFormat="1">
       <c r="A47" s="143" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B47" s="73" t="s">
         <v>273</v>
       </c>
       <c r="C47" s="144" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D47" s="145" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="3" customFormat="1">
       <c r="A48" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>245</v>
@@ -9673,7 +9699,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="61" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B49" s="72" t="s">
         <v>347</v>
@@ -9687,7 +9713,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="61" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B50" s="72" t="s">
         <v>351</v>
@@ -9704,7 +9730,7 @@
         <v>39</v>
       </c>
       <c r="B51" s="72" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C51" s="62" t="s">
         <v>381</v>
@@ -9715,10 +9741,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="61" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B52" s="72" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C52" s="86" t="s">
         <v>67</v>
@@ -9729,7 +9755,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="61" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B53" s="72" t="s">
         <v>6</v>
@@ -9743,7 +9769,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="61" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B54" s="72" t="s">
         <v>6</v>
@@ -9752,12 +9778,12 @@
         <v>125</v>
       </c>
       <c r="D54" s="104" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="61" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B55" s="72" t="s">
         <v>6</v>
@@ -9771,7 +9797,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="61" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B56" s="72" t="s">
         <v>6</v>
@@ -9785,7 +9811,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="61" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B57" s="72" t="s">
         <v>6</v>
@@ -9799,7 +9825,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="61" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B58" s="72" t="s">
         <v>6</v>
@@ -9813,7 +9839,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="61" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B59" s="72" t="s">
         <v>114</v>
@@ -9827,7 +9853,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="61" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B60" s="72" t="s">
         <v>114</v>
@@ -9841,7 +9867,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="61" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B61" s="72" t="s">
         <v>114</v>
@@ -9855,7 +9881,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="61" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B62" s="72" t="s">
         <v>114</v>
@@ -9869,7 +9895,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="61" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B63" s="72" t="s">
         <v>114</v>
@@ -9883,7 +9909,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="61" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B64" s="72" t="s">
         <v>114</v>
@@ -9897,7 +9923,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="61" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B65" s="72" t="s">
         <v>114</v>
@@ -9911,10 +9937,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="105" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B66" s="110" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C66" s="106" t="s">
         <v>156</v>
@@ -9925,10 +9951,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="105" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B67" s="110" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C67" s="106" t="s">
         <v>159</v>
@@ -9939,10 +9965,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="105" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B68" s="110" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C68" s="106" t="s">
         <v>162</v>
@@ -9953,10 +9979,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="105" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B69" s="110" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C69" s="147" t="s">
         <v>94</v>
@@ -9967,7 +9993,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="105" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B70" s="110" t="s">
         <v>186</v>
@@ -9981,7 +10007,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="105" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B71" s="110" t="s">
         <v>114</v>
@@ -9995,7 +10021,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="105" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B72" s="110" t="s">
         <v>114</v>
@@ -10009,10 +10035,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="105" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B73" s="110" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C73" s="147" t="s">
         <v>96</v>
@@ -10023,10 +10049,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="105" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B74" s="110" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C74" s="147" t="s">
         <v>250</v>
@@ -10037,7 +10063,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="80" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B75" s="77" t="s">
         <v>71</v>
@@ -10051,7 +10077,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="80" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B76" s="77" t="s">
         <v>84</v>
@@ -10065,7 +10091,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B77" s="77" t="s">
         <v>390</v>
@@ -10079,7 +10105,7 @@
     </row>
     <row r="78" spans="1:4" s="4" customFormat="1" ht="30">
       <c r="A78" s="125" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B78" s="126" t="s">
         <v>45</v>
@@ -10093,13 +10119,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B79" s="77" t="s">
         <v>118</v>
       </c>
       <c r="C79" s="78" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D79" s="78" t="s">
         <v>28</v>
@@ -10107,13 +10133,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B80" s="77" t="s">
         <v>26</v>
       </c>
       <c r="C80" s="78" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D80" s="78" t="s">
         <v>117</v>
@@ -10121,7 +10147,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B81" s="77" t="s">
         <v>26</v>
@@ -10135,7 +10161,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="80" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B82" s="77" t="s">
         <v>53</v>
@@ -10149,7 +10175,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="80" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B83" s="77" t="s">
         <v>122</v>
@@ -10197,7 +10223,7 @@
         <v>214</v>
       </c>
       <c r="C86" s="79" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D86" s="78" t="s">
         <v>216</v>
@@ -10222,13 +10248,13 @@
         <v>212</v>
       </c>
       <c r="B88" s="77" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C88" s="78" t="s">
+        <v>533</v>
+      </c>
+      <c r="D88" s="78" t="s">
         <v>534</v>
-      </c>
-      <c r="D88" s="78" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -10236,13 +10262,13 @@
         <v>212</v>
       </c>
       <c r="B89" s="77" t="s">
+        <v>537</v>
+      </c>
+      <c r="C89" s="78" t="s">
+        <v>536</v>
+      </c>
+      <c r="D89" s="78" t="s">
         <v>538</v>
-      </c>
-      <c r="C89" s="78" t="s">
-        <v>537</v>
-      </c>
-      <c r="D89" s="78" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -10250,13 +10276,13 @@
         <v>212</v>
       </c>
       <c r="B90" s="77" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C90" s="78" t="s">
+        <v>539</v>
+      </c>
+      <c r="D90" s="78" t="s">
         <v>540</v>
-      </c>
-      <c r="D90" s="78" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -10264,13 +10290,13 @@
         <v>212</v>
       </c>
       <c r="B91" s="77" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C91" s="78" t="s">
+        <v>542</v>
+      </c>
+      <c r="D91" s="78" t="s">
         <v>543</v>
-      </c>
-      <c r="D91" s="78" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -10278,13 +10304,13 @@
         <v>361</v>
       </c>
       <c r="B92" s="175" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C92" s="174" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D92" s="82" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -10298,7 +10324,7 @@
         <v>78</v>
       </c>
       <c r="D93" s="82" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -10359,7 +10385,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="115" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B98" s="114" t="s">
         <v>40</v>
@@ -10373,7 +10399,7 @@
     </row>
     <row r="99" spans="1:4" s="3" customFormat="1">
       <c r="A99" s="115" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B99" s="146" t="s">
         <v>272</v>
@@ -10387,7 +10413,7 @@
     </row>
     <row r="100" spans="1:4" s="3" customFormat="1">
       <c r="A100" s="115" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B100" s="146" t="s">
         <v>272</v>
@@ -10401,7 +10427,7 @@
     </row>
     <row r="101" spans="1:4" s="3" customFormat="1">
       <c r="A101" s="115" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B101" s="146" t="s">
         <v>259</v>
@@ -10415,7 +10441,7 @@
     </row>
     <row r="102" spans="1:4" s="3" customFormat="1">
       <c r="A102" s="115" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B102" s="146" t="s">
         <v>269</v>
@@ -10429,7 +10455,7 @@
     </row>
     <row r="103" spans="1:4" s="3" customFormat="1">
       <c r="A103" s="115" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B103" s="146" t="s">
         <v>269</v>
@@ -10443,13 +10469,13 @@
     </row>
     <row r="104" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
       <c r="A104" s="120" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B104" s="121" t="s">
         <v>222</v>
       </c>
       <c r="C104" s="122" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D104" s="123" t="s">
         <v>223</v>
@@ -10457,7 +10483,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="120" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B105" s="36" t="s">
         <v>149</v>
@@ -10471,7 +10497,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="120" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B106" s="36" t="s">
         <v>150</v>
@@ -10485,7 +10511,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="120" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B107" s="36" t="s">
         <v>151</v>
@@ -10499,7 +10525,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="120" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B108" s="36" t="s">
         <v>148</v>
@@ -10513,13 +10539,13 @@
     </row>
     <row r="109" spans="1:4" ht="15.75">
       <c r="A109" s="168" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B109" s="168" t="s">
         <v>217</v>
       </c>
       <c r="C109" s="172" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D109" s="169" t="s">
         <v>218</v>
@@ -10527,16 +10553,16 @@
     </row>
     <row r="110" spans="1:4" ht="30">
       <c r="A110" s="170" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B110" s="170" t="s">
         <v>217</v>
       </c>
       <c r="C110" s="173" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D110" s="171" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="111" spans="1:4" s="3" customFormat="1">
@@ -10754,7 +10780,7 @@
         <v>1</v>
       </c>
       <c r="B126" s="72" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C126" s="62" t="s">
         <v>69</v>
@@ -10768,7 +10794,7 @@
         <v>1</v>
       </c>
       <c r="B127" s="72" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C127" s="62" t="s">
         <v>73</v>
@@ -10782,7 +10808,7 @@
         <v>1</v>
       </c>
       <c r="B128" s="72" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C128" s="62" t="s">
         <v>169</v>
@@ -10841,7 +10867,7 @@
         <v>76</v>
       </c>
       <c r="C132" s="85" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D132" s="62" t="s">
         <v>240</v>
@@ -10992,13 +11018,13 @@
         <v>80</v>
       </c>
       <c r="B143" s="83" t="s">
+        <v>426</v>
+      </c>
+      <c r="C143" s="82" t="s">
         <v>427</v>
       </c>
-      <c r="C143" s="82" t="s">
-        <v>428</v>
-      </c>
       <c r="D143" s="82" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -11057,46 +11083,46 @@
         <v>208</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" ht="15.75">
       <c r="A148" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="B148" s="131" t="s">
+      <c r="B148" s="83" t="s">
         <v>207</v>
       </c>
-      <c r="C148" s="132" t="s">
+      <c r="C148" s="82" t="s">
+        <v>585</v>
+      </c>
+      <c r="D148" s="178" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B149" s="83" t="s">
+        <v>589</v>
+      </c>
+      <c r="C149" s="82" t="s">
+        <v>587</v>
+      </c>
+      <c r="D149" s="185" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B150" s="131" t="s">
+        <v>207</v>
+      </c>
+      <c r="C150" s="132" t="s">
         <v>209</v>
       </c>
-      <c r="D148" s="132" t="s">
+      <c r="D150" s="132" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="B149" s="71" t="s">
-        <v>514</v>
-      </c>
-      <c r="C149" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="D149" s="70" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="B150" s="71" t="s">
-        <v>514</v>
-      </c>
-      <c r="C150" s="70" t="s">
-        <v>517</v>
-      </c>
-      <c r="D150" s="70" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -11104,13 +11130,13 @@
         <v>8</v>
       </c>
       <c r="B151" s="71" t="s">
+        <v>513</v>
+      </c>
+      <c r="C151" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="D151" s="70" t="s">
         <v>514</v>
-      </c>
-      <c r="C151" s="70" t="s">
-        <v>524</v>
-      </c>
-      <c r="D151" s="70" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -11118,13 +11144,13 @@
         <v>8</v>
       </c>
       <c r="B152" s="71" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C152" s="70" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D152" s="70" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -11132,13 +11158,13 @@
         <v>8</v>
       </c>
       <c r="B153" s="71" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
       <c r="C153" s="70" t="s">
-        <v>290</v>
+        <v>523</v>
       </c>
       <c r="D153" s="70" t="s">
-        <v>450</v>
+        <v>522</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -11146,13 +11172,13 @@
         <v>8</v>
       </c>
       <c r="B154" s="71" t="s">
-        <v>455</v>
+        <v>520</v>
       </c>
       <c r="C154" s="70" t="s">
-        <v>456</v>
+        <v>517</v>
       </c>
       <c r="D154" s="70" t="s">
-        <v>454</v>
+        <v>518</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -11160,13 +11186,13 @@
         <v>8</v>
       </c>
       <c r="B155" s="71" t="s">
-        <v>292</v>
+        <v>454</v>
       </c>
       <c r="C155" s="70" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D155" s="70" t="s">
-        <v>294</v>
+        <v>449</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -11174,13 +11200,13 @@
         <v>8</v>
       </c>
       <c r="B156" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" s="69" t="s">
-        <v>9</v>
+        <v>454</v>
+      </c>
+      <c r="C156" s="70" t="s">
+        <v>455</v>
       </c>
       <c r="D156" s="70" t="s">
-        <v>11</v>
+        <v>453</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -11188,13 +11214,13 @@
         <v>8</v>
       </c>
       <c r="B157" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="69" t="s">
-        <v>20</v>
+        <v>292</v>
+      </c>
+      <c r="C157" s="70" t="s">
+        <v>293</v>
       </c>
       <c r="D157" s="70" t="s">
-        <v>65</v>
+        <v>294</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -11205,10 +11231,10 @@
         <v>8</v>
       </c>
       <c r="C158" s="69" t="s">
-        <v>394</v>
+        <v>9</v>
       </c>
       <c r="D158" s="70" t="s">
-        <v>395</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -11219,10 +11245,10 @@
         <v>8</v>
       </c>
       <c r="C159" s="69" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D159" s="70" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -11233,10 +11259,10 @@
         <v>8</v>
       </c>
       <c r="C160" s="69" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="D160" s="70" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -11247,10 +11273,10 @@
         <v>8</v>
       </c>
       <c r="C161" s="69" t="s">
-        <v>365</v>
+        <v>9</v>
       </c>
       <c r="D161" s="70" t="s">
-        <v>366</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -11258,13 +11284,13 @@
         <v>8</v>
       </c>
       <c r="B162" s="71" t="s">
-        <v>445</v>
+        <v>8</v>
       </c>
       <c r="C162" s="69" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D162" s="70" t="s">
-        <v>444</v>
+        <v>364</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -11272,97 +11298,97 @@
         <v>8</v>
       </c>
       <c r="B163" s="71" t="s">
-        <v>445</v>
+        <v>8</v>
       </c>
       <c r="C163" s="69" t="s">
         <v>365</v>
       </c>
       <c r="D163" s="70" t="s">
-        <v>446</v>
+        <v>366</v>
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="72" t="s">
-        <v>331</v>
-      </c>
-      <c r="B164" s="61" t="s">
-        <v>509</v>
-      </c>
-      <c r="C164" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="D164" s="62" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A165" s="72" t="s">
-        <v>331</v>
-      </c>
-      <c r="B165" s="130" t="s">
-        <v>439</v>
-      </c>
-      <c r="C165" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="D165" s="13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" s="3" customFormat="1" ht="30">
+      <c r="A164" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" s="71" t="s">
+        <v>444</v>
+      </c>
+      <c r="C164" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="D164" s="70" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" s="71" t="s">
+        <v>444</v>
+      </c>
+      <c r="C165" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="D165" s="70" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="72" t="s">
         <v>331</v>
       </c>
-      <c r="B166" s="130" t="s">
-        <v>439</v>
-      </c>
-      <c r="C166" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="D166" s="13" t="s">
+      <c r="B166" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="C166" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="D166" s="62" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A167" s="72" t="s">
+        <v>331</v>
+      </c>
+      <c r="B167" s="130" t="s">
+        <v>438</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="D167" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" s="3" customFormat="1" ht="30">
+      <c r="A168" s="72" t="s">
+        <v>331</v>
+      </c>
+      <c r="B168" s="130" t="s">
+        <v>438</v>
+      </c>
+      <c r="C168" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="D168" s="13" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="167" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A167" s="73" t="s">
-        <v>331</v>
-      </c>
-      <c r="B167" s="130" t="s">
-        <v>439</v>
-      </c>
-      <c r="C167" s="63" t="s">
-        <v>353</v>
-      </c>
-      <c r="D167" s="13" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A168" s="73" t="s">
-        <v>331</v>
-      </c>
-      <c r="B168" s="130" t="s">
-        <v>439</v>
-      </c>
-      <c r="C168" s="63" t="s">
-        <v>430</v>
-      </c>
-      <c r="D168" s="13" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" s="3" customFormat="1" ht="76.5" customHeight="1">
+    <row r="169" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
       <c r="A169" s="73" t="s">
         <v>331</v>
       </c>
       <c r="B169" s="130" t="s">
-        <v>510</v>
-      </c>
-      <c r="C169" s="13" t="s">
-        <v>334</v>
+        <v>438</v>
+      </c>
+      <c r="C169" s="63" t="s">
+        <v>353</v>
       </c>
       <c r="D169" s="13" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
     </row>
     <row r="170" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
@@ -11370,55 +11396,55 @@
         <v>331</v>
       </c>
       <c r="B170" s="130" t="s">
-        <v>511</v>
-      </c>
-      <c r="C170" s="13" t="s">
-        <v>335</v>
+        <v>438</v>
+      </c>
+      <c r="C170" s="63" t="s">
+        <v>429</v>
       </c>
       <c r="D170" s="13" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" s="3" customFormat="1" ht="76.5" customHeight="1">
       <c r="A171" s="73" t="s">
         <v>331</v>
       </c>
       <c r="B171" s="130" t="s">
+        <v>509</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D171" s="13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A172" s="73" t="s">
+        <v>331</v>
+      </c>
+      <c r="B172" s="130" t="s">
+        <v>510</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="D172" s="13" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A173" s="73" t="s">
+        <v>331</v>
+      </c>
+      <c r="B173" s="130" t="s">
+        <v>431</v>
+      </c>
+      <c r="C173" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="C171" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="D171" s="13" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="75" t="s">
-        <v>189</v>
-      </c>
-      <c r="B172" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="C172" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="D172" s="12" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A173" s="75" t="s">
-        <v>189</v>
-      </c>
-      <c r="B173" s="64" t="s">
-        <v>322</v>
-      </c>
-      <c r="C173" s="65" t="s">
-        <v>434</v>
-      </c>
-      <c r="D173" s="66" t="s">
-        <v>435</v>
+      <c r="D173" s="13" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -11429,192 +11455,192 @@
         <v>322</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
       <c r="A175" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="B175" s="11" t="s">
+      <c r="B175" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="C175" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="D175" s="12" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" s="4" customFormat="1">
+      <c r="C175" s="65" t="s">
+        <v>433</v>
+      </c>
+      <c r="D175" s="66" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="B176" s="74" t="s">
+      <c r="B176" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="D177" s="12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" s="4" customFormat="1">
+      <c r="A178" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="B178" s="74" t="s">
         <v>317</v>
       </c>
-      <c r="C176" s="66" t="s">
+      <c r="C178" s="66" t="s">
         <v>316</v>
       </c>
-      <c r="D176" s="66" t="s">
+      <c r="D178" s="66" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="76" t="s">
+    <row r="179" spans="1:4">
+      <c r="A179" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B177" s="11" t="s">
+      <c r="B179" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="C177" s="12" t="s">
+      <c r="C179" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="D177" s="66" t="s">
+      <c r="D179" s="66" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="114" t="s">
+    <row r="180" spans="1:4">
+      <c r="A180" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="B178" s="114" t="s">
+      <c r="B180" s="114" t="s">
         <v>191</v>
       </c>
-      <c r="C178" s="116" t="s">
+      <c r="C180" s="116" t="s">
         <v>195</v>
       </c>
-      <c r="D178" s="116" t="s">
+      <c r="D180" s="116" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="114" t="s">
+    <row r="181" spans="1:4">
+      <c r="A181" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="B179" s="114" t="s">
+      <c r="B181" s="114" t="s">
         <v>191</v>
       </c>
-      <c r="C179" s="116" t="s">
+      <c r="C181" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="D179" s="116" t="s">
+      <c r="D181" s="116" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="180" spans="1:4" s="3" customFormat="1">
-      <c r="A180" s="133" t="s">
-        <v>253</v>
-      </c>
-      <c r="B180" s="158" t="s">
-        <v>255</v>
-      </c>
-      <c r="C180" s="134" t="s">
-        <v>256</v>
-      </c>
-      <c r="D180" s="135" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" s="87" customFormat="1">
-      <c r="A181" s="133" t="s">
-        <v>253</v>
-      </c>
-      <c r="B181" s="158" t="s">
-        <v>296</v>
-      </c>
-      <c r="C181" s="134" t="s">
-        <v>295</v>
-      </c>
-      <c r="D181" s="135" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" s="87" customFormat="1">
+    <row r="182" spans="1:4" s="3" customFormat="1">
       <c r="A182" s="133" t="s">
         <v>253</v>
       </c>
       <c r="B182" s="158" t="s">
+        <v>255</v>
+      </c>
+      <c r="C182" s="134" t="s">
+        <v>256</v>
+      </c>
+      <c r="D182" s="135" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" s="87" customFormat="1">
+      <c r="A183" s="133" t="s">
+        <v>253</v>
+      </c>
+      <c r="B183" s="158" t="s">
+        <v>296</v>
+      </c>
+      <c r="C183" s="134" t="s">
+        <v>295</v>
+      </c>
+      <c r="D183" s="135" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" s="87" customFormat="1">
+      <c r="A184" s="133" t="s">
+        <v>253</v>
+      </c>
+      <c r="B184" s="158" t="s">
         <v>289</v>
       </c>
-      <c r="C182" s="134" t="s">
+      <c r="C184" s="134" t="s">
         <v>288</v>
       </c>
-      <c r="D182" s="135" t="s">
+      <c r="D184" s="135" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="183" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A183" s="136" t="s">
+    <row r="185" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A185" s="136" t="s">
         <v>253</v>
       </c>
-      <c r="B183" s="158" t="s">
-        <v>471</v>
-      </c>
-      <c r="C183" s="137" t="s">
+      <c r="B185" s="158" t="s">
+        <v>470</v>
+      </c>
+      <c r="C185" s="137" t="s">
         <v>380</v>
       </c>
-      <c r="D183" s="138" t="s">
+      <c r="D185" s="138" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="184" spans="1:4" s="39" customFormat="1" ht="144.75" customHeight="1">
-      <c r="A184" s="139" t="s">
-        <v>253</v>
-      </c>
-      <c r="B184" s="159" t="s">
-        <v>512</v>
-      </c>
-      <c r="C184" s="137" t="s">
-        <v>496</v>
-      </c>
-      <c r="D184" s="138" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="160" t="s">
-        <v>253</v>
-      </c>
-      <c r="B185" s="161" t="s">
-        <v>520</v>
-      </c>
-      <c r="C185" s="162" t="s">
-        <v>522</v>
-      </c>
-      <c r="D185" s="162" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" s="39" customFormat="1" ht="28.5" customHeight="1">
+    <row r="186" spans="1:4" s="39" customFormat="1" ht="144.75" customHeight="1">
       <c r="A186" s="139" t="s">
         <v>253</v>
       </c>
       <c r="B186" s="159" t="s">
-        <v>442</v>
-      </c>
-      <c r="C186" s="140" t="s">
-        <v>466</v>
+        <v>511</v>
+      </c>
+      <c r="C186" s="137" t="s">
+        <v>495</v>
       </c>
       <c r="D186" s="138" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" s="39" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A187" s="139" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="160" t="s">
         <v>253</v>
       </c>
-      <c r="B187" s="159" t="s">
-        <v>442</v>
-      </c>
-      <c r="C187" s="140" t="s">
-        <v>467</v>
-      </c>
-      <c r="D187" s="138" t="s">
-        <v>440</v>
+      <c r="B187" s="161" t="s">
+        <v>519</v>
+      </c>
+      <c r="C187" s="162" t="s">
+        <v>521</v>
+      </c>
+      <c r="D187" s="162" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="188" spans="1:4" s="39" customFormat="1" ht="28.5" customHeight="1">
@@ -11622,69 +11648,69 @@
         <v>253</v>
       </c>
       <c r="B188" s="159" t="s">
-        <v>443</v>
-      </c>
-      <c r="C188" s="141" t="s">
-        <v>448</v>
+        <v>441</v>
+      </c>
+      <c r="C188" s="140" t="s">
+        <v>465</v>
       </c>
       <c r="D188" s="138" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" s="39" customFormat="1" ht="28.5" customHeight="1">
       <c r="A189" s="139" t="s">
         <v>253</v>
       </c>
       <c r="B189" s="159" t="s">
-        <v>245</v>
-      </c>
-      <c r="C189" s="137" t="s">
-        <v>465</v>
+        <v>441</v>
+      </c>
+      <c r="C189" s="140" t="s">
+        <v>466</v>
       </c>
       <c r="D189" s="138" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" s="39" customFormat="1" ht="28.5" customHeight="1">
       <c r="A190" s="139" t="s">
         <v>253</v>
       </c>
       <c r="B190" s="159" t="s">
+        <v>442</v>
+      </c>
+      <c r="C190" s="141" t="s">
         <v>447</v>
       </c>
-      <c r="C190" s="137" t="s">
-        <v>525</v>
-      </c>
       <c r="D190" s="138" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1">
       <c r="A191" s="139" t="s">
         <v>253</v>
       </c>
       <c r="B191" s="159" t="s">
-        <v>463</v>
+        <v>245</v>
       </c>
       <c r="C191" s="137" t="s">
         <v>464</v>
       </c>
       <c r="D191" s="138" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
       <c r="A192" s="139" t="s">
         <v>253</v>
       </c>
       <c r="B192" s="159" t="s">
-        <v>530</v>
+        <v>446</v>
       </c>
       <c r="C192" s="137" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D192" s="138" t="s">
-        <v>532</v>
+        <v>458</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
@@ -11692,55 +11718,55 @@
         <v>253</v>
       </c>
       <c r="B193" s="159" t="s">
-        <v>528</v>
+        <v>462</v>
       </c>
       <c r="C193" s="137" t="s">
-        <v>527</v>
+        <v>463</v>
       </c>
       <c r="D193" s="138" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
       <c r="A194" s="139" t="s">
         <v>253</v>
       </c>
       <c r="B194" s="159" t="s">
-        <v>462</v>
+        <v>529</v>
       </c>
       <c r="C194" s="137" t="s">
+        <v>528</v>
+      </c>
+      <c r="D194" s="138" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A195" s="139" t="s">
+        <v>253</v>
+      </c>
+      <c r="B195" s="159" t="s">
+        <v>527</v>
+      </c>
+      <c r="C195" s="137" t="s">
+        <v>526</v>
+      </c>
+      <c r="D195" s="138" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A196" s="139" t="s">
+        <v>253</v>
+      </c>
+      <c r="B196" s="159" t="s">
+        <v>461</v>
+      </c>
+      <c r="C196" s="137" t="s">
+        <v>459</v>
+      </c>
+      <c r="D196" s="138" t="s">
         <v>460</v>
-      </c>
-      <c r="D194" s="138" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="124" t="s">
-        <v>224</v>
-      </c>
-      <c r="B195" s="124" t="s">
-        <v>225</v>
-      </c>
-      <c r="C195" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="D195" s="37" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="124" t="s">
-        <v>224</v>
-      </c>
-      <c r="B196" s="124" t="s">
-        <v>225</v>
-      </c>
-      <c r="C196" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="D196" s="37" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -11750,11 +11776,11 @@
       <c r="B197" s="124" t="s">
         <v>225</v>
       </c>
-      <c r="C197" s="157" t="s">
-        <v>303</v>
+      <c r="C197" s="37" t="s">
+        <v>251</v>
       </c>
       <c r="D197" s="37" t="s">
-        <v>304</v>
+        <v>226</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -11764,11 +11790,11 @@
       <c r="B198" s="124" t="s">
         <v>225</v>
       </c>
-      <c r="C198" s="157" t="s">
-        <v>310</v>
+      <c r="C198" s="37" t="s">
+        <v>227</v>
       </c>
       <c r="D198" s="37" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -11779,10 +11805,10 @@
         <v>225</v>
       </c>
       <c r="C199" s="157" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D199" s="37" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -11793,10 +11819,10 @@
         <v>225</v>
       </c>
       <c r="C200" s="157" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D200" s="37" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -11807,10 +11833,10 @@
         <v>225</v>
       </c>
       <c r="C201" s="157" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D201" s="37" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -11820,25 +11846,53 @@
       <c r="B202" s="124" t="s">
         <v>225</v>
       </c>
-      <c r="C202" s="37" t="s">
+      <c r="C202" s="157" t="s">
+        <v>308</v>
+      </c>
+      <c r="D202" s="37" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="124" t="s">
+        <v>224</v>
+      </c>
+      <c r="B203" s="124" t="s">
+        <v>225</v>
+      </c>
+      <c r="C203" s="157" t="s">
+        <v>311</v>
+      </c>
+      <c r="D203" s="37" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="124" t="s">
+        <v>224</v>
+      </c>
+      <c r="B204" s="124" t="s">
+        <v>225</v>
+      </c>
+      <c r="C204" s="37" t="s">
         <v>397</v>
       </c>
-      <c r="D202" s="37"/>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="5"/>
-      <c r="B203" s="5"/>
-      <c r="C203" s="6"/>
-      <c r="D203" s="6"/>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="5"/>
-      <c r="B204" s="5"/>
-      <c r="C204" s="6"/>
-      <c r="D204" s="6"/>
+      <c r="D204" s="37"/>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="5"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="6"/>
+      <c r="D205" s="6"/>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="5"/>
+      <c r="B206" s="5"/>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D201" xr:uid="{85ED3410-72EE-453D-8BB3-FB7E07F682B1}"/>
+  <autoFilter ref="A2:D203" xr:uid="{85ED3410-72EE-453D-8BB3-FB7E07F682B1}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -11852,8 +11906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C42D88-9A2B-46D3-B46D-33526406379A}">
   <dimension ref="A1:E223"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25"/>
@@ -11867,13 +11921,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="181" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="180"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="183"/>
     </row>
     <row r="2" spans="1:5" ht="207" customHeight="1">
       <c r="A2" s="44" t="s">
@@ -11911,11 +11965,11 @@
         <v>225</v>
       </c>
       <c r="C4" s="165" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="167" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="207" customHeight="1">
@@ -11941,11 +11995,11 @@
         <v>225</v>
       </c>
       <c r="C6" s="163" t="s">
-        <v>549</v>
+        <v>583</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="55" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="207" customHeight="1">
@@ -11956,11 +12010,11 @@
         <v>225</v>
       </c>
       <c r="C7" s="163" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D7" s="44"/>
       <c r="E7" s="55" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="207" customHeight="1">
@@ -11971,11 +12025,11 @@
         <v>225</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>553</v>
+        <v>582</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="55" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="207" customHeight="1">
@@ -11986,11 +12040,11 @@
         <v>225</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="207" customHeight="1">
@@ -12001,11 +12055,11 @@
         <v>225</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D10" s="44"/>
       <c r="E10" s="55" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="207" customHeight="1">
@@ -12016,11 +12070,11 @@
         <v>225</v>
       </c>
       <c r="C11" s="165" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="166" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="207" customHeight="1">
@@ -12047,7 +12101,7 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="58" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="207" customHeight="1">
@@ -12060,7 +12114,7 @@
       <c r="C14" s="59"/>
       <c r="D14" s="6"/>
       <c r="E14" s="58" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="207" customHeight="1">
@@ -12073,7 +12127,7 @@
       <c r="C15" s="59"/>
       <c r="D15" s="6"/>
       <c r="E15" s="58" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="207" customHeight="1">
@@ -12091,11 +12145,11 @@
         <v>225</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D17" s="44"/>
       <c r="E17" s="67" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="207" customHeight="1">
@@ -12106,11 +12160,11 @@
         <v>225</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D18" s="44"/>
       <c r="E18" s="55" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="207" customHeight="1">
@@ -12121,11 +12175,11 @@
         <v>225</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D19" s="44"/>
       <c r="E19" s="55" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="207" customHeight="1">
@@ -12133,14 +12187,14 @@
         <v>224</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D20" s="44"/>
       <c r="E20" s="55" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="207" customHeight="1">
@@ -12148,7 +12202,7 @@
         <v>224</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C21" s="59" t="s">
         <v>310</v>
@@ -12163,10 +12217,10 @@
         <v>224</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D22" s="44"/>
       <c r="E22" s="55" t="s">
@@ -12178,14 +12232,14 @@
         <v>224</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D23" s="44"/>
       <c r="E23" s="55" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="207" customHeight="1">
@@ -12226,11 +12280,11 @@
         <v>225</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D26" s="44"/>
       <c r="E26" s="55" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="207" customHeight="1">
@@ -12241,11 +12295,11 @@
         <v>225</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D27" s="44"/>
       <c r="E27" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="207" customHeight="1">
@@ -12256,11 +12310,11 @@
         <v>225</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D28" s="44"/>
       <c r="E28" s="55" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="207" customHeight="1">
@@ -13175,7 +13229,7 @@
   <dimension ref="A1:C212"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -13187,11 +13241,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="17" t="s">
@@ -13256,7 +13310,7 @@
         <v>359</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="41" customFormat="1" ht="67.5" customHeight="1">
@@ -13267,7 +13321,7 @@
         <v>360</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -13286,10 +13340,10 @@
         <v>358</v>
       </c>
       <c r="B10" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>419</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1">

--- a/Tutoriales/pandas/Comandos Pandas.xlsx
+++ b/Tutoriales/pandas/Comandos Pandas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseMaría\Documents\CURSOS\data_science\mitrabajo\Mirepositorio\Tutoriales\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4C3BFF-EDFB-47F1-94F1-43ACAEF7210A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3E83D0-D782-4973-8558-9686A2A09E5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF4018AA-EEB9-4756-B82D-183D37B3B80A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AF4018AA-EEB9-4756-B82D-183D37B3B80A}"/>
   </bookViews>
   <sheets>
     <sheet name="GENERALES" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="CONCEPTOS" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GENERALES!$A$2:$D$203</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GENERALES!$A$2:$D$204</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="604">
   <si>
     <t>FUNCIONES DE PANDAS</t>
   </si>
@@ -4389,92 +4389,6 @@
   </si>
   <si>
     <t>La matriz de correlaccion intenta correlaccionar unas   columnas con otras.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">plt.figure(figsize=(20,10))  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Esto llama a que la figura sea de un tamaño específico </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                       c = df.corr()     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Esto es la matriz de correlación y me la crea matemáticamente</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                     sns.heatmap(c, cmap="BrBG",annot=True)        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">dibujo la matriz </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                                        c</t>
-    </r>
   </si>
   <si>
     <t>UNION EXTERNA=OUTER  Matiene todas las filas de ambos marcos de datos .</t>
@@ -6246,13 +6160,69 @@
   </si>
   <si>
     <t>day_stats['min'] = data.min(axis = 1)</t>
+  </si>
+  <si>
+    <t>MATPLOTLIB leyenda</t>
+  </si>
+  <si>
+    <t>Puedo cambiar el título y la etiqueta de la leyenda</t>
+  </si>
+  <si>
+    <t>Muestra outlier de ka columna Engine HP</t>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> seaborn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> sns</t>
+    </r>
+  </si>
+  <si>
+    <t>MATPLOTLIB OUTLIERS</t>
+  </si>
+  <si>
+    <t>data[data.duplicated()]</t>
+  </si>
+  <si>
+    <t>DUPLICATED</t>
+  </si>
+  <si>
+    <t>Indica si hay alguna fila duplicada comparando todos sus valores</t>
+  </si>
+  <si>
+    <t>Pone lineas verticales en el eje x en  la posición del eje que le pido, en este caso usando las fechas de un indice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="59">
+  <fonts count="61">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6637,6 +6607,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFAF00DB"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="21">
     <fill>
@@ -6760,7 +6742,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -6805,11 +6787,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7235,6 +7254,30 @@
     <xf numFmtId="0" fontId="56" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7249,6 +7292,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7369,13 +7435,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1162050</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>336550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3321050</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>2303162</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7413,13 +7479,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>396875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3514315</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>2025446</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7501,13 +7567,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>301625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2893177</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>2444357</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7545,13 +7611,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>365125</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>256239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3429000</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>2466667</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7633,13 +7699,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>317500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2976008</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>2422184</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7677,13 +7743,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>430890</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3485040</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>2079625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7721,13 +7787,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>474586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3476625</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>2409547</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7765,13 +7831,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3714327</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>2415893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7809,13 +7875,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>301625</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>357047</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3206750</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>2406338</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7853,13 +7919,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>218547</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>412750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3658257</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>2091737</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7897,13 +7963,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>460375</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>233977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3270250</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>2244423</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7941,13 +8007,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2854949</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>2599922</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7985,13 +8051,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4290895</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7685134</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>2587625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8029,13 +8095,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3476624</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>841375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3905249</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>1576160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8073,13 +8139,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>301625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3409416</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>2266417</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8773,6 +8839,534 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>251538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2952750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2437873</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824DE30D-3E26-4C63-B88D-A56EBC91AE08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15468601" y="40123188"/>
+          <a:ext cx="2305049" cy="2186335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1066799</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>79245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8382000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2483343</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E9891C2-140A-4BE5-84FB-827FCFD153AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5467349" y="39950895"/>
+          <a:ext cx="7315201" cy="2404098"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>590550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7623628</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2286000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567394C0-0531-4445-834C-CB1AD6CC7C67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="43091100"/>
+          <a:ext cx="7185478" cy="1695450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3495267</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2419076</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E07A99A7-877D-4DB6-858B-E67C49A540C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15049500" y="42729150"/>
+          <a:ext cx="3266667" cy="2190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2628900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3552386</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>37774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Imagen 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75C0A828-394E-4458-94B1-0DC80BA07583}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14859000" y="47758350"/>
+          <a:ext cx="3514286" cy="2609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2762250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6371652</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4152900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Imagen 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD2B277A-F2DC-4864-A81B-8F1FEE31E926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5314950" y="53092350"/>
+          <a:ext cx="5457252" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4743450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4634112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Imagen 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB69B607-D814-4107-B269-6A8E70058D1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048250" y="45358050"/>
+          <a:ext cx="4095750" cy="4405512"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>838199</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4438650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9364246</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2552700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Imagen 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E7EA758-A05B-4FFD-892E-47CF5D067B57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5238749" y="49568100"/>
+          <a:ext cx="8526047" cy="3314700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4076700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>552449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9315080</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2147468</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagen 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B2D41CF-E458-46B1-AD74-DAC14901C297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8477250" y="56083199"/>
+          <a:ext cx="5238380" cy="1595019"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>751528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3676650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1752519</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Imagen 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B60644-EC31-4E95-9AEE-B5D275302029}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="56282278"/>
+          <a:ext cx="3238500" cy="1000991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9466494</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1676400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Imagen 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDD6F1F3-E595-4D87-B5EC-D9CC3639761B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4895849" y="55759350"/>
+          <a:ext cx="8971195" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3700251</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1447495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Imagen 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{397669AA-A8FA-4DB7-ACB4-F33BB99D05B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14935200" y="55264050"/>
+          <a:ext cx="3585951" cy="990295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9073,10 +9667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265136A6-C067-4B28-9F45-A6266FF6FD67}">
-  <dimension ref="A1:D207"/>
+  <dimension ref="A1:D208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView topLeftCell="A133" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138:XFD138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9088,16 +9682,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="102" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B2" s="87" t="s">
         <v>2</v>
@@ -9111,7 +9705,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="102" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B3" s="87" t="s">
         <v>2</v>
@@ -9125,7 +9719,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="102" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B4" s="87" t="s">
         <v>2</v>
@@ -9139,7 +9733,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="102" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B5" s="87" t="s">
         <v>2</v>
@@ -9153,7 +9747,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="102" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B6" s="87" t="s">
         <v>2</v>
@@ -9167,7 +9761,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="102" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B7" s="87" t="s">
         <v>2</v>
@@ -9181,13 +9775,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="102" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B8" s="87" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="89" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D8" s="89" t="s">
         <v>409</v>
@@ -9195,10 +9789,10 @@
     </row>
     <row r="9" spans="1:4" s="4" customFormat="1">
       <c r="A9" s="90" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C9" s="127" t="s">
         <v>4</v>
@@ -9209,13 +9803,13 @@
     </row>
     <row r="10" spans="1:4" s="4" customFormat="1">
       <c r="A10" s="90" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D10" s="127" t="s">
         <v>312</v>
@@ -9223,10 +9817,10 @@
     </row>
     <row r="11" spans="1:4" s="4" customFormat="1">
       <c r="A11" s="90" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B11" s="96" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C11" s="68" t="s">
         <v>372</v>
@@ -9237,10 +9831,10 @@
     </row>
     <row r="12" spans="1:4" s="4" customFormat="1" ht="30">
       <c r="A12" s="90" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C12" s="91" t="s">
         <v>377</v>
@@ -9251,10 +9845,10 @@
     </row>
     <row r="13" spans="1:4" s="4" customFormat="1">
       <c r="A13" s="90" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B13" s="96" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C13" s="68" t="s">
         <v>256</v>
@@ -9265,10 +9859,10 @@
     </row>
     <row r="14" spans="1:4" s="4" customFormat="1">
       <c r="A14" s="90" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B14" s="96" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C14" s="68" t="s">
         <v>88</v>
@@ -9279,10 +9873,10 @@
     </row>
     <row r="15" spans="1:4" s="3" customFormat="1" ht="30">
       <c r="A15" s="90" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B15" s="96" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C15" s="93" t="s">
         <v>55</v>
@@ -9293,10 +9887,10 @@
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" s="90" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B16" s="96" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C16" s="95" t="s">
         <v>326</v>
@@ -9307,10 +9901,10 @@
     </row>
     <row r="17" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="90" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B17" s="96" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C17" s="95" t="s">
         <v>190</v>
@@ -9324,7 +9918,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C18" s="98" t="s">
         <v>10</v>
@@ -9338,10 +9932,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C19" s="176" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D19" s="98" t="s">
         <v>12</v>
@@ -9352,7 +9946,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C20" s="98" t="s">
         <v>15</v>
@@ -9366,7 +9960,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C21" s="98" t="s">
         <v>63</v>
@@ -9380,7 +9974,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C22" s="98" t="s">
         <v>13</v>
@@ -9394,7 +9988,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C23" s="98" t="s">
         <v>64</v>
@@ -9419,7 +10013,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="99" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B25" s="101" t="s">
         <v>33</v>
@@ -9433,7 +10027,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="99" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B26" s="101" t="s">
         <v>33</v>
@@ -9447,16 +10041,16 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="99" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B27" s="101" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="175" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D27" s="100" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -9464,13 +10058,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="101" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C28" s="100" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D28" s="100" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -9478,21 +10072,21 @@
         <v>8</v>
       </c>
       <c r="B29" s="101" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C29" s="100" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D29" s="100" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="3" customFormat="1">
       <c r="A30" s="147" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B30" s="150" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C30" s="148" t="s">
         <v>279</v>
@@ -9503,10 +10097,10 @@
     </row>
     <row r="31" spans="1:4" s="3" customFormat="1">
       <c r="A31" s="147" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B31" s="150" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C31" s="148" t="s">
         <v>280</v>
@@ -9517,24 +10111,24 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="147" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B32" s="101" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C32" s="100" t="s">
+        <v>515</v>
+      </c>
+      <c r="D32" s="100" t="s">
         <v>516</v>
-      </c>
-      <c r="D32" s="100" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="60" t="s">
+        <v>478</v>
+      </c>
+      <c r="B33" s="71" t="s">
         <v>479</v>
-      </c>
-      <c r="B33" s="71" t="s">
-        <v>480</v>
       </c>
       <c r="C33" s="85" t="s">
         <v>18</v>
@@ -9545,7 +10139,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="60" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B34" s="71" t="s">
         <v>56</v>
@@ -9559,7 +10153,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="60" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B35" s="71" t="s">
         <v>60</v>
@@ -9573,7 +10167,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="60" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B36" s="71" t="s">
         <v>60</v>
@@ -9587,10 +10181,10 @@
     </row>
     <row r="37" spans="1:4" s="3" customFormat="1" ht="29.25" customHeight="1">
       <c r="A37" s="141" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B37" s="129" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>181</v>
@@ -9601,546 +10195,546 @@
     </row>
     <row r="38" spans="1:4" s="3" customFormat="1" ht="30">
       <c r="A38" s="141" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B38" s="129" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C38" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="60" t="s">
-        <v>482</v>
-      </c>
-      <c r="B39" s="71" t="s">
-        <v>567</v>
-      </c>
-      <c r="C39" s="85" t="s">
-        <v>568</v>
-      </c>
-      <c r="D39" s="103"/>
+    </row>
+    <row r="39" spans="1:4" s="4" customFormat="1">
+      <c r="A39" s="141" t="s">
+        <v>488</v>
+      </c>
+      <c r="B39" s="142" t="s">
+        <v>601</v>
+      </c>
+      <c r="C39" s="188" t="s">
+        <v>600</v>
+      </c>
+      <c r="D39" s="188" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="60" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B40" s="71" t="s">
+        <v>566</v>
+      </c>
+      <c r="C40" s="85" t="s">
+        <v>567</v>
+      </c>
+      <c r="D40" s="103"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="60" t="s">
+        <v>481</v>
+      </c>
+      <c r="B41" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="85" t="s">
+      <c r="C41" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="103" t="s">
+      <c r="D41" s="103" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="107" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A41" s="60" t="s">
-        <v>482</v>
-      </c>
-      <c r="B41" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" s="103" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" s="107" customFormat="1" ht="14.25" customHeight="1">
       <c r="A42" s="60" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B42" s="71" t="s">
         <v>114</v>
       </c>
       <c r="C42" s="85" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="D42" s="103" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="60" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B43" s="71" t="s">
         <v>114</v>
       </c>
       <c r="C43" s="85" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="D43" s="103" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="60" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B44" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="60" t="s">
+        <v>481</v>
+      </c>
+      <c r="B45" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="85" t="s">
+      <c r="C45" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="103" t="s">
+      <c r="D45" s="103" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="142" t="s">
-        <v>495</v>
-      </c>
-      <c r="B45" s="71" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="142" t="s">
+        <v>494</v>
+      </c>
+      <c r="B46" s="71" t="s">
         <v>272</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="D45" s="103" t="s">
+      <c r="D46" s="103" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="4" customFormat="1" ht="30">
-      <c r="A46" s="142" t="s">
-        <v>495</v>
-      </c>
-      <c r="B46" s="72" t="s">
-        <v>272</v>
-      </c>
-      <c r="C46" s="143" t="s">
-        <v>391</v>
-      </c>
-      <c r="D46" s="144" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="4" customFormat="1">
+    <row r="47" spans="1:4" s="4" customFormat="1" ht="30">
       <c r="A47" s="142" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B47" s="72" t="s">
         <v>272</v>
       </c>
       <c r="C47" s="143" t="s">
+        <v>391</v>
+      </c>
+      <c r="D47" s="144" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="4" customFormat="1">
+      <c r="A48" s="142" t="s">
+        <v>494</v>
+      </c>
+      <c r="B48" s="72" t="s">
+        <v>272</v>
+      </c>
+      <c r="C48" s="143" t="s">
+        <v>575</v>
+      </c>
+      <c r="D48" s="144" t="s">
         <v>576</v>
       </c>
-      <c r="D47" s="144" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="3" customFormat="1">
-      <c r="A48" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="B48" s="7" t="s">
+    </row>
+    <row r="49" spans="1:4" s="3" customFormat="1">
+      <c r="A49" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C48" s="151" t="s">
+      <c r="C49" s="151" t="s">
         <v>246</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D49" s="12" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="60" t="s">
-        <v>498</v>
-      </c>
-      <c r="B49" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="C49" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="D49" s="61" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="60" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C50" s="61" t="s">
-        <v>349</v>
+        <v>192</v>
       </c>
       <c r="D50" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="60" t="s">
-        <v>39</v>
+        <v>497</v>
       </c>
       <c r="B51" s="71" t="s">
-        <v>486</v>
+        <v>350</v>
       </c>
       <c r="C51" s="61" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="D51" s="61" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="60" t="s">
-        <v>484</v>
+        <v>39</v>
       </c>
       <c r="B52" s="71" t="s">
-        <v>481</v>
-      </c>
-      <c r="C52" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52" s="103" t="s">
-        <v>68</v>
+        <v>485</v>
+      </c>
+      <c r="C52" s="61" t="s">
+        <v>380</v>
+      </c>
+      <c r="D52" s="61" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="60" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B53" s="71" t="s">
-        <v>6</v>
+        <v>480</v>
       </c>
       <c r="C53" s="85" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="D53" s="103" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="60" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B54" s="71" t="s">
         <v>6</v>
       </c>
       <c r="C54" s="85" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D54" s="103" t="s">
-        <v>483</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="60" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B55" s="71" t="s">
         <v>6</v>
       </c>
       <c r="C55" s="85" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D55" s="103" t="s">
-        <v>136</v>
+        <v>482</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="60" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B56" s="71" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="85" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D56" s="103" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="60" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B57" s="71" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="85" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D57" s="103" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="60" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B58" s="71" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="85" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D58" s="103" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="60" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B59" s="71" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C59" s="85" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="D59" s="103" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="60" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B60" s="71" t="s">
         <v>114</v>
       </c>
       <c r="C60" s="85" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D60" s="103" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="60" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B61" s="71" t="s">
         <v>114</v>
       </c>
       <c r="C61" s="85" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D61" s="103" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="60" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B62" s="71" t="s">
         <v>114</v>
       </c>
       <c r="C62" s="85" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="D62" s="103" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="60" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B63" s="71" t="s">
         <v>114</v>
       </c>
       <c r="C63" s="85" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D63" s="103" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="60" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B64" s="71" t="s">
         <v>114</v>
       </c>
       <c r="C64" s="85" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D64" s="103" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="60" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B65" s="71" t="s">
         <v>114</v>
       </c>
       <c r="C65" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="103" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="60" t="s">
+        <v>483</v>
+      </c>
+      <c r="B66" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="D65" s="108" t="s">
+      <c r="D66" s="108" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="104" t="s">
-        <v>478</v>
-      </c>
-      <c r="B66" s="109" t="s">
-        <v>485</v>
-      </c>
-      <c r="C66" s="105" t="s">
-        <v>156</v>
-      </c>
-      <c r="D66" s="106" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="104" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B67" s="109" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C67" s="105" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D67" s="106" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="104" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B68" s="109" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C68" s="105" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D68" s="106" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="104" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B69" s="109" t="s">
-        <v>485</v>
-      </c>
-      <c r="C69" s="146" t="s">
-        <v>94</v>
-      </c>
-      <c r="D69" s="146" t="s">
-        <v>95</v>
+        <v>484</v>
+      </c>
+      <c r="C69" s="105" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" s="106" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="104" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B70" s="109" t="s">
-        <v>186</v>
-      </c>
-      <c r="C70" s="105" t="s">
-        <v>187</v>
-      </c>
-      <c r="D70" s="106" t="s">
-        <v>188</v>
+        <v>484</v>
+      </c>
+      <c r="C70" s="146" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70" s="146" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="104" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B71" s="109" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="C71" s="105" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="D71" s="106" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="104" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B72" s="109" t="s">
         <v>114</v>
       </c>
       <c r="C72" s="105" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D72" s="106" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="104" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B73" s="109" t="s">
-        <v>496</v>
-      </c>
-      <c r="C73" s="146" t="s">
-        <v>96</v>
-      </c>
-      <c r="D73" s="146" t="s">
-        <v>97</v>
+        <v>114</v>
+      </c>
+      <c r="C73" s="105" t="s">
+        <v>165</v>
+      </c>
+      <c r="D73" s="106" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="104" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B74" s="109" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C74" s="146" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" s="146" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="104" t="s">
+        <v>477</v>
+      </c>
+      <c r="B75" s="109" t="s">
+        <v>496</v>
+      </c>
+      <c r="C75" s="146" t="s">
         <v>249</v>
       </c>
-      <c r="D74" s="146" t="s">
+      <c r="D75" s="146" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="79" t="s">
-        <v>490</v>
-      </c>
-      <c r="B75" s="76" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="D75" s="77" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="79" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B76" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" s="78" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+      <c r="C76" s="77" t="s">
+        <v>83</v>
       </c>
       <c r="D76" s="77" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -10148,125 +10742,125 @@
         <v>489</v>
       </c>
       <c r="B77" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" s="77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="79" t="s">
+        <v>488</v>
+      </c>
+      <c r="B78" s="76" t="s">
         <v>389</v>
       </c>
-      <c r="C77" s="77" t="s">
+      <c r="C78" s="77" t="s">
         <v>388</v>
       </c>
-      <c r="D77" s="77" t="s">
+      <c r="D78" s="77" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="4" customFormat="1" ht="30">
-      <c r="A78" s="124" t="s">
-        <v>489</v>
-      </c>
-      <c r="B78" s="125" t="s">
+    <row r="79" spans="1:4" s="4" customFormat="1" ht="30">
+      <c r="A79" s="124" t="s">
+        <v>488</v>
+      </c>
+      <c r="B79" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="C78" s="126" t="s">
+      <c r="C79" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="D78" s="126" t="s">
+      <c r="D79" s="126" t="s">
         <v>353</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="79" t="s">
-        <v>487</v>
-      </c>
-      <c r="B79" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="C79" s="77" t="s">
-        <v>545</v>
-      </c>
-      <c r="D79" s="77" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="79" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B80" s="76" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="C80" s="77" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D80" s="77" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="79" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B81" s="76" t="s">
         <v>26</v>
       </c>
       <c r="C81" s="77" t="s">
-        <v>120</v>
+        <v>545</v>
       </c>
       <c r="D81" s="77" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="79" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B82" s="76" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C82" s="77" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="D82" s="77" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="79" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B83" s="76" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="C83" s="77" t="s">
-        <v>123</v>
-      </c>
-      <c r="D83" s="128" t="s">
-        <v>124</v>
+        <v>52</v>
+      </c>
+      <c r="D83" s="77" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="79" t="s">
-        <v>251</v>
+        <v>492</v>
       </c>
       <c r="B84" s="76" t="s">
-        <v>232</v>
+        <v>122</v>
       </c>
       <c r="C84" s="77" t="s">
-        <v>248</v>
-      </c>
-      <c r="D84" s="77" t="s">
-        <v>231</v>
+        <v>123</v>
+      </c>
+      <c r="D84" s="128" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="79" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="B85" s="76" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="C85" s="77" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="D85" s="77" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -10274,13 +10868,13 @@
         <v>212</v>
       </c>
       <c r="B86" s="76" t="s">
-        <v>214</v>
-      </c>
-      <c r="C86" s="78" t="s">
-        <v>531</v>
+        <v>211</v>
+      </c>
+      <c r="C86" s="77" t="s">
+        <v>213</v>
       </c>
       <c r="D86" s="77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -10288,13 +10882,13 @@
         <v>212</v>
       </c>
       <c r="B87" s="76" t="s">
-        <v>234</v>
-      </c>
-      <c r="C87" s="77" t="s">
-        <v>247</v>
+        <v>214</v>
+      </c>
+      <c r="C87" s="78" t="s">
+        <v>530</v>
       </c>
       <c r="D87" s="77" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -10302,13 +10896,13 @@
         <v>212</v>
       </c>
       <c r="B88" s="76" t="s">
-        <v>534</v>
+        <v>234</v>
       </c>
       <c r="C88" s="77" t="s">
-        <v>532</v>
+        <v>247</v>
       </c>
       <c r="D88" s="77" t="s">
-        <v>533</v>
+        <v>233</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -10316,13 +10910,13 @@
         <v>212</v>
       </c>
       <c r="B89" s="76" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C89" s="77" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D89" s="77" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -10330,13 +10924,13 @@
         <v>212</v>
       </c>
       <c r="B90" s="76" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C90" s="77" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D90" s="77" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -10344,41 +10938,41 @@
         <v>212</v>
       </c>
       <c r="B91" s="76" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C91" s="77" t="s">
+        <v>537</v>
+      </c>
+      <c r="D91" s="77" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="B92" s="76" t="s">
+        <v>542</v>
+      </c>
+      <c r="C92" s="77" t="s">
+        <v>540</v>
+      </c>
+      <c r="D92" s="77" t="s">
         <v>541</v>
-      </c>
-      <c r="D91" s="77" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="80" t="s">
-        <v>360</v>
-      </c>
-      <c r="B92" s="174" t="s">
-        <v>573</v>
-      </c>
-      <c r="C92" s="173" t="s">
-        <v>574</v>
-      </c>
-      <c r="D92" s="81" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="80" t="s">
         <v>360</v>
       </c>
-      <c r="B93" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="C93" s="81" t="s">
-        <v>78</v>
+      <c r="B93" s="174" t="s">
+        <v>572</v>
+      </c>
+      <c r="C93" s="173" t="s">
+        <v>573</v>
       </c>
       <c r="D93" s="81" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -10389,38 +10983,38 @@
         <v>79</v>
       </c>
       <c r="C94" s="81" t="s">
-        <v>354</v>
+        <v>78</v>
       </c>
       <c r="D94" s="81" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" s="4" customFormat="1" ht="30">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="80" t="s">
         <v>360</v>
       </c>
-      <c r="B95" s="112" t="s">
+      <c r="B95" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="C95" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="C95" s="81" t="s">
+        <v>354</v>
+      </c>
+      <c r="D95" s="81" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="4" customFormat="1" ht="30">
       <c r="A96" s="80" t="s">
         <v>360</v>
       </c>
-      <c r="B96" s="110" t="s">
-        <v>383</v>
-      </c>
-      <c r="C96" s="98" t="s">
-        <v>384</v>
-      </c>
-      <c r="D96" s="111" t="s">
-        <v>385</v>
+      <c r="B96" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -10431,220 +11025,220 @@
         <v>383</v>
       </c>
       <c r="C97" s="98" t="s">
+        <v>384</v>
+      </c>
+      <c r="D97" s="111" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="80" t="s">
+        <v>360</v>
+      </c>
+      <c r="B98" s="110" t="s">
+        <v>383</v>
+      </c>
+      <c r="C98" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="D97" s="111" t="s">
+      <c r="D98" s="111" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="114" t="s">
-        <v>492</v>
-      </c>
-      <c r="B98" s="113" t="s">
+    <row r="99" spans="1:4">
+      <c r="A99" s="114" t="s">
+        <v>491</v>
+      </c>
+      <c r="B99" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="C98" s="115" t="s">
+      <c r="C99" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="D98" s="115" t="s">
+      <c r="D99" s="115" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" s="3" customFormat="1">
-      <c r="A99" s="114" t="s">
-        <v>492</v>
-      </c>
-      <c r="B99" s="145" t="s">
-        <v>271</v>
-      </c>
-      <c r="C99" s="116" t="s">
-        <v>265</v>
-      </c>
-      <c r="D99" s="117" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="100" spans="1:4" s="3" customFormat="1">
       <c r="A100" s="114" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B100" s="145" t="s">
         <v>271</v>
       </c>
       <c r="C100" s="116" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D100" s="117" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:4" s="3" customFormat="1">
       <c r="A101" s="114" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B101" s="145" t="s">
-        <v>258</v>
-      </c>
-      <c r="C101" s="118" t="s">
-        <v>260</v>
+        <v>271</v>
+      </c>
+      <c r="C101" s="116" t="s">
+        <v>266</v>
       </c>
       <c r="D101" s="117" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" spans="1:4" s="3" customFormat="1">
       <c r="A102" s="114" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B102" s="145" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C102" s="118" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D102" s="117" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="3" customFormat="1">
       <c r="A103" s="114" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B103" s="145" t="s">
         <v>268</v>
       </c>
       <c r="C103" s="118" t="s">
+        <v>267</v>
+      </c>
+      <c r="D103" s="117" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" s="3" customFormat="1">
+      <c r="A104" s="114" t="s">
+        <v>491</v>
+      </c>
+      <c r="B104" s="145" t="s">
+        <v>268</v>
+      </c>
+      <c r="C104" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="D103" s="117" t="s">
+      <c r="D104" s="117" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A104" s="119" t="s">
-        <v>499</v>
-      </c>
-      <c r="B104" s="120" t="s">
+    <row r="105" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A105" s="119" t="s">
+        <v>498</v>
+      </c>
+      <c r="B105" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="C104" s="121" t="s">
-        <v>491</v>
-      </c>
-      <c r="D104" s="122" t="s">
+      <c r="C105" s="121" t="s">
+        <v>490</v>
+      </c>
+      <c r="D105" s="122" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="119" t="s">
-        <v>499</v>
-      </c>
-      <c r="B105" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="C105" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D105" s="36" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="119" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C106" s="36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D106" s="36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="119" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C107" s="36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D107" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="119" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B108" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D108" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="119" t="s">
+        <v>498</v>
+      </c>
+      <c r="B109" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="C108" s="36" t="s">
+      <c r="C109" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="D108" s="36" t="s">
+      <c r="D109" s="36" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.75">
-      <c r="A109" s="167" t="s">
-        <v>503</v>
-      </c>
-      <c r="B109" s="167" t="s">
+    <row r="110" spans="1:4" ht="15.75">
+      <c r="A110" s="167" t="s">
+        <v>502</v>
+      </c>
+      <c r="B110" s="167" t="s">
         <v>217</v>
       </c>
-      <c r="C109" s="171" t="s">
+      <c r="C110" s="171" t="s">
+        <v>569</v>
+      </c>
+      <c r="D110" s="168" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="30">
+      <c r="A111" s="169" t="s">
+        <v>502</v>
+      </c>
+      <c r="B111" s="169" t="s">
+        <v>217</v>
+      </c>
+      <c r="C111" s="172" t="s">
         <v>570</v>
       </c>
-      <c r="D109" s="168" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="30">
-      <c r="A110" s="169" t="s">
-        <v>503</v>
-      </c>
-      <c r="B110" s="169" t="s">
-        <v>217</v>
-      </c>
-      <c r="C110" s="172" t="s">
+      <c r="D111" s="170" t="s">
         <v>571</v>
       </c>
-      <c r="D110" s="170" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" s="3" customFormat="1">
-      <c r="A111" s="152" t="s">
+    </row>
+    <row r="112" spans="1:4" s="3" customFormat="1">
+      <c r="A112" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="B111" s="153" t="s">
+      <c r="B112" s="153" t="s">
         <v>244</v>
       </c>
-      <c r="C111" s="154" t="s">
+      <c r="C112" s="154" t="s">
         <v>246</v>
       </c>
-      <c r="D111" s="155" t="s">
+      <c r="D112" s="155" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="C112" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="D112" s="61" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -10655,10 +11249,10 @@
         <v>41</v>
       </c>
       <c r="C113" s="61" t="s">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c r="D113" s="61" t="s">
-        <v>276</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -10666,13 +11260,13 @@
         <v>1</v>
       </c>
       <c r="B114" s="71" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C114" s="61" t="s">
-        <v>23</v>
+        <v>277</v>
       </c>
       <c r="D114" s="61" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -10680,13 +11274,13 @@
         <v>1</v>
       </c>
       <c r="B115" s="71" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C115" s="61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D115" s="61" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -10694,13 +11288,13 @@
         <v>1</v>
       </c>
       <c r="B116" s="71" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C116" s="61" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D116" s="61" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -10708,13 +11302,13 @@
         <v>1</v>
       </c>
       <c r="B117" s="71" t="s">
-        <v>300</v>
+        <v>47</v>
       </c>
       <c r="C117" s="61" t="s">
-        <v>296</v>
+        <v>46</v>
       </c>
       <c r="D117" s="61" t="s">
-        <v>301</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -10722,13 +11316,13 @@
         <v>1</v>
       </c>
       <c r="B118" s="71" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C118" s="61" t="s">
-        <v>185</v>
+        <v>296</v>
       </c>
       <c r="D118" s="61" t="s">
-        <v>102</v>
+        <v>301</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -10739,10 +11333,10 @@
         <v>297</v>
       </c>
       <c r="C119" s="61" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="D119" s="61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -10750,13 +11344,13 @@
         <v>1</v>
       </c>
       <c r="B120" s="71" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C120" s="61" t="s">
-        <v>241</v>
+        <v>104</v>
       </c>
       <c r="D120" s="61" t="s">
-        <v>242</v>
+        <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -10764,13 +11358,13 @@
         <v>1</v>
       </c>
       <c r="B121" s="71" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C121" s="61" t="s">
-        <v>595</v>
+        <v>241</v>
       </c>
       <c r="D121" s="61" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -10778,13 +11372,13 @@
         <v>1</v>
       </c>
       <c r="B122" s="71" t="s">
-        <v>87</v>
+        <v>299</v>
       </c>
       <c r="C122" s="61" t="s">
-        <v>85</v>
+        <v>594</v>
       </c>
       <c r="D122" s="61" t="s">
-        <v>86</v>
+        <v>243</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -10792,13 +11386,13 @@
         <v>1</v>
       </c>
       <c r="B123" s="71" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C123" s="61" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D123" s="61" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -10806,13 +11400,13 @@
         <v>1</v>
       </c>
       <c r="B124" s="71" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C124" s="61" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D124" s="61" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -10820,13 +11414,13 @@
         <v>1</v>
       </c>
       <c r="B125" s="71" t="s">
-        <v>282</v>
-      </c>
-      <c r="C125" s="83" t="s">
-        <v>283</v>
-      </c>
-      <c r="D125" s="83" t="s">
-        <v>284</v>
+        <v>49</v>
+      </c>
+      <c r="C125" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D125" s="61" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -10834,13 +11428,13 @@
         <v>1</v>
       </c>
       <c r="B126" s="71" t="s">
-        <v>505</v>
-      </c>
-      <c r="C126" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="D126" s="61" t="s">
-        <v>70</v>
+        <v>282</v>
+      </c>
+      <c r="C126" s="83" t="s">
+        <v>283</v>
+      </c>
+      <c r="D126" s="83" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -10848,13 +11442,13 @@
         <v>1</v>
       </c>
       <c r="B127" s="71" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C127" s="61" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D127" s="61" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -10862,13 +11456,13 @@
         <v>1</v>
       </c>
       <c r="B128" s="71" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C128" s="61" t="s">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="D128" s="61" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -10876,13 +11470,13 @@
         <v>1</v>
       </c>
       <c r="B129" s="71" t="s">
-        <v>76</v>
+        <v>505</v>
       </c>
       <c r="C129" s="61" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="D129" s="61" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -10893,10 +11487,10 @@
         <v>76</v>
       </c>
       <c r="C130" s="61" t="s">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="D130" s="61" t="s">
-        <v>167</v>
+        <v>77</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -10907,10 +11501,10 @@
         <v>76</v>
       </c>
       <c r="C131" s="61" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D131" s="61" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -10920,11 +11514,11 @@
       <c r="B132" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="C132" s="84" t="s">
-        <v>569</v>
+      <c r="C132" s="61" t="s">
+        <v>171</v>
       </c>
       <c r="D132" s="61" t="s">
-        <v>240</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -10932,13 +11526,13 @@
         <v>1</v>
       </c>
       <c r="B133" s="71" t="s">
-        <v>172</v>
-      </c>
-      <c r="C133" s="61" t="s">
-        <v>174</v>
+        <v>76</v>
+      </c>
+      <c r="C133" s="84" t="s">
+        <v>568</v>
       </c>
       <c r="D133" s="61" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -10946,13 +11540,13 @@
         <v>1</v>
       </c>
       <c r="B134" s="71" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C134" s="61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D134" s="61" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -10960,13 +11554,13 @@
         <v>1</v>
       </c>
       <c r="B135" s="71" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="C135" s="61" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="D135" s="61" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -10974,13 +11568,13 @@
         <v>1</v>
       </c>
       <c r="B136" s="71" t="s">
-        <v>229</v>
-      </c>
-      <c r="C136" s="85" t="s">
-        <v>230</v>
+        <v>220</v>
+      </c>
+      <c r="C136" s="61" t="s">
+        <v>219</v>
       </c>
       <c r="D136" s="61" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -10988,13 +11582,13 @@
         <v>1</v>
       </c>
       <c r="B137" s="71" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C137" s="85" t="s">
-        <v>368</v>
+        <v>230</v>
       </c>
       <c r="D137" s="61" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -11002,13 +11596,13 @@
         <v>1</v>
       </c>
       <c r="B138" s="71" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C138" s="85" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D138" s="61" t="s">
-        <v>367</v>
+        <v>236</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -11019,24 +11613,24 @@
         <v>237</v>
       </c>
       <c r="C139" s="85" t="s">
+        <v>366</v>
+      </c>
+      <c r="D139" s="61" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="C140" s="85" t="s">
         <v>238</v>
       </c>
-      <c r="D139" s="61" t="s">
+      <c r="D140" s="61" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B140" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="C140" s="81" t="s">
-        <v>107</v>
-      </c>
-      <c r="D140" s="81" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -11044,13 +11638,13 @@
         <v>80</v>
       </c>
       <c r="B141" s="82" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="C141" s="81" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D141" s="81" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -11058,13 +11652,13 @@
         <v>80</v>
       </c>
       <c r="B142" s="82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C142" s="81" t="s">
-        <v>290</v>
+        <v>99</v>
       </c>
       <c r="D142" s="81" t="s">
-        <v>182</v>
+        <v>98</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -11072,13 +11666,13 @@
         <v>80</v>
       </c>
       <c r="B143" s="82" t="s">
-        <v>425</v>
+        <v>184</v>
       </c>
       <c r="C143" s="81" t="s">
-        <v>426</v>
+        <v>290</v>
       </c>
       <c r="D143" s="81" t="s">
-        <v>424</v>
+        <v>182</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -11086,13 +11680,13 @@
         <v>80</v>
       </c>
       <c r="B144" s="82" t="s">
-        <v>201</v>
+        <v>425</v>
       </c>
       <c r="C144" s="81" t="s">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="D144" s="81" t="s">
-        <v>202</v>
+        <v>424</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -11103,10 +11697,10 @@
         <v>201</v>
       </c>
       <c r="C145" s="81" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D145" s="81" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -11117,10 +11711,10 @@
         <v>201</v>
       </c>
       <c r="C146" s="81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D146" s="81" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -11128,16 +11722,16 @@
         <v>80</v>
       </c>
       <c r="B147" s="82" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C147" s="81" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D147" s="81" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="15.75">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="80" t="s">
         <v>80</v>
       </c>
@@ -11145,52 +11739,52 @@
         <v>207</v>
       </c>
       <c r="C148" s="81" t="s">
-        <v>583</v>
-      </c>
-      <c r="D148" s="177" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>199</v>
+      </c>
+      <c r="D148" s="81" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15.75">
       <c r="A149" s="80" t="s">
         <v>80</v>
       </c>
       <c r="B149" s="82" t="s">
-        <v>587</v>
+        <v>207</v>
       </c>
       <c r="C149" s="81" t="s">
-        <v>585</v>
-      </c>
-      <c r="D149" s="178" t="s">
-        <v>586</v>
+        <v>582</v>
+      </c>
+      <c r="D149" s="177" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="B150" s="130" t="s">
+      <c r="B150" s="82" t="s">
+        <v>586</v>
+      </c>
+      <c r="C150" s="81" t="s">
+        <v>584</v>
+      </c>
+      <c r="D150" s="178" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B151" s="130" t="s">
         <v>207</v>
       </c>
-      <c r="C150" s="131" t="s">
+      <c r="C151" s="131" t="s">
         <v>209</v>
       </c>
-      <c r="D150" s="131" t="s">
+      <c r="D151" s="131" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B151" s="70" t="s">
-        <v>512</v>
-      </c>
-      <c r="C151" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="D151" s="69" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -11198,13 +11792,13 @@
         <v>8</v>
       </c>
       <c r="B152" s="70" t="s">
+        <v>511</v>
+      </c>
+      <c r="C152" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="D152" s="69" t="s">
         <v>512</v>
-      </c>
-      <c r="C152" s="69" t="s">
-        <v>515</v>
-      </c>
-      <c r="D152" s="69" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -11212,13 +11806,13 @@
         <v>8</v>
       </c>
       <c r="B153" s="70" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C153" s="69" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D153" s="69" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -11226,13 +11820,13 @@
         <v>8</v>
       </c>
       <c r="B154" s="70" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="C154" s="69" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="D154" s="69" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -11240,13 +11834,13 @@
         <v>8</v>
       </c>
       <c r="B155" s="70" t="s">
-        <v>453</v>
+        <v>518</v>
       </c>
       <c r="C155" s="69" t="s">
-        <v>289</v>
+        <v>515</v>
       </c>
       <c r="D155" s="69" t="s">
-        <v>448</v>
+        <v>516</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -11254,13 +11848,13 @@
         <v>8</v>
       </c>
       <c r="B156" s="70" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C156" s="69" t="s">
-        <v>454</v>
+        <v>289</v>
       </c>
       <c r="D156" s="69" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -11268,13 +11862,13 @@
         <v>8</v>
       </c>
       <c r="B157" s="70" t="s">
-        <v>291</v>
+        <v>452</v>
       </c>
       <c r="C157" s="69" t="s">
-        <v>292</v>
+        <v>453</v>
       </c>
       <c r="D157" s="69" t="s">
-        <v>293</v>
+        <v>451</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -11282,13 +11876,13 @@
         <v>8</v>
       </c>
       <c r="B158" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" s="68" t="s">
-        <v>9</v>
+        <v>291</v>
+      </c>
+      <c r="C158" s="69" t="s">
+        <v>292</v>
       </c>
       <c r="D158" s="69" t="s">
-        <v>11</v>
+        <v>293</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -11299,10 +11893,10 @@
         <v>8</v>
       </c>
       <c r="C159" s="68" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D159" s="69" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -11313,10 +11907,10 @@
         <v>8</v>
       </c>
       <c r="C160" s="68" t="s">
-        <v>393</v>
+        <v>20</v>
       </c>
       <c r="D160" s="69" t="s">
-        <v>394</v>
+        <v>65</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -11327,10 +11921,10 @@
         <v>8</v>
       </c>
       <c r="C161" s="68" t="s">
-        <v>9</v>
+        <v>393</v>
       </c>
       <c r="D161" s="69" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -11341,10 +11935,10 @@
         <v>8</v>
       </c>
       <c r="C162" s="68" t="s">
-        <v>362</v>
+        <v>9</v>
       </c>
       <c r="D162" s="69" t="s">
-        <v>363</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -11355,10 +11949,10 @@
         <v>8</v>
       </c>
       <c r="C163" s="68" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D163" s="69" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -11366,13 +11960,13 @@
         <v>8</v>
       </c>
       <c r="B164" s="70" t="s">
-        <v>443</v>
+        <v>8</v>
       </c>
       <c r="C164" s="68" t="s">
         <v>364</v>
       </c>
       <c r="D164" s="69" t="s">
-        <v>442</v>
+        <v>365</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -11380,69 +11974,69 @@
         <v>8</v>
       </c>
       <c r="B165" s="70" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C165" s="68" t="s">
         <v>364</v>
       </c>
       <c r="D165" s="69" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="B166" s="60" t="s">
-        <v>507</v>
-      </c>
-      <c r="C166" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="D166" s="61" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A166" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" s="70" t="s">
+        <v>442</v>
+      </c>
+      <c r="C166" s="68" t="s">
+        <v>364</v>
+      </c>
+      <c r="D166" s="69" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" s="71" t="s">
         <v>330</v>
       </c>
-      <c r="B167" s="129" t="s">
-        <v>437</v>
-      </c>
-      <c r="C167" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="D167" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" s="3" customFormat="1" ht="30">
+      <c r="B167" s="60" t="s">
+        <v>506</v>
+      </c>
+      <c r="C167" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="D167" s="61" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1">
       <c r="A168" s="71" t="s">
         <v>330</v>
       </c>
       <c r="B168" s="129" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="D168" s="12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" s="3" customFormat="1" ht="30">
+      <c r="A169" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="B169" s="129" t="s">
+        <v>436</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="D169" s="12" t="s">
         <v>328</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A169" s="72" t="s">
-        <v>330</v>
-      </c>
-      <c r="B169" s="129" t="s">
-        <v>437</v>
-      </c>
-      <c r="C169" s="62" t="s">
-        <v>352</v>
-      </c>
-      <c r="D169" s="12" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="170" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
@@ -11450,41 +12044,41 @@
         <v>330</v>
       </c>
       <c r="B170" s="129" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C170" s="62" t="s">
-        <v>428</v>
+        <v>352</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" s="3" customFormat="1" ht="76.5" customHeight="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
       <c r="A171" s="72" t="s">
         <v>330</v>
       </c>
       <c r="B171" s="129" t="s">
-        <v>508</v>
-      </c>
-      <c r="C171" s="12" t="s">
-        <v>333</v>
+        <v>436</v>
+      </c>
+      <c r="C171" s="62" t="s">
+        <v>428</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" s="3" customFormat="1" ht="76.5" customHeight="1">
       <c r="A172" s="72" t="s">
         <v>330</v>
       </c>
       <c r="B172" s="129" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>436</v>
+        <v>332</v>
       </c>
     </row>
     <row r="173" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
@@ -11492,55 +12086,55 @@
         <v>330</v>
       </c>
       <c r="B173" s="129" t="s">
+        <v>508</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A174" s="72" t="s">
+        <v>330</v>
+      </c>
+      <c r="B174" s="129" t="s">
         <v>430</v>
       </c>
-      <c r="C173" s="12" t="s">
+      <c r="C174" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="D173" s="12" t="s">
+      <c r="D174" s="12" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="74" t="s">
-        <v>189</v>
-      </c>
-      <c r="B174" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="C174" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
+    <row r="175" spans="1:4">
       <c r="A175" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="B175" s="63" t="s">
+      <c r="B175" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="C175" s="64" t="s">
-        <v>432</v>
-      </c>
-      <c r="D175" s="65" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="C175" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
       <c r="A176" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="B176" s="10" t="s">
+      <c r="B176" s="63" t="s">
         <v>321</v>
       </c>
-      <c r="C176" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="D176" s="11" t="s">
-        <v>323</v>
+      <c r="C176" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="D176" s="65" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -11551,52 +12145,52 @@
         <v>321</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" s="4" customFormat="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="B178" s="73" t="s">
+      <c r="B178" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" s="4" customFormat="1">
+      <c r="A179" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="B179" s="73" t="s">
         <v>316</v>
       </c>
-      <c r="C178" s="65" t="s">
+      <c r="C179" s="65" t="s">
         <v>315</v>
       </c>
-      <c r="D178" s="65" t="s">
+      <c r="D179" s="65" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="75" t="s">
+    <row r="180" spans="1:4">
+      <c r="A180" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="B180" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C179" s="11" t="s">
+      <c r="C180" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="D179" s="65" t="s">
+      <c r="D180" s="65" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="113" t="s">
-        <v>193</v>
-      </c>
-      <c r="B180" s="113" t="s">
-        <v>191</v>
-      </c>
-      <c r="C180" s="115" t="s">
-        <v>195</v>
-      </c>
-      <c r="D180" s="115" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -11607,38 +12201,38 @@
         <v>191</v>
       </c>
       <c r="C181" s="115" t="s">
+        <v>195</v>
+      </c>
+      <c r="D181" s="115" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="113" t="s">
+        <v>193</v>
+      </c>
+      <c r="B182" s="113" t="s">
+        <v>191</v>
+      </c>
+      <c r="C182" s="115" t="s">
         <v>197</v>
       </c>
-      <c r="D181" s="115" t="s">
+      <c r="D182" s="115" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="182" spans="1:4" s="3" customFormat="1">
-      <c r="A182" s="132" t="s">
-        <v>252</v>
-      </c>
-      <c r="B182" s="157" t="s">
-        <v>254</v>
-      </c>
-      <c r="C182" s="133" t="s">
-        <v>255</v>
-      </c>
-      <c r="D182" s="134" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" s="86" customFormat="1">
+    <row r="183" spans="1:4" s="3" customFormat="1">
       <c r="A183" s="132" t="s">
         <v>252</v>
       </c>
       <c r="B183" s="157" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="C183" s="133" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="D183" s="134" t="s">
-        <v>311</v>
+        <v>253</v>
       </c>
     </row>
     <row r="184" spans="1:4" s="86" customFormat="1">
@@ -11646,69 +12240,69 @@
         <v>252</v>
       </c>
       <c r="B184" s="157" t="s">
+        <v>295</v>
+      </c>
+      <c r="C184" s="133" t="s">
+        <v>294</v>
+      </c>
+      <c r="D184" s="134" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" s="86" customFormat="1">
+      <c r="A185" s="132" t="s">
+        <v>252</v>
+      </c>
+      <c r="B185" s="157" t="s">
         <v>288</v>
       </c>
-      <c r="C184" s="133" t="s">
+      <c r="C185" s="133" t="s">
         <v>287</v>
       </c>
-      <c r="D184" s="134" t="s">
+      <c r="D185" s="134" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="185" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A185" s="135" t="s">
+    <row r="186" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A186" s="135" t="s">
         <v>252</v>
       </c>
-      <c r="B185" s="157" t="s">
-        <v>469</v>
-      </c>
-      <c r="C185" s="136" t="s">
+      <c r="B186" s="157" t="s">
+        <v>468</v>
+      </c>
+      <c r="C186" s="136" t="s">
         <v>379</v>
       </c>
-      <c r="D185" s="137" t="s">
+      <c r="D186" s="137" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="186" spans="1:4" s="38" customFormat="1" ht="144.75" customHeight="1">
-      <c r="A186" s="138" t="s">
+    <row r="187" spans="1:4" s="38" customFormat="1" ht="144.75" customHeight="1">
+      <c r="A187" s="138" t="s">
         <v>252</v>
       </c>
-      <c r="B186" s="158" t="s">
-        <v>510</v>
-      </c>
-      <c r="C186" s="136" t="s">
-        <v>494</v>
-      </c>
-      <c r="D186" s="137" t="s">
+      <c r="B187" s="158" t="s">
+        <v>509</v>
+      </c>
+      <c r="C187" s="136" t="s">
+        <v>493</v>
+      </c>
+      <c r="D187" s="137" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="159" t="s">
+    <row r="188" spans="1:4">
+      <c r="A188" s="159" t="s">
         <v>252</v>
       </c>
-      <c r="B187" s="160" t="s">
-        <v>518</v>
-      </c>
-      <c r="C187" s="161" t="s">
-        <v>520</v>
-      </c>
-      <c r="D187" s="161" t="s">
+      <c r="B188" s="160" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A188" s="138" t="s">
-        <v>252</v>
-      </c>
-      <c r="B188" s="158" t="s">
-        <v>440</v>
-      </c>
-      <c r="C188" s="139" t="s">
-        <v>464</v>
-      </c>
-      <c r="D188" s="137" t="s">
-        <v>438</v>
+      <c r="C188" s="161" t="s">
+        <v>519</v>
+      </c>
+      <c r="D188" s="161" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="189" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
@@ -11716,13 +12310,13 @@
         <v>252</v>
       </c>
       <c r="B189" s="158" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C189" s="139" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D189" s="137" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="190" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
@@ -11730,55 +12324,55 @@
         <v>252</v>
       </c>
       <c r="B190" s="158" t="s">
-        <v>441</v>
-      </c>
-      <c r="C190" s="140" t="s">
-        <v>446</v>
+        <v>439</v>
+      </c>
+      <c r="C190" s="139" t="s">
+        <v>464</v>
       </c>
       <c r="D190" s="137" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
       <c r="A191" s="138" t="s">
         <v>252</v>
       </c>
       <c r="B191" s="158" t="s">
-        <v>244</v>
-      </c>
-      <c r="C191" s="136" t="s">
-        <v>463</v>
+        <v>440</v>
+      </c>
+      <c r="C191" s="140" t="s">
+        <v>445</v>
       </c>
       <c r="D191" s="137" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1">
       <c r="A192" s="138" t="s">
         <v>252</v>
       </c>
       <c r="B192" s="158" t="s">
-        <v>445</v>
+        <v>244</v>
       </c>
       <c r="C192" s="136" t="s">
-        <v>523</v>
+        <v>462</v>
       </c>
       <c r="D192" s="137" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
       <c r="A193" s="138" t="s">
         <v>252</v>
       </c>
       <c r="B193" s="158" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="C193" s="136" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
       <c r="D193" s="137" t="s">
-        <v>529</v>
+        <v>456</v>
       </c>
     </row>
     <row r="194" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
@@ -11786,13 +12380,13 @@
         <v>252</v>
       </c>
       <c r="B194" s="158" t="s">
+        <v>460</v>
+      </c>
+      <c r="C194" s="136" t="s">
+        <v>461</v>
+      </c>
+      <c r="D194" s="137" t="s">
         <v>528</v>
-      </c>
-      <c r="C194" s="136" t="s">
-        <v>527</v>
-      </c>
-      <c r="D194" s="137" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="195" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
@@ -11800,41 +12394,41 @@
         <v>252</v>
       </c>
       <c r="B195" s="158" t="s">
+        <v>527</v>
+      </c>
+      <c r="C195" s="136" t="s">
         <v>526</v>
       </c>
-      <c r="C195" s="136" t="s">
-        <v>525</v>
-      </c>
       <c r="D195" s="137" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
       <c r="A196" s="138" t="s">
         <v>252</v>
       </c>
       <c r="B196" s="158" t="s">
-        <v>460</v>
+        <v>525</v>
       </c>
       <c r="C196" s="136" t="s">
+        <v>524</v>
+      </c>
+      <c r="D196" s="137" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A197" s="138" t="s">
+        <v>252</v>
+      </c>
+      <c r="B197" s="158" t="s">
+        <v>459</v>
+      </c>
+      <c r="C197" s="136" t="s">
+        <v>457</v>
+      </c>
+      <c r="D197" s="137" t="s">
         <v>458</v>
-      </c>
-      <c r="D196" s="137" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="123" t="s">
-        <v>224</v>
-      </c>
-      <c r="B197" s="123" t="s">
-        <v>225</v>
-      </c>
-      <c r="C197" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="D197" s="36" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -11845,10 +12439,10 @@
         <v>225</v>
       </c>
       <c r="C198" s="36" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="D198" s="36" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -11858,11 +12452,11 @@
       <c r="B199" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="C199" s="156" t="s">
-        <v>302</v>
+      <c r="C199" s="36" t="s">
+        <v>227</v>
       </c>
       <c r="D199" s="36" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -11873,10 +12467,10 @@
         <v>225</v>
       </c>
       <c r="C200" s="156" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D200" s="36" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -11886,11 +12480,11 @@
       <c r="B201" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="C201" s="180" t="s">
-        <v>307</v>
+      <c r="C201" s="156" t="s">
+        <v>309</v>
       </c>
       <c r="D201" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -11904,7 +12498,7 @@
         <v>307</v>
       </c>
       <c r="D202" s="36" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -11915,10 +12509,10 @@
         <v>225</v>
       </c>
       <c r="C203" s="180" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D203" s="36" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -11928,37 +12522,37 @@
       <c r="B204" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="C204" s="181" t="s">
+      <c r="C204" s="180" t="s">
+        <v>310</v>
+      </c>
+      <c r="D204" s="36" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="123" t="s">
+        <v>224</v>
+      </c>
+      <c r="B205" s="123" t="s">
+        <v>225</v>
+      </c>
+      <c r="C205" s="181" t="s">
         <v>396</v>
       </c>
-      <c r="D204" s="36"/>
-    </row>
-    <row r="205" spans="1:4" s="179" customFormat="1" ht="15.75">
-      <c r="A205" s="182" t="s">
-        <v>224</v>
-      </c>
-      <c r="B205" s="182" t="s">
-        <v>225</v>
-      </c>
-      <c r="C205" s="183" t="s">
-        <v>590</v>
-      </c>
-      <c r="D205" s="184" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+      <c r="D205" s="36"/>
+    </row>
+    <row r="206" spans="1:4" s="179" customFormat="1" ht="15.75">
       <c r="A206" s="182" t="s">
         <v>224</v>
       </c>
       <c r="B206" s="182" t="s">
         <v>225</v>
       </c>
-      <c r="C206" s="185" t="s">
-        <v>591</v>
-      </c>
-      <c r="D206" s="186" t="s">
-        <v>592</v>
+      <c r="C206" s="183" t="s">
+        <v>589</v>
+      </c>
+      <c r="D206" s="184" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -11969,14 +12563,28 @@
         <v>225</v>
       </c>
       <c r="C207" s="185" t="s">
+        <v>590</v>
+      </c>
+      <c r="D207" s="186" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="182" t="s">
+        <v>224</v>
+      </c>
+      <c r="B208" s="182" t="s">
+        <v>225</v>
+      </c>
+      <c r="C208" s="185" t="s">
+        <v>592</v>
+      </c>
+      <c r="D208" s="186" t="s">
         <v>593</v>
       </c>
-      <c r="D207" s="186" t="s">
-        <v>594</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D203" xr:uid="{85ED3410-72EE-453D-8BB3-FB7E07F682B1}"/>
+  <autoFilter ref="A2:D204" xr:uid="{85ED3410-72EE-453D-8BB3-FB7E07F682B1}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -11988,10 +12596,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C42D88-9A2B-46D3-B46D-33526406379A}">
-  <dimension ref="A1:E223"/>
+  <dimension ref="A1:E228"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25"/>
@@ -12005,13 +12613,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="197" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="191"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="199"/>
     </row>
     <row r="2" spans="1:5" ht="207" customHeight="1">
       <c r="A2" s="43" t="s">
@@ -12049,11 +12657,11 @@
         <v>225</v>
       </c>
       <c r="C4" s="164" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="166" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="207" customHeight="1">
@@ -12079,11 +12687,11 @@
         <v>225</v>
       </c>
       <c r="C6" s="162" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="54" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="207" customHeight="1">
@@ -12094,11 +12702,11 @@
         <v>225</v>
       </c>
       <c r="C7" s="162" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="54" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="207" customHeight="1">
@@ -12109,11 +12717,11 @@
         <v>225</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="54" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="207" customHeight="1">
@@ -12124,7 +12732,7 @@
         <v>225</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="54" t="s">
@@ -12139,11 +12747,11 @@
         <v>225</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="54" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="207" customHeight="1">
@@ -12154,11 +12762,11 @@
         <v>225</v>
       </c>
       <c r="C11" s="164" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D11" s="43"/>
       <c r="E11" s="165" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="207" customHeight="1">
@@ -12185,7 +12793,7 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="57" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="207" customHeight="1">
@@ -12198,7 +12806,7 @@
       <c r="C14" s="58"/>
       <c r="D14" s="5"/>
       <c r="E14" s="57" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="207" customHeight="1">
@@ -12211,12 +12819,16 @@
       <c r="C15" s="58"/>
       <c r="D15" s="5"/>
       <c r="E15" s="57" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="207" customHeight="1">
-      <c r="A16" s="44"/>
-      <c r="B16" s="163"/>
+      <c r="A16" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="163" t="s">
+        <v>225</v>
+      </c>
       <c r="C16" s="58"/>
       <c r="D16" s="5"/>
       <c r="E16" s="57"/>
@@ -12225,75 +12837,59 @@
       <c r="A17" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="B17" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>435</v>
-      </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="66" t="s">
-        <v>434</v>
+      <c r="B17" s="163" t="s">
+        <v>595</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="57" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="207" customHeight="1">
       <c r="A18" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="163" t="s">
+        <v>595</v>
+      </c>
+      <c r="C18" s="187" t="s">
+        <v>598</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="57" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="408.95" customHeight="1">
+      <c r="A19" s="208" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="206" t="s">
+        <v>599</v>
+      </c>
+      <c r="C19" s="200"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="204"/>
+    </row>
+    <row r="20" spans="1:5" ht="351.75" customHeight="1">
+      <c r="A20" s="207"/>
+      <c r="B20" s="207"/>
+      <c r="C20" s="201"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="205"/>
+    </row>
+    <row r="21" spans="1:5" s="193" customFormat="1" ht="158.25" customHeight="1">
+      <c r="A21" s="189" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="190" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="54" t="s">
-        <v>559</v>
-      </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="54" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="207" customHeight="1">
-      <c r="A19" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>560</v>
-      </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="54" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="207" customHeight="1">
-      <c r="A20" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>423</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>421</v>
-      </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="54" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="207" customHeight="1">
-      <c r="A21" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>414</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>309</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="57" t="s">
-        <v>305</v>
+      <c r="C21" s="191"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="194" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="207" customHeight="1">
@@ -12301,14 +12897,12 @@
         <v>224</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>413</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>561</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C22" s="54"/>
       <c r="D22" s="43"/>
-      <c r="E22" s="54" t="s">
-        <v>401</v>
+      <c r="E22" s="66" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="207" customHeight="1">
@@ -12316,14 +12910,14 @@
         <v>224</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>412</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>410</v>
+        <v>225</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>558</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="54" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="207" customHeight="1">
@@ -12333,12 +12927,12 @@
       <c r="B24" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="C24" s="45" t="s">
-        <v>403</v>
+      <c r="C24" s="54" t="s">
+        <v>559</v>
       </c>
       <c r="D24" s="43"/>
       <c r="E24" s="54" t="s">
-        <v>402</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="207" customHeight="1">
@@ -12346,14 +12940,14 @@
         <v>224</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>225</v>
+        <v>423</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="D25" s="43"/>
       <c r="E25" s="54" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="207" customHeight="1">
@@ -12361,14 +12955,14 @@
         <v>224</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>419</v>
-      </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="54" t="s">
-        <v>420</v>
+        <v>414</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>309</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="57" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="207" customHeight="1">
@@ -12376,14 +12970,14 @@
         <v>224</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>415</v>
+        <v>413</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>560</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="54" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="207" customHeight="1">
@@ -12391,76 +12985,116 @@
         <v>224</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>450</v>
+        <v>412</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>410</v>
       </c>
       <c r="D28" s="43"/>
       <c r="E28" s="54" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="207" customHeight="1">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
+      <c r="A29" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>403</v>
+      </c>
       <c r="D29" s="43"/>
-      <c r="E29" s="54"/>
+      <c r="E29" s="54" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="207" customHeight="1">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
+      <c r="A30" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>404</v>
+      </c>
       <c r="D30" s="43"/>
-      <c r="E30" s="54"/>
+      <c r="E30" s="54" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="207" customHeight="1">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
+      <c r="A31" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>419</v>
+      </c>
       <c r="D31" s="43"/>
-      <c r="E31" s="54"/>
+      <c r="E31" s="54" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="207" customHeight="1">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
+      <c r="A32" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>415</v>
+      </c>
       <c r="D32" s="43"/>
-      <c r="E32" s="54"/>
+      <c r="E32" s="54" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="207" customHeight="1">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="45"/>
+      <c r="A33" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="D33" s="43"/>
-      <c r="E33" s="54"/>
+      <c r="E33" s="54" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="207" customHeight="1">
       <c r="A34" s="43"/>
       <c r="B34" s="43"/>
-      <c r="C34" s="45"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="43"/>
       <c r="E34" s="54"/>
     </row>
     <row r="35" spans="1:5" ht="207" customHeight="1">
       <c r="A35" s="43"/>
       <c r="B35" s="43"/>
-      <c r="C35" s="45"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="43"/>
       <c r="E35" s="54"/>
     </row>
     <row r="36" spans="1:5" ht="207" customHeight="1">
       <c r="A36" s="43"/>
       <c r="B36" s="43"/>
-      <c r="C36" s="45"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="43"/>
       <c r="E36" s="54"/>
     </row>
     <row r="37" spans="1:5" ht="207" customHeight="1">
       <c r="A37" s="43"/>
       <c r="B37" s="43"/>
-      <c r="C37" s="45"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="43"/>
       <c r="E37" s="54"/>
     </row>
@@ -12607,7 +13241,7 @@
     <row r="58" spans="1:5" ht="207" customHeight="1">
       <c r="A58" s="43"/>
       <c r="B58" s="43"/>
-      <c r="C58" s="48"/>
+      <c r="C58" s="45"/>
       <c r="D58" s="43"/>
       <c r="E58" s="54"/>
     </row>
@@ -12635,14 +13269,14 @@
     <row r="62" spans="1:5" ht="207" customHeight="1">
       <c r="A62" s="43"/>
       <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
+      <c r="C62" s="45"/>
       <c r="D62" s="43"/>
       <c r="E62" s="54"/>
     </row>
     <row r="63" spans="1:5" ht="207" customHeight="1">
       <c r="A63" s="43"/>
       <c r="B63" s="43"/>
-      <c r="C63" s="45"/>
+      <c r="C63" s="48"/>
       <c r="D63" s="43"/>
       <c r="E63" s="54"/>
     </row>
@@ -12656,14 +13290,14 @@
     <row r="65" spans="1:5" ht="207" customHeight="1">
       <c r="A65" s="43"/>
       <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
+      <c r="C65" s="45"/>
       <c r="D65" s="43"/>
       <c r="E65" s="54"/>
     </row>
     <row r="66" spans="1:5" ht="207" customHeight="1">
       <c r="A66" s="43"/>
       <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
+      <c r="C66" s="45"/>
       <c r="D66" s="43"/>
       <c r="E66" s="54"/>
     </row>
@@ -12677,14 +13311,14 @@
     <row r="68" spans="1:5" ht="207" customHeight="1">
       <c r="A68" s="43"/>
       <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
+      <c r="C68" s="45"/>
       <c r="D68" s="43"/>
       <c r="E68" s="54"/>
     </row>
     <row r="69" spans="1:5" ht="207" customHeight="1">
       <c r="A69" s="43"/>
       <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
+      <c r="C69" s="45"/>
       <c r="D69" s="43"/>
       <c r="E69" s="54"/>
     </row>
@@ -12697,113 +13331,113 @@
     </row>
     <row r="71" spans="1:5" ht="207" customHeight="1">
       <c r="A71" s="43"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="50"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
       <c r="D71" s="43"/>
       <c r="E71" s="54"/>
     </row>
     <row r="72" spans="1:5" ht="207" customHeight="1">
       <c r="A72" s="43"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="51"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
       <c r="D72" s="43"/>
       <c r="E72" s="54"/>
     </row>
     <row r="73" spans="1:5" ht="207" customHeight="1">
       <c r="A73" s="43"/>
-      <c r="B73" s="49"/>
-      <c r="C73" s="51"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
       <c r="D73" s="43"/>
       <c r="E73" s="54"/>
     </row>
     <row r="74" spans="1:5" ht="207" customHeight="1">
       <c r="A74" s="43"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="51"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
       <c r="D74" s="43"/>
       <c r="E74" s="54"/>
     </row>
     <row r="75" spans="1:5" ht="207" customHeight="1">
       <c r="A75" s="43"/>
-      <c r="B75" s="49"/>
-      <c r="C75" s="51"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
       <c r="D75" s="43"/>
       <c r="E75" s="54"/>
     </row>
     <row r="76" spans="1:5" ht="207" customHeight="1">
       <c r="A76" s="43"/>
       <c r="B76" s="49"/>
-      <c r="C76" s="51"/>
+      <c r="C76" s="50"/>
       <c r="D76" s="43"/>
       <c r="E76" s="54"/>
     </row>
     <row r="77" spans="1:5" ht="207" customHeight="1">
       <c r="A77" s="43"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="50"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="51"/>
       <c r="D77" s="43"/>
       <c r="E77" s="54"/>
     </row>
     <row r="78" spans="1:5" ht="207" customHeight="1">
       <c r="A78" s="43"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="50"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="51"/>
       <c r="D78" s="43"/>
       <c r="E78" s="54"/>
     </row>
     <row r="79" spans="1:5" ht="207" customHeight="1">
       <c r="A79" s="43"/>
       <c r="B79" s="49"/>
-      <c r="C79" s="50"/>
+      <c r="C79" s="51"/>
       <c r="D79" s="43"/>
       <c r="E79" s="54"/>
     </row>
     <row r="80" spans="1:5" ht="207" customHeight="1">
       <c r="A80" s="43"/>
       <c r="B80" s="49"/>
-      <c r="C80" s="52"/>
+      <c r="C80" s="51"/>
       <c r="D80" s="43"/>
       <c r="E80" s="54"/>
     </row>
     <row r="81" spans="1:5" ht="207" customHeight="1">
       <c r="A81" s="43"/>
-      <c r="B81" s="50"/>
-      <c r="C81" s="50"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="51"/>
       <c r="D81" s="43"/>
       <c r="E81" s="54"/>
     </row>
     <row r="82" spans="1:5" ht="207" customHeight="1">
       <c r="A82" s="43"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="50"/>
       <c r="D82" s="43"/>
       <c r="E82" s="54"/>
     </row>
     <row r="83" spans="1:5" ht="207" customHeight="1">
       <c r="A83" s="43"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="50"/>
       <c r="D83" s="43"/>
       <c r="E83" s="54"/>
     </row>
     <row r="84" spans="1:5" ht="207" customHeight="1">
       <c r="A84" s="43"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
+      <c r="B84" s="49"/>
+      <c r="C84" s="50"/>
       <c r="D84" s="43"/>
       <c r="E84" s="54"/>
     </row>
     <row r="85" spans="1:5" ht="207" customHeight="1">
       <c r="A85" s="43"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="52"/>
       <c r="D85" s="43"/>
       <c r="E85" s="54"/>
     </row>
     <row r="86" spans="1:5" ht="207" customHeight="1">
       <c r="A86" s="43"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
+      <c r="B86" s="50"/>
+      <c r="C86" s="50"/>
       <c r="D86" s="43"/>
       <c r="E86" s="54"/>
     </row>
@@ -12823,29 +13457,29 @@
     </row>
     <row r="89" spans="1:5" ht="207" customHeight="1">
       <c r="A89" s="43"/>
-      <c r="B89" s="49"/>
+      <c r="B89" s="43"/>
       <c r="C89" s="43"/>
       <c r="D89" s="43"/>
       <c r="E89" s="54"/>
     </row>
     <row r="90" spans="1:5" ht="207" customHeight="1">
       <c r="A90" s="43"/>
-      <c r="B90" s="49"/>
-      <c r="C90" s="45"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
       <c r="D90" s="43"/>
       <c r="E90" s="54"/>
     </row>
     <row r="91" spans="1:5" ht="207" customHeight="1">
       <c r="A91" s="43"/>
-      <c r="B91" s="50"/>
-      <c r="C91" s="45"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
       <c r="D91" s="43"/>
       <c r="E91" s="54"/>
     </row>
     <row r="92" spans="1:5" ht="207" customHeight="1">
       <c r="A92" s="43"/>
-      <c r="B92" s="50"/>
-      <c r="C92" s="45"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
       <c r="D92" s="43"/>
       <c r="E92" s="54"/>
     </row>
@@ -12859,65 +13493,65 @@
     <row r="94" spans="1:5" ht="207" customHeight="1">
       <c r="A94" s="43"/>
       <c r="B94" s="49"/>
-      <c r="C94" s="45"/>
+      <c r="C94" s="43"/>
       <c r="D94" s="43"/>
       <c r="E94" s="54"/>
     </row>
     <row r="95" spans="1:5" ht="207" customHeight="1">
       <c r="A95" s="43"/>
-      <c r="B95" s="43"/>
-      <c r="C95" s="43"/>
+      <c r="B95" s="49"/>
+      <c r="C95" s="45"/>
       <c r="D95" s="43"/>
       <c r="E95" s="54"/>
     </row>
     <row r="96" spans="1:5" ht="207" customHeight="1">
       <c r="A96" s="43"/>
-      <c r="B96" s="43"/>
-      <c r="C96" s="43"/>
+      <c r="B96" s="50"/>
+      <c r="C96" s="45"/>
       <c r="D96" s="43"/>
       <c r="E96" s="54"/>
     </row>
     <row r="97" spans="1:5" ht="207" customHeight="1">
       <c r="A97" s="43"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="43"/>
+      <c r="B97" s="50"/>
+      <c r="C97" s="45"/>
       <c r="D97" s="43"/>
       <c r="E97" s="54"/>
     </row>
     <row r="98" spans="1:5" ht="207" customHeight="1">
       <c r="A98" s="43"/>
-      <c r="B98" s="50"/>
-      <c r="C98" s="50"/>
-      <c r="D98" s="50"/>
-      <c r="E98" s="55"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="54"/>
     </row>
     <row r="99" spans="1:5" ht="207" customHeight="1">
       <c r="A99" s="43"/>
-      <c r="B99" s="50"/>
-      <c r="C99" s="50"/>
-      <c r="D99" s="50"/>
-      <c r="E99" s="55"/>
+      <c r="B99" s="49"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="54"/>
     </row>
     <row r="100" spans="1:5" ht="207" customHeight="1">
       <c r="A100" s="43"/>
-      <c r="B100" s="50"/>
-      <c r="C100" s="50"/>
-      <c r="D100" s="50"/>
-      <c r="E100" s="55"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="54"/>
     </row>
     <row r="101" spans="1:5" ht="207" customHeight="1">
       <c r="A101" s="43"/>
-      <c r="B101" s="50"/>
-      <c r="C101" s="50"/>
-      <c r="D101" s="50"/>
-      <c r="E101" s="55"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="54"/>
     </row>
     <row r="102" spans="1:5" ht="207" customHeight="1">
       <c r="A102" s="43"/>
-      <c r="B102" s="50"/>
-      <c r="C102" s="50"/>
-      <c r="D102" s="50"/>
-      <c r="E102" s="55"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="54"/>
     </row>
     <row r="103" spans="1:5" ht="207" customHeight="1">
       <c r="A103" s="43"/>
@@ -12935,8 +13569,8 @@
     </row>
     <row r="105" spans="1:5" ht="207" customHeight="1">
       <c r="A105" s="43"/>
-      <c r="B105" s="49"/>
-      <c r="C105" s="49"/>
+      <c r="B105" s="50"/>
+      <c r="C105" s="50"/>
       <c r="D105" s="50"/>
       <c r="E105" s="55"/>
     </row>
@@ -12970,50 +13604,50 @@
     </row>
     <row r="110" spans="1:5" ht="207" customHeight="1">
       <c r="A110" s="43"/>
-      <c r="B110" s="50"/>
-      <c r="C110" s="50"/>
+      <c r="B110" s="49"/>
+      <c r="C110" s="49"/>
       <c r="D110" s="50"/>
       <c r="E110" s="55"/>
     </row>
     <row r="111" spans="1:5" ht="207" customHeight="1">
       <c r="A111" s="43"/>
-      <c r="B111" s="43"/>
-      <c r="C111" s="43"/>
-      <c r="D111" s="43"/>
-      <c r="E111" s="54"/>
+      <c r="B111" s="50"/>
+      <c r="C111" s="50"/>
+      <c r="D111" s="50"/>
+      <c r="E111" s="55"/>
     </row>
     <row r="112" spans="1:5" ht="207" customHeight="1">
       <c r="A112" s="43"/>
-      <c r="B112" s="43"/>
-      <c r="C112" s="45"/>
-      <c r="D112" s="43"/>
-      <c r="E112" s="54"/>
+      <c r="B112" s="50"/>
+      <c r="C112" s="50"/>
+      <c r="D112" s="50"/>
+      <c r="E112" s="55"/>
     </row>
     <row r="113" spans="1:5" ht="207" customHeight="1">
       <c r="A113" s="43"/>
-      <c r="B113" s="43"/>
-      <c r="C113" s="43"/>
-      <c r="D113" s="43"/>
-      <c r="E113" s="54"/>
+      <c r="B113" s="50"/>
+      <c r="C113" s="50"/>
+      <c r="D113" s="50"/>
+      <c r="E113" s="55"/>
     </row>
     <row r="114" spans="1:5" ht="207" customHeight="1">
       <c r="A114" s="43"/>
-      <c r="B114" s="43"/>
-      <c r="C114" s="43"/>
-      <c r="D114" s="43"/>
-      <c r="E114" s="54"/>
+      <c r="B114" s="50"/>
+      <c r="C114" s="50"/>
+      <c r="D114" s="50"/>
+      <c r="E114" s="55"/>
     </row>
     <row r="115" spans="1:5" ht="207" customHeight="1">
       <c r="A115" s="43"/>
-      <c r="B115" s="43"/>
-      <c r="C115" s="43"/>
-      <c r="D115" s="43"/>
-      <c r="E115" s="54"/>
+      <c r="B115" s="50"/>
+      <c r="C115" s="50"/>
+      <c r="D115" s="50"/>
+      <c r="E115" s="55"/>
     </row>
     <row r="116" spans="1:5" ht="207" customHeight="1">
       <c r="A116" s="43"/>
       <c r="B116" s="43"/>
-      <c r="C116" s="45"/>
+      <c r="C116" s="43"/>
       <c r="D116" s="43"/>
       <c r="E116" s="54"/>
     </row>
@@ -13027,7 +13661,7 @@
     <row r="118" spans="1:5" ht="207" customHeight="1">
       <c r="A118" s="43"/>
       <c r="B118" s="43"/>
-      <c r="C118" s="45"/>
+      <c r="C118" s="43"/>
       <c r="D118" s="43"/>
       <c r="E118" s="54"/>
     </row>
@@ -13048,21 +13682,21 @@
     <row r="121" spans="1:5" ht="207" customHeight="1">
       <c r="A121" s="43"/>
       <c r="B121" s="43"/>
-      <c r="C121" s="43"/>
+      <c r="C121" s="45"/>
       <c r="D121" s="43"/>
       <c r="E121" s="54"/>
     </row>
     <row r="122" spans="1:5" ht="207" customHeight="1">
       <c r="A122" s="43"/>
       <c r="B122" s="43"/>
-      <c r="C122" s="43"/>
+      <c r="C122" s="45"/>
       <c r="D122" s="43"/>
       <c r="E122" s="54"/>
     </row>
     <row r="123" spans="1:5" ht="207" customHeight="1">
       <c r="A123" s="43"/>
       <c r="B123" s="43"/>
-      <c r="C123" s="43"/>
+      <c r="C123" s="45"/>
       <c r="D123" s="43"/>
       <c r="E123" s="54"/>
     </row>
@@ -13146,7 +13780,7 @@
     <row r="135" spans="1:5" ht="207" customHeight="1">
       <c r="A135" s="43"/>
       <c r="B135" s="43"/>
-      <c r="C135" s="45"/>
+      <c r="C135" s="43"/>
       <c r="D135" s="43"/>
       <c r="E135" s="54"/>
     </row>
@@ -13174,7 +13808,7 @@
     <row r="139" spans="1:5" ht="207" customHeight="1">
       <c r="A139" s="43"/>
       <c r="B139" s="43"/>
-      <c r="C139" s="45"/>
+      <c r="C139" s="43"/>
       <c r="D139" s="43"/>
       <c r="E139" s="54"/>
     </row>
@@ -13188,14 +13822,14 @@
     <row r="141" spans="1:5" ht="207" customHeight="1">
       <c r="A141" s="43"/>
       <c r="B141" s="43"/>
-      <c r="C141" s="45"/>
+      <c r="C141" s="43"/>
       <c r="D141" s="43"/>
       <c r="E141" s="54"/>
     </row>
     <row r="142" spans="1:5" ht="207" customHeight="1">
       <c r="A142" s="43"/>
       <c r="B142" s="43"/>
-      <c r="C142" s="45"/>
+      <c r="C142" s="43"/>
       <c r="D142" s="43"/>
       <c r="E142" s="54"/>
     </row>
@@ -13209,22 +13843,52 @@
     <row r="144" spans="1:5" ht="207" customHeight="1">
       <c r="A144" s="43"/>
       <c r="B144" s="43"/>
-      <c r="C144" s="43"/>
+      <c r="C144" s="45"/>
       <c r="D144" s="43"/>
       <c r="E144" s="54"/>
     </row>
     <row r="145" spans="1:5" ht="207" customHeight="1">
       <c r="A145" s="43"/>
       <c r="B145" s="43"/>
-      <c r="C145" s="43"/>
+      <c r="C145" s="45"/>
       <c r="D145" s="43"/>
       <c r="E145" s="54"/>
     </row>
-    <row r="146" spans="1:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="147" spans="1:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="148" spans="1:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="149" spans="1:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="150" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="146" spans="1:5" ht="207" customHeight="1">
+      <c r="A146" s="43"/>
+      <c r="B146" s="43"/>
+      <c r="C146" s="45"/>
+      <c r="D146" s="43"/>
+      <c r="E146" s="54"/>
+    </row>
+    <row r="147" spans="1:5" ht="207" customHeight="1">
+      <c r="A147" s="43"/>
+      <c r="B147" s="43"/>
+      <c r="C147" s="45"/>
+      <c r="D147" s="43"/>
+      <c r="E147" s="54"/>
+    </row>
+    <row r="148" spans="1:5" ht="207" customHeight="1">
+      <c r="A148" s="43"/>
+      <c r="B148" s="43"/>
+      <c r="C148" s="43"/>
+      <c r="D148" s="43"/>
+      <c r="E148" s="54"/>
+    </row>
+    <row r="149" spans="1:5" ht="207" customHeight="1">
+      <c r="A149" s="43"/>
+      <c r="B149" s="43"/>
+      <c r="C149" s="43"/>
+      <c r="D149" s="43"/>
+      <c r="E149" s="54"/>
+    </row>
+    <row r="150" spans="1:5" ht="207" customHeight="1">
+      <c r="A150" s="43"/>
+      <c r="B150" s="43"/>
+      <c r="C150" s="43"/>
+      <c r="D150" s="43"/>
+      <c r="E150" s="54"/>
+    </row>
     <row r="151" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="152" spans="1:5" ht="20.100000000000001" customHeight="1"/>
     <row r="153" spans="1:5" ht="20.100000000000001" customHeight="1"/>
@@ -13298,9 +13962,19 @@
     <row r="221" ht="20.100000000000001" customHeight="1"/>
     <row r="222" ht="20.100000000000001" customHeight="1"/>
     <row r="223" ht="20.100000000000001" customHeight="1"/>
+    <row r="224" ht="20.100000000000001" customHeight="1"/>
+    <row r="225" ht="20.100000000000001" customHeight="1"/>
+    <row r="226" ht="20.100000000000001" customHeight="1"/>
+    <row r="227" ht="20.100000000000001" customHeight="1"/>
+    <row r="228" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -13325,11 +13999,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="16" t="s">
@@ -13394,7 +14068,7 @@
         <v>358</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="40" customFormat="1" ht="67.5" customHeight="1">
@@ -13405,7 +14079,7 @@
         <v>359</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">

--- a/Tutoriales/pandas/Comandos Pandas.xlsx
+++ b/Tutoriales/pandas/Comandos Pandas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseMaría\Documents\CURSOS\data_science\mitrabajo\Mirepositorio\Tutoriales\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3E83D0-D782-4973-8558-9686A2A09E5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FD1F1A-35EA-4D45-8A53-52DEE5B2BED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AF4018AA-EEB9-4756-B82D-183D37B3B80A}"/>
   </bookViews>
@@ -25,18 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="606">
   <si>
     <t>FUNCIONES DE PANDAS</t>
   </si>
@@ -4235,9 +4229,6 @@
     <t>Devuelve la suma de los valores para el eje solicitado. Sumará los valores de las columnas lo que sean integer o float, manteniendo las columnas</t>
   </si>
   <si>
-    <t>plt.xlim(-40,2000)                                                                                                                              plt.ylim(-1,80)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Indico que en el eje x haya valores de 0 a 2000 y en el eje y de 0 a 80.  </t>
     </r>
@@ -5479,218 +5470,6 @@
   </si>
   <si>
     <t>scatterplot diagrama de puntos</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lm = sns.lmplot(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF001080"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Age'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF001080"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Fare'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF001080"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> =</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> titanic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF001080"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Sex'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF001080"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fit_reg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>False</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)                                                                                               lm.set(title = 'Fare x Age')                                                                                                                                                                                                                     axes = lm.axes                                                                                                                                                                                                                                             axes[0,0].set_ylim(-5,)                                                                                                                                                                                                        axes[0,0].set_xlim(-5,85)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -6216,13 +5995,337 @@
   </si>
   <si>
     <t>Pone lineas verticales en el eje x en  la posición del eje que le pido, en este caso usando las fechas de un indice</t>
+  </si>
+  <si>
+    <r>
+      <t>porcentaje_muertes_casos.plot(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>figsize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>kind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'barh'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=colores_paises)</t>
+    </r>
+  </si>
+  <si>
+    <t>porcentaje_muertes_casos.plot(figsize=(10,5),kind='barh',color=colores_paises)</t>
+  </si>
+  <si>
+    <r>
+      <t>lm = sns.lmplot(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF001080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Age'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF001080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Fare'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF001080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> titanic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF001080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Sex'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF001080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fit_reg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)                                                                                               lm.set(title = 'Fare x Age')                                                                                                                                                                                                                     axes = lm.axes                                                                                                                                                                                                                                             axes[0,0].set_ylim(-5,)                                                                                                                                                                                                        axes[0,0].set_xlim(-5,85)</t>
+    </r>
+  </si>
+  <si>
+    <t>plt.xlim(-40,2000)                                                                                                                                              plt.ylim(-1,80)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="61">
+  <fonts count="65">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6619,6 +6722,30 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF001080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF098658"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="21">
     <fill>
@@ -6828,7 +6955,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7277,6 +7404,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8577,50 +8707,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>552450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>10210805</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1657350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Imagen 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77439EA6-BBF9-453B-9BF4-AD14EF93842A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4667249" y="32537400"/>
-          <a:ext cx="9944106" cy="1104900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -8646,7 +8732,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8690,7 +8776,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8734,7 +8820,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8778,7 +8864,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8822,7 +8908,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8866,7 +8952,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8886,15 +8972,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1066799</xdr:colOff>
+      <xdr:colOff>1238249</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>79245</xdr:rowOff>
+      <xdr:rowOff>208796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>8382000</xdr:colOff>
+      <xdr:colOff>7848600</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>2483343</xdr:rowOff>
+      <xdr:rowOff>2381249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8910,15 +8996,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5467349" y="39950895"/>
-          <a:ext cx="7315201" cy="2404098"/>
+          <a:off x="5638799" y="40080446"/>
+          <a:ext cx="6610351" cy="2172453"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8954,7 +9040,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8998,7 +9084,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9042,7 +9128,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9086,7 +9172,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9130,7 +9216,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9174,7 +9260,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9218,7 +9304,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9262,7 +9348,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9306,7 +9392,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9350,7 +9436,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9669,8 +9755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265136A6-C067-4B28-9F45-A6266FF6FD67}">
   <dimension ref="A1:D208"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138:XFD138"/>
+    <sheetView topLeftCell="C181" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="D188" sqref="D188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9682,16 +9768,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="102" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B2" s="87" t="s">
         <v>2</v>
@@ -9705,7 +9791,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="102" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B3" s="87" t="s">
         <v>2</v>
@@ -9719,7 +9805,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="102" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B4" s="87" t="s">
         <v>2</v>
@@ -9733,7 +9819,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="102" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B5" s="87" t="s">
         <v>2</v>
@@ -9747,7 +9833,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="102" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B6" s="87" t="s">
         <v>2</v>
@@ -9761,7 +9847,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="102" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B7" s="87" t="s">
         <v>2</v>
@@ -9775,13 +9861,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="102" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B8" s="87" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="89" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D8" s="89" t="s">
         <v>409</v>
@@ -9789,10 +9875,10 @@
     </row>
     <row r="9" spans="1:4" s="4" customFormat="1">
       <c r="A9" s="90" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C9" s="127" t="s">
         <v>4</v>
@@ -9803,13 +9889,13 @@
     </row>
     <row r="10" spans="1:4" s="4" customFormat="1">
       <c r="A10" s="90" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D10" s="127" t="s">
         <v>312</v>
@@ -9817,10 +9903,10 @@
     </row>
     <row r="11" spans="1:4" s="4" customFormat="1">
       <c r="A11" s="90" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B11" s="96" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C11" s="68" t="s">
         <v>372</v>
@@ -9831,10 +9917,10 @@
     </row>
     <row r="12" spans="1:4" s="4" customFormat="1" ht="30">
       <c r="A12" s="90" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C12" s="91" t="s">
         <v>377</v>
@@ -9845,10 +9931,10 @@
     </row>
     <row r="13" spans="1:4" s="4" customFormat="1">
       <c r="A13" s="90" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B13" s="96" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C13" s="68" t="s">
         <v>256</v>
@@ -9859,10 +9945,10 @@
     </row>
     <row r="14" spans="1:4" s="4" customFormat="1">
       <c r="A14" s="90" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B14" s="96" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C14" s="68" t="s">
         <v>88</v>
@@ -9873,10 +9959,10 @@
     </row>
     <row r="15" spans="1:4" s="3" customFormat="1" ht="30">
       <c r="A15" s="90" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B15" s="96" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C15" s="93" t="s">
         <v>55</v>
@@ -9887,10 +9973,10 @@
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" s="90" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B16" s="96" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C16" s="95" t="s">
         <v>326</v>
@@ -9901,10 +9987,10 @@
     </row>
     <row r="17" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="90" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B17" s="96" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C17" s="95" t="s">
         <v>190</v>
@@ -9918,7 +10004,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C18" s="98" t="s">
         <v>10</v>
@@ -9932,10 +10018,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C19" s="176" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D19" s="98" t="s">
         <v>12</v>
@@ -9946,7 +10032,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C20" s="98" t="s">
         <v>15</v>
@@ -9960,7 +10046,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C21" s="98" t="s">
         <v>63</v>
@@ -9974,7 +10060,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C22" s="98" t="s">
         <v>13</v>
@@ -9988,7 +10074,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C23" s="98" t="s">
         <v>64</v>
@@ -10013,7 +10099,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="99" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B25" s="101" t="s">
         <v>33</v>
@@ -10027,7 +10113,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="99" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B26" s="101" t="s">
         <v>33</v>
@@ -10041,16 +10127,16 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="99" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B27" s="101" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="175" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D27" s="100" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -10058,13 +10144,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="101" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C28" s="100" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D28" s="100" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -10072,21 +10158,21 @@
         <v>8</v>
       </c>
       <c r="B29" s="101" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C29" s="100" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D29" s="100" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="3" customFormat="1">
       <c r="A30" s="147" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B30" s="150" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C30" s="148" t="s">
         <v>279</v>
@@ -10097,10 +10183,10 @@
     </row>
     <row r="31" spans="1:4" s="3" customFormat="1">
       <c r="A31" s="147" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B31" s="150" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C31" s="148" t="s">
         <v>280</v>
@@ -10111,24 +10197,24 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="147" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B32" s="101" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C32" s="100" t="s">
+        <v>514</v>
+      </c>
+      <c r="D32" s="100" t="s">
         <v>515</v>
-      </c>
-      <c r="D32" s="100" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="60" t="s">
+        <v>477</v>
+      </c>
+      <c r="B33" s="71" t="s">
         <v>478</v>
-      </c>
-      <c r="B33" s="71" t="s">
-        <v>479</v>
       </c>
       <c r="C33" s="85" t="s">
         <v>18</v>
@@ -10139,7 +10225,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="60" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B34" s="71" t="s">
         <v>56</v>
@@ -10153,7 +10239,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="60" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B35" s="71" t="s">
         <v>60</v>
@@ -10167,7 +10253,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="60" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B36" s="71" t="s">
         <v>60</v>
@@ -10181,10 +10267,10 @@
     </row>
     <row r="37" spans="1:4" s="3" customFormat="1" ht="29.25" customHeight="1">
       <c r="A37" s="141" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B37" s="129" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>181</v>
@@ -10195,47 +10281,47 @@
     </row>
     <row r="38" spans="1:4" s="3" customFormat="1" ht="30">
       <c r="A38" s="141" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B38" s="129" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C38" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>454</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="4" customFormat="1">
       <c r="A39" s="141" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B39" s="142" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C39" s="188" t="s">
+        <v>598</v>
+      </c>
+      <c r="D39" s="188" t="s">
         <v>600</v>
-      </c>
-      <c r="D39" s="188" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="60" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B40" s="71" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C40" s="85" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D40" s="103"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="60" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B41" s="71" t="s">
         <v>6</v>
@@ -10249,7 +10335,7 @@
     </row>
     <row r="42" spans="1:4" s="107" customFormat="1" ht="14.25" customHeight="1">
       <c r="A42" s="60" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B42" s="71" t="s">
         <v>114</v>
@@ -10263,7 +10349,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="60" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B43" s="71" t="s">
         <v>114</v>
@@ -10277,7 +10363,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="60" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B44" s="71" t="s">
         <v>114</v>
@@ -10291,7 +10377,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="60" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B45" s="71" t="s">
         <v>92</v>
@@ -10305,7 +10391,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="142" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B46" s="71" t="s">
         <v>272</v>
@@ -10319,7 +10405,7 @@
     </row>
     <row r="47" spans="1:4" s="4" customFormat="1" ht="30">
       <c r="A47" s="142" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B47" s="72" t="s">
         <v>272</v>
@@ -10333,21 +10419,21 @@
     </row>
     <row r="48" spans="1:4" s="4" customFormat="1">
       <c r="A48" s="142" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B48" s="72" t="s">
         <v>272</v>
       </c>
       <c r="C48" s="143" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D48" s="144" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="3" customFormat="1">
       <c r="A49" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>244</v>
@@ -10361,7 +10447,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="60" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B50" s="71" t="s">
         <v>346</v>
@@ -10375,7 +10461,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="60" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B51" s="71" t="s">
         <v>350</v>
@@ -10392,7 +10478,7 @@
         <v>39</v>
       </c>
       <c r="B52" s="71" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C52" s="61" t="s">
         <v>380</v>
@@ -10403,10 +10489,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="60" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B53" s="71" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C53" s="85" t="s">
         <v>67</v>
@@ -10417,7 +10503,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="60" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B54" s="71" t="s">
         <v>6</v>
@@ -10431,7 +10517,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="60" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B55" s="71" t="s">
         <v>6</v>
@@ -10440,12 +10526,12 @@
         <v>125</v>
       </c>
       <c r="D55" s="103" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="60" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B56" s="71" t="s">
         <v>6</v>
@@ -10459,7 +10545,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="60" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B57" s="71" t="s">
         <v>6</v>
@@ -10473,7 +10559,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="60" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B58" s="71" t="s">
         <v>6</v>
@@ -10487,7 +10573,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="60" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B59" s="71" t="s">
         <v>6</v>
@@ -10501,7 +10587,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="60" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B60" s="71" t="s">
         <v>114</v>
@@ -10515,7 +10601,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="60" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B61" s="71" t="s">
         <v>114</v>
@@ -10529,7 +10615,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="60" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B62" s="71" t="s">
         <v>114</v>
@@ -10543,7 +10629,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="60" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B63" s="71" t="s">
         <v>114</v>
@@ -10557,7 +10643,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="60" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B64" s="71" t="s">
         <v>114</v>
@@ -10571,7 +10657,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="60" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B65" s="71" t="s">
         <v>114</v>
@@ -10585,7 +10671,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="60" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B66" s="71" t="s">
         <v>114</v>
@@ -10599,10 +10685,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="104" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B67" s="109" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C67" s="105" t="s">
         <v>156</v>
@@ -10613,10 +10699,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="104" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B68" s="109" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C68" s="105" t="s">
         <v>159</v>
@@ -10627,10 +10713,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="104" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B69" s="109" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C69" s="105" t="s">
         <v>162</v>
@@ -10641,10 +10727,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="104" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B70" s="109" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C70" s="146" t="s">
         <v>94</v>
@@ -10655,7 +10741,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="104" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B71" s="109" t="s">
         <v>186</v>
@@ -10669,7 +10755,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="104" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B72" s="109" t="s">
         <v>114</v>
@@ -10683,7 +10769,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="104" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B73" s="109" t="s">
         <v>114</v>
@@ -10697,10 +10783,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="104" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B74" s="109" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C74" s="146" t="s">
         <v>96</v>
@@ -10711,10 +10797,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="104" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B75" s="109" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C75" s="146" t="s">
         <v>249</v>
@@ -10725,7 +10811,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="79" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B76" s="76" t="s">
         <v>71</v>
@@ -10739,7 +10825,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="79" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B77" s="76" t="s">
         <v>84</v>
@@ -10753,7 +10839,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="79" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B78" s="76" t="s">
         <v>389</v>
@@ -10767,7 +10853,7 @@
     </row>
     <row r="79" spans="1:4" s="4" customFormat="1" ht="30">
       <c r="A79" s="124" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B79" s="125" t="s">
         <v>45</v>
@@ -10781,13 +10867,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="79" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B80" s="76" t="s">
         <v>118</v>
       </c>
       <c r="C80" s="77" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D80" s="77" t="s">
         <v>28</v>
@@ -10795,13 +10881,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="79" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B81" s="76" t="s">
         <v>26</v>
       </c>
       <c r="C81" s="77" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D81" s="77" t="s">
         <v>117</v>
@@ -10809,7 +10895,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="79" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B82" s="76" t="s">
         <v>26</v>
@@ -10823,7 +10909,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="79" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B83" s="76" t="s">
         <v>53</v>
@@ -10837,7 +10923,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="79" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B84" s="76" t="s">
         <v>122</v>
@@ -10885,7 +10971,7 @@
         <v>214</v>
       </c>
       <c r="C87" s="78" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D87" s="77" t="s">
         <v>216</v>
@@ -10910,13 +10996,13 @@
         <v>212</v>
       </c>
       <c r="B89" s="76" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C89" s="77" t="s">
+        <v>530</v>
+      </c>
+      <c r="D89" s="77" t="s">
         <v>531</v>
-      </c>
-      <c r="D89" s="77" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -10924,13 +11010,13 @@
         <v>212</v>
       </c>
       <c r="B90" s="76" t="s">
+        <v>534</v>
+      </c>
+      <c r="C90" s="77" t="s">
+        <v>533</v>
+      </c>
+      <c r="D90" s="77" t="s">
         <v>535</v>
-      </c>
-      <c r="C90" s="77" t="s">
-        <v>534</v>
-      </c>
-      <c r="D90" s="77" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -10938,13 +11024,13 @@
         <v>212</v>
       </c>
       <c r="B91" s="76" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C91" s="77" t="s">
+        <v>536</v>
+      </c>
+      <c r="D91" s="77" t="s">
         <v>537</v>
-      </c>
-      <c r="D91" s="77" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -10952,13 +11038,13 @@
         <v>212</v>
       </c>
       <c r="B92" s="76" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C92" s="77" t="s">
+        <v>539</v>
+      </c>
+      <c r="D92" s="77" t="s">
         <v>540</v>
-      </c>
-      <c r="D92" s="77" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -10966,13 +11052,13 @@
         <v>360</v>
       </c>
       <c r="B93" s="174" t="s">
+        <v>570</v>
+      </c>
+      <c r="C93" s="173" t="s">
+        <v>571</v>
+      </c>
+      <c r="D93" s="81" t="s">
         <v>572</v>
-      </c>
-      <c r="C93" s="173" t="s">
-        <v>573</v>
-      </c>
-      <c r="D93" s="81" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -10986,7 +11072,7 @@
         <v>78</v>
       </c>
       <c r="D94" s="81" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -11047,7 +11133,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="114" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B99" s="113" t="s">
         <v>40</v>
@@ -11061,7 +11147,7 @@
     </row>
     <row r="100" spans="1:4" s="3" customFormat="1">
       <c r="A100" s="114" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B100" s="145" t="s">
         <v>271</v>
@@ -11075,7 +11161,7 @@
     </row>
     <row r="101" spans="1:4" s="3" customFormat="1">
       <c r="A101" s="114" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B101" s="145" t="s">
         <v>271</v>
@@ -11089,7 +11175,7 @@
     </row>
     <row r="102" spans="1:4" s="3" customFormat="1">
       <c r="A102" s="114" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B102" s="145" t="s">
         <v>258</v>
@@ -11103,7 +11189,7 @@
     </row>
     <row r="103" spans="1:4" s="3" customFormat="1">
       <c r="A103" s="114" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B103" s="145" t="s">
         <v>268</v>
@@ -11117,7 +11203,7 @@
     </row>
     <row r="104" spans="1:4" s="3" customFormat="1">
       <c r="A104" s="114" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B104" s="145" t="s">
         <v>268</v>
@@ -11131,13 +11217,13 @@
     </row>
     <row r="105" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
       <c r="A105" s="119" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B105" s="120" t="s">
         <v>222</v>
       </c>
       <c r="C105" s="121" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D105" s="122" t="s">
         <v>223</v>
@@ -11145,7 +11231,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="119" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B106" s="35" t="s">
         <v>149</v>
@@ -11159,7 +11245,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="119" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B107" s="35" t="s">
         <v>150</v>
@@ -11173,7 +11259,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="119" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B108" s="35" t="s">
         <v>151</v>
@@ -11187,7 +11273,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="119" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B109" s="35" t="s">
         <v>148</v>
@@ -11201,13 +11287,13 @@
     </row>
     <row r="110" spans="1:4" ht="15.75">
       <c r="A110" s="167" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B110" s="167" t="s">
         <v>217</v>
       </c>
       <c r="C110" s="171" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D110" s="168" t="s">
         <v>218</v>
@@ -11215,16 +11301,16 @@
     </row>
     <row r="111" spans="1:4" ht="30">
       <c r="A111" s="169" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B111" s="169" t="s">
         <v>217</v>
       </c>
       <c r="C111" s="172" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D111" s="170" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="112" spans="1:4" s="3" customFormat="1">
@@ -11375,7 +11461,7 @@
         <v>299</v>
       </c>
       <c r="C122" s="61" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D122" s="61" t="s">
         <v>243</v>
@@ -11442,7 +11528,7 @@
         <v>1</v>
       </c>
       <c r="B127" s="71" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C127" s="61" t="s">
         <v>69</v>
@@ -11456,7 +11542,7 @@
         <v>1</v>
       </c>
       <c r="B128" s="71" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C128" s="61" t="s">
         <v>73</v>
@@ -11470,7 +11556,7 @@
         <v>1</v>
       </c>
       <c r="B129" s="71" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C129" s="61" t="s">
         <v>169</v>
@@ -11529,7 +11615,7 @@
         <v>76</v>
       </c>
       <c r="C133" s="84" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D133" s="61" t="s">
         <v>240</v>
@@ -11680,13 +11766,13 @@
         <v>80</v>
       </c>
       <c r="B144" s="82" t="s">
+        <v>424</v>
+      </c>
+      <c r="C144" s="81" t="s">
         <v>425</v>
       </c>
-      <c r="C144" s="81" t="s">
-        <v>426</v>
-      </c>
       <c r="D144" s="81" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -11753,10 +11839,10 @@
         <v>207</v>
       </c>
       <c r="C149" s="81" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D149" s="177" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -11764,13 +11850,13 @@
         <v>80</v>
       </c>
       <c r="B150" s="82" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C150" s="81" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D150" s="178" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -11792,13 +11878,13 @@
         <v>8</v>
       </c>
       <c r="B152" s="70" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C152" s="69" t="s">
         <v>66</v>
       </c>
       <c r="D152" s="69" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -11806,13 +11892,13 @@
         <v>8</v>
       </c>
       <c r="B153" s="70" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C153" s="69" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D153" s="69" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -11820,13 +11906,13 @@
         <v>8</v>
       </c>
       <c r="B154" s="70" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C154" s="69" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D154" s="69" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -11834,13 +11920,13 @@
         <v>8</v>
       </c>
       <c r="B155" s="70" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C155" s="69" t="s">
+        <v>514</v>
+      </c>
+      <c r="D155" s="69" t="s">
         <v>515</v>
-      </c>
-      <c r="D155" s="69" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -11848,13 +11934,13 @@
         <v>8</v>
       </c>
       <c r="B156" s="70" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C156" s="69" t="s">
         <v>289</v>
       </c>
       <c r="D156" s="69" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -11862,13 +11948,13 @@
         <v>8</v>
       </c>
       <c r="B157" s="70" t="s">
+        <v>451</v>
+      </c>
+      <c r="C157" s="69" t="s">
         <v>452</v>
       </c>
-      <c r="C157" s="69" t="s">
-        <v>453</v>
-      </c>
       <c r="D157" s="69" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -11974,13 +12060,13 @@
         <v>8</v>
       </c>
       <c r="B165" s="70" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C165" s="68" t="s">
         <v>364</v>
       </c>
       <c r="D165" s="69" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -11988,13 +12074,13 @@
         <v>8</v>
       </c>
       <c r="B166" s="70" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C166" s="68" t="s">
         <v>364</v>
       </c>
       <c r="D166" s="69" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -12002,7 +12088,7 @@
         <v>330</v>
       </c>
       <c r="B167" s="60" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C167" s="61" t="s">
         <v>178</v>
@@ -12016,10 +12102,10 @@
         <v>330</v>
       </c>
       <c r="B168" s="129" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D168" s="12" t="s">
         <v>327</v>
@@ -12030,10 +12116,10 @@
         <v>330</v>
       </c>
       <c r="B169" s="129" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D169" s="12" t="s">
         <v>328</v>
@@ -12044,7 +12130,7 @@
         <v>330</v>
       </c>
       <c r="B170" s="129" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C170" s="62" t="s">
         <v>352</v>
@@ -12058,13 +12144,13 @@
         <v>330</v>
       </c>
       <c r="B171" s="129" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C171" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="D171" s="12" t="s">
         <v>428</v>
-      </c>
-      <c r="D171" s="12" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="172" spans="1:4" s="3" customFormat="1" ht="76.5" customHeight="1">
@@ -12072,7 +12158,7 @@
         <v>330</v>
       </c>
       <c r="B172" s="129" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C172" s="12" t="s">
         <v>333</v>
@@ -12086,13 +12172,13 @@
         <v>330</v>
       </c>
       <c r="B173" s="129" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C173" s="12" t="s">
         <v>334</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="174" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
@@ -12100,13 +12186,13 @@
         <v>330</v>
       </c>
       <c r="B174" s="129" t="s">
+        <v>429</v>
+      </c>
+      <c r="C174" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="C174" s="12" t="s">
-        <v>431</v>
-      </c>
       <c r="D174" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -12131,10 +12217,10 @@
         <v>321</v>
       </c>
       <c r="C176" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="D176" s="65" t="s">
         <v>432</v>
-      </c>
-      <c r="D176" s="65" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -12268,7 +12354,7 @@
         <v>252</v>
       </c>
       <c r="B186" s="157" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C186" s="136" t="s">
         <v>379</v>
@@ -12282,10 +12368,10 @@
         <v>252</v>
       </c>
       <c r="B187" s="158" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C187" s="136" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D187" s="137" t="s">
         <v>375</v>
@@ -12296,13 +12382,13 @@
         <v>252</v>
       </c>
       <c r="B188" s="160" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C188" s="161" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D188" s="161" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="189" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
@@ -12310,13 +12396,13 @@
         <v>252</v>
       </c>
       <c r="B189" s="158" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C189" s="139" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D189" s="137" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="190" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
@@ -12324,13 +12410,13 @@
         <v>252</v>
       </c>
       <c r="B190" s="158" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C190" s="139" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D190" s="137" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="191" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
@@ -12338,13 +12424,13 @@
         <v>252</v>
       </c>
       <c r="B191" s="158" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C191" s="140" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D191" s="137" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="192" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1">
@@ -12355,10 +12441,10 @@
         <v>244</v>
       </c>
       <c r="C192" s="136" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D192" s="137" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
@@ -12366,13 +12452,13 @@
         <v>252</v>
       </c>
       <c r="B193" s="158" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C193" s="136" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D193" s="137" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="194" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
@@ -12380,13 +12466,13 @@
         <v>252</v>
       </c>
       <c r="B194" s="158" t="s">
+        <v>459</v>
+      </c>
+      <c r="C194" s="136" t="s">
         <v>460</v>
       </c>
-      <c r="C194" s="136" t="s">
-        <v>461</v>
-      </c>
       <c r="D194" s="137" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="195" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
@@ -12394,13 +12480,13 @@
         <v>252</v>
       </c>
       <c r="B195" s="158" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C195" s="136" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D195" s="137" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="196" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
@@ -12408,13 +12494,13 @@
         <v>252</v>
       </c>
       <c r="B196" s="158" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C196" s="136" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D196" s="137" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="197" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
@@ -12422,13 +12508,13 @@
         <v>252</v>
       </c>
       <c r="B197" s="158" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C197" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="D197" s="137" t="s">
         <v>457</v>
-      </c>
-      <c r="D197" s="137" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -12549,10 +12635,10 @@
         <v>225</v>
       </c>
       <c r="C206" s="183" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D206" s="184" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -12563,10 +12649,10 @@
         <v>225</v>
       </c>
       <c r="C207" s="185" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D207" s="186" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -12577,10 +12663,10 @@
         <v>225</v>
       </c>
       <c r="C208" s="185" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D208" s="186" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -12598,8 +12684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C42D88-9A2B-46D3-B46D-33526406379A}">
   <dimension ref="A1:E228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25"/>
@@ -12613,13 +12699,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="198" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="199"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="200"/>
     </row>
     <row r="2" spans="1:5" ht="207" customHeight="1">
       <c r="A2" s="43" t="s">
@@ -12657,11 +12743,11 @@
         <v>225</v>
       </c>
       <c r="C4" s="164" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="166" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="207" customHeight="1">
@@ -12687,11 +12773,11 @@
         <v>225</v>
       </c>
       <c r="C6" s="162" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="54" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="207" customHeight="1">
@@ -12702,11 +12788,11 @@
         <v>225</v>
       </c>
       <c r="C7" s="162" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="54" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="207" customHeight="1">
@@ -12717,11 +12803,11 @@
         <v>225</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="54" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="207" customHeight="1">
@@ -12732,7 +12818,7 @@
         <v>225</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="54" t="s">
@@ -12747,11 +12833,11 @@
         <v>225</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="54" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="207" customHeight="1">
@@ -12762,11 +12848,11 @@
         <v>225</v>
       </c>
       <c r="C11" s="164" t="s">
-        <v>552</v>
+        <v>604</v>
       </c>
       <c r="D11" s="43"/>
       <c r="E11" s="165" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="207" customHeight="1">
@@ -12793,7 +12879,7 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="57" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="207" customHeight="1">
@@ -12803,10 +12889,12 @@
       <c r="B14" s="163" t="s">
         <v>225</v>
       </c>
-      <c r="C14" s="58"/>
+      <c r="C14" s="58" t="s">
+        <v>603</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="57" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="207" customHeight="1">
@@ -12819,7 +12907,7 @@
       <c r="C15" s="58"/>
       <c r="D15" s="5"/>
       <c r="E15" s="57" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="207" customHeight="1">
@@ -12838,12 +12926,14 @@
         <v>224</v>
       </c>
       <c r="B17" s="163" t="s">
-        <v>595</v>
-      </c>
-      <c r="C17" s="58"/>
+        <v>593</v>
+      </c>
+      <c r="C17" s="195" t="s">
+        <v>602</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="57" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="207" customHeight="1">
@@ -12851,33 +12941,33 @@
         <v>224</v>
       </c>
       <c r="B18" s="163" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C18" s="187" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="57" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="408.95" customHeight="1">
+      <c r="A19" s="209" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="207" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="408.95" customHeight="1">
-      <c r="A19" s="208" t="s">
-        <v>224</v>
-      </c>
-      <c r="B19" s="206" t="s">
-        <v>599</v>
-      </c>
-      <c r="C19" s="200"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="204"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="205"/>
     </row>
     <row r="20" spans="1:5" ht="351.75" customHeight="1">
-      <c r="A20" s="207"/>
-      <c r="B20" s="207"/>
-      <c r="C20" s="201"/>
-      <c r="D20" s="203"/>
-      <c r="E20" s="205"/>
+      <c r="A20" s="208"/>
+      <c r="B20" s="208"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="206"/>
     </row>
     <row r="21" spans="1:5" s="193" customFormat="1" ht="158.25" customHeight="1">
       <c r="A21" s="189" t="s">
@@ -12889,7 +12979,7 @@
       <c r="C21" s="191"/>
       <c r="D21" s="192"/>
       <c r="E21" s="194" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="207" customHeight="1">
@@ -12902,7 +12992,7 @@
       <c r="C22" s="54"/>
       <c r="D22" s="43"/>
       <c r="E22" s="66" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="207" customHeight="1">
@@ -12913,11 +13003,11 @@
         <v>225</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="54" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="207" customHeight="1">
@@ -12928,11 +13018,11 @@
         <v>225</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D24" s="43"/>
       <c r="E24" s="54" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="207" customHeight="1">
@@ -12940,14 +13030,14 @@
         <v>224</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D25" s="43"/>
       <c r="E25" s="54" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="207" customHeight="1">
@@ -12973,7 +13063,7 @@
         <v>413</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="54" t="s">
@@ -13033,11 +13123,11 @@
         <v>225</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>419</v>
+        <v>605</v>
       </c>
       <c r="D31" s="43"/>
       <c r="E31" s="54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="207" customHeight="1">
@@ -13063,11 +13153,11 @@
         <v>225</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D33" s="43"/>
       <c r="E33" s="54" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="207" customHeight="1">
@@ -13999,11 +14089,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="16" t="s">
@@ -14068,7 +14158,7 @@
         <v>358</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="40" customFormat="1" ht="67.5" customHeight="1">
@@ -14079,7 +14169,7 @@
         <v>359</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">

--- a/Tutoriales/pandas/Comandos Pandas.xlsx
+++ b/Tutoriales/pandas/Comandos Pandas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseMaría\Documents\CURSOS\data_science\mitrabajo\Mirepositorio\Tutoriales\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FD1F1A-35EA-4D45-8A53-52DEE5B2BED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78676BB1-9249-4862-B4AC-B008A1352094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AF4018AA-EEB9-4756-B82D-183D37B3B80A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF4018AA-EEB9-4756-B82D-183D37B3B80A}"/>
   </bookViews>
   <sheets>
     <sheet name="GENERALES" sheetId="1" r:id="rId1"/>
@@ -9755,8 +9755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265136A6-C067-4B28-9F45-A6266FF6FD67}">
   <dimension ref="A1:D208"/>
   <sheetViews>
-    <sheetView topLeftCell="C181" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="D188" sqref="D188"/>
+    <sheetView tabSelected="1" topLeftCell="C175" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12684,8 +12684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C42D88-9A2B-46D3-B46D-33526406379A}">
   <dimension ref="A1:E228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A22" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25"/>

--- a/Tutoriales/pandas/Comandos Pandas.xlsx
+++ b/Tutoriales/pandas/Comandos Pandas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseMaría\Documents\CURSOS\data_science\mitrabajo\Mirepositorio\Tutoriales\pandas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseMaría\Documents\CURSOS\data_science\mitrabajo\mi_repositorio\Tutoriales\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78676BB1-9249-4862-B4AC-B008A1352094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5398794B-ED08-47A1-B355-F98FCFC463A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF4018AA-EEB9-4756-B82D-183D37B3B80A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="CONCEPTOS" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GENERALES!$A$2:$D$204</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GENERALES!$A$2:$D$209</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="635">
   <si>
     <t>FUNCIONES DE PANDAS</t>
   </si>
@@ -1309,31 +1309,6 @@
   </si>
   <si>
     <t>STARTSWHITH</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>euro12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[euro12.Team.str.startswith("G")]</t>
-    </r>
-  </si>
-  <si>
-    <t>Muestra un valor en una columna buscando por una de sus letras STR (Cadena)</t>
   </si>
   <si>
     <r>
@@ -6319,13 +6294,167 @@
   </si>
   <si>
     <t>plt.xlim(-40,2000)                                                                                                                                              plt.ylim(-1,80)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>euro12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[euro12.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.str.startswith("G")]</t>
+    </r>
+  </si>
+  <si>
+    <t>Muestra un valor en una columna buscando por una de sus letras STR (Cadena) Team=columna</t>
+  </si>
+  <si>
+    <t>def_age['numero_defunciones'].astype(int)</t>
+  </si>
+  <si>
+    <t>Cambia a otro type de dato a una columna</t>
+  </si>
+  <si>
+    <t>TYPE COLUMNA</t>
+  </si>
+  <si>
+    <t>def_age["'numero_defunciones","age"]].astype(int)</t>
+  </si>
+  <si>
+    <t>Cambia a otro type de dato a dos columnas</t>
+  </si>
+  <si>
+    <t>def_age1=def_age.pivot_table('numero_defunciones', index='rango_edad',columns='sexo',aggfunc=np.sum)</t>
+  </si>
+  <si>
+    <t>Cambio indice , en esta caso pongo rango edad y en columans sexo y me suma los valores de numero de defunciones</t>
+  </si>
+  <si>
+    <t>def_age.loc[:,["sexo","rango_edad","numero_defunciones"]]</t>
+  </si>
+  <si>
+    <t>Muestra todas las filas y tres columnas seleccionadas por nombre</t>
+  </si>
+  <si>
+    <t>CAMBIAR UN VALOR</t>
+  </si>
+  <si>
+    <t>REPLACE</t>
+  </si>
+  <si>
+    <t>Cambio el valor de la columna rango edad que era "de 5 a 9 años" por "De 05 a 09 años"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>def_age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>['rango_edad'] = def_age['rango_edad'].replace(["De 5 a 9 años"],"De 05 a 09 años")</t>
+    </r>
+  </si>
+  <si>
+    <t>Pone la leyenda arriba a la derecha</t>
+  </si>
+  <si>
+    <t>Pone la leyenda arriba a la izquierda</t>
+  </si>
+  <si>
+    <t>Pone la leyenda abajo a la derecha</t>
+  </si>
+  <si>
+    <t>Pone la leyenda abajo a la izquierda</t>
+  </si>
+  <si>
+    <t>Pone la leyenda arriba  en el centro</t>
+  </si>
+  <si>
+    <t>plt.legend(loc = 'upper right')</t>
+  </si>
+  <si>
+    <t>plt.legend(loc = 'upper left')</t>
+  </si>
+  <si>
+    <t>plt.legend(loc = 'lower left')</t>
+  </si>
+  <si>
+    <t>plt.legend(loc = 'lower right')</t>
+  </si>
+  <si>
+    <t>plt.legend(loc = 'upper center')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETIQUETAS </t>
+  </si>
+  <si>
+    <t>Grafica de barras</t>
+  </si>
+  <si>
+    <t>MUESTRA GRAFICA</t>
+  </si>
+  <si>
+    <t>TIPO DE BARRAS</t>
+  </si>
+  <si>
+    <t>BARRAS CON ESPACIO ENTRE ELLAS</t>
+  </si>
+  <si>
+    <t>POSICION LEYENDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="65">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="66">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6746,6 +6875,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="21">
     <fill>
@@ -6952,10 +7088,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="65" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7408,6 +7545,7 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7450,7 +7588,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9753,10 +9892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265136A6-C067-4B28-9F45-A6266FF6FD67}">
-  <dimension ref="A1:D208"/>
+  <dimension ref="A1:D218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C175" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="D184" sqref="D184"/>
+    <sheetView tabSelected="1" topLeftCell="A200" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9768,22 +9907,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="102" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B2" s="87" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="88" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D2" s="88" t="s">
         <v>3</v>
@@ -9791,13 +9930,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="102" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B3" s="87" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D3" s="88" t="s">
         <v>3</v>
@@ -9805,80 +9944,80 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="102" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B4" s="87" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D4" s="88" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="102" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B5" s="87" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D5" s="89" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="102" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B6" s="87" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="89" t="s">
+        <v>405</v>
+      </c>
+      <c r="D6" s="89" t="s">
         <v>407</v>
-      </c>
-      <c r="D6" s="89" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="102" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B7" s="87" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="89" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D7" s="89" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="102" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B8" s="87" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="89" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D8" s="89" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="4" customFormat="1">
       <c r="A9" s="90" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C9" s="127" t="s">
         <v>4</v>
@@ -9889,66 +10028,66 @@
     </row>
     <row r="10" spans="1:4" s="4" customFormat="1">
       <c r="A10" s="90" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D10" s="127" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="4" customFormat="1">
       <c r="A11" s="90" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B11" s="96" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D11" s="127" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="4" customFormat="1" ht="30">
       <c r="A12" s="90" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C12" s="91" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D12" s="92" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="4" customFormat="1">
       <c r="A13" s="90" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B13" s="96" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D13" s="127" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="4" customFormat="1">
       <c r="A14" s="90" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B14" s="96" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C14" s="68" t="s">
         <v>88</v>
@@ -9959,44 +10098,44 @@
     </row>
     <row r="15" spans="1:4" s="3" customFormat="1" ht="30">
       <c r="A15" s="90" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B15" s="96" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C15" s="93" t="s">
         <v>55</v>
       </c>
       <c r="D15" s="94" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" s="90" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B16" s="96" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C16" s="95" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D16" s="94" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="90" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B17" s="96" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C17" s="95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D17" s="94" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -10004,13 +10143,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C18" s="98" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="98" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -10018,10 +10157,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C19" s="176" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D19" s="98" t="s">
         <v>12</v>
@@ -10032,7 +10171,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C20" s="98" t="s">
         <v>15</v>
@@ -10046,13 +10185,13 @@
         <v>7</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C21" s="98" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="98" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -10060,7 +10199,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C22" s="98" t="s">
         <v>13</v>
@@ -10074,7 +10213,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C23" s="98" t="s">
         <v>64</v>
@@ -10088,18 +10227,18 @@
         <v>7</v>
       </c>
       <c r="B24" s="97" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C24" s="98" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D24" s="98" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="99" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B25" s="101" t="s">
         <v>33</v>
@@ -10113,7 +10252,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="99" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B26" s="101" t="s">
         <v>33</v>
@@ -10127,16 +10266,16 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="99" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B27" s="101" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="175" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D27" s="100" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -10144,13 +10283,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="101" t="s">
+        <v>508</v>
+      </c>
+      <c r="C28" s="100" t="s">
+        <v>511</v>
+      </c>
+      <c r="D28" s="100" t="s">
         <v>510</v>
-      </c>
-      <c r="C28" s="100" t="s">
-        <v>513</v>
-      </c>
-      <c r="D28" s="100" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -10158,607 +10297,607 @@
         <v>8</v>
       </c>
       <c r="B29" s="101" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C29" s="100" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D29" s="100" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="3" customFormat="1">
-      <c r="A30" s="147" t="s">
-        <v>500</v>
-      </c>
-      <c r="B30" s="150" t="s">
-        <v>499</v>
-      </c>
-      <c r="C30" s="148" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="101" t="s">
+        <v>608</v>
+      </c>
+      <c r="C30" s="196" t="s">
+        <v>606</v>
+      </c>
+      <c r="D30" s="100" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="101" t="s">
+        <v>608</v>
+      </c>
+      <c r="C31" s="196" t="s">
+        <v>609</v>
+      </c>
+      <c r="D31" s="100" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="3" customFormat="1">
+      <c r="A32" s="147" t="s">
+        <v>498</v>
+      </c>
+      <c r="B32" s="150" t="s">
+        <v>497</v>
+      </c>
+      <c r="C32" s="148" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" s="149" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="3" customFormat="1">
+      <c r="A33" s="147" t="s">
+        <v>498</v>
+      </c>
+      <c r="B33" s="150" t="s">
+        <v>496</v>
+      </c>
+      <c r="C33" s="148" t="s">
+        <v>278</v>
+      </c>
+      <c r="D33" s="149" t="s">
         <v>279</v>
       </c>
-      <c r="D30" s="149" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="3" customFormat="1">
-      <c r="A31" s="147" t="s">
-        <v>500</v>
-      </c>
-      <c r="B31" s="150" t="s">
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="147" t="s">
         <v>498</v>
       </c>
-      <c r="C31" s="148" t="s">
-        <v>280</v>
-      </c>
-      <c r="D31" s="149" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="147" t="s">
-        <v>500</v>
-      </c>
-      <c r="B32" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="C32" s="100" t="s">
+      <c r="B34" s="101" t="s">
         <v>514</v>
       </c>
-      <c r="D32" s="100" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="60" t="s">
-        <v>477</v>
-      </c>
-      <c r="B33" s="71" t="s">
-        <v>478</v>
-      </c>
-      <c r="C33" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="103" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="60" t="s">
-        <v>477</v>
-      </c>
-      <c r="B34" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="85" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="103" t="s">
-        <v>58</v>
+      <c r="C34" s="100" t="s">
+        <v>512</v>
+      </c>
+      <c r="D34" s="100" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="60" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B35" s="71" t="s">
-        <v>60</v>
+        <v>476</v>
       </c>
       <c r="C35" s="85" t="s">
-        <v>259</v>
+        <v>18</v>
       </c>
       <c r="D35" s="103" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="60" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B36" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="103" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="60" t="s">
+        <v>475</v>
+      </c>
+      <c r="B37" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="85" t="s">
+      <c r="C37" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="D37" s="103" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="60" t="s">
+        <v>475</v>
+      </c>
+      <c r="B38" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="103" t="s">
+      <c r="D38" s="103" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="3" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A37" s="141" t="s">
-        <v>477</v>
-      </c>
-      <c r="B37" s="129" t="s">
+    <row r="39" spans="1:4" s="3" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A39" s="141" t="s">
+        <v>475</v>
+      </c>
+      <c r="B39" s="129" t="s">
+        <v>561</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="3" customFormat="1" ht="30">
+      <c r="A40" s="141" t="s">
+        <v>475</v>
+      </c>
+      <c r="B40" s="129" t="s">
+        <v>561</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="4" customFormat="1">
+      <c r="A41" s="141" t="s">
+        <v>485</v>
+      </c>
+      <c r="B41" s="142" t="s">
+        <v>597</v>
+      </c>
+      <c r="C41" s="188" t="s">
+        <v>596</v>
+      </c>
+      <c r="D41" s="188" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="60" t="s">
+        <v>478</v>
+      </c>
+      <c r="B42" s="71" t="s">
+        <v>562</v>
+      </c>
+      <c r="C42" s="85" t="s">
         <v>563</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="3" customFormat="1" ht="30">
-      <c r="A38" s="141" t="s">
-        <v>477</v>
-      </c>
-      <c r="B38" s="129" t="s">
-        <v>563</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="4" customFormat="1">
-      <c r="A39" s="141" t="s">
-        <v>487</v>
-      </c>
-      <c r="B39" s="142" t="s">
-        <v>599</v>
-      </c>
-      <c r="C39" s="188" t="s">
-        <v>598</v>
-      </c>
-      <c r="D39" s="188" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="60" t="s">
-        <v>480</v>
-      </c>
-      <c r="B40" s="71" t="s">
-        <v>564</v>
-      </c>
-      <c r="C40" s="85" t="s">
-        <v>565</v>
-      </c>
-      <c r="D40" s="103"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="60" t="s">
-        <v>480</v>
-      </c>
-      <c r="B41" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="85" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="103" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="107" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A42" s="60" t="s">
-        <v>480</v>
-      </c>
-      <c r="B42" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" s="103" t="s">
-        <v>133</v>
-      </c>
+      <c r="D42" s="103"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="60" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B43" s="71" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C43" s="85" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="D43" s="103" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="107" customFormat="1" ht="14.25" customHeight="1">
       <c r="A44" s="60" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B44" s="71" t="s">
         <v>114</v>
       </c>
       <c r="C44" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="103" t="s">
         <v>131</v>
-      </c>
-      <c r="D44" s="103" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="60" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B45" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="103" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="60" t="s">
+        <v>478</v>
+      </c>
+      <c r="B46" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="60" t="s">
+        <v>478</v>
+      </c>
+      <c r="B47" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="85" t="s">
+        <v>613</v>
+      </c>
+      <c r="D47" s="103" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="60" t="s">
+        <v>478</v>
+      </c>
+      <c r="B48" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="85" t="s">
+      <c r="C48" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="103" t="s">
+      <c r="D48" s="103" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="142" t="s">
-        <v>493</v>
-      </c>
-      <c r="B46" s="71" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" s="142" t="s">
+        <v>491</v>
+      </c>
+      <c r="B49" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D46" s="103" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="4" customFormat="1" ht="30">
-      <c r="A47" s="142" t="s">
-        <v>493</v>
-      </c>
-      <c r="B47" s="72" t="s">
-        <v>272</v>
-      </c>
-      <c r="C47" s="143" t="s">
-        <v>391</v>
-      </c>
-      <c r="D47" s="144" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="4" customFormat="1">
-      <c r="A48" s="142" t="s">
-        <v>493</v>
-      </c>
-      <c r="B48" s="72" t="s">
-        <v>272</v>
-      </c>
-      <c r="C48" s="143" t="s">
-        <v>573</v>
-      </c>
-      <c r="D48" s="144" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="3" customFormat="1">
-      <c r="A49" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="B49" s="7" t="s">
+      <c r="D49" s="103" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="4" customFormat="1" ht="30">
+      <c r="A50" s="142" t="s">
+        <v>491</v>
+      </c>
+      <c r="B50" s="72" t="s">
+        <v>270</v>
+      </c>
+      <c r="C50" s="143" t="s">
+        <v>389</v>
+      </c>
+      <c r="D50" s="144" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="4" customFormat="1">
+      <c r="A51" s="142" t="s">
+        <v>491</v>
+      </c>
+      <c r="B51" s="72" t="s">
+        <v>270</v>
+      </c>
+      <c r="C51" s="143" t="s">
+        <v>571</v>
+      </c>
+      <c r="D51" s="144" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="3" customFormat="1">
+      <c r="A52" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C52" s="151" t="s">
         <v>244</v>
       </c>
-      <c r="C49" s="151" t="s">
-        <v>246</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="60" t="s">
-        <v>496</v>
-      </c>
-      <c r="B50" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="C50" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="D50" s="61" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="60" t="s">
-        <v>496</v>
-      </c>
-      <c r="B51" s="71" t="s">
-        <v>350</v>
-      </c>
-      <c r="C51" s="61" t="s">
-        <v>349</v>
-      </c>
-      <c r="D51" s="61" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52" s="71" t="s">
-        <v>484</v>
-      </c>
-      <c r="C52" s="61" t="s">
-        <v>380</v>
-      </c>
-      <c r="D52" s="61" t="s">
-        <v>381</v>
+      <c r="D52" s="12" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="60" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="B53" s="71" t="s">
-        <v>479</v>
-      </c>
-      <c r="C53" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="103" t="s">
-        <v>68</v>
+        <v>344</v>
+      </c>
+      <c r="C53" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="D53" s="61" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="60" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="B54" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="D54" s="103" t="s">
-        <v>90</v>
+        <v>348</v>
+      </c>
+      <c r="C54" s="61" t="s">
+        <v>347</v>
+      </c>
+      <c r="D54" s="61" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="71" t="s">
         <v>482</v>
       </c>
-      <c r="B55" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="85" t="s">
-        <v>125</v>
-      </c>
-      <c r="D55" s="103" t="s">
-        <v>481</v>
+      <c r="C55" s="61" t="s">
+        <v>378</v>
+      </c>
+      <c r="D55" s="61" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="60" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B56" s="71" t="s">
-        <v>6</v>
+        <v>477</v>
       </c>
       <c r="C56" s="85" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="D56" s="103" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="60" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B57" s="71" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="85" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="D57" s="103" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="60" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B58" s="71" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="85" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="D58" s="103" t="s">
-        <v>143</v>
+        <v>479</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="60" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B59" s="71" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="85" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D59" s="103" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="60" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B60" s="71" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C60" s="85" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D60" s="103" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="60" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B61" s="71" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C61" s="85" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D61" s="103" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="60" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B62" s="71" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C62" s="85" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="D62" s="103" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="60" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B63" s="71" t="s">
         <v>114</v>
       </c>
       <c r="C63" s="85" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="D63" s="103" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="60" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B64" s="71" t="s">
         <v>114</v>
       </c>
       <c r="C64" s="85" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D64" s="103" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="60" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B65" s="71" t="s">
         <v>114</v>
       </c>
       <c r="C65" s="85" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D65" s="103" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="60" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B66" s="71" t="s">
         <v>114</v>
       </c>
       <c r="C66" s="85" t="s">
-        <v>146</v>
-      </c>
-      <c r="D66" s="108" t="s">
-        <v>147</v>
+        <v>152</v>
+      </c>
+      <c r="D66" s="103" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="104" t="s">
-        <v>476</v>
-      </c>
-      <c r="B67" s="109" t="s">
-        <v>483</v>
-      </c>
-      <c r="C67" s="105" t="s">
-        <v>156</v>
-      </c>
-      <c r="D67" s="106" t="s">
-        <v>157</v>
+      <c r="A67" s="60" t="s">
+        <v>480</v>
+      </c>
+      <c r="B67" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" s="103" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="104" t="s">
-        <v>476</v>
-      </c>
-      <c r="B68" s="109" t="s">
-        <v>483</v>
-      </c>
-      <c r="C68" s="105" t="s">
-        <v>159</v>
-      </c>
-      <c r="D68" s="106" t="s">
-        <v>164</v>
+      <c r="A68" s="60" t="s">
+        <v>480</v>
+      </c>
+      <c r="B68" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" s="103" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="104" t="s">
-        <v>476</v>
-      </c>
-      <c r="B69" s="109" t="s">
-        <v>483</v>
-      </c>
-      <c r="C69" s="105" t="s">
-        <v>162</v>
-      </c>
-      <c r="D69" s="106" t="s">
-        <v>163</v>
+      <c r="A69" s="60" t="s">
+        <v>480</v>
+      </c>
+      <c r="B69" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="108" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="104" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B70" s="109" t="s">
-        <v>483</v>
-      </c>
-      <c r="C70" s="146" t="s">
-        <v>94</v>
-      </c>
-      <c r="D70" s="146" t="s">
-        <v>95</v>
+        <v>481</v>
+      </c>
+      <c r="C70" s="105" t="s">
+        <v>154</v>
+      </c>
+      <c r="D70" s="106" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="104" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B71" s="109" t="s">
-        <v>186</v>
+        <v>481</v>
       </c>
       <c r="C71" s="105" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="D71" s="106" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="104" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B72" s="109" t="s">
-        <v>114</v>
+        <v>481</v>
       </c>
       <c r="C72" s="105" t="s">
         <v>160</v>
@@ -10769,114 +10908,114 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="104" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B73" s="109" t="s">
-        <v>114</v>
-      </c>
-      <c r="C73" s="105" t="s">
-        <v>165</v>
-      </c>
-      <c r="D73" s="106" t="s">
-        <v>163</v>
+        <v>481</v>
+      </c>
+      <c r="C73" s="146" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" s="146" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="104" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B74" s="109" t="s">
-        <v>494</v>
-      </c>
-      <c r="C74" s="146" t="s">
-        <v>96</v>
-      </c>
-      <c r="D74" s="146" t="s">
-        <v>97</v>
+        <v>184</v>
+      </c>
+      <c r="C74" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="D74" s="106" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="104" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B75" s="109" t="s">
-        <v>495</v>
-      </c>
-      <c r="C75" s="146" t="s">
-        <v>249</v>
-      </c>
-      <c r="D75" s="146" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="D75" s="106" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="104" t="s">
+        <v>474</v>
+      </c>
+      <c r="B76" s="109" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="D76" s="106" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="104" t="s">
+        <v>474</v>
+      </c>
+      <c r="B77" s="109" t="s">
+        <v>492</v>
+      </c>
+      <c r="C77" s="146" t="s">
+        <v>96</v>
+      </c>
+      <c r="D77" s="146" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="104" t="s">
+        <v>474</v>
+      </c>
+      <c r="B78" s="109" t="s">
+        <v>493</v>
+      </c>
+      <c r="C78" s="146" t="s">
+        <v>247</v>
+      </c>
+      <c r="D78" s="146" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="79" t="s">
-        <v>488</v>
-      </c>
-      <c r="B76" s="76" t="s">
+    <row r="79" spans="1:4">
+      <c r="A79" s="79" t="s">
+        <v>486</v>
+      </c>
+      <c r="B79" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="77" t="s">
+      <c r="C79" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="D76" s="77" t="s">
+      <c r="D79" s="77" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="79" t="s">
-        <v>488</v>
-      </c>
-      <c r="B77" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="D77" s="77" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="79" t="s">
-        <v>487</v>
-      </c>
-      <c r="B78" s="76" t="s">
-        <v>389</v>
-      </c>
-      <c r="C78" s="77" t="s">
-        <v>388</v>
-      </c>
-      <c r="D78" s="77" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" s="4" customFormat="1" ht="30">
-      <c r="A79" s="124" t="s">
-        <v>487</v>
-      </c>
-      <c r="B79" s="125" t="s">
-        <v>45</v>
-      </c>
-      <c r="C79" s="126" t="s">
-        <v>44</v>
-      </c>
-      <c r="D79" s="126" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="79" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B80" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="C80" s="77" t="s">
-        <v>543</v>
+        <v>84</v>
+      </c>
+      <c r="C80" s="78" t="s">
+        <v>81</v>
       </c>
       <c r="D80" s="77" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -10884,517 +11023,517 @@
         <v>485</v>
       </c>
       <c r="B81" s="76" t="s">
-        <v>26</v>
+        <v>387</v>
       </c>
       <c r="C81" s="77" t="s">
-        <v>544</v>
+        <v>386</v>
       </c>
       <c r="D81" s="77" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="79" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="4" customFormat="1" ht="30">
+      <c r="A82" s="124" t="s">
         <v>485</v>
       </c>
-      <c r="B82" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="C82" s="77" t="s">
-        <v>120</v>
-      </c>
-      <c r="D82" s="77" t="s">
-        <v>119</v>
+      <c r="B82" s="125" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" s="126" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" s="126" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="79" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B83" s="76" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="C83" s="77" t="s">
-        <v>52</v>
+        <v>541</v>
       </c>
       <c r="D83" s="77" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="79" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B84" s="76" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="C84" s="77" t="s">
-        <v>123</v>
-      </c>
-      <c r="D84" s="128" t="s">
-        <v>124</v>
+        <v>542</v>
+      </c>
+      <c r="D84" s="77" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="79" t="s">
-        <v>251</v>
+        <v>483</v>
       </c>
       <c r="B85" s="76" t="s">
-        <v>232</v>
+        <v>26</v>
       </c>
       <c r="C85" s="77" t="s">
-        <v>248</v>
+        <v>120</v>
       </c>
       <c r="D85" s="77" t="s">
-        <v>231</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="79" t="s">
-        <v>212</v>
+        <v>484</v>
       </c>
       <c r="B86" s="76" t="s">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="C86" s="77" t="s">
-        <v>213</v>
+        <v>52</v>
       </c>
       <c r="D86" s="77" t="s">
-        <v>215</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="79" t="s">
-        <v>212</v>
-      </c>
-      <c r="B87" s="76" t="s">
-        <v>214</v>
-      </c>
-      <c r="C87" s="78" t="s">
-        <v>529</v>
+        <v>615</v>
+      </c>
+      <c r="B87" s="79" t="s">
+        <v>616</v>
+      </c>
+      <c r="C87" s="77" t="s">
+        <v>618</v>
       </c>
       <c r="D87" s="77" t="s">
-        <v>216</v>
+        <v>617</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="79" t="s">
-        <v>212</v>
+        <v>489</v>
       </c>
       <c r="B88" s="76" t="s">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="C88" s="77" t="s">
-        <v>247</v>
-      </c>
-      <c r="D88" s="77" t="s">
-        <v>233</v>
+        <v>604</v>
+      </c>
+      <c r="D88" s="128" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="79" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="B89" s="76" t="s">
-        <v>532</v>
+        <v>230</v>
       </c>
       <c r="C89" s="77" t="s">
-        <v>530</v>
+        <v>246</v>
       </c>
       <c r="D89" s="77" t="s">
-        <v>531</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="79" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B90" s="76" t="s">
-        <v>534</v>
+        <v>209</v>
       </c>
       <c r="C90" s="77" t="s">
-        <v>533</v>
+        <v>211</v>
       </c>
       <c r="D90" s="77" t="s">
-        <v>535</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="B91" s="76" t="s">
         <v>212</v>
       </c>
-      <c r="B91" s="76" t="s">
-        <v>538</v>
-      </c>
-      <c r="C91" s="77" t="s">
-        <v>536</v>
+      <c r="C91" s="78" t="s">
+        <v>527</v>
       </c>
       <c r="D91" s="77" t="s">
-        <v>537</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="79" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B92" s="76" t="s">
-        <v>541</v>
+        <v>232</v>
       </c>
       <c r="C92" s="77" t="s">
+        <v>245</v>
+      </c>
+      <c r="D92" s="77" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="B93" s="76" t="s">
+        <v>530</v>
+      </c>
+      <c r="C93" s="77" t="s">
+        <v>528</v>
+      </c>
+      <c r="D93" s="77" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="B94" s="76" t="s">
+        <v>532</v>
+      </c>
+      <c r="C94" s="77" t="s">
+        <v>531</v>
+      </c>
+      <c r="D94" s="77" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="B95" s="76" t="s">
+        <v>536</v>
+      </c>
+      <c r="C95" s="77" t="s">
+        <v>534</v>
+      </c>
+      <c r="D95" s="77" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="B96" s="76" t="s">
         <v>539</v>
       </c>
-      <c r="D92" s="77" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="80" t="s">
-        <v>360</v>
-      </c>
-      <c r="B93" s="174" t="s">
-        <v>570</v>
-      </c>
-      <c r="C93" s="173" t="s">
-        <v>571</v>
-      </c>
-      <c r="D93" s="81" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="80" t="s">
-        <v>360</v>
-      </c>
-      <c r="B94" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="C94" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="D94" s="81" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="80" t="s">
-        <v>360</v>
-      </c>
-      <c r="B95" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="C95" s="81" t="s">
-        <v>354</v>
-      </c>
-      <c r="D95" s="81" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" s="4" customFormat="1" ht="30">
-      <c r="A96" s="80" t="s">
-        <v>360</v>
-      </c>
-      <c r="B96" s="112" t="s">
-        <v>79</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>395</v>
+      <c r="C96" s="77" t="s">
+        <v>537</v>
+      </c>
+      <c r="D96" s="77" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="80" t="s">
-        <v>360</v>
-      </c>
-      <c r="B97" s="110" t="s">
-        <v>383</v>
-      </c>
-      <c r="C97" s="98" t="s">
-        <v>384</v>
-      </c>
-      <c r="D97" s="111" t="s">
-        <v>385</v>
+        <v>358</v>
+      </c>
+      <c r="B97" s="174" t="s">
+        <v>568</v>
+      </c>
+      <c r="C97" s="173" t="s">
+        <v>569</v>
+      </c>
+      <c r="D97" s="81" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="80" t="s">
-        <v>360</v>
-      </c>
-      <c r="B98" s="110" t="s">
+        <v>358</v>
+      </c>
+      <c r="B98" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="C98" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="D98" s="81" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="80" t="s">
+        <v>358</v>
+      </c>
+      <c r="B99" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="C99" s="81" t="s">
+        <v>352</v>
+      </c>
+      <c r="D99" s="81" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" s="4" customFormat="1" ht="30">
+      <c r="A100" s="80" t="s">
+        <v>358</v>
+      </c>
+      <c r="B100" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="80" t="s">
+        <v>358</v>
+      </c>
+      <c r="B101" s="110" t="s">
+        <v>381</v>
+      </c>
+      <c r="C101" s="98" t="s">
+        <v>382</v>
+      </c>
+      <c r="D101" s="111" t="s">
         <v>383</v>
       </c>
-      <c r="C98" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="D98" s="111" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="114" t="s">
-        <v>490</v>
-      </c>
-      <c r="B99" s="113" t="s">
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="80" t="s">
+        <v>358</v>
+      </c>
+      <c r="B102" s="110" t="s">
+        <v>381</v>
+      </c>
+      <c r="C102" s="98" t="s">
+        <v>384</v>
+      </c>
+      <c r="D102" s="111" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="114" t="s">
+        <v>488</v>
+      </c>
+      <c r="B103" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="C99" s="115" t="s">
+      <c r="C103" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="D99" s="115" t="s">
+      <c r="D103" s="115" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" s="3" customFormat="1">
-      <c r="A100" s="114" t="s">
-        <v>490</v>
-      </c>
-      <c r="B100" s="145" t="s">
-        <v>271</v>
-      </c>
-      <c r="C100" s="116" t="s">
-        <v>265</v>
-      </c>
-      <c r="D100" s="117" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" s="3" customFormat="1">
-      <c r="A101" s="114" t="s">
-        <v>490</v>
-      </c>
-      <c r="B101" s="145" t="s">
-        <v>271</v>
-      </c>
-      <c r="C101" s="116" t="s">
-        <v>266</v>
-      </c>
-      <c r="D101" s="117" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" s="3" customFormat="1">
-      <c r="A102" s="114" t="s">
-        <v>490</v>
-      </c>
-      <c r="B102" s="145" t="s">
-        <v>258</v>
-      </c>
-      <c r="C102" s="118" t="s">
-        <v>260</v>
-      </c>
-      <c r="D102" s="117" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" s="3" customFormat="1">
-      <c r="A103" s="114" t="s">
-        <v>490</v>
-      </c>
-      <c r="B103" s="145" t="s">
-        <v>268</v>
-      </c>
-      <c r="C103" s="118" t="s">
-        <v>267</v>
-      </c>
-      <c r="D103" s="117" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="104" spans="1:4" s="3" customFormat="1">
       <c r="A104" s="114" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B104" s="145" t="s">
+        <v>269</v>
+      </c>
+      <c r="C104" s="116" t="s">
+        <v>263</v>
+      </c>
+      <c r="D104" s="117" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="3" customFormat="1">
+      <c r="A105" s="114" t="s">
+        <v>488</v>
+      </c>
+      <c r="B105" s="145" t="s">
+        <v>269</v>
+      </c>
+      <c r="C105" s="116" t="s">
+        <v>264</v>
+      </c>
+      <c r="D105" s="117" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" s="3" customFormat="1">
+      <c r="A106" s="114" t="s">
+        <v>488</v>
+      </c>
+      <c r="B106" s="145" t="s">
+        <v>256</v>
+      </c>
+      <c r="C106" s="118" t="s">
+        <v>258</v>
+      </c>
+      <c r="D106" s="117" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" s="3" customFormat="1">
+      <c r="A107" s="114" t="s">
+        <v>488</v>
+      </c>
+      <c r="B107" s="145" t="s">
+        <v>266</v>
+      </c>
+      <c r="C107" s="118" t="s">
+        <v>265</v>
+      </c>
+      <c r="D107" s="117" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" s="3" customFormat="1">
+      <c r="A108" s="114" t="s">
+        <v>488</v>
+      </c>
+      <c r="B108" s="145" t="s">
+        <v>266</v>
+      </c>
+      <c r="C108" s="118" t="s">
+        <v>259</v>
+      </c>
+      <c r="D108" s="117" t="s">
         <v>268</v>
       </c>
-      <c r="C104" s="118" t="s">
-        <v>261</v>
-      </c>
-      <c r="D104" s="117" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A105" s="119" t="s">
-        <v>497</v>
-      </c>
-      <c r="B105" s="120" t="s">
-        <v>222</v>
-      </c>
-      <c r="C105" s="121" t="s">
-        <v>489</v>
-      </c>
-      <c r="D105" s="122" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="119" t="s">
-        <v>497</v>
-      </c>
-      <c r="B106" s="35" t="s">
+    </row>
+    <row r="109" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A109" s="119" t="s">
+        <v>495</v>
+      </c>
+      <c r="B109" s="120" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109" s="121" t="s">
+        <v>487</v>
+      </c>
+      <c r="D109" s="122" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="119" t="s">
+        <v>495</v>
+      </c>
+      <c r="B110" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C110" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D110" s="36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="119" t="s">
+        <v>495</v>
+      </c>
+      <c r="B111" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C111" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D111" s="36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="119" t="s">
+        <v>495</v>
+      </c>
+      <c r="B112" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="C106" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D106" s="36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="119" t="s">
-        <v>497</v>
-      </c>
-      <c r="B107" s="35" t="s">
+      <c r="C112" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D112" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="119" t="s">
+        <v>495</v>
+      </c>
+      <c r="B113" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C113" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D113" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="C107" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="D107" s="36" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="119" t="s">
-        <v>497</v>
-      </c>
-      <c r="B108" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="C108" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="D108" s="36" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="119" t="s">
-        <v>497</v>
-      </c>
-      <c r="B109" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="C109" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="D109" s="36" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="15.75">
-      <c r="A110" s="167" t="s">
-        <v>501</v>
-      </c>
-      <c r="B110" s="167" t="s">
-        <v>217</v>
-      </c>
-      <c r="C110" s="171" t="s">
+    </row>
+    <row r="114" spans="1:4" ht="15.75">
+      <c r="A114" s="167" t="s">
+        <v>499</v>
+      </c>
+      <c r="B114" s="167" t="s">
+        <v>215</v>
+      </c>
+      <c r="C114" s="171" t="s">
+        <v>565</v>
+      </c>
+      <c r="D114" s="168" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="30">
+      <c r="A115" s="169" t="s">
+        <v>499</v>
+      </c>
+      <c r="B115" s="169" t="s">
+        <v>215</v>
+      </c>
+      <c r="C115" s="172" t="s">
+        <v>566</v>
+      </c>
+      <c r="D115" s="170" t="s">
         <v>567</v>
       </c>
-      <c r="D110" s="168" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="30">
-      <c r="A111" s="169" t="s">
-        <v>501</v>
-      </c>
-      <c r="B111" s="169" t="s">
-        <v>217</v>
-      </c>
-      <c r="C111" s="172" t="s">
-        <v>568</v>
-      </c>
-      <c r="D111" s="170" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" s="3" customFormat="1">
-      <c r="A112" s="152" t="s">
+    </row>
+    <row r="116" spans="1:4" ht="31.5">
+      <c r="A116" s="169" t="s">
+        <v>499</v>
+      </c>
+      <c r="B116" s="169" t="s">
+        <v>215</v>
+      </c>
+      <c r="C116" s="172" t="s">
+        <v>611</v>
+      </c>
+      <c r="D116" s="170" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" s="3" customFormat="1">
+      <c r="A117" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="B112" s="153" t="s">
+      <c r="B117" s="153" t="s">
+        <v>242</v>
+      </c>
+      <c r="C117" s="154" t="s">
         <v>244</v>
       </c>
-      <c r="C112" s="154" t="s">
-        <v>246</v>
-      </c>
-      <c r="D112" s="155" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B113" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="C113" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="D113" s="61" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B114" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="C114" s="61" t="s">
-        <v>277</v>
-      </c>
-      <c r="D114" s="61" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B115" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="C115" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D115" s="61" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B116" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="C116" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="D116" s="61" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B117" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="C117" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="D117" s="61" t="s">
-        <v>48</v>
+      <c r="D117" s="155" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -11402,13 +11541,13 @@
         <v>1</v>
       </c>
       <c r="B118" s="71" t="s">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="C118" s="61" t="s">
-        <v>296</v>
+        <v>42</v>
       </c>
       <c r="D118" s="61" t="s">
-        <v>301</v>
+        <v>43</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -11416,13 +11555,13 @@
         <v>1</v>
       </c>
       <c r="B119" s="71" t="s">
-        <v>297</v>
+        <v>41</v>
       </c>
       <c r="C119" s="61" t="s">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="D119" s="61" t="s">
-        <v>102</v>
+        <v>274</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -11430,13 +11569,13 @@
         <v>1</v>
       </c>
       <c r="B120" s="71" t="s">
-        <v>297</v>
+        <v>21</v>
       </c>
       <c r="C120" s="61" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="D120" s="61" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -11444,13 +11583,13 @@
         <v>1</v>
       </c>
       <c r="B121" s="71" t="s">
-        <v>298</v>
+        <v>24</v>
       </c>
       <c r="C121" s="61" t="s">
-        <v>241</v>
+        <v>25</v>
       </c>
       <c r="D121" s="61" t="s">
-        <v>242</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -11458,13 +11597,13 @@
         <v>1</v>
       </c>
       <c r="B122" s="71" t="s">
-        <v>299</v>
+        <v>47</v>
       </c>
       <c r="C122" s="61" t="s">
-        <v>592</v>
+        <v>46</v>
       </c>
       <c r="D122" s="61" t="s">
-        <v>243</v>
+        <v>48</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -11472,13 +11611,13 @@
         <v>1</v>
       </c>
       <c r="B123" s="71" t="s">
-        <v>87</v>
+        <v>298</v>
       </c>
       <c r="C123" s="61" t="s">
-        <v>85</v>
+        <v>294</v>
       </c>
       <c r="D123" s="61" t="s">
-        <v>86</v>
+        <v>299</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -11486,13 +11625,13 @@
         <v>1</v>
       </c>
       <c r="B124" s="71" t="s">
-        <v>31</v>
+        <v>295</v>
       </c>
       <c r="C124" s="61" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="D124" s="61" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -11500,13 +11639,13 @@
         <v>1</v>
       </c>
       <c r="B125" s="71" t="s">
-        <v>49</v>
+        <v>295</v>
       </c>
       <c r="C125" s="61" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="D125" s="61" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -11514,13 +11653,13 @@
         <v>1</v>
       </c>
       <c r="B126" s="71" t="s">
-        <v>282</v>
-      </c>
-      <c r="C126" s="83" t="s">
-        <v>283</v>
-      </c>
-      <c r="D126" s="83" t="s">
-        <v>284</v>
+        <v>296</v>
+      </c>
+      <c r="C126" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="D126" s="61" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -11528,13 +11667,13 @@
         <v>1</v>
       </c>
       <c r="B127" s="71" t="s">
-        <v>503</v>
+        <v>297</v>
       </c>
       <c r="C127" s="61" t="s">
-        <v>69</v>
+        <v>590</v>
       </c>
       <c r="D127" s="61" t="s">
-        <v>70</v>
+        <v>241</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -11542,13 +11681,13 @@
         <v>1</v>
       </c>
       <c r="B128" s="71" t="s">
-        <v>504</v>
+        <v>87</v>
       </c>
       <c r="C128" s="61" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D128" s="61" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -11556,13 +11695,13 @@
         <v>1</v>
       </c>
       <c r="B129" s="71" t="s">
-        <v>504</v>
+        <v>31</v>
       </c>
       <c r="C129" s="61" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="D129" s="61" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -11570,13 +11709,13 @@
         <v>1</v>
       </c>
       <c r="B130" s="71" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C130" s="61" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D130" s="61" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -11584,13 +11723,13 @@
         <v>1</v>
       </c>
       <c r="B131" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="C131" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="D131" s="61" t="s">
-        <v>167</v>
+        <v>280</v>
+      </c>
+      <c r="C131" s="83" t="s">
+        <v>281</v>
+      </c>
+      <c r="D131" s="83" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -11598,13 +11737,13 @@
         <v>1</v>
       </c>
       <c r="B132" s="71" t="s">
-        <v>76</v>
+        <v>501</v>
       </c>
       <c r="C132" s="61" t="s">
-        <v>171</v>
+        <v>69</v>
       </c>
       <c r="D132" s="61" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -11612,13 +11751,13 @@
         <v>1</v>
       </c>
       <c r="B133" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="C133" s="84" t="s">
-        <v>566</v>
+        <v>502</v>
+      </c>
+      <c r="C133" s="61" t="s">
+        <v>73</v>
       </c>
       <c r="D133" s="61" t="s">
-        <v>240</v>
+        <v>74</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -11626,13 +11765,13 @@
         <v>1</v>
       </c>
       <c r="B134" s="71" t="s">
-        <v>172</v>
+        <v>502</v>
       </c>
       <c r="C134" s="61" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D134" s="61" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -11640,13 +11779,13 @@
         <v>1</v>
       </c>
       <c r="B135" s="71" t="s">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="C135" s="61" t="s">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="D135" s="61" t="s">
-        <v>177</v>
+        <v>77</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -11654,13 +11793,13 @@
         <v>1</v>
       </c>
       <c r="B136" s="71" t="s">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="C136" s="61" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="D136" s="61" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -11668,13 +11807,13 @@
         <v>1</v>
       </c>
       <c r="B137" s="71" t="s">
-        <v>229</v>
-      </c>
-      <c r="C137" s="85" t="s">
-        <v>230</v>
+        <v>76</v>
+      </c>
+      <c r="C137" s="61" t="s">
+        <v>169</v>
       </c>
       <c r="D137" s="61" t="s">
-        <v>228</v>
+        <v>168</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -11682,13 +11821,13 @@
         <v>1</v>
       </c>
       <c r="B138" s="71" t="s">
-        <v>235</v>
-      </c>
-      <c r="C138" s="85" t="s">
-        <v>368</v>
+        <v>76</v>
+      </c>
+      <c r="C138" s="84" t="s">
+        <v>564</v>
       </c>
       <c r="D138" s="61" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -11696,13 +11835,13 @@
         <v>1</v>
       </c>
       <c r="B139" s="71" t="s">
-        <v>237</v>
-      </c>
-      <c r="C139" s="85" t="s">
-        <v>366</v>
+        <v>170</v>
+      </c>
+      <c r="C139" s="61" t="s">
+        <v>172</v>
       </c>
       <c r="D139" s="61" t="s">
-        <v>367</v>
+        <v>171</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -11710,83 +11849,83 @@
         <v>1</v>
       </c>
       <c r="B140" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="C140" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="D140" s="61" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="C141" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="D141" s="61" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" s="71" t="s">
+        <v>227</v>
+      </c>
+      <c r="C142" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="D142" s="61" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" s="71" t="s">
+        <v>233</v>
+      </c>
+      <c r="C143" s="85" t="s">
+        <v>366</v>
+      </c>
+      <c r="D143" s="61" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144" s="71" t="s">
+        <v>235</v>
+      </c>
+      <c r="C144" s="85" t="s">
+        <v>364</v>
+      </c>
+      <c r="D144" s="61" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="71" t="s">
+        <v>235</v>
+      </c>
+      <c r="C145" s="85" t="s">
+        <v>236</v>
+      </c>
+      <c r="D145" s="61" t="s">
         <v>237</v>
-      </c>
-      <c r="C140" s="85" t="s">
-        <v>238</v>
-      </c>
-      <c r="D140" s="61" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B141" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="C141" s="81" t="s">
-        <v>107</v>
-      </c>
-      <c r="D141" s="81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B142" s="82" t="s">
-        <v>183</v>
-      </c>
-      <c r="C142" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="D142" s="81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B143" s="82" t="s">
-        <v>184</v>
-      </c>
-      <c r="C143" s="81" t="s">
-        <v>290</v>
-      </c>
-      <c r="D143" s="81" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B144" s="82" t="s">
-        <v>424</v>
-      </c>
-      <c r="C144" s="81" t="s">
-        <v>425</v>
-      </c>
-      <c r="D144" s="81" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B145" s="82" t="s">
-        <v>201</v>
-      </c>
-      <c r="C145" s="81" t="s">
-        <v>200</v>
-      </c>
-      <c r="D145" s="81" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -11794,13 +11933,13 @@
         <v>80</v>
       </c>
       <c r="B146" s="82" t="s">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="C146" s="81" t="s">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="D146" s="81" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -11808,13 +11947,13 @@
         <v>80</v>
       </c>
       <c r="B147" s="82" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="C147" s="81" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="D147" s="81" t="s">
-        <v>206</v>
+        <v>98</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -11822,27 +11961,27 @@
         <v>80</v>
       </c>
       <c r="B148" s="82" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="C148" s="81" t="s">
-        <v>199</v>
+        <v>288</v>
       </c>
       <c r="D148" s="81" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="15.75">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="80" t="s">
         <v>80</v>
       </c>
       <c r="B149" s="82" t="s">
-        <v>207</v>
+        <v>422</v>
       </c>
       <c r="C149" s="81" t="s">
-        <v>580</v>
-      </c>
-      <c r="D149" s="177" t="s">
-        <v>581</v>
+        <v>423</v>
+      </c>
+      <c r="D149" s="81" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -11850,97 +11989,97 @@
         <v>80</v>
       </c>
       <c r="B150" s="82" t="s">
-        <v>584</v>
+        <v>199</v>
       </c>
       <c r="C150" s="81" t="s">
-        <v>582</v>
-      </c>
-      <c r="D150" s="178" t="s">
-        <v>583</v>
+        <v>198</v>
+      </c>
+      <c r="D150" s="81" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="B151" s="130" t="s">
+      <c r="B151" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="C151" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="D151" s="81" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B152" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="C152" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="D152" s="81" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B153" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="C153" s="81" t="s">
+        <v>197</v>
+      </c>
+      <c r="D153" s="81" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15.75">
+      <c r="A154" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B154" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="C154" s="81" t="s">
+        <v>578</v>
+      </c>
+      <c r="D154" s="177" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B155" s="82" t="s">
+        <v>582</v>
+      </c>
+      <c r="C155" s="81" t="s">
+        <v>580</v>
+      </c>
+      <c r="D155" s="178" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B156" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="C156" s="131" t="s">
         <v>207</v>
       </c>
-      <c r="C151" s="131" t="s">
-        <v>209</v>
-      </c>
-      <c r="D151" s="131" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B152" s="70" t="s">
-        <v>510</v>
-      </c>
-      <c r="C152" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="D152" s="69" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B153" s="70" t="s">
-        <v>510</v>
-      </c>
-      <c r="C153" s="69" t="s">
-        <v>513</v>
-      </c>
-      <c r="D153" s="69" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B154" s="70" t="s">
-        <v>510</v>
-      </c>
-      <c r="C154" s="69" t="s">
-        <v>520</v>
-      </c>
-      <c r="D154" s="69" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B155" s="70" t="s">
-        <v>517</v>
-      </c>
-      <c r="C155" s="69" t="s">
-        <v>514</v>
-      </c>
-      <c r="D155" s="69" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B156" s="70" t="s">
-        <v>451</v>
-      </c>
-      <c r="C156" s="69" t="s">
-        <v>289</v>
-      </c>
-      <c r="D156" s="69" t="s">
-        <v>446</v>
+      <c r="D156" s="131" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -11948,13 +12087,13 @@
         <v>8</v>
       </c>
       <c r="B157" s="70" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="C157" s="69" t="s">
-        <v>452</v>
+        <v>66</v>
       </c>
       <c r="D157" s="69" t="s">
-        <v>450</v>
+        <v>509</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -11962,13 +12101,13 @@
         <v>8</v>
       </c>
       <c r="B158" s="70" t="s">
-        <v>291</v>
+        <v>508</v>
       </c>
       <c r="C158" s="69" t="s">
-        <v>292</v>
+        <v>511</v>
       </c>
       <c r="D158" s="69" t="s">
-        <v>293</v>
+        <v>510</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -11976,13 +12115,13 @@
         <v>8</v>
       </c>
       <c r="B159" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="68" t="s">
-        <v>9</v>
+        <v>508</v>
+      </c>
+      <c r="C159" s="69" t="s">
+        <v>518</v>
       </c>
       <c r="D159" s="69" t="s">
-        <v>11</v>
+        <v>517</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -11990,13 +12129,13 @@
         <v>8</v>
       </c>
       <c r="B160" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C160" s="68" t="s">
-        <v>20</v>
+        <v>515</v>
+      </c>
+      <c r="C160" s="69" t="s">
+        <v>512</v>
       </c>
       <c r="D160" s="69" t="s">
-        <v>65</v>
+        <v>513</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -12004,13 +12143,13 @@
         <v>8</v>
       </c>
       <c r="B161" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" s="68" t="s">
-        <v>393</v>
+        <v>449</v>
+      </c>
+      <c r="C161" s="69" t="s">
+        <v>287</v>
       </c>
       <c r="D161" s="69" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -12018,13 +12157,13 @@
         <v>8</v>
       </c>
       <c r="B162" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C162" s="68" t="s">
-        <v>9</v>
+        <v>449</v>
+      </c>
+      <c r="C162" s="69" t="s">
+        <v>450</v>
       </c>
       <c r="D162" s="69" t="s">
-        <v>11</v>
+        <v>448</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -12032,13 +12171,13 @@
         <v>8</v>
       </c>
       <c r="B163" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C163" s="68" t="s">
-        <v>362</v>
+        <v>289</v>
+      </c>
+      <c r="C163" s="69" t="s">
+        <v>290</v>
       </c>
       <c r="D163" s="69" t="s">
-        <v>363</v>
+        <v>291</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -12049,10 +12188,10 @@
         <v>8</v>
       </c>
       <c r="C164" s="68" t="s">
-        <v>364</v>
+        <v>9</v>
       </c>
       <c r="D164" s="69" t="s">
-        <v>365</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -12060,13 +12199,13 @@
         <v>8</v>
       </c>
       <c r="B165" s="70" t="s">
-        <v>441</v>
+        <v>8</v>
       </c>
       <c r="C165" s="68" t="s">
-        <v>364</v>
+        <v>20</v>
       </c>
       <c r="D165" s="69" t="s">
-        <v>440</v>
+        <v>65</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -12074,603 +12213,745 @@
         <v>8</v>
       </c>
       <c r="B166" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" s="68" t="s">
+        <v>391</v>
+      </c>
+      <c r="D166" s="69" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="68" t="s">
+        <v>360</v>
+      </c>
+      <c r="D168" s="69" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="68" t="s">
+        <v>362</v>
+      </c>
+      <c r="D169" s="69" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" s="70" t="s">
+        <v>439</v>
+      </c>
+      <c r="C170" s="68" t="s">
+        <v>362</v>
+      </c>
+      <c r="D170" s="69" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" s="70" t="s">
+        <v>439</v>
+      </c>
+      <c r="C171" s="68" t="s">
+        <v>362</v>
+      </c>
+      <c r="D171" s="69" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="71" t="s">
+        <v>328</v>
+      </c>
+      <c r="B172" s="60" t="s">
+        <v>503</v>
+      </c>
+      <c r="C172" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="D172" s="61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A173" s="71" t="s">
+        <v>328</v>
+      </c>
+      <c r="B173" s="129" t="s">
+        <v>433</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" s="3" customFormat="1" ht="30">
+      <c r="A174" s="71" t="s">
+        <v>328</v>
+      </c>
+      <c r="B174" s="129" t="s">
+        <v>433</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="D174" s="12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A175" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="B175" s="129" t="s">
+        <v>433</v>
+      </c>
+      <c r="C175" s="62" t="s">
+        <v>350</v>
+      </c>
+      <c r="D175" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A176" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="B176" s="129" t="s">
+        <v>433</v>
+      </c>
+      <c r="C176" s="62" t="s">
+        <v>425</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" s="3" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A177" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="B177" s="129" t="s">
+        <v>504</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D177" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A178" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="B178" s="129" t="s">
+        <v>505</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="D178" s="12" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A179" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="B179" s="129" t="s">
+        <v>427</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="D179" s="12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A181" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="B181" s="63" t="s">
+        <v>319</v>
+      </c>
+      <c r="C181" s="64" t="s">
+        <v>429</v>
+      </c>
+      <c r="D181" s="65" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" s="4" customFormat="1">
+      <c r="A184" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184" s="73" t="s">
+        <v>314</v>
+      </c>
+      <c r="C184" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="D184" s="65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D185" s="65" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="113" t="s">
+        <v>191</v>
+      </c>
+      <c r="B186" s="113" t="s">
+        <v>189</v>
+      </c>
+      <c r="C186" s="115" t="s">
+        <v>193</v>
+      </c>
+      <c r="D186" s="115" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="113" t="s">
+        <v>191</v>
+      </c>
+      <c r="B187" s="113" t="s">
+        <v>189</v>
+      </c>
+      <c r="C187" s="115" t="s">
+        <v>195</v>
+      </c>
+      <c r="D187" s="115" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" s="3" customFormat="1">
+      <c r="A188" s="132" t="s">
+        <v>250</v>
+      </c>
+      <c r="B188" s="157" t="s">
+        <v>252</v>
+      </c>
+      <c r="C188" s="133" t="s">
+        <v>253</v>
+      </c>
+      <c r="D188" s="134" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" s="86" customFormat="1">
+      <c r="A189" s="132" t="s">
+        <v>250</v>
+      </c>
+      <c r="B189" s="157" t="s">
+        <v>293</v>
+      </c>
+      <c r="C189" s="133" t="s">
+        <v>292</v>
+      </c>
+      <c r="D189" s="134" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" s="86" customFormat="1">
+      <c r="A190" s="132" t="s">
+        <v>250</v>
+      </c>
+      <c r="B190" s="157" t="s">
+        <v>286</v>
+      </c>
+      <c r="C190" s="133" t="s">
+        <v>285</v>
+      </c>
+      <c r="D190" s="134" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A191" s="135" t="s">
+        <v>250</v>
+      </c>
+      <c r="B191" s="157" t="s">
+        <v>465</v>
+      </c>
+      <c r="C191" s="136" t="s">
+        <v>377</v>
+      </c>
+      <c r="D191" s="137" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" s="38" customFormat="1" ht="144.75" customHeight="1">
+      <c r="A192" s="138" t="s">
+        <v>250</v>
+      </c>
+      <c r="B192" s="158" t="s">
+        <v>506</v>
+      </c>
+      <c r="C192" s="136" t="s">
+        <v>490</v>
+      </c>
+      <c r="D192" s="137" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="159" t="s">
+        <v>250</v>
+      </c>
+      <c r="B193" s="160" t="s">
+        <v>514</v>
+      </c>
+      <c r="C193" s="161" t="s">
+        <v>516</v>
+      </c>
+      <c r="D193" s="161" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A194" s="138" t="s">
+        <v>250</v>
+      </c>
+      <c r="B194" s="158" t="s">
+        <v>436</v>
+      </c>
+      <c r="C194" s="139" t="s">
+        <v>460</v>
+      </c>
+      <c r="D194" s="137" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A195" s="138" t="s">
+        <v>250</v>
+      </c>
+      <c r="B195" s="158" t="s">
+        <v>436</v>
+      </c>
+      <c r="C195" s="139" t="s">
+        <v>461</v>
+      </c>
+      <c r="D195" s="137" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A196" s="138" t="s">
+        <v>250</v>
+      </c>
+      <c r="B196" s="158" t="s">
+        <v>437</v>
+      </c>
+      <c r="C196" s="140" t="s">
+        <v>442</v>
+      </c>
+      <c r="D196" s="137" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A197" s="138" t="s">
+        <v>250</v>
+      </c>
+      <c r="B197" s="158" t="s">
+        <v>242</v>
+      </c>
+      <c r="C197" s="136" t="s">
+        <v>459</v>
+      </c>
+      <c r="D197" s="137" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A198" s="138" t="s">
+        <v>250</v>
+      </c>
+      <c r="B198" s="158" t="s">
         <v>441</v>
       </c>
-      <c r="C166" s="68" t="s">
-        <v>364</v>
-      </c>
-      <c r="D166" s="69" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="B167" s="60" t="s">
-        <v>505</v>
-      </c>
-      <c r="C167" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="D167" s="61" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A168" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="B168" s="129" t="s">
-        <v>435</v>
-      </c>
-      <c r="C168" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="D168" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" s="3" customFormat="1" ht="30">
-      <c r="A169" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="B169" s="129" t="s">
-        <v>435</v>
-      </c>
-      <c r="C169" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="D169" s="12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A170" s="72" t="s">
-        <v>330</v>
-      </c>
-      <c r="B170" s="129" t="s">
-        <v>435</v>
-      </c>
-      <c r="C170" s="62" t="s">
-        <v>352</v>
-      </c>
-      <c r="D170" s="12" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A171" s="72" t="s">
-        <v>330</v>
-      </c>
-      <c r="B171" s="129" t="s">
-        <v>435</v>
-      </c>
-      <c r="C171" s="62" t="s">
-        <v>427</v>
-      </c>
-      <c r="D171" s="12" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" s="3" customFormat="1" ht="76.5" customHeight="1">
-      <c r="A172" s="72" t="s">
-        <v>330</v>
-      </c>
-      <c r="B172" s="129" t="s">
-        <v>506</v>
-      </c>
-      <c r="C172" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="D172" s="12" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A173" s="72" t="s">
-        <v>330</v>
-      </c>
-      <c r="B173" s="129" t="s">
-        <v>507</v>
-      </c>
-      <c r="C173" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="D173" s="12" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A174" s="72" t="s">
-        <v>330</v>
-      </c>
-      <c r="B174" s="129" t="s">
-        <v>429</v>
-      </c>
-      <c r="C174" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="D174" s="12" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="74" t="s">
-        <v>189</v>
-      </c>
-      <c r="B175" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="C175" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="D175" s="11" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A176" s="74" t="s">
-        <v>189</v>
-      </c>
-      <c r="B176" s="63" t="s">
-        <v>321</v>
-      </c>
-      <c r="C176" s="64" t="s">
-        <v>431</v>
-      </c>
-      <c r="D176" s="65" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="74" t="s">
-        <v>189</v>
-      </c>
-      <c r="B177" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="C177" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="D177" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="74" t="s">
-        <v>189</v>
-      </c>
-      <c r="B178" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="C178" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="D178" s="11" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" s="4" customFormat="1">
-      <c r="A179" s="74" t="s">
-        <v>189</v>
-      </c>
-      <c r="B179" s="73" t="s">
-        <v>316</v>
-      </c>
-      <c r="C179" s="65" t="s">
-        <v>315</v>
-      </c>
-      <c r="D179" s="65" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="75" t="s">
-        <v>189</v>
-      </c>
-      <c r="B180" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C180" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="D180" s="65" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="113" t="s">
-        <v>193</v>
-      </c>
-      <c r="B181" s="113" t="s">
-        <v>191</v>
-      </c>
-      <c r="C181" s="115" t="s">
-        <v>195</v>
-      </c>
-      <c r="D181" s="115" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="113" t="s">
-        <v>193</v>
-      </c>
-      <c r="B182" s="113" t="s">
-        <v>191</v>
-      </c>
-      <c r="C182" s="115" t="s">
-        <v>197</v>
-      </c>
-      <c r="D182" s="115" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" s="3" customFormat="1">
-      <c r="A183" s="132" t="s">
-        <v>252</v>
-      </c>
-      <c r="B183" s="157" t="s">
-        <v>254</v>
-      </c>
-      <c r="C183" s="133" t="s">
-        <v>255</v>
-      </c>
-      <c r="D183" s="134" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" s="86" customFormat="1">
-      <c r="A184" s="132" t="s">
-        <v>252</v>
-      </c>
-      <c r="B184" s="157" t="s">
-        <v>295</v>
-      </c>
-      <c r="C184" s="133" t="s">
-        <v>294</v>
-      </c>
-      <c r="D184" s="134" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" s="86" customFormat="1">
-      <c r="A185" s="132" t="s">
-        <v>252</v>
-      </c>
-      <c r="B185" s="157" t="s">
-        <v>288</v>
-      </c>
-      <c r="C185" s="133" t="s">
-        <v>287</v>
-      </c>
-      <c r="D185" s="134" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A186" s="135" t="s">
-        <v>252</v>
-      </c>
-      <c r="B186" s="157" t="s">
-        <v>467</v>
-      </c>
-      <c r="C186" s="136" t="s">
-        <v>379</v>
-      </c>
-      <c r="D186" s="137" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" s="38" customFormat="1" ht="144.75" customHeight="1">
-      <c r="A187" s="138" t="s">
-        <v>252</v>
-      </c>
-      <c r="B187" s="158" t="s">
-        <v>508</v>
-      </c>
-      <c r="C187" s="136" t="s">
-        <v>492</v>
-      </c>
-      <c r="D187" s="137" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="159" t="s">
-        <v>252</v>
-      </c>
-      <c r="B188" s="160" t="s">
-        <v>516</v>
-      </c>
-      <c r="C188" s="161" t="s">
-        <v>518</v>
-      </c>
-      <c r="D188" s="161" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A189" s="138" t="s">
-        <v>252</v>
-      </c>
-      <c r="B189" s="158" t="s">
-        <v>438</v>
-      </c>
-      <c r="C189" s="139" t="s">
-        <v>462</v>
-      </c>
-      <c r="D189" s="137" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A190" s="138" t="s">
-        <v>252</v>
-      </c>
-      <c r="B190" s="158" t="s">
-        <v>438</v>
-      </c>
-      <c r="C190" s="139" t="s">
-        <v>463</v>
-      </c>
-      <c r="D190" s="137" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A191" s="138" t="s">
-        <v>252</v>
-      </c>
-      <c r="B191" s="158" t="s">
-        <v>439</v>
-      </c>
-      <c r="C191" s="140" t="s">
-        <v>444</v>
-      </c>
-      <c r="D191" s="137" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A192" s="138" t="s">
-        <v>252</v>
-      </c>
-      <c r="B192" s="158" t="s">
-        <v>244</v>
-      </c>
-      <c r="C192" s="136" t="s">
-        <v>461</v>
-      </c>
-      <c r="D192" s="137" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A193" s="138" t="s">
-        <v>252</v>
-      </c>
-      <c r="B193" s="158" t="s">
-        <v>443</v>
-      </c>
-      <c r="C193" s="136" t="s">
+      <c r="C198" s="136" t="s">
+        <v>519</v>
+      </c>
+      <c r="D198" s="137" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A199" s="138" t="s">
+        <v>250</v>
+      </c>
+      <c r="B199" s="158" t="s">
+        <v>457</v>
+      </c>
+      <c r="C199" s="136" t="s">
+        <v>458</v>
+      </c>
+      <c r="D199" s="137" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A200" s="138" t="s">
+        <v>250</v>
+      </c>
+      <c r="B200" s="158" t="s">
+        <v>524</v>
+      </c>
+      <c r="C200" s="136" t="s">
+        <v>523</v>
+      </c>
+      <c r="D200" s="137" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A201" s="138" t="s">
+        <v>250</v>
+      </c>
+      <c r="B201" s="158" t="s">
+        <v>522</v>
+      </c>
+      <c r="C201" s="136" t="s">
         <v>521</v>
       </c>
-      <c r="D193" s="137" t="s">
+      <c r="D201" s="137" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A202" s="138" t="s">
+        <v>250</v>
+      </c>
+      <c r="B202" s="158" t="s">
+        <v>456</v>
+      </c>
+      <c r="C202" s="136" t="s">
+        <v>454</v>
+      </c>
+      <c r="D202" s="137" t="s">
         <v>455</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A194" s="138" t="s">
-        <v>252</v>
-      </c>
-      <c r="B194" s="158" t="s">
-        <v>459</v>
-      </c>
-      <c r="C194" s="136" t="s">
-        <v>460</v>
-      </c>
-      <c r="D194" s="137" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A195" s="138" t="s">
-        <v>252</v>
-      </c>
-      <c r="B195" s="158" t="s">
-        <v>526</v>
-      </c>
-      <c r="C195" s="136" t="s">
-        <v>525</v>
-      </c>
-      <c r="D195" s="137" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A196" s="138" t="s">
-        <v>252</v>
-      </c>
-      <c r="B196" s="158" t="s">
-        <v>524</v>
-      </c>
-      <c r="C196" s="136" t="s">
-        <v>523</v>
-      </c>
-      <c r="D196" s="137" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A197" s="138" t="s">
-        <v>252</v>
-      </c>
-      <c r="B197" s="158" t="s">
-        <v>458</v>
-      </c>
-      <c r="C197" s="136" t="s">
-        <v>456</v>
-      </c>
-      <c r="D197" s="137" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="123" t="s">
-        <v>224</v>
-      </c>
-      <c r="B198" s="123" t="s">
-        <v>225</v>
-      </c>
-      <c r="C198" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="D198" s="36" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="123" t="s">
-        <v>224</v>
-      </c>
-      <c r="B199" s="123" t="s">
-        <v>225</v>
-      </c>
-      <c r="C199" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="D199" s="36" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="123" t="s">
-        <v>224</v>
-      </c>
-      <c r="B200" s="123" t="s">
-        <v>225</v>
-      </c>
-      <c r="C200" s="156" t="s">
-        <v>302</v>
-      </c>
-      <c r="D200" s="36" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="123" t="s">
-        <v>224</v>
-      </c>
-      <c r="B201" s="123" t="s">
-        <v>225</v>
-      </c>
-      <c r="C201" s="156" t="s">
-        <v>309</v>
-      </c>
-      <c r="D201" s="36" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="123" t="s">
-        <v>224</v>
-      </c>
-      <c r="B202" s="123" t="s">
-        <v>225</v>
-      </c>
-      <c r="C202" s="180" t="s">
-        <v>307</v>
-      </c>
-      <c r="D202" s="36" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="123" t="s">
+        <v>222</v>
+      </c>
+      <c r="B203" s="123" t="s">
+        <v>223</v>
+      </c>
+      <c r="C203" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="D203" s="36" t="s">
         <v>224</v>
-      </c>
-      <c r="B203" s="123" t="s">
-        <v>225</v>
-      </c>
-      <c r="C203" s="180" t="s">
-        <v>307</v>
-      </c>
-      <c r="D203" s="36" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="123" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B204" s="123" t="s">
+        <v>223</v>
+      </c>
+      <c r="C204" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="C204" s="180" t="s">
-        <v>310</v>
-      </c>
       <c r="D204" s="36" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="123" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B205" s="123" t="s">
-        <v>225</v>
-      </c>
-      <c r="C205" s="181" t="s">
-        <v>396</v>
-      </c>
-      <c r="D205" s="36"/>
-    </row>
-    <row r="206" spans="1:4" s="179" customFormat="1" ht="15.75">
-      <c r="A206" s="182" t="s">
-        <v>224</v>
-      </c>
-      <c r="B206" s="182" t="s">
-        <v>225</v>
-      </c>
-      <c r="C206" s="183" t="s">
+        <v>223</v>
+      </c>
+      <c r="C205" s="156" t="s">
+        <v>300</v>
+      </c>
+      <c r="D205" s="36" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="123" t="s">
+        <v>222</v>
+      </c>
+      <c r="B206" s="123" t="s">
+        <v>223</v>
+      </c>
+      <c r="C206" s="156" t="s">
+        <v>307</v>
+      </c>
+      <c r="D206" s="36" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="123" t="s">
+        <v>222</v>
+      </c>
+      <c r="B207" s="123" t="s">
+        <v>629</v>
+      </c>
+      <c r="C207" s="180" t="s">
+        <v>305</v>
+      </c>
+      <c r="D207" s="36" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="123" t="s">
+        <v>222</v>
+      </c>
+      <c r="B208" s="123" t="s">
+        <v>629</v>
+      </c>
+      <c r="C208" s="180" t="s">
+        <v>305</v>
+      </c>
+      <c r="D208" s="36" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="123" t="s">
+        <v>222</v>
+      </c>
+      <c r="B209" s="123" t="s">
+        <v>631</v>
+      </c>
+      <c r="C209" s="180" t="s">
+        <v>308</v>
+      </c>
+      <c r="D209" s="36" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="123" t="s">
+        <v>222</v>
+      </c>
+      <c r="B210" s="123" t="s">
+        <v>632</v>
+      </c>
+      <c r="C210" s="181" t="s">
+        <v>394</v>
+      </c>
+      <c r="D210" s="36" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" s="179" customFormat="1" ht="15.75">
+      <c r="A211" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="B211" s="182" t="s">
+        <v>632</v>
+      </c>
+      <c r="C211" s="183" t="s">
+        <v>585</v>
+      </c>
+      <c r="D211" s="184" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="B212" s="182" t="s">
+        <v>633</v>
+      </c>
+      <c r="C212" s="185" t="s">
+        <v>586</v>
+      </c>
+      <c r="D212" s="186" t="s">
         <v>587</v>
       </c>
-      <c r="D206" s="184" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="182" t="s">
-        <v>224</v>
-      </c>
-      <c r="B207" s="182" t="s">
-        <v>225</v>
-      </c>
-      <c r="C207" s="185" t="s">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="B213" s="182" t="s">
+        <v>634</v>
+      </c>
+      <c r="C213" s="185" t="s">
+        <v>624</v>
+      </c>
+      <c r="D213" s="186" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="B214" s="182" t="s">
+        <v>634</v>
+      </c>
+      <c r="C214" s="185" t="s">
+        <v>625</v>
+      </c>
+      <c r="D214" s="186" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="B215" s="182" t="s">
+        <v>634</v>
+      </c>
+      <c r="C215" s="185" t="s">
+        <v>626</v>
+      </c>
+      <c r="D215" s="186" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="B216" s="182" t="s">
+        <v>634</v>
+      </c>
+      <c r="C216" s="185" t="s">
+        <v>627</v>
+      </c>
+      <c r="D216" s="186" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="B217" s="182" t="s">
+        <v>634</v>
+      </c>
+      <c r="C217" s="185" t="s">
+        <v>628</v>
+      </c>
+      <c r="D217" s="186" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="B218" s="182" t="s">
+        <v>223</v>
+      </c>
+      <c r="C218" s="185" t="s">
         <v>588</v>
       </c>
-      <c r="D207" s="186" t="s">
+      <c r="D218" s="186" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="182" t="s">
-        <v>224</v>
-      </c>
-      <c r="B208" s="182" t="s">
-        <v>225</v>
-      </c>
-      <c r="C208" s="185" t="s">
-        <v>590</v>
-      </c>
-      <c r="D208" s="186" t="s">
-        <v>591</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:D204" xr:uid="{85ED3410-72EE-453D-8BB3-FB7E07F682B1}"/>
+  <autoFilter ref="A2:D209" xr:uid="{85ED3410-72EE-453D-8BB3-FB7E07F682B1}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -12699,223 +12980,223 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A1" s="198" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="200"/>
+      <c r="A1" s="199" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="201"/>
     </row>
     <row r="2" spans="1:5" ht="207" customHeight="1">
       <c r="A2" s="43" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B2" s="163" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="54"/>
     </row>
     <row r="3" spans="1:5" ht="207" customHeight="1">
       <c r="A3" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B3" s="163" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="56" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="207" customHeight="1">
       <c r="A4" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B4" s="163" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C4" s="164" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="166" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="207" customHeight="1">
       <c r="A5" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B5" s="163" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="54" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="207" customHeight="1">
       <c r="A6" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B6" s="163" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C6" s="162" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="54" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="207" customHeight="1">
       <c r="A7" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B7" s="163" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C7" s="162" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="54" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="207" customHeight="1">
       <c r="A8" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B8" s="163" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="54" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="207" customHeight="1">
       <c r="A9" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B9" s="163" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="54" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="207" customHeight="1">
       <c r="A10" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B10" s="163" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="54" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="207" customHeight="1">
       <c r="A11" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B11" s="163" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C11" s="164" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D11" s="43"/>
       <c r="E11" s="165" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="207" customHeight="1">
       <c r="A12" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B12" s="163" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="57" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="207" customHeight="1">
       <c r="A13" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B13" s="163" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="57" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="207" customHeight="1">
       <c r="A14" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B14" s="163" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="57" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="207" customHeight="1">
       <c r="A15" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B15" s="163" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C15" s="58"/>
       <c r="D15" s="5"/>
       <c r="E15" s="57" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="207" customHeight="1">
       <c r="A16" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B16" s="163" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C16" s="58"/>
       <c r="D16" s="5"/>
@@ -12923,241 +13204,241 @@
     </row>
     <row r="17" spans="1:5" ht="207" customHeight="1">
       <c r="A17" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B17" s="163" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C17" s="195" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="57" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="207" customHeight="1">
       <c r="A18" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B18" s="163" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C18" s="187" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="57" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="408.95" customHeight="1">
+      <c r="A19" s="210" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" s="208" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="408.95" customHeight="1">
-      <c r="A19" s="209" t="s">
-        <v>224</v>
-      </c>
-      <c r="B19" s="207" t="s">
-        <v>597</v>
-      </c>
-      <c r="C19" s="201"/>
-      <c r="D19" s="203"/>
-      <c r="E19" s="205"/>
+      <c r="C19" s="202"/>
+      <c r="D19" s="204"/>
+      <c r="E19" s="206"/>
     </row>
     <row r="20" spans="1:5" ht="351.75" customHeight="1">
-      <c r="A20" s="208"/>
-      <c r="B20" s="208"/>
-      <c r="C20" s="202"/>
-      <c r="D20" s="204"/>
-      <c r="E20" s="206"/>
+      <c r="A20" s="209"/>
+      <c r="B20" s="209"/>
+      <c r="C20" s="203"/>
+      <c r="D20" s="205"/>
+      <c r="E20" s="207"/>
     </row>
     <row r="21" spans="1:5" s="193" customFormat="1" ht="158.25" customHeight="1">
       <c r="A21" s="189" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B21" s="190" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C21" s="191"/>
       <c r="D21" s="192"/>
       <c r="E21" s="194" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="207" customHeight="1">
       <c r="A22" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="43"/>
       <c r="E22" s="66" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="207" customHeight="1">
       <c r="A23" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="54" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="207" customHeight="1">
       <c r="A24" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D24" s="43"/>
       <c r="E24" s="54" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="207" customHeight="1">
       <c r="A25" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D25" s="43"/>
       <c r="E25" s="54" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="207" customHeight="1">
       <c r="A26" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="57" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="207" customHeight="1">
       <c r="A27" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="54" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="207" customHeight="1">
       <c r="A28" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D28" s="43"/>
       <c r="E28" s="54" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="207" customHeight="1">
       <c r="A29" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D29" s="43"/>
       <c r="E29" s="54" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="207" customHeight="1">
       <c r="A30" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D30" s="43"/>
       <c r="E30" s="54" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="207" customHeight="1">
       <c r="A31" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D31" s="43"/>
       <c r="E31" s="54" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="207" customHeight="1">
       <c r="A32" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D32" s="43"/>
       <c r="E32" s="54" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="207" customHeight="1">
       <c r="A33" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D33" s="43"/>
       <c r="E33" s="54" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="207" customHeight="1">
@@ -14089,109 +14370,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="40" customFormat="1" ht="57.75" customHeight="1">
       <c r="A7" s="37" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="40" customFormat="1" ht="67.5" customHeight="1">
       <c r="A8" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="B8" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>359</v>
-      </c>
       <c r="C8" s="41" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="18" customFormat="1" ht="19.5" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1">

--- a/Tutoriales/pandas/Comandos Pandas.xlsx
+++ b/Tutoriales/pandas/Comandos Pandas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseMaría\Documents\CURSOS\data_science\mitrabajo\mi_repositorio\Tutoriales\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5398794B-ED08-47A1-B355-F98FCFC463A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590BBD9F-CAB2-4696-9507-7D1DB3BFE62B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF4018AA-EEB9-4756-B82D-183D37B3B80A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AF4018AA-EEB9-4756-B82D-183D37B3B80A}"/>
   </bookViews>
   <sheets>
     <sheet name="GENERALES" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="CONCEPTOS" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GENERALES!$A$2:$D$209</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GENERALES!$A$2:$D$210</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="637">
   <si>
     <t>FUNCIONES DE PANDAS</t>
   </si>
@@ -3208,9 +3208,6 @@
   </si>
   <si>
     <t>Muestra el máximo sobre el eje solicitado</t>
-  </si>
-  <si>
-    <t>plt.xticks(rotation="vertical)</t>
   </si>
   <si>
     <t>Me gira las legendas a vertical en el eje</t>
@@ -4435,9 +4432,6 @@
   </si>
   <si>
     <t>1º</t>
-  </si>
-  <si>
-    <t>plt.pie tipo de representación</t>
   </si>
   <si>
     <t>Cambio el indice por defecto que había y ahora tomo como indice la columna Date</t>
@@ -5904,9 +5898,6 @@
     <t>muestra.plot(kind = 'barh', width=0.8)</t>
   </si>
   <si>
-    <t>Generamos espacio entre los grupos de barras</t>
-  </si>
-  <si>
     <t>plt.grid</t>
   </si>
   <si>
@@ -6445,6 +6436,21 @@
   </si>
   <si>
     <t>POSICION LEYENDA</t>
+  </si>
+  <si>
+    <t>Cambiamos ancho de barras con width</t>
+  </si>
+  <si>
+    <t>plt.xticks(rotation="vertical")</t>
+  </si>
+  <si>
+    <t>plt.xticks(rotation=45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gira etiquetas eje x a 45 </t>
+  </si>
+  <si>
+    <t>plt.pie tipo de representación. IMPORTANTE: CON EL autopct="%1.2f%%" LE DIGO QUE TOME UN EMTERO Y DOS DECIMALES EN EL TANTO PORCIENTO</t>
   </si>
 </sst>
 </file>
@@ -9892,10 +9898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265136A6-C067-4B28-9F45-A6266FF6FD67}">
-  <dimension ref="A1:D218"/>
+  <dimension ref="A1:D219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="C216" sqref="C216"/>
+    <sheetView topLeftCell="A70" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9916,13 +9922,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="102" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B2" s="87" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="88" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D2" s="88" t="s">
         <v>3</v>
@@ -9930,13 +9936,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="102" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B3" s="87" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D3" s="88" t="s">
         <v>3</v>
@@ -9944,80 +9950,80 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="102" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B4" s="87" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="88" t="s">
+        <v>370</v>
+      </c>
+      <c r="D4" s="88" t="s">
         <v>371</v>
-      </c>
-      <c r="D4" s="88" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="102" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B5" s="87" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D5" s="89" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="102" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B6" s="87" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="89" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D6" s="89" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="102" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B7" s="87" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="89" t="s">
+        <v>405</v>
+      </c>
+      <c r="D7" s="89" t="s">
         <v>406</v>
-      </c>
-      <c r="D7" s="89" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="102" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B8" s="87" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="89" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D8" s="89" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="4" customFormat="1">
       <c r="A9" s="90" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C9" s="127" t="s">
         <v>4</v>
@@ -10028,52 +10034,52 @@
     </row>
     <row r="10" spans="1:4" s="4" customFormat="1">
       <c r="A10" s="90" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D10" s="127" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="4" customFormat="1">
       <c r="A11" s="90" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B11" s="96" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D11" s="127" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="4" customFormat="1" ht="30">
       <c r="A12" s="90" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C12" s="91" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D12" s="92" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="4" customFormat="1">
       <c r="A13" s="90" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B13" s="96" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C13" s="68" t="s">
         <v>254</v>
@@ -10084,10 +10090,10 @@
     </row>
     <row r="14" spans="1:4" s="4" customFormat="1">
       <c r="A14" s="90" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B14" s="96" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C14" s="68" t="s">
         <v>88</v>
@@ -10098,44 +10104,44 @@
     </row>
     <row r="15" spans="1:4" s="3" customFormat="1" ht="30">
       <c r="A15" s="90" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B15" s="96" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C15" s="93" t="s">
         <v>55</v>
       </c>
       <c r="D15" s="94" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" s="90" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B16" s="96" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C16" s="95" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D16" s="94" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="90" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B17" s="96" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C17" s="95" t="s">
         <v>188</v>
       </c>
       <c r="D17" s="94" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -10143,7 +10149,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C18" s="98" t="s">
         <v>10</v>
@@ -10157,10 +10163,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C19" s="176" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D19" s="98" t="s">
         <v>12</v>
@@ -10171,7 +10177,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C20" s="98" t="s">
         <v>15</v>
@@ -10185,7 +10191,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C21" s="98" t="s">
         <v>63</v>
@@ -10199,7 +10205,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C22" s="98" t="s">
         <v>13</v>
@@ -10213,7 +10219,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C23" s="98" t="s">
         <v>64</v>
@@ -10227,18 +10233,18 @@
         <v>7</v>
       </c>
       <c r="B24" s="97" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C24" s="98" t="s">
+        <v>377</v>
+      </c>
+      <c r="D24" s="98" t="s">
         <v>378</v>
-      </c>
-      <c r="D24" s="98" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="99" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B25" s="101" t="s">
         <v>33</v>
@@ -10252,7 +10258,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="99" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B26" s="101" t="s">
         <v>33</v>
@@ -10266,16 +10272,16 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="99" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B27" s="101" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="175" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D27" s="100" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -10283,13 +10289,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="101" t="s">
+        <v>506</v>
+      </c>
+      <c r="C28" s="100" t="s">
+        <v>509</v>
+      </c>
+      <c r="D28" s="100" t="s">
         <v>508</v>
-      </c>
-      <c r="C28" s="100" t="s">
-        <v>511</v>
-      </c>
-      <c r="D28" s="100" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -10297,13 +10303,13 @@
         <v>8</v>
       </c>
       <c r="B29" s="101" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C29" s="100" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D29" s="100" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -10311,13 +10317,13 @@
         <v>8</v>
       </c>
       <c r="B30" s="101" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C30" s="196" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D30" s="100" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -10325,21 +10331,21 @@
         <v>8</v>
       </c>
       <c r="B31" s="101" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C31" s="196" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D31" s="100" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="3" customFormat="1">
       <c r="A32" s="147" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B32" s="150" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C32" s="148" t="s">
         <v>277</v>
@@ -10350,10 +10356,10 @@
     </row>
     <row r="33" spans="1:4" s="3" customFormat="1">
       <c r="A33" s="147" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B33" s="150" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C33" s="148" t="s">
         <v>278</v>
@@ -10364,24 +10370,24 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="147" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B34" s="101" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C34" s="100" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D34" s="100" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="60" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B35" s="71" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C35" s="85" t="s">
         <v>18</v>
@@ -10392,7 +10398,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="60" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B36" s="71" t="s">
         <v>56</v>
@@ -10406,7 +10412,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="60" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B37" s="71" t="s">
         <v>60</v>
@@ -10420,7 +10426,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="60" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B38" s="71" t="s">
         <v>60</v>
@@ -10434,10 +10440,10 @@
     </row>
     <row r="39" spans="1:4" s="3" customFormat="1" ht="29.25" customHeight="1">
       <c r="A39" s="141" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B39" s="129" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>179</v>
@@ -10448,47 +10454,47 @@
     </row>
     <row r="40" spans="1:4" s="3" customFormat="1" ht="30">
       <c r="A40" s="141" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B40" s="129" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="4" customFormat="1">
       <c r="A41" s="141" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B41" s="142" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C41" s="188" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D41" s="188" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="60" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C42" s="85" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D42" s="103"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="60" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B43" s="71" t="s">
         <v>6</v>
@@ -10502,7 +10508,7 @@
     </row>
     <row r="44" spans="1:4" s="107" customFormat="1" ht="14.25" customHeight="1">
       <c r="A44" s="60" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B44" s="71" t="s">
         <v>114</v>
@@ -10516,7 +10522,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="60" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B45" s="71" t="s">
         <v>114</v>
@@ -10530,7 +10536,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="60" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B46" s="71" t="s">
         <v>114</v>
@@ -10544,21 +10550,21 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="60" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B47" s="71" t="s">
         <v>114</v>
       </c>
       <c r="C47" s="85" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D47" s="103" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="60" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B48" s="71" t="s">
         <v>92</v>
@@ -10572,7 +10578,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="142" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B49" s="71" t="s">
         <v>270</v>
@@ -10586,35 +10592,35 @@
     </row>
     <row r="50" spans="1:4" s="4" customFormat="1" ht="30">
       <c r="A50" s="142" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B50" s="72" t="s">
         <v>270</v>
       </c>
       <c r="C50" s="143" t="s">
+        <v>388</v>
+      </c>
+      <c r="D50" s="144" t="s">
         <v>389</v>
-      </c>
-      <c r="D50" s="144" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="4" customFormat="1">
       <c r="A51" s="142" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B51" s="72" t="s">
         <v>270</v>
       </c>
       <c r="C51" s="143" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D51" s="144" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="3" customFormat="1">
       <c r="A52" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>242</v>
@@ -10628,30 +10634,30 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="60" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B53" s="71" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C53" s="61" t="s">
         <v>190</v>
       </c>
       <c r="D53" s="61" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="60" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B54" s="71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C54" s="61" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D54" s="61" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -10659,21 +10665,21 @@
         <v>39</v>
       </c>
       <c r="B55" s="71" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C55" s="61" t="s">
+        <v>377</v>
+      </c>
+      <c r="D55" s="61" t="s">
         <v>378</v>
-      </c>
-      <c r="D55" s="61" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="60" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B56" s="71" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C56" s="85" t="s">
         <v>67</v>
@@ -10684,7 +10690,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="60" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B57" s="71" t="s">
         <v>6</v>
@@ -10698,7 +10704,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="60" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B58" s="71" t="s">
         <v>6</v>
@@ -10707,12 +10713,12 @@
         <v>123</v>
       </c>
       <c r="D58" s="103" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="60" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B59" s="71" t="s">
         <v>6</v>
@@ -10726,7 +10732,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="60" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B60" s="71" t="s">
         <v>6</v>
@@ -10740,7 +10746,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="60" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B61" s="71" t="s">
         <v>6</v>
@@ -10754,7 +10760,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="60" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B62" s="71" t="s">
         <v>6</v>
@@ -10768,7 +10774,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="60" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B63" s="71" t="s">
         <v>114</v>
@@ -10782,7 +10788,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="60" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B64" s="71" t="s">
         <v>114</v>
@@ -10796,7 +10802,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="60" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B65" s="71" t="s">
         <v>114</v>
@@ -10810,7 +10816,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="60" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B66" s="71" t="s">
         <v>114</v>
@@ -10824,7 +10830,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="60" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B67" s="71" t="s">
         <v>114</v>
@@ -10838,7 +10844,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="60" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B68" s="71" t="s">
         <v>114</v>
@@ -10852,7 +10858,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="60" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B69" s="71" t="s">
         <v>114</v>
@@ -10866,10 +10872,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="104" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B70" s="109" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C70" s="105" t="s">
         <v>154</v>
@@ -10880,10 +10886,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="104" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B71" s="109" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C71" s="105" t="s">
         <v>157</v>
@@ -10894,10 +10900,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="104" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B72" s="109" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C72" s="105" t="s">
         <v>160</v>
@@ -10908,10 +10914,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="104" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B73" s="109" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C73" s="146" t="s">
         <v>94</v>
@@ -10922,7 +10928,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="104" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B74" s="109" t="s">
         <v>184</v>
@@ -10936,7 +10942,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="104" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B75" s="109" t="s">
         <v>114</v>
@@ -10950,7 +10956,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="104" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B76" s="109" t="s">
         <v>114</v>
@@ -10964,10 +10970,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="104" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B77" s="109" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C77" s="146" t="s">
         <v>96</v>
@@ -10978,10 +10984,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="104" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B78" s="109" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C78" s="146" t="s">
         <v>247</v>
@@ -10992,7 +10998,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="79" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B79" s="76" t="s">
         <v>71</v>
@@ -11006,7 +11012,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="79" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B80" s="76" t="s">
         <v>84</v>
@@ -11020,21 +11026,21 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="79" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B81" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="C81" s="77" t="s">
+        <v>385</v>
+      </c>
+      <c r="D81" s="77" t="s">
         <v>387</v>
-      </c>
-      <c r="C81" s="77" t="s">
-        <v>386</v>
-      </c>
-      <c r="D81" s="77" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="4" customFormat="1" ht="30">
       <c r="A82" s="124" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B82" s="125" t="s">
         <v>45</v>
@@ -11043,18 +11049,18 @@
         <v>44</v>
       </c>
       <c r="D82" s="126" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="79" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B83" s="76" t="s">
         <v>118</v>
       </c>
       <c r="C83" s="77" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D83" s="77" t="s">
         <v>28</v>
@@ -11062,13 +11068,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="79" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B84" s="76" t="s">
         <v>26</v>
       </c>
       <c r="C84" s="77" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D84" s="77" t="s">
         <v>117</v>
@@ -11076,7 +11082,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="79" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B85" s="76" t="s">
         <v>26</v>
@@ -11090,7 +11096,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="79" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B86" s="76" t="s">
         <v>53</v>
@@ -11104,30 +11110,30 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="79" t="s">
+        <v>612</v>
+      </c>
+      <c r="B87" s="79" t="s">
+        <v>613</v>
+      </c>
+      <c r="C87" s="77" t="s">
         <v>615</v>
       </c>
-      <c r="B87" s="79" t="s">
-        <v>616</v>
-      </c>
-      <c r="C87" s="77" t="s">
-        <v>618</v>
-      </c>
       <c r="D87" s="77" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="79" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B88" s="76" t="s">
         <v>122</v>
       </c>
       <c r="C88" s="77" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D88" s="128" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -11166,7 +11172,7 @@
         <v>212</v>
       </c>
       <c r="C91" s="78" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D91" s="77" t="s">
         <v>214</v>
@@ -11191,13 +11197,13 @@
         <v>210</v>
       </c>
       <c r="B93" s="76" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C93" s="77" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D93" s="77" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -11205,13 +11211,13 @@
         <v>210</v>
       </c>
       <c r="B94" s="76" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C94" s="77" t="s">
+        <v>529</v>
+      </c>
+      <c r="D94" s="77" t="s">
         <v>531</v>
-      </c>
-      <c r="D94" s="77" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -11219,13 +11225,13 @@
         <v>210</v>
       </c>
       <c r="B95" s="76" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C95" s="77" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D95" s="77" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -11233,32 +11239,32 @@
         <v>210</v>
       </c>
       <c r="B96" s="76" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C96" s="77" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D96" s="77" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="80" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B97" s="174" t="s">
+        <v>566</v>
+      </c>
+      <c r="C97" s="173" t="s">
+        <v>567</v>
+      </c>
+      <c r="D97" s="81" t="s">
         <v>568</v>
-      </c>
-      <c r="C97" s="173" t="s">
-        <v>569</v>
-      </c>
-      <c r="D97" s="81" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="80" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B98" s="82" t="s">
         <v>79</v>
@@ -11267,68 +11273,68 @@
         <v>78</v>
       </c>
       <c r="D98" s="81" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="80" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B99" s="82" t="s">
         <v>79</v>
       </c>
       <c r="C99" s="81" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D99" s="81" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="100" spans="1:4" s="4" customFormat="1" ht="30">
       <c r="A100" s="80" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B100" s="112" t="s">
         <v>79</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="80" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B101" s="110" t="s">
+        <v>380</v>
+      </c>
+      <c r="C101" s="98" t="s">
         <v>381</v>
       </c>
-      <c r="C101" s="98" t="s">
+      <c r="D101" s="111" t="s">
         <v>382</v>
-      </c>
-      <c r="D101" s="111" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="80" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B102" s="110" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C102" s="98" t="s">
+        <v>383</v>
+      </c>
+      <c r="D102" s="111" t="s">
         <v>384</v>
-      </c>
-      <c r="D102" s="111" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="114" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B103" s="113" t="s">
         <v>40</v>
@@ -11342,7 +11348,7 @@
     </row>
     <row r="104" spans="1:4" s="3" customFormat="1">
       <c r="A104" s="114" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B104" s="145" t="s">
         <v>269</v>
@@ -11356,7 +11362,7 @@
     </row>
     <row r="105" spans="1:4" s="3" customFormat="1">
       <c r="A105" s="114" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B105" s="145" t="s">
         <v>269</v>
@@ -11370,7 +11376,7 @@
     </row>
     <row r="106" spans="1:4" s="3" customFormat="1">
       <c r="A106" s="114" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B106" s="145" t="s">
         <v>256</v>
@@ -11384,7 +11390,7 @@
     </row>
     <row r="107" spans="1:4" s="3" customFormat="1">
       <c r="A107" s="114" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B107" s="145" t="s">
         <v>266</v>
@@ -11398,7 +11404,7 @@
     </row>
     <row r="108" spans="1:4" s="3" customFormat="1">
       <c r="A108" s="114" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B108" s="145" t="s">
         <v>266</v>
@@ -11412,13 +11418,13 @@
     </row>
     <row r="109" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
       <c r="A109" s="119" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B109" s="120" t="s">
         <v>220</v>
       </c>
       <c r="C109" s="121" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D109" s="122" t="s">
         <v>221</v>
@@ -11426,7 +11432,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="119" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B110" s="35" t="s">
         <v>147</v>
@@ -11440,7 +11446,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="119" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B111" s="35" t="s">
         <v>148</v>
@@ -11454,7 +11460,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="119" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B112" s="35" t="s">
         <v>149</v>
@@ -11468,7 +11474,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="119" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B113" s="35" t="s">
         <v>146</v>
@@ -11482,13 +11488,13 @@
     </row>
     <row r="114" spans="1:4" ht="15.75">
       <c r="A114" s="167" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B114" s="167" t="s">
         <v>215</v>
       </c>
       <c r="C114" s="171" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D114" s="168" t="s">
         <v>216</v>
@@ -11496,30 +11502,30 @@
     </row>
     <row r="115" spans="1:4" ht="30">
       <c r="A115" s="169" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B115" s="169" t="s">
         <v>215</v>
       </c>
       <c r="C115" s="172" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D115" s="170" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="31.5">
       <c r="A116" s="169" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B116" s="169" t="s">
         <v>215</v>
       </c>
       <c r="C116" s="172" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D116" s="170" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="117" spans="1:4" s="3" customFormat="1">
@@ -11670,7 +11676,7 @@
         <v>297</v>
       </c>
       <c r="C127" s="61" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D127" s="61" t="s">
         <v>241</v>
@@ -11737,7 +11743,7 @@
         <v>1</v>
       </c>
       <c r="B132" s="71" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C132" s="61" t="s">
         <v>69</v>
@@ -11751,7 +11757,7 @@
         <v>1</v>
       </c>
       <c r="B133" s="71" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C133" s="61" t="s">
         <v>73</v>
@@ -11765,7 +11771,7 @@
         <v>1</v>
       </c>
       <c r="B134" s="71" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C134" s="61" t="s">
         <v>167</v>
@@ -11824,7 +11830,7 @@
         <v>76</v>
       </c>
       <c r="C138" s="84" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D138" s="61" t="s">
         <v>238</v>
@@ -11894,7 +11900,7 @@
         <v>233</v>
       </c>
       <c r="C143" s="85" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D143" s="61" t="s">
         <v>234</v>
@@ -11908,10 +11914,10 @@
         <v>235</v>
       </c>
       <c r="C144" s="85" t="s">
+        <v>363</v>
+      </c>
+      <c r="D144" s="61" t="s">
         <v>364</v>
-      </c>
-      <c r="D144" s="61" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -11975,13 +11981,13 @@
         <v>80</v>
       </c>
       <c r="B149" s="82" t="s">
+        <v>421</v>
+      </c>
+      <c r="C149" s="81" t="s">
         <v>422</v>
       </c>
-      <c r="C149" s="81" t="s">
-        <v>423</v>
-      </c>
       <c r="D149" s="81" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -12048,10 +12054,10 @@
         <v>205</v>
       </c>
       <c r="C154" s="81" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D154" s="177" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -12059,13 +12065,13 @@
         <v>80</v>
       </c>
       <c r="B155" s="82" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C155" s="81" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D155" s="178" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -12087,13 +12093,13 @@
         <v>8</v>
       </c>
       <c r="B157" s="70" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C157" s="69" t="s">
         <v>66</v>
       </c>
       <c r="D157" s="69" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -12101,13 +12107,13 @@
         <v>8</v>
       </c>
       <c r="B158" s="70" t="s">
+        <v>506</v>
+      </c>
+      <c r="C158" s="69" t="s">
+        <v>509</v>
+      </c>
+      <c r="D158" s="69" t="s">
         <v>508</v>
-      </c>
-      <c r="C158" s="69" t="s">
-        <v>511</v>
-      </c>
-      <c r="D158" s="69" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -12115,13 +12121,13 @@
         <v>8</v>
       </c>
       <c r="B159" s="70" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C159" s="69" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D159" s="69" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -12129,13 +12135,13 @@
         <v>8</v>
       </c>
       <c r="B160" s="70" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C160" s="69" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D160" s="69" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -12143,13 +12149,13 @@
         <v>8</v>
       </c>
       <c r="B161" s="70" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C161" s="69" t="s">
         <v>287</v>
       </c>
       <c r="D161" s="69" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -12157,13 +12163,13 @@
         <v>8</v>
       </c>
       <c r="B162" s="70" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C162" s="69" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D162" s="69" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -12216,10 +12222,10 @@
         <v>8</v>
       </c>
       <c r="C166" s="68" t="s">
+        <v>390</v>
+      </c>
+      <c r="D166" s="69" t="s">
         <v>391</v>
-      </c>
-      <c r="D166" s="69" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -12244,10 +12250,10 @@
         <v>8</v>
       </c>
       <c r="C168" s="68" t="s">
+        <v>359</v>
+      </c>
+      <c r="D168" s="69" t="s">
         <v>360</v>
-      </c>
-      <c r="D168" s="69" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -12258,10 +12264,10 @@
         <v>8</v>
       </c>
       <c r="C169" s="68" t="s">
+        <v>361</v>
+      </c>
+      <c r="D169" s="69" t="s">
         <v>362</v>
-      </c>
-      <c r="D169" s="69" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -12269,13 +12275,13 @@
         <v>8</v>
       </c>
       <c r="B170" s="70" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C170" s="68" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D170" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -12283,21 +12289,21 @@
         <v>8</v>
       </c>
       <c r="B171" s="70" t="s">
+        <v>438</v>
+      </c>
+      <c r="C171" s="68" t="s">
+        <v>361</v>
+      </c>
+      <c r="D171" s="69" t="s">
         <v>439</v>
-      </c>
-      <c r="C171" s="68" t="s">
-        <v>362</v>
-      </c>
-      <c r="D171" s="69" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="71" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B172" s="60" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C172" s="61" t="s">
         <v>176</v>
@@ -12308,100 +12314,100 @@
     </row>
     <row r="173" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1">
       <c r="A173" s="71" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B173" s="129" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="174" spans="1:4" s="3" customFormat="1" ht="30">
       <c r="A174" s="71" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B174" s="129" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="175" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
       <c r="A175" s="72" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B175" s="129" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C175" s="62" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="176" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
       <c r="A176" s="72" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B176" s="129" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C176" s="62" t="s">
+        <v>424</v>
+      </c>
+      <c r="D176" s="12" t="s">
         <v>425</v>
-      </c>
-      <c r="D176" s="12" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="177" spans="1:4" s="3" customFormat="1" ht="76.5" customHeight="1">
       <c r="A177" s="72" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B177" s="129" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="178" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
       <c r="A178" s="72" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B178" s="129" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="179" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
       <c r="A179" s="72" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B179" s="129" t="s">
+        <v>426</v>
+      </c>
+      <c r="C179" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="C179" s="12" t="s">
-        <v>428</v>
-      </c>
       <c r="D179" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -12409,13 +12415,13 @@
         <v>187</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="181" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
@@ -12423,13 +12429,13 @@
         <v>187</v>
       </c>
       <c r="B181" s="63" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C181" s="64" t="s">
+        <v>428</v>
+      </c>
+      <c r="D181" s="65" t="s">
         <v>429</v>
-      </c>
-      <c r="D181" s="65" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -12437,13 +12443,13 @@
         <v>187</v>
       </c>
       <c r="B182" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C182" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C182" s="11" t="s">
+      <c r="D182" s="11" t="s">
         <v>320</v>
-      </c>
-      <c r="D182" s="11" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -12451,13 +12457,13 @@
         <v>187</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="184" spans="1:4" s="4" customFormat="1">
@@ -12465,13 +12471,13 @@
         <v>187</v>
       </c>
       <c r="B184" s="73" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C184" s="65" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D184" s="65" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -12479,13 +12485,13 @@
         <v>187</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D185" s="65" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -12541,7 +12547,7 @@
         <v>292</v>
       </c>
       <c r="D189" s="134" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="190" spans="1:4" s="86" customFormat="1">
@@ -12563,13 +12569,13 @@
         <v>250</v>
       </c>
       <c r="B191" s="157" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C191" s="136" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D191" s="137" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="192" spans="1:4" s="38" customFormat="1" ht="144.75" customHeight="1">
@@ -12577,13 +12583,13 @@
         <v>250</v>
       </c>
       <c r="B192" s="158" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C192" s="136" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D192" s="137" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -12591,13 +12597,13 @@
         <v>250</v>
       </c>
       <c r="B193" s="160" t="s">
+        <v>512</v>
+      </c>
+      <c r="C193" s="161" t="s">
         <v>514</v>
       </c>
-      <c r="C193" s="161" t="s">
-        <v>516</v>
-      </c>
       <c r="D193" s="161" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="194" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
@@ -12605,13 +12611,13 @@
         <v>250</v>
       </c>
       <c r="B194" s="158" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C194" s="139" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D194" s="137" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="195" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
@@ -12619,13 +12625,13 @@
         <v>250</v>
       </c>
       <c r="B195" s="158" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C195" s="139" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D195" s="137" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="196" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
@@ -12633,13 +12639,13 @@
         <v>250</v>
       </c>
       <c r="B196" s="158" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C196" s="140" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D196" s="137" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="197" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1">
@@ -12650,10 +12656,10 @@
         <v>242</v>
       </c>
       <c r="C197" s="136" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D197" s="137" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="198" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
@@ -12661,13 +12667,13 @@
         <v>250</v>
       </c>
       <c r="B198" s="158" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C198" s="136" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D198" s="137" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="199" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
@@ -12675,13 +12681,13 @@
         <v>250</v>
       </c>
       <c r="B199" s="158" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C199" s="136" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D199" s="137" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="200" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
@@ -12689,13 +12695,13 @@
         <v>250</v>
       </c>
       <c r="B200" s="158" t="s">
+        <v>522</v>
+      </c>
+      <c r="C200" s="136" t="s">
+        <v>521</v>
+      </c>
+      <c r="D200" s="137" t="s">
         <v>524</v>
-      </c>
-      <c r="C200" s="136" t="s">
-        <v>523</v>
-      </c>
-      <c r="D200" s="137" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="201" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
@@ -12703,13 +12709,13 @@
         <v>250</v>
       </c>
       <c r="B201" s="158" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C201" s="136" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D201" s="137" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="202" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
@@ -12717,13 +12723,13 @@
         <v>250</v>
       </c>
       <c r="B202" s="158" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C202" s="136" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D202" s="137" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -12762,10 +12768,10 @@
         <v>223</v>
       </c>
       <c r="C205" s="156" t="s">
+        <v>633</v>
+      </c>
+      <c r="D205" s="36" t="s">
         <v>300</v>
-      </c>
-      <c r="D205" s="36" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -12776,10 +12782,10 @@
         <v>223</v>
       </c>
       <c r="C206" s="156" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D206" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -12787,27 +12793,24 @@
         <v>222</v>
       </c>
       <c r="B207" s="123" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C207" s="180" t="s">
+        <v>304</v>
+      </c>
+      <c r="D207" s="36" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="B208" s="123" t="s">
+        <v>626</v>
+      </c>
+      <c r="C208" s="180" t="s">
+        <v>304</v>
+      </c>
+      <c r="D208" s="36" t="s">
         <v>305</v>
-      </c>
-      <c r="D207" s="36" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="123" t="s">
-        <v>222</v>
-      </c>
-      <c r="B208" s="123" t="s">
-        <v>629</v>
-      </c>
-      <c r="C208" s="180" t="s">
-        <v>305</v>
-      </c>
-      <c r="D208" s="36" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -12815,13 +12818,13 @@
         <v>222</v>
       </c>
       <c r="B209" s="123" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C209" s="180" t="s">
-        <v>308</v>
+        <v>634</v>
       </c>
       <c r="D209" s="36" t="s">
-        <v>302</v>
+        <v>635</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -12829,41 +12832,41 @@
         <v>222</v>
       </c>
       <c r="B210" s="123" t="s">
-        <v>632</v>
-      </c>
-      <c r="C210" s="181" t="s">
-        <v>394</v>
+        <v>628</v>
+      </c>
+      <c r="C210" s="180" t="s">
+        <v>307</v>
       </c>
       <c r="D210" s="36" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" s="179" customFormat="1" ht="15.75">
-      <c r="A211" s="182" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="123" t="s">
         <v>222</v>
       </c>
-      <c r="B211" s="182" t="s">
-        <v>632</v>
-      </c>
-      <c r="C211" s="183" t="s">
-        <v>585</v>
-      </c>
-      <c r="D211" s="184" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+      <c r="B211" s="123" t="s">
+        <v>629</v>
+      </c>
+      <c r="C211" s="181" t="s">
+        <v>393</v>
+      </c>
+      <c r="D211" s="36" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" s="179" customFormat="1" ht="15.75">
       <c r="A212" s="182" t="s">
         <v>222</v>
       </c>
       <c r="B212" s="182" t="s">
-        <v>633</v>
-      </c>
-      <c r="C212" s="185" t="s">
-        <v>586</v>
-      </c>
-      <c r="D212" s="186" t="s">
-        <v>587</v>
+        <v>629</v>
+      </c>
+      <c r="C212" s="183" t="s">
+        <v>583</v>
+      </c>
+      <c r="D212" s="184" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -12871,13 +12874,13 @@
         <v>222</v>
       </c>
       <c r="B213" s="182" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C213" s="185" t="s">
-        <v>624</v>
+        <v>584</v>
       </c>
       <c r="D213" s="186" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -12885,13 +12888,13 @@
         <v>222</v>
       </c>
       <c r="B214" s="182" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C214" s="185" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D214" s="186" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -12899,13 +12902,13 @@
         <v>222</v>
       </c>
       <c r="B215" s="182" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C215" s="185" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D215" s="186" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -12913,13 +12916,13 @@
         <v>222</v>
       </c>
       <c r="B216" s="182" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C216" s="185" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D216" s="186" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -12927,13 +12930,13 @@
         <v>222</v>
       </c>
       <c r="B217" s="182" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C217" s="185" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D217" s="186" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -12941,17 +12944,31 @@
         <v>222</v>
       </c>
       <c r="B218" s="182" t="s">
+        <v>631</v>
+      </c>
+      <c r="C218" s="185" t="s">
+        <v>625</v>
+      </c>
+      <c r="D218" s="186" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="B219" s="182" t="s">
         <v>223</v>
       </c>
-      <c r="C218" s="185" t="s">
-        <v>588</v>
-      </c>
-      <c r="D218" s="186" t="s">
-        <v>589</v>
+      <c r="C219" s="185" t="s">
+        <v>585</v>
+      </c>
+      <c r="D219" s="186" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D209" xr:uid="{85ED3410-72EE-453D-8BB3-FB7E07F682B1}"/>
+  <autoFilter ref="A2:D210" xr:uid="{85ED3410-72EE-453D-8BB3-FB7E07F682B1}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -12965,8 +12982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C42D88-9A2B-46D3-B46D-33526406379A}">
   <dimension ref="A1:E228"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25"/>
@@ -12996,7 +13013,7 @@
         <v>223</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="54"/>
@@ -13009,7 +13026,7 @@
         <v>223</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="56" t="s">
@@ -13024,11 +13041,11 @@
         <v>223</v>
       </c>
       <c r="C4" s="164" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="166" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="207" customHeight="1">
@@ -13039,11 +13056,11 @@
         <v>223</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="207" customHeight="1">
@@ -13054,11 +13071,11 @@
         <v>223</v>
       </c>
       <c r="C6" s="162" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="54" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="207" customHeight="1">
@@ -13069,11 +13086,11 @@
         <v>223</v>
       </c>
       <c r="C7" s="162" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="54" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="207" customHeight="1">
@@ -13084,11 +13101,11 @@
         <v>223</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="54" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="207" customHeight="1">
@@ -13099,11 +13116,11 @@
         <v>223</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="54" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="207" customHeight="1">
@@ -13114,11 +13131,11 @@
         <v>223</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="54" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="207" customHeight="1">
@@ -13129,11 +13146,11 @@
         <v>223</v>
       </c>
       <c r="C11" s="164" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D11" s="43"/>
       <c r="E11" s="165" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="207" customHeight="1">
@@ -13144,7 +13161,7 @@
         <v>223</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="57" t="s">
@@ -13160,7 +13177,7 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="57" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="207" customHeight="1">
@@ -13171,11 +13188,11 @@
         <v>223</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="57" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="207" customHeight="1">
@@ -13188,7 +13205,7 @@
       <c r="C15" s="58"/>
       <c r="D15" s="5"/>
       <c r="E15" s="57" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="207" customHeight="1">
@@ -13207,14 +13224,14 @@
         <v>222</v>
       </c>
       <c r="B17" s="163" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C17" s="195" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="57" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="207" customHeight="1">
@@ -13222,14 +13239,14 @@
         <v>222</v>
       </c>
       <c r="B18" s="163" t="s">
+        <v>588</v>
+      </c>
+      <c r="C18" s="187" t="s">
         <v>591</v>
-      </c>
-      <c r="C18" s="187" t="s">
-        <v>594</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="57" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="408.95" customHeight="1">
@@ -13237,7 +13254,7 @@
         <v>222</v>
       </c>
       <c r="B19" s="208" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C19" s="202"/>
       <c r="D19" s="204"/>
@@ -13260,7 +13277,7 @@
       <c r="C21" s="191"/>
       <c r="D21" s="192"/>
       <c r="E21" s="194" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="207" customHeight="1">
@@ -13273,7 +13290,7 @@
       <c r="C22" s="54"/>
       <c r="D22" s="43"/>
       <c r="E22" s="66" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="207" customHeight="1">
@@ -13284,11 +13301,11 @@
         <v>223</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="54" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="207" customHeight="1">
@@ -13299,11 +13316,11 @@
         <v>223</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D24" s="43"/>
       <c r="E24" s="54" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="207" customHeight="1">
@@ -13311,14 +13328,14 @@
         <v>222</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D25" s="43"/>
       <c r="E25" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="207" customHeight="1">
@@ -13326,14 +13343,14 @@
         <v>222</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="57" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="207" customHeight="1">
@@ -13341,14 +13358,14 @@
         <v>222</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="54" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="207" customHeight="1">
@@ -13356,14 +13373,14 @@
         <v>222</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D28" s="43"/>
       <c r="E28" s="54" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="207" customHeight="1">
@@ -13374,11 +13391,11 @@
         <v>223</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D29" s="43"/>
       <c r="E29" s="54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="207" customHeight="1">
@@ -13389,11 +13406,11 @@
         <v>223</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D30" s="43"/>
       <c r="E30" s="54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="207" customHeight="1">
@@ -13404,11 +13421,11 @@
         <v>223</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D31" s="43"/>
       <c r="E31" s="54" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="207" customHeight="1">
@@ -13419,11 +13436,11 @@
         <v>223</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D32" s="43"/>
       <c r="E32" s="54" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="207" customHeight="1">
@@ -13434,11 +13451,11 @@
         <v>223</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D33" s="43"/>
       <c r="E33" s="54" t="s">
-        <v>447</v>
+        <v>636</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="207" customHeight="1">
@@ -14378,101 +14395,101 @@
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>333</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="40" customFormat="1" ht="57.75" customHeight="1">
       <c r="A7" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="B7" s="37" t="s">
         <v>355</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>356</v>
-      </c>
       <c r="C7" s="39" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="40" customFormat="1" ht="67.5" customHeight="1">
       <c r="A8" s="37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>358</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="18" customFormat="1" ht="19.5" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B10" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>415</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1">

--- a/Tutoriales/pandas/Comandos Pandas.xlsx
+++ b/Tutoriales/pandas/Comandos Pandas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseMaría\Documents\CURSOS\data_science\mitrabajo\mi_repositorio\Tutoriales\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590BBD9F-CAB2-4696-9507-7D1DB3BFE62B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C13966-A4EF-441D-9240-B845EED8F319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AF4018AA-EEB9-4756-B82D-183D37B3B80A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF4018AA-EEB9-4756-B82D-183D37B3B80A}"/>
   </bookViews>
   <sheets>
     <sheet name="GENERALES" sheetId="1" r:id="rId1"/>
@@ -9900,8 +9900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265136A6-C067-4B28-9F45-A6266FF6FD67}">
   <dimension ref="A1:D219"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12982,7 +12982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C42D88-9A2B-46D3-B46D-33526406379A}">
   <dimension ref="A1:E228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>

--- a/Tutoriales/pandas/Comandos Pandas.xlsx
+++ b/Tutoriales/pandas/Comandos Pandas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseMaría\Documents\CURSOS\data_science\mitrabajo\mi_repositorio\Tutoriales\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C13966-A4EF-441D-9240-B845EED8F319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C286080B-7CBF-4FF5-BDA9-B3E3E37FB40F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF4018AA-EEB9-4756-B82D-183D37B3B80A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="CONCEPTOS" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GENERALES!$A$2:$D$210</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GENERALES!$A$2:$D$213</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="644">
   <si>
     <t>FUNCIONES DE PANDAS</t>
   </si>
@@ -6451,6 +6451,46 @@
   </si>
   <si>
     <t>plt.pie tipo de representación. IMPORTANTE: CON EL autopct="%1.2f%%" LE DIGO QUE TOME UN EMTERO Y DOS DECIMALES EN EL TANTO PORCIENTO</t>
+  </si>
+  <si>
+    <t>resident_age.loc[:,["rango_edad","municipio_nombre","poblacion_empadronada"]]</t>
+  </si>
+  <si>
+    <t>Muestra todas las filas de tres columnas alternas llamadas por su nombre</t>
+  </si>
+  <si>
+    <t>resident_age1=resident_age1.pivot_table('poblacion_empadronada', index='rango_edad',columns=['municipio_nombre',"sexo"],aggfunc=np.sum)</t>
+  </si>
+  <si>
+    <t>Cambio indice , en esta caso pongo rango edad y en columans municipio_nombre y sexo y me suma los valores de numero de defunciones</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pd.to_numeric</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(chipo)</t>
+    </r>
+  </si>
+  <si>
+    <t>Cambia el tipo de dato dataframe a numerico</t>
+  </si>
+  <si>
+    <t>TO_NUMERIC</t>
   </si>
 </sst>
 </file>
@@ -7098,7 +7138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="65" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7592,6 +7632,9 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9898,10 +9941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265136A6-C067-4B28-9F45-A6266FF6FD67}">
-  <dimension ref="A1:D219"/>
+  <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="D161" sqref="D161"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10340,18 +10383,18 @@
         <v>607</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="3" customFormat="1">
+    <row r="32" spans="1:4">
       <c r="A32" s="147" t="s">
         <v>496</v>
       </c>
-      <c r="B32" s="150" t="s">
-        <v>495</v>
-      </c>
-      <c r="C32" s="148" t="s">
-        <v>277</v>
-      </c>
-      <c r="D32" s="149" t="s">
-        <v>276</v>
+      <c r="B32" s="101" t="s">
+        <v>643</v>
+      </c>
+      <c r="C32" s="212" t="s">
+        <v>641</v>
+      </c>
+      <c r="D32" s="100" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="3" customFormat="1">
@@ -10359,41 +10402,41 @@
         <v>496</v>
       </c>
       <c r="B33" s="150" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C33" s="148" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D33" s="149" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="3" customFormat="1">
       <c r="A34" s="147" t="s">
         <v>496</v>
       </c>
-      <c r="B34" s="101" t="s">
+      <c r="B34" s="150" t="s">
+        <v>494</v>
+      </c>
+      <c r="C34" s="148" t="s">
+        <v>278</v>
+      </c>
+      <c r="D34" s="149" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="147" t="s">
+        <v>496</v>
+      </c>
+      <c r="B35" s="101" t="s">
         <v>512</v>
       </c>
-      <c r="C34" s="100" t="s">
+      <c r="C35" s="100" t="s">
         <v>510</v>
       </c>
-      <c r="D34" s="100" t="s">
+      <c r="D35" s="100" t="s">
         <v>511</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="60" t="s">
-        <v>473</v>
-      </c>
-      <c r="B35" s="71" t="s">
-        <v>474</v>
-      </c>
-      <c r="C35" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="103" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -10401,13 +10444,13 @@
         <v>473</v>
       </c>
       <c r="B36" s="71" t="s">
-        <v>56</v>
+        <v>474</v>
       </c>
       <c r="C36" s="85" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D36" s="103" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -10415,13 +10458,13 @@
         <v>473</v>
       </c>
       <c r="B37" s="71" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C37" s="85" t="s">
-        <v>257</v>
+        <v>57</v>
       </c>
       <c r="D37" s="103" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -10432,27 +10475,27 @@
         <v>60</v>
       </c>
       <c r="C38" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="D38" s="103" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="60" t="s">
+        <v>473</v>
+      </c>
+      <c r="B39" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="103" t="s">
+      <c r="D39" s="103" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="3" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A39" s="141" t="s">
-        <v>473</v>
-      </c>
-      <c r="B39" s="129" t="s">
-        <v>559</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="3" customFormat="1" ht="30">
+    <row r="40" spans="1:4" s="3" customFormat="1" ht="29.25" customHeight="1">
       <c r="A40" s="141" t="s">
         <v>473</v>
       </c>
@@ -10460,67 +10503,67 @@
         <v>559</v>
       </c>
       <c r="C40" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="3" customFormat="1" ht="30">
+      <c r="A41" s="141" t="s">
+        <v>473</v>
+      </c>
+      <c r="B41" s="129" t="s">
+        <v>559</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D41" s="12" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="4" customFormat="1">
-      <c r="A41" s="141" t="s">
+    <row r="42" spans="1:4" s="4" customFormat="1">
+      <c r="A42" s="141" t="s">
         <v>483</v>
       </c>
-      <c r="B41" s="142" t="s">
+      <c r="B42" s="142" t="s">
         <v>594</v>
       </c>
-      <c r="C41" s="188" t="s">
+      <c r="C42" s="188" t="s">
         <v>593</v>
       </c>
-      <c r="D41" s="188" t="s">
+      <c r="D42" s="188" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="60" t="s">
-        <v>476</v>
-      </c>
-      <c r="B42" s="71" t="s">
-        <v>560</v>
-      </c>
-      <c r="C42" s="85" t="s">
-        <v>561</v>
-      </c>
-      <c r="D42" s="103"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="60" t="s">
         <v>476</v>
       </c>
       <c r="B43" s="71" t="s">
-        <v>6</v>
+        <v>560</v>
       </c>
       <c r="C43" s="85" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="103" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="107" customFormat="1" ht="14.25" customHeight="1">
+        <v>561</v>
+      </c>
+      <c r="D43" s="103"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="60" t="s">
         <v>476</v>
       </c>
       <c r="B44" s="71" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C44" s="85" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D44" s="103" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="107" customFormat="1" ht="14.25" customHeight="1">
       <c r="A45" s="60" t="s">
         <v>476</v>
       </c>
@@ -10528,10 +10571,10 @@
         <v>114</v>
       </c>
       <c r="C45" s="85" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="D45" s="103" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -10542,10 +10585,10 @@
         <v>114</v>
       </c>
       <c r="C46" s="85" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="D46" s="103" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -10556,10 +10599,10 @@
         <v>114</v>
       </c>
       <c r="C47" s="85" t="s">
-        <v>610</v>
+        <v>129</v>
       </c>
       <c r="D47" s="103" t="s">
-        <v>611</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -10567,44 +10610,44 @@
         <v>476</v>
       </c>
       <c r="B48" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="85" t="s">
+        <v>610</v>
+      </c>
+      <c r="D48" s="103" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="60" t="s">
+        <v>476</v>
+      </c>
+      <c r="B49" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="85" t="s">
+      <c r="C49" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="103" t="s">
+      <c r="D49" s="103" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="142" t="s">
-        <v>489</v>
-      </c>
-      <c r="B49" s="71" t="s">
-        <v>270</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D49" s="103" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="50" spans="1:4">
       <c r="A50" s="142" t="s">
         <v>489</v>
       </c>
-      <c r="B50" s="72" t="s">
+      <c r="B50" s="71" t="s">
         <v>270</v>
       </c>
-      <c r="C50" s="143" t="s">
-        <v>388</v>
-      </c>
-      <c r="D50" s="144" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="4" customFormat="1">
+      <c r="C50" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D50" s="103" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="4" customFormat="1" ht="30">
       <c r="A51" s="142" t="s">
         <v>489</v>
       </c>
@@ -10612,38 +10655,38 @@
         <v>270</v>
       </c>
       <c r="C51" s="143" t="s">
+        <v>388</v>
+      </c>
+      <c r="D51" s="144" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="4" customFormat="1">
+      <c r="A52" s="142" t="s">
+        <v>489</v>
+      </c>
+      <c r="B52" s="72" t="s">
+        <v>270</v>
+      </c>
+      <c r="C52" s="143" t="s">
         <v>569</v>
       </c>
-      <c r="D51" s="144" t="s">
+      <c r="D52" s="144" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="3" customFormat="1">
-      <c r="A52" s="7" t="s">
+    <row r="53" spans="1:4" s="3" customFormat="1">
+      <c r="A53" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B53" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C52" s="151" t="s">
+      <c r="C53" s="151" t="s">
         <v>244</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D53" s="12" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="60" t="s">
-        <v>492</v>
-      </c>
-      <c r="B53" s="71" t="s">
-        <v>343</v>
-      </c>
-      <c r="C53" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -10651,41 +10694,41 @@
         <v>492</v>
       </c>
       <c r="B54" s="71" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C54" s="61" t="s">
-        <v>346</v>
+        <v>190</v>
       </c>
       <c r="D54" s="61" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="60" t="s">
-        <v>39</v>
+        <v>492</v>
       </c>
       <c r="B55" s="71" t="s">
-        <v>480</v>
+        <v>347</v>
       </c>
       <c r="C55" s="61" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="D55" s="61" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="60" t="s">
-        <v>478</v>
+        <v>39</v>
       </c>
       <c r="B56" s="71" t="s">
-        <v>475</v>
-      </c>
-      <c r="C56" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56" s="103" t="s">
-        <v>68</v>
+        <v>480</v>
+      </c>
+      <c r="C56" s="61" t="s">
+        <v>377</v>
+      </c>
+      <c r="D56" s="61" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -10693,13 +10736,13 @@
         <v>478</v>
       </c>
       <c r="B57" s="71" t="s">
-        <v>6</v>
+        <v>475</v>
       </c>
       <c r="C57" s="85" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="D57" s="103" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -10710,10 +10753,10 @@
         <v>6</v>
       </c>
       <c r="C58" s="85" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D58" s="103" t="s">
-        <v>477</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -10724,10 +10767,10 @@
         <v>6</v>
       </c>
       <c r="C59" s="85" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D59" s="103" t="s">
-        <v>134</v>
+        <v>477</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -10738,10 +10781,10 @@
         <v>6</v>
       </c>
       <c r="C60" s="85" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D60" s="103" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -10752,10 +10795,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="85" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D61" s="103" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -10766,10 +10809,10 @@
         <v>6</v>
       </c>
       <c r="C62" s="85" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D62" s="103" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -10777,13 +10820,13 @@
         <v>478</v>
       </c>
       <c r="B63" s="71" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C63" s="85" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="D63" s="103" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -10794,10 +10837,10 @@
         <v>114</v>
       </c>
       <c r="C64" s="85" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D64" s="103" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -10808,10 +10851,10 @@
         <v>114</v>
       </c>
       <c r="C65" s="85" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D65" s="103" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -10822,10 +10865,10 @@
         <v>114</v>
       </c>
       <c r="C66" s="85" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D66" s="103" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -10836,10 +10879,10 @@
         <v>114</v>
       </c>
       <c r="C67" s="85" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D67" s="103" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -10850,10 +10893,10 @@
         <v>114</v>
       </c>
       <c r="C68" s="85" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D68" s="103" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -10864,38 +10907,38 @@
         <v>114</v>
       </c>
       <c r="C69" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="D69" s="103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="60" t="s">
+        <v>478</v>
+      </c>
+      <c r="B70" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="85" t="s">
+        <v>637</v>
+      </c>
+      <c r="D70" s="103" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="60" t="s">
+        <v>478</v>
+      </c>
+      <c r="B71" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="D69" s="108" t="s">
+      <c r="D71" s="108" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="104" t="s">
-        <v>472</v>
-      </c>
-      <c r="B70" s="109" t="s">
-        <v>479</v>
-      </c>
-      <c r="C70" s="105" t="s">
-        <v>154</v>
-      </c>
-      <c r="D70" s="106" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="104" t="s">
-        <v>472</v>
-      </c>
-      <c r="B71" s="109" t="s">
-        <v>479</v>
-      </c>
-      <c r="C71" s="105" t="s">
-        <v>157</v>
-      </c>
-      <c r="D71" s="106" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -10906,10 +10949,10 @@
         <v>479</v>
       </c>
       <c r="C72" s="105" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D72" s="106" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -10919,11 +10962,11 @@
       <c r="B73" s="109" t="s">
         <v>479</v>
       </c>
-      <c r="C73" s="146" t="s">
-        <v>94</v>
-      </c>
-      <c r="D73" s="146" t="s">
-        <v>95</v>
+      <c r="C73" s="105" t="s">
+        <v>157</v>
+      </c>
+      <c r="D73" s="106" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -10931,13 +10974,13 @@
         <v>472</v>
       </c>
       <c r="B74" s="109" t="s">
-        <v>184</v>
+        <v>479</v>
       </c>
       <c r="C74" s="105" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="D74" s="106" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -10945,13 +10988,13 @@
         <v>472</v>
       </c>
       <c r="B75" s="109" t="s">
-        <v>114</v>
-      </c>
-      <c r="C75" s="105" t="s">
-        <v>158</v>
-      </c>
-      <c r="D75" s="106" t="s">
-        <v>159</v>
+        <v>479</v>
+      </c>
+      <c r="C75" s="146" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" s="146" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -10959,13 +11002,13 @@
         <v>472</v>
       </c>
       <c r="B76" s="109" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="C76" s="105" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D76" s="106" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -10973,13 +11016,13 @@
         <v>472</v>
       </c>
       <c r="B77" s="109" t="s">
-        <v>490</v>
-      </c>
-      <c r="C77" s="146" t="s">
-        <v>96</v>
-      </c>
-      <c r="D77" s="146" t="s">
-        <v>97</v>
+        <v>114</v>
+      </c>
+      <c r="C77" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="D77" s="106" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -10987,97 +11030,97 @@
         <v>472</v>
       </c>
       <c r="B78" s="109" t="s">
+        <v>114</v>
+      </c>
+      <c r="C78" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" s="106" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="104" t="s">
+        <v>472</v>
+      </c>
+      <c r="B79" s="109" t="s">
+        <v>490</v>
+      </c>
+      <c r="C79" s="146" t="s">
+        <v>96</v>
+      </c>
+      <c r="D79" s="146" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="104" t="s">
+        <v>472</v>
+      </c>
+      <c r="B80" s="109" t="s">
         <v>491</v>
       </c>
-      <c r="C78" s="146" t="s">
+      <c r="C80" s="146" t="s">
         <v>247</v>
       </c>
-      <c r="D78" s="146" t="s">
+      <c r="D80" s="146" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="79" t="s">
-        <v>484</v>
-      </c>
-      <c r="B79" s="76" t="s">
-        <v>71</v>
-      </c>
-      <c r="C79" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="D79" s="77" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="79" t="s">
-        <v>484</v>
-      </c>
-      <c r="B80" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="C80" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="D80" s="77" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="79" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B81" s="76" t="s">
-        <v>386</v>
+        <v>71</v>
       </c>
       <c r="C81" s="77" t="s">
-        <v>385</v>
+        <v>83</v>
       </c>
       <c r="D81" s="77" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" s="4" customFormat="1" ht="30">
-      <c r="A82" s="124" t="s">
-        <v>483</v>
-      </c>
-      <c r="B82" s="125" t="s">
-        <v>45</v>
-      </c>
-      <c r="C82" s="126" t="s">
-        <v>44</v>
-      </c>
-      <c r="D82" s="126" t="s">
-        <v>350</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="79" t="s">
+        <v>484</v>
+      </c>
+      <c r="B82" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" s="77" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="79" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B83" s="76" t="s">
-        <v>118</v>
+        <v>386</v>
       </c>
       <c r="C83" s="77" t="s">
-        <v>539</v>
+        <v>385</v>
       </c>
       <c r="D83" s="77" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="79" t="s">
-        <v>481</v>
-      </c>
-      <c r="B84" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="C84" s="77" t="s">
-        <v>540</v>
-      </c>
-      <c r="D84" s="77" t="s">
-        <v>117</v>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="4" customFormat="1" ht="30">
+      <c r="A84" s="124" t="s">
+        <v>483</v>
+      </c>
+      <c r="B84" s="125" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" s="126" t="s">
+        <v>44</v>
+      </c>
+      <c r="D84" s="126" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -11085,97 +11128,97 @@
         <v>481</v>
       </c>
       <c r="B85" s="76" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="C85" s="77" t="s">
-        <v>120</v>
+        <v>539</v>
       </c>
       <c r="D85" s="77" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="79" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B86" s="76" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C86" s="77" t="s">
-        <v>52</v>
+        <v>540</v>
       </c>
       <c r="D86" s="77" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="79" t="s">
-        <v>612</v>
-      </c>
-      <c r="B87" s="79" t="s">
-        <v>613</v>
+        <v>481</v>
+      </c>
+      <c r="B87" s="76" t="s">
+        <v>26</v>
       </c>
       <c r="C87" s="77" t="s">
-        <v>615</v>
+        <v>120</v>
       </c>
       <c r="D87" s="77" t="s">
-        <v>614</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="79" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B88" s="76" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="C88" s="77" t="s">
-        <v>601</v>
-      </c>
-      <c r="D88" s="128" t="s">
-        <v>602</v>
+        <v>52</v>
+      </c>
+      <c r="D88" s="77" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="79" t="s">
-        <v>249</v>
-      </c>
-      <c r="B89" s="76" t="s">
-        <v>230</v>
+        <v>612</v>
+      </c>
+      <c r="B89" s="79" t="s">
+        <v>613</v>
       </c>
       <c r="C89" s="77" t="s">
-        <v>246</v>
+        <v>615</v>
       </c>
       <c r="D89" s="77" t="s">
-        <v>229</v>
+        <v>614</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="79" t="s">
-        <v>210</v>
+        <v>487</v>
       </c>
       <c r="B90" s="76" t="s">
-        <v>209</v>
+        <v>122</v>
       </c>
       <c r="C90" s="77" t="s">
-        <v>211</v>
-      </c>
-      <c r="D90" s="77" t="s">
-        <v>213</v>
+        <v>601</v>
+      </c>
+      <c r="D90" s="128" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="79" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="B91" s="76" t="s">
-        <v>212</v>
-      </c>
-      <c r="C91" s="78" t="s">
-        <v>525</v>
+        <v>230</v>
+      </c>
+      <c r="C91" s="77" t="s">
+        <v>246</v>
       </c>
       <c r="D91" s="77" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -11183,13 +11226,13 @@
         <v>210</v>
       </c>
       <c r="B92" s="76" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="C92" s="77" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="D92" s="77" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -11197,13 +11240,13 @@
         <v>210</v>
       </c>
       <c r="B93" s="76" t="s">
-        <v>528</v>
-      </c>
-      <c r="C93" s="77" t="s">
-        <v>526</v>
+        <v>212</v>
+      </c>
+      <c r="C93" s="78" t="s">
+        <v>525</v>
       </c>
       <c r="D93" s="77" t="s">
-        <v>527</v>
+        <v>214</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -11211,13 +11254,13 @@
         <v>210</v>
       </c>
       <c r="B94" s="76" t="s">
-        <v>530</v>
+        <v>232</v>
       </c>
       <c r="C94" s="77" t="s">
-        <v>529</v>
+        <v>245</v>
       </c>
       <c r="D94" s="77" t="s">
-        <v>531</v>
+        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -11225,13 +11268,13 @@
         <v>210</v>
       </c>
       <c r="B95" s="76" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C95" s="77" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D95" s="77" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -11239,139 +11282,139 @@
         <v>210</v>
       </c>
       <c r="B96" s="76" t="s">
+        <v>530</v>
+      </c>
+      <c r="C96" s="77" t="s">
+        <v>529</v>
+      </c>
+      <c r="D96" s="77" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="B97" s="76" t="s">
+        <v>534</v>
+      </c>
+      <c r="C97" s="77" t="s">
+        <v>532</v>
+      </c>
+      <c r="D97" s="77" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="B98" s="76" t="s">
         <v>537</v>
       </c>
-      <c r="C96" s="77" t="s">
+      <c r="C98" s="77" t="s">
         <v>535</v>
       </c>
-      <c r="D96" s="77" t="s">
+      <c r="D98" s="77" t="s">
         <v>536</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="80" t="s">
-        <v>357</v>
-      </c>
-      <c r="B97" s="174" t="s">
-        <v>566</v>
-      </c>
-      <c r="C97" s="173" t="s">
-        <v>567</v>
-      </c>
-      <c r="D97" s="81" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="80" t="s">
-        <v>357</v>
-      </c>
-      <c r="B98" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="C98" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="D98" s="81" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="80" t="s">
         <v>357</v>
       </c>
-      <c r="B99" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="C99" s="81" t="s">
-        <v>351</v>
+      <c r="B99" s="174" t="s">
+        <v>566</v>
+      </c>
+      <c r="C99" s="173" t="s">
+        <v>567</v>
       </c>
       <c r="D99" s="81" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" s="4" customFormat="1" ht="30">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="80" t="s">
         <v>357</v>
       </c>
-      <c r="B100" s="112" t="s">
+      <c r="B100" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="C100" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>392</v>
+      <c r="C100" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="D100" s="81" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="80" t="s">
         <v>357</v>
       </c>
-      <c r="B101" s="110" t="s">
-        <v>380</v>
-      </c>
-      <c r="C101" s="98" t="s">
-        <v>381</v>
-      </c>
-      <c r="D101" s="111" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="B101" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="C101" s="81" t="s">
+        <v>351</v>
+      </c>
+      <c r="D101" s="81" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="4" customFormat="1" ht="30">
       <c r="A102" s="80" t="s">
         <v>357</v>
       </c>
-      <c r="B102" s="110" t="s">
+      <c r="B102" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="80" t="s">
+        <v>357</v>
+      </c>
+      <c r="B103" s="110" t="s">
         <v>380</v>
       </c>
-      <c r="C102" s="98" t="s">
+      <c r="C103" s="98" t="s">
+        <v>381</v>
+      </c>
+      <c r="D103" s="111" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="80" t="s">
+        <v>357</v>
+      </c>
+      <c r="B104" s="110" t="s">
+        <v>380</v>
+      </c>
+      <c r="C104" s="98" t="s">
         <v>383</v>
       </c>
-      <c r="D102" s="111" t="s">
+      <c r="D104" s="111" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="114" t="s">
-        <v>486</v>
-      </c>
-      <c r="B103" s="113" t="s">
-        <v>40</v>
-      </c>
-      <c r="C103" s="115" t="s">
-        <v>37</v>
-      </c>
-      <c r="D103" s="115" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" s="3" customFormat="1">
-      <c r="A104" s="114" t="s">
-        <v>486</v>
-      </c>
-      <c r="B104" s="145" t="s">
-        <v>269</v>
-      </c>
-      <c r="C104" s="116" t="s">
-        <v>263</v>
-      </c>
-      <c r="D104" s="117" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" s="3" customFormat="1">
+    <row r="105" spans="1:4">
       <c r="A105" s="114" t="s">
         <v>486</v>
       </c>
-      <c r="B105" s="145" t="s">
-        <v>269</v>
-      </c>
-      <c r="C105" s="116" t="s">
-        <v>264</v>
-      </c>
-      <c r="D105" s="117" t="s">
-        <v>262</v>
+      <c r="B105" s="113" t="s">
+        <v>40</v>
+      </c>
+      <c r="C105" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="D105" s="115" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:4" s="3" customFormat="1">
@@ -11379,13 +11422,13 @@
         <v>486</v>
       </c>
       <c r="B106" s="145" t="s">
-        <v>256</v>
-      </c>
-      <c r="C106" s="118" t="s">
-        <v>258</v>
+        <v>269</v>
+      </c>
+      <c r="C106" s="116" t="s">
+        <v>263</v>
       </c>
       <c r="D106" s="117" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="107" spans="1:4" s="3" customFormat="1">
@@ -11393,13 +11436,13 @@
         <v>486</v>
       </c>
       <c r="B107" s="145" t="s">
-        <v>266</v>
-      </c>
-      <c r="C107" s="118" t="s">
-        <v>265</v>
+        <v>269</v>
+      </c>
+      <c r="C107" s="116" t="s">
+        <v>264</v>
       </c>
       <c r="D107" s="117" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108" spans="1:4" s="3" customFormat="1">
@@ -11407,55 +11450,55 @@
         <v>486</v>
       </c>
       <c r="B108" s="145" t="s">
+        <v>256</v>
+      </c>
+      <c r="C108" s="118" t="s">
+        <v>258</v>
+      </c>
+      <c r="D108" s="117" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="3" customFormat="1">
+      <c r="A109" s="114" t="s">
+        <v>486</v>
+      </c>
+      <c r="B109" s="145" t="s">
         <v>266</v>
       </c>
-      <c r="C108" s="118" t="s">
+      <c r="C109" s="118" t="s">
+        <v>265</v>
+      </c>
+      <c r="D109" s="117" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" s="3" customFormat="1">
+      <c r="A110" s="114" t="s">
+        <v>486</v>
+      </c>
+      <c r="B110" s="145" t="s">
+        <v>266</v>
+      </c>
+      <c r="C110" s="118" t="s">
         <v>259</v>
       </c>
-      <c r="D108" s="117" t="s">
+      <c r="D110" s="117" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A109" s="119" t="s">
-        <v>493</v>
-      </c>
-      <c r="B109" s="120" t="s">
-        <v>220</v>
-      </c>
-      <c r="C109" s="121" t="s">
-        <v>485</v>
-      </c>
-      <c r="D109" s="122" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="119" t="s">
-        <v>493</v>
-      </c>
-      <c r="B110" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="C110" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D110" s="36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
       <c r="A111" s="119" t="s">
         <v>493</v>
       </c>
-      <c r="B111" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="C111" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="D111" s="36" t="s">
-        <v>111</v>
+      <c r="B111" s="120" t="s">
+        <v>220</v>
+      </c>
+      <c r="C111" s="121" t="s">
+        <v>485</v>
+      </c>
+      <c r="D111" s="122" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -11463,13 +11506,13 @@
         <v>493</v>
       </c>
       <c r="B112" s="35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C112" s="36" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D112" s="36" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -11477,111 +11520,107 @@
         <v>493</v>
       </c>
       <c r="B113" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C113" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D113" s="36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="119" t="s">
+        <v>493</v>
+      </c>
+      <c r="B114" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C114" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D114" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="119" t="s">
+        <v>493</v>
+      </c>
+      <c r="B115" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="C113" s="36" t="s">
+      <c r="C115" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="D113" s="36" t="s">
+      <c r="D115" s="36" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15.75">
-      <c r="A114" s="167" t="s">
+    <row r="116" spans="1:4" ht="15.75">
+      <c r="A116" s="167" t="s">
         <v>497</v>
       </c>
-      <c r="B114" s="167" t="s">
+      <c r="B116" s="167" t="s">
         <v>215</v>
       </c>
-      <c r="C114" s="171" t="s">
+      <c r="C116" s="171" t="s">
         <v>563</v>
       </c>
-      <c r="D114" s="168" t="s">
+      <c r="D116" s="168" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="30">
-      <c r="A115" s="169" t="s">
+    <row r="117" spans="1:4" ht="30">
+      <c r="A117" s="169" t="s">
         <v>497</v>
       </c>
-      <c r="B115" s="169" t="s">
+      <c r="B117" s="169" t="s">
         <v>215</v>
       </c>
-      <c r="C115" s="172" t="s">
+      <c r="C117" s="172" t="s">
         <v>564</v>
       </c>
-      <c r="D115" s="170" t="s">
+      <c r="D117" s="170" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="31.5">
-      <c r="A116" s="169" t="s">
+    <row r="118" spans="1:4" ht="31.5">
+      <c r="A118" s="169"/>
+      <c r="B118" s="169"/>
+      <c r="C118" s="172" t="s">
+        <v>639</v>
+      </c>
+      <c r="D118" s="170" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="31.5">
+      <c r="A119" s="169" t="s">
         <v>497</v>
       </c>
-      <c r="B116" s="169" t="s">
+      <c r="B119" s="169" t="s">
         <v>215</v>
       </c>
-      <c r="C116" s="172" t="s">
+      <c r="C119" s="172" t="s">
         <v>608</v>
       </c>
-      <c r="D116" s="170" t="s">
+      <c r="D119" s="170" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="3" customFormat="1">
-      <c r="A117" s="152" t="s">
+    <row r="120" spans="1:4" s="3" customFormat="1">
+      <c r="A120" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="B117" s="153" t="s">
+      <c r="B120" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="C117" s="154" t="s">
+      <c r="C120" s="154" t="s">
         <v>244</v>
       </c>
-      <c r="D117" s="155" t="s">
+      <c r="D120" s="155" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B118" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="C118" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="D118" s="61" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B119" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="C119" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="D119" s="61" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B120" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="C120" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D120" s="61" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -11589,13 +11628,13 @@
         <v>1</v>
       </c>
       <c r="B121" s="71" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C121" s="61" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D121" s="61" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -11603,13 +11642,13 @@
         <v>1</v>
       </c>
       <c r="B122" s="71" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C122" s="61" t="s">
-        <v>46</v>
+        <v>275</v>
       </c>
       <c r="D122" s="61" t="s">
-        <v>48</v>
+        <v>274</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -11617,13 +11656,13 @@
         <v>1</v>
       </c>
       <c r="B123" s="71" t="s">
-        <v>298</v>
+        <v>21</v>
       </c>
       <c r="C123" s="61" t="s">
-        <v>294</v>
+        <v>23</v>
       </c>
       <c r="D123" s="61" t="s">
-        <v>299</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -11631,13 +11670,13 @@
         <v>1</v>
       </c>
       <c r="B124" s="71" t="s">
-        <v>295</v>
+        <v>24</v>
       </c>
       <c r="C124" s="61" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="D124" s="61" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -11645,13 +11684,13 @@
         <v>1</v>
       </c>
       <c r="B125" s="71" t="s">
-        <v>295</v>
+        <v>47</v>
       </c>
       <c r="C125" s="61" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="D125" s="61" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -11659,13 +11698,13 @@
         <v>1</v>
       </c>
       <c r="B126" s="71" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C126" s="61" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="D126" s="61" t="s">
-        <v>240</v>
+        <v>299</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -11673,13 +11712,13 @@
         <v>1</v>
       </c>
       <c r="B127" s="71" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C127" s="61" t="s">
-        <v>587</v>
+        <v>183</v>
       </c>
       <c r="D127" s="61" t="s">
-        <v>241</v>
+        <v>102</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -11687,13 +11726,13 @@
         <v>1</v>
       </c>
       <c r="B128" s="71" t="s">
-        <v>87</v>
+        <v>295</v>
       </c>
       <c r="C128" s="61" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D128" s="61" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -11701,13 +11740,13 @@
         <v>1</v>
       </c>
       <c r="B129" s="71" t="s">
-        <v>31</v>
+        <v>296</v>
       </c>
       <c r="C129" s="61" t="s">
-        <v>29</v>
+        <v>239</v>
       </c>
       <c r="D129" s="61" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -11715,13 +11754,13 @@
         <v>1</v>
       </c>
       <c r="B130" s="71" t="s">
-        <v>49</v>
+        <v>297</v>
       </c>
       <c r="C130" s="61" t="s">
-        <v>50</v>
+        <v>587</v>
       </c>
       <c r="D130" s="61" t="s">
-        <v>51</v>
+        <v>241</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -11729,13 +11768,13 @@
         <v>1</v>
       </c>
       <c r="B131" s="71" t="s">
-        <v>280</v>
-      </c>
-      <c r="C131" s="83" t="s">
-        <v>281</v>
-      </c>
-      <c r="D131" s="83" t="s">
-        <v>282</v>
+        <v>87</v>
+      </c>
+      <c r="C131" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D131" s="61" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -11743,13 +11782,13 @@
         <v>1</v>
       </c>
       <c r="B132" s="71" t="s">
-        <v>499</v>
+        <v>31</v>
       </c>
       <c r="C132" s="61" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D132" s="61" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -11757,13 +11796,13 @@
         <v>1</v>
       </c>
       <c r="B133" s="71" t="s">
-        <v>500</v>
+        <v>49</v>
       </c>
       <c r="C133" s="61" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D133" s="61" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -11771,13 +11810,13 @@
         <v>1</v>
       </c>
       <c r="B134" s="71" t="s">
-        <v>500</v>
-      </c>
-      <c r="C134" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="D134" s="61" t="s">
-        <v>166</v>
+        <v>280</v>
+      </c>
+      <c r="C134" s="83" t="s">
+        <v>281</v>
+      </c>
+      <c r="D134" s="83" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -11785,13 +11824,13 @@
         <v>1</v>
       </c>
       <c r="B135" s="71" t="s">
-        <v>76</v>
+        <v>499</v>
       </c>
       <c r="C135" s="61" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D135" s="61" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -11799,13 +11838,13 @@
         <v>1</v>
       </c>
       <c r="B136" s="71" t="s">
-        <v>76</v>
+        <v>500</v>
       </c>
       <c r="C136" s="61" t="s">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="D136" s="61" t="s">
-        <v>165</v>
+        <v>74</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -11813,13 +11852,13 @@
         <v>1</v>
       </c>
       <c r="B137" s="71" t="s">
-        <v>76</v>
+        <v>500</v>
       </c>
       <c r="C137" s="61" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D137" s="61" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -11829,11 +11868,11 @@
       <c r="B138" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="C138" s="84" t="s">
-        <v>562</v>
+      <c r="C138" s="61" t="s">
+        <v>75</v>
       </c>
       <c r="D138" s="61" t="s">
-        <v>238</v>
+        <v>77</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -11841,13 +11880,13 @@
         <v>1</v>
       </c>
       <c r="B139" s="71" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="C139" s="61" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D139" s="61" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -11855,13 +11894,13 @@
         <v>1</v>
       </c>
       <c r="B140" s="71" t="s">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="C140" s="61" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D140" s="61" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -11869,13 +11908,13 @@
         <v>1</v>
       </c>
       <c r="B141" s="71" t="s">
-        <v>218</v>
-      </c>
-      <c r="C141" s="61" t="s">
-        <v>217</v>
+        <v>76</v>
+      </c>
+      <c r="C141" s="84" t="s">
+        <v>562</v>
       </c>
       <c r="D141" s="61" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -11883,13 +11922,13 @@
         <v>1</v>
       </c>
       <c r="B142" s="71" t="s">
-        <v>227</v>
-      </c>
-      <c r="C142" s="85" t="s">
-        <v>228</v>
+        <v>170</v>
+      </c>
+      <c r="C142" s="61" t="s">
+        <v>172</v>
       </c>
       <c r="D142" s="61" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -11897,13 +11936,13 @@
         <v>1</v>
       </c>
       <c r="B143" s="71" t="s">
-        <v>233</v>
-      </c>
-      <c r="C143" s="85" t="s">
-        <v>365</v>
+        <v>174</v>
+      </c>
+      <c r="C143" s="61" t="s">
+        <v>173</v>
       </c>
       <c r="D143" s="61" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -11911,13 +11950,13 @@
         <v>1</v>
       </c>
       <c r="B144" s="71" t="s">
-        <v>235</v>
-      </c>
-      <c r="C144" s="85" t="s">
-        <v>363</v>
+        <v>218</v>
+      </c>
+      <c r="C144" s="61" t="s">
+        <v>217</v>
       </c>
       <c r="D144" s="61" t="s">
-        <v>364</v>
+        <v>219</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -11925,55 +11964,55 @@
         <v>1</v>
       </c>
       <c r="B145" s="71" t="s">
+        <v>227</v>
+      </c>
+      <c r="C145" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="D145" s="61" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146" s="71" t="s">
+        <v>233</v>
+      </c>
+      <c r="C146" s="85" t="s">
+        <v>365</v>
+      </c>
+      <c r="D146" s="61" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" s="71" t="s">
         <v>235</v>
       </c>
-      <c r="C145" s="85" t="s">
+      <c r="C147" s="85" t="s">
+        <v>363</v>
+      </c>
+      <c r="D147" s="61" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" s="71" t="s">
+        <v>235</v>
+      </c>
+      <c r="C148" s="85" t="s">
         <v>236</v>
       </c>
-      <c r="D145" s="61" t="s">
+      <c r="D148" s="61" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B146" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="C146" s="81" t="s">
-        <v>107</v>
-      </c>
-      <c r="D146" s="81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B147" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="C147" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="D147" s="81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B148" s="82" t="s">
-        <v>182</v>
-      </c>
-      <c r="C148" s="81" t="s">
-        <v>288</v>
-      </c>
-      <c r="D148" s="81" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -11981,13 +12020,13 @@
         <v>80</v>
       </c>
       <c r="B149" s="82" t="s">
-        <v>421</v>
+        <v>106</v>
       </c>
       <c r="C149" s="81" t="s">
-        <v>422</v>
+        <v>107</v>
       </c>
       <c r="D149" s="81" t="s">
-        <v>420</v>
+        <v>105</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -11995,13 +12034,13 @@
         <v>80</v>
       </c>
       <c r="B150" s="82" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C150" s="81" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="D150" s="81" t="s">
-        <v>200</v>
+        <v>98</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -12009,13 +12048,13 @@
         <v>80</v>
       </c>
       <c r="B151" s="82" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="C151" s="81" t="s">
-        <v>201</v>
+        <v>288</v>
       </c>
       <c r="D151" s="81" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -12023,13 +12062,13 @@
         <v>80</v>
       </c>
       <c r="B152" s="82" t="s">
-        <v>199</v>
+        <v>421</v>
       </c>
       <c r="C152" s="81" t="s">
-        <v>202</v>
+        <v>422</v>
       </c>
       <c r="D152" s="81" t="s">
-        <v>204</v>
+        <v>420</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -12037,27 +12076,27 @@
         <v>80</v>
       </c>
       <c r="B153" s="82" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C153" s="81" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D153" s="81" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="15.75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="80" t="s">
         <v>80</v>
       </c>
       <c r="B154" s="82" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C154" s="81" t="s">
-        <v>576</v>
-      </c>
-      <c r="D154" s="177" t="s">
-        <v>577</v>
+        <v>201</v>
+      </c>
+      <c r="D154" s="81" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -12065,69 +12104,69 @@
         <v>80</v>
       </c>
       <c r="B155" s="82" t="s">
-        <v>580</v>
+        <v>199</v>
       </c>
       <c r="C155" s="81" t="s">
-        <v>578</v>
-      </c>
-      <c r="D155" s="178" t="s">
-        <v>579</v>
+        <v>202</v>
+      </c>
+      <c r="D155" s="81" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="B156" s="130" t="s">
+      <c r="B156" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="C156" s="131" t="s">
+      <c r="C156" s="81" t="s">
+        <v>197</v>
+      </c>
+      <c r="D156" s="81" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15.75">
+      <c r="A157" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B157" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="C157" s="81" t="s">
+        <v>576</v>
+      </c>
+      <c r="D157" s="177" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B158" s="82" t="s">
+        <v>580</v>
+      </c>
+      <c r="C158" s="81" t="s">
+        <v>578</v>
+      </c>
+      <c r="D158" s="178" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B159" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="C159" s="131" t="s">
         <v>207</v>
       </c>
-      <c r="D156" s="131" t="s">
+      <c r="D159" s="131" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B157" s="70" t="s">
-        <v>506</v>
-      </c>
-      <c r="C157" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="D157" s="69" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B158" s="70" t="s">
-        <v>506</v>
-      </c>
-      <c r="C158" s="69" t="s">
-        <v>509</v>
-      </c>
-      <c r="D158" s="69" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B159" s="70" t="s">
-        <v>506</v>
-      </c>
-      <c r="C159" s="69" t="s">
-        <v>516</v>
-      </c>
-      <c r="D159" s="69" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -12135,13 +12174,13 @@
         <v>8</v>
       </c>
       <c r="B160" s="70" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C160" s="69" t="s">
-        <v>510</v>
+        <v>66</v>
       </c>
       <c r="D160" s="69" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -12149,13 +12188,13 @@
         <v>8</v>
       </c>
       <c r="B161" s="70" t="s">
-        <v>447</v>
+        <v>506</v>
       </c>
       <c r="C161" s="69" t="s">
-        <v>287</v>
+        <v>509</v>
       </c>
       <c r="D161" s="69" t="s">
-        <v>443</v>
+        <v>508</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -12163,13 +12202,13 @@
         <v>8</v>
       </c>
       <c r="B162" s="70" t="s">
-        <v>447</v>
+        <v>506</v>
       </c>
       <c r="C162" s="69" t="s">
-        <v>448</v>
+        <v>516</v>
       </c>
       <c r="D162" s="69" t="s">
-        <v>446</v>
+        <v>515</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -12177,13 +12216,13 @@
         <v>8</v>
       </c>
       <c r="B163" s="70" t="s">
-        <v>289</v>
+        <v>513</v>
       </c>
       <c r="C163" s="69" t="s">
-        <v>290</v>
+        <v>510</v>
       </c>
       <c r="D163" s="69" t="s">
-        <v>291</v>
+        <v>511</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -12191,13 +12230,13 @@
         <v>8</v>
       </c>
       <c r="B164" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="68" t="s">
-        <v>9</v>
+        <v>447</v>
+      </c>
+      <c r="C164" s="69" t="s">
+        <v>287</v>
       </c>
       <c r="D164" s="69" t="s">
-        <v>11</v>
+        <v>443</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -12205,13 +12244,13 @@
         <v>8</v>
       </c>
       <c r="B165" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C165" s="68" t="s">
-        <v>20</v>
+        <v>447</v>
+      </c>
+      <c r="C165" s="69" t="s">
+        <v>448</v>
       </c>
       <c r="D165" s="69" t="s">
-        <v>65</v>
+        <v>446</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -12219,13 +12258,13 @@
         <v>8</v>
       </c>
       <c r="B166" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C166" s="68" t="s">
-        <v>390</v>
+        <v>289</v>
+      </c>
+      <c r="C166" s="69" t="s">
+        <v>290</v>
       </c>
       <c r="D166" s="69" t="s">
-        <v>391</v>
+        <v>291</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -12250,10 +12289,10 @@
         <v>8</v>
       </c>
       <c r="C168" s="68" t="s">
-        <v>359</v>
+        <v>20</v>
       </c>
       <c r="D168" s="69" t="s">
-        <v>360</v>
+        <v>65</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -12264,10 +12303,10 @@
         <v>8</v>
       </c>
       <c r="C169" s="68" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="D169" s="69" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -12275,13 +12314,13 @@
         <v>8</v>
       </c>
       <c r="B170" s="70" t="s">
-        <v>438</v>
+        <v>8</v>
       </c>
       <c r="C170" s="68" t="s">
-        <v>361</v>
+        <v>9</v>
       </c>
       <c r="D170" s="69" t="s">
-        <v>437</v>
+        <v>11</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -12289,97 +12328,97 @@
         <v>8</v>
       </c>
       <c r="B171" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="68" t="s">
+        <v>359</v>
+      </c>
+      <c r="D171" s="69" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="68" t="s">
+        <v>361</v>
+      </c>
+      <c r="D172" s="69" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" s="70" t="s">
         <v>438</v>
       </c>
-      <c r="C171" s="68" t="s">
+      <c r="C173" s="68" t="s">
         <v>361</v>
       </c>
-      <c r="D171" s="69" t="s">
+      <c r="D173" s="69" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" s="70" t="s">
+        <v>438</v>
+      </c>
+      <c r="C174" s="68" t="s">
+        <v>361</v>
+      </c>
+      <c r="D174" s="69" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="71" t="s">
+    <row r="175" spans="1:4">
+      <c r="A175" s="71" t="s">
         <v>327</v>
       </c>
-      <c r="B172" s="60" t="s">
+      <c r="B175" s="60" t="s">
         <v>501</v>
       </c>
-      <c r="C172" s="61" t="s">
+      <c r="C175" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="D172" s="61" t="s">
+      <c r="D175" s="61" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="173" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A173" s="71" t="s">
-        <v>327</v>
-      </c>
-      <c r="B173" s="129" t="s">
-        <v>432</v>
-      </c>
-      <c r="C173" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="D173" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" s="3" customFormat="1" ht="30">
-      <c r="A174" s="71" t="s">
-        <v>327</v>
-      </c>
-      <c r="B174" s="129" t="s">
-        <v>432</v>
-      </c>
-      <c r="C174" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="D174" s="12" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A175" s="72" t="s">
-        <v>327</v>
-      </c>
-      <c r="B175" s="129" t="s">
-        <v>432</v>
-      </c>
-      <c r="C175" s="62" t="s">
-        <v>349</v>
-      </c>
-      <c r="D175" s="12" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A176" s="72" t="s">
+    <row r="176" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A176" s="71" t="s">
         <v>327</v>
       </c>
       <c r="B176" s="129" t="s">
         <v>432</v>
       </c>
-      <c r="C176" s="62" t="s">
-        <v>424</v>
+      <c r="C176" s="12" t="s">
+        <v>423</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" s="3" customFormat="1" ht="76.5" customHeight="1">
-      <c r="A177" s="72" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" s="3" customFormat="1" ht="30">
+      <c r="A177" s="71" t="s">
         <v>327</v>
       </c>
       <c r="B177" s="129" t="s">
-        <v>502</v>
+        <v>432</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>330</v>
+        <v>444</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="178" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
@@ -12387,13 +12426,13 @@
         <v>327</v>
       </c>
       <c r="B178" s="129" t="s">
-        <v>503</v>
-      </c>
-      <c r="C178" s="12" t="s">
-        <v>331</v>
+        <v>432</v>
+      </c>
+      <c r="C178" s="62" t="s">
+        <v>349</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>431</v>
+        <v>348</v>
       </c>
     </row>
     <row r="179" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
@@ -12401,55 +12440,55 @@
         <v>327</v>
       </c>
       <c r="B179" s="129" t="s">
-        <v>426</v>
-      </c>
-      <c r="C179" s="12" t="s">
-        <v>427</v>
+        <v>432</v>
+      </c>
+      <c r="C179" s="62" t="s">
+        <v>424</v>
       </c>
       <c r="D179" s="12" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="B180" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="C180" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="D180" s="11" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A181" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="B181" s="63" t="s">
-        <v>318</v>
-      </c>
-      <c r="C181" s="64" t="s">
-        <v>428</v>
-      </c>
-      <c r="D181" s="65" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="B182" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="C182" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="D182" s="11" t="s">
-        <v>320</v>
+    <row r="180" spans="1:4" s="3" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A180" s="72" t="s">
+        <v>327</v>
+      </c>
+      <c r="B180" s="129" t="s">
+        <v>502</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="D180" s="12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A181" s="72" t="s">
+        <v>327</v>
+      </c>
+      <c r="B181" s="129" t="s">
+        <v>503</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D181" s="12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A182" s="72" t="s">
+        <v>327</v>
+      </c>
+      <c r="B182" s="129" t="s">
+        <v>426</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="D182" s="12" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -12460,318 +12499,318 @@
         <v>318</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" s="4" customFormat="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
       <c r="A184" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="B184" s="73" t="s">
+      <c r="B184" s="63" t="s">
+        <v>318</v>
+      </c>
+      <c r="C184" s="64" t="s">
+        <v>428</v>
+      </c>
+      <c r="D184" s="65" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="D185" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D186" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" s="4" customFormat="1">
+      <c r="A187" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" s="73" t="s">
         <v>313</v>
       </c>
-      <c r="C184" s="65" t="s">
+      <c r="C187" s="65" t="s">
         <v>312</v>
       </c>
-      <c r="D184" s="65" t="s">
+      <c r="D187" s="65" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="75" t="s">
+    <row r="188" spans="1:4">
+      <c r="A188" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="B185" s="10" t="s">
+      <c r="B188" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C185" s="11" t="s">
+      <c r="C188" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="D185" s="65" t="s">
+      <c r="D188" s="65" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="113" t="s">
+    <row r="189" spans="1:4">
+      <c r="A189" s="113" t="s">
         <v>191</v>
       </c>
-      <c r="B186" s="113" t="s">
+      <c r="B189" s="113" t="s">
         <v>189</v>
       </c>
-      <c r="C186" s="115" t="s">
+      <c r="C189" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="D186" s="115" t="s">
+      <c r="D189" s="115" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="113" t="s">
+    <row r="190" spans="1:4">
+      <c r="A190" s="113" t="s">
         <v>191</v>
       </c>
-      <c r="B187" s="113" t="s">
+      <c r="B190" s="113" t="s">
         <v>189</v>
       </c>
-      <c r="C187" s="115" t="s">
+      <c r="C190" s="115" t="s">
         <v>195</v>
       </c>
-      <c r="D187" s="115" t="s">
+      <c r="D190" s="115" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="188" spans="1:4" s="3" customFormat="1">
-      <c r="A188" s="132" t="s">
+    <row r="191" spans="1:4" s="3" customFormat="1">
+      <c r="A191" s="132" t="s">
         <v>250</v>
       </c>
-      <c r="B188" s="157" t="s">
+      <c r="B191" s="157" t="s">
         <v>252</v>
       </c>
-      <c r="C188" s="133" t="s">
+      <c r="C191" s="133" t="s">
         <v>253</v>
       </c>
-      <c r="D188" s="134" t="s">
+      <c r="D191" s="134" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="189" spans="1:4" s="86" customFormat="1">
-      <c r="A189" s="132" t="s">
+    <row r="192" spans="1:4" s="86" customFormat="1">
+      <c r="A192" s="132" t="s">
         <v>250</v>
       </c>
-      <c r="B189" s="157" t="s">
+      <c r="B192" s="157" t="s">
         <v>293</v>
       </c>
-      <c r="C189" s="133" t="s">
+      <c r="C192" s="133" t="s">
         <v>292</v>
       </c>
-      <c r="D189" s="134" t="s">
+      <c r="D192" s="134" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="190" spans="1:4" s="86" customFormat="1">
-      <c r="A190" s="132" t="s">
+    <row r="193" spans="1:4" s="86" customFormat="1">
+      <c r="A193" s="132" t="s">
         <v>250</v>
       </c>
-      <c r="B190" s="157" t="s">
+      <c r="B193" s="157" t="s">
         <v>286</v>
       </c>
-      <c r="C190" s="133" t="s">
+      <c r="C193" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="D190" s="134" t="s">
+      <c r="D193" s="134" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="191" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A191" s="135" t="s">
+    <row r="194" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A194" s="135" t="s">
         <v>250</v>
       </c>
-      <c r="B191" s="157" t="s">
+      <c r="B194" s="157" t="s">
         <v>463</v>
       </c>
-      <c r="C191" s="136" t="s">
+      <c r="C194" s="136" t="s">
         <v>376</v>
       </c>
-      <c r="D191" s="137" t="s">
+      <c r="D194" s="137" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="192" spans="1:4" s="38" customFormat="1" ht="144.75" customHeight="1">
-      <c r="A192" s="138" t="s">
-        <v>250</v>
-      </c>
-      <c r="B192" s="158" t="s">
-        <v>504</v>
-      </c>
-      <c r="C192" s="136" t="s">
-        <v>488</v>
-      </c>
-      <c r="D192" s="137" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="159" t="s">
-        <v>250</v>
-      </c>
-      <c r="B193" s="160" t="s">
-        <v>512</v>
-      </c>
-      <c r="C193" s="161" t="s">
-        <v>514</v>
-      </c>
-      <c r="D193" s="161" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A194" s="138" t="s">
-        <v>250</v>
-      </c>
-      <c r="B194" s="158" t="s">
-        <v>435</v>
-      </c>
-      <c r="C194" s="139" t="s">
-        <v>458</v>
-      </c>
-      <c r="D194" s="137" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
+    <row r="195" spans="1:4" s="38" customFormat="1" ht="144.75" customHeight="1">
       <c r="A195" s="138" t="s">
         <v>250</v>
       </c>
       <c r="B195" s="158" t="s">
-        <v>435</v>
-      </c>
-      <c r="C195" s="139" t="s">
-        <v>459</v>
+        <v>504</v>
+      </c>
+      <c r="C195" s="136" t="s">
+        <v>488</v>
       </c>
       <c r="D195" s="137" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A196" s="138" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="159" t="s">
         <v>250</v>
       </c>
-      <c r="B196" s="158" t="s">
-        <v>436</v>
-      </c>
-      <c r="C196" s="140" t="s">
-        <v>441</v>
-      </c>
-      <c r="D196" s="137" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B196" s="160" t="s">
+        <v>512</v>
+      </c>
+      <c r="C196" s="161" t="s">
+        <v>514</v>
+      </c>
+      <c r="D196" s="161" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
       <c r="A197" s="138" t="s">
         <v>250</v>
       </c>
       <c r="B197" s="158" t="s">
-        <v>242</v>
-      </c>
-      <c r="C197" s="136" t="s">
-        <v>457</v>
+        <v>435</v>
+      </c>
+      <c r="C197" s="139" t="s">
+        <v>458</v>
       </c>
       <c r="D197" s="137" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
       <c r="A198" s="138" t="s">
         <v>250</v>
       </c>
       <c r="B198" s="158" t="s">
-        <v>440</v>
-      </c>
-      <c r="C198" s="136" t="s">
-        <v>517</v>
+        <v>435</v>
+      </c>
+      <c r="C198" s="139" t="s">
+        <v>459</v>
       </c>
       <c r="D198" s="137" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
       <c r="A199" s="138" t="s">
         <v>250</v>
       </c>
       <c r="B199" s="158" t="s">
-        <v>455</v>
-      </c>
-      <c r="C199" s="136" t="s">
-        <v>456</v>
+        <v>436</v>
+      </c>
+      <c r="C199" s="140" t="s">
+        <v>441</v>
       </c>
       <c r="D199" s="137" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1">
       <c r="A200" s="138" t="s">
         <v>250</v>
       </c>
       <c r="B200" s="158" t="s">
-        <v>522</v>
+        <v>242</v>
       </c>
       <c r="C200" s="136" t="s">
-        <v>521</v>
+        <v>457</v>
       </c>
       <c r="D200" s="137" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
       <c r="A201" s="138" t="s">
         <v>250</v>
       </c>
       <c r="B201" s="158" t="s">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="C201" s="136" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D201" s="137" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
       <c r="A202" s="138" t="s">
         <v>250</v>
       </c>
       <c r="B202" s="158" t="s">
+        <v>455</v>
+      </c>
+      <c r="C202" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="D202" s="137" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A203" s="138" t="s">
+        <v>250</v>
+      </c>
+      <c r="B203" s="158" t="s">
+        <v>522</v>
+      </c>
+      <c r="C203" s="136" t="s">
+        <v>521</v>
+      </c>
+      <c r="D203" s="137" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A204" s="138" t="s">
+        <v>250</v>
+      </c>
+      <c r="B204" s="158" t="s">
+        <v>520</v>
+      </c>
+      <c r="C204" s="136" t="s">
+        <v>519</v>
+      </c>
+      <c r="D204" s="137" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A205" s="138" t="s">
+        <v>250</v>
+      </c>
+      <c r="B205" s="158" t="s">
         <v>454</v>
       </c>
-      <c r="C202" s="136" t="s">
+      <c r="C205" s="136" t="s">
         <v>452</v>
       </c>
-      <c r="D202" s="137" t="s">
+      <c r="D205" s="137" t="s">
         <v>453</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="123" t="s">
-        <v>222</v>
-      </c>
-      <c r="B203" s="123" t="s">
-        <v>223</v>
-      </c>
-      <c r="C203" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="D203" s="36" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="123" t="s">
-        <v>222</v>
-      </c>
-      <c r="B204" s="123" t="s">
-        <v>223</v>
-      </c>
-      <c r="C204" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="D204" s="36" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="123" t="s">
-        <v>222</v>
-      </c>
-      <c r="B205" s="123" t="s">
-        <v>223</v>
-      </c>
-      <c r="C205" s="156" t="s">
-        <v>633</v>
-      </c>
-      <c r="D205" s="36" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -12781,11 +12820,11 @@
       <c r="B206" s="123" t="s">
         <v>223</v>
       </c>
-      <c r="C206" s="156" t="s">
-        <v>306</v>
+      <c r="C206" s="36" t="s">
+        <v>248</v>
       </c>
       <c r="D206" s="36" t="s">
-        <v>302</v>
+        <v>224</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -12793,24 +12832,27 @@
         <v>222</v>
       </c>
       <c r="B207" s="123" t="s">
-        <v>626</v>
-      </c>
-      <c r="C207" s="180" t="s">
-        <v>304</v>
+        <v>223</v>
+      </c>
+      <c r="C207" s="36" t="s">
+        <v>225</v>
       </c>
       <c r="D207" s="36" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
     </row>
     <row r="208" spans="1:4">
+      <c r="A208" s="123" t="s">
+        <v>222</v>
+      </c>
       <c r="B208" s="123" t="s">
-        <v>626</v>
-      </c>
-      <c r="C208" s="180" t="s">
-        <v>304</v>
+        <v>223</v>
+      </c>
+      <c r="C208" s="156" t="s">
+        <v>633</v>
       </c>
       <c r="D208" s="36" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -12818,13 +12860,13 @@
         <v>222</v>
       </c>
       <c r="B209" s="123" t="s">
-        <v>626</v>
-      </c>
-      <c r="C209" s="180" t="s">
-        <v>634</v>
+        <v>223</v>
+      </c>
+      <c r="C209" s="156" t="s">
+        <v>306</v>
       </c>
       <c r="D209" s="36" t="s">
-        <v>635</v>
+        <v>302</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -12832,83 +12874,80 @@
         <v>222</v>
       </c>
       <c r="B210" s="123" t="s">
+        <v>626</v>
+      </c>
+      <c r="C210" s="180" t="s">
+        <v>304</v>
+      </c>
+      <c r="D210" s="36" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="B211" s="123" t="s">
+        <v>626</v>
+      </c>
+      <c r="C211" s="180" t="s">
+        <v>304</v>
+      </c>
+      <c r="D211" s="36" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="123" t="s">
+        <v>222</v>
+      </c>
+      <c r="B212" s="123" t="s">
+        <v>626</v>
+      </c>
+      <c r="C212" s="180" t="s">
+        <v>634</v>
+      </c>
+      <c r="D212" s="36" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="123" t="s">
+        <v>222</v>
+      </c>
+      <c r="B213" s="123" t="s">
         <v>628</v>
       </c>
-      <c r="C210" s="180" t="s">
+      <c r="C213" s="180" t="s">
         <v>307</v>
       </c>
-      <c r="D210" s="36" t="s">
+      <c r="D213" s="36" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="123" t="s">
+    <row r="214" spans="1:4">
+      <c r="A214" s="123" t="s">
         <v>222</v>
       </c>
-      <c r="B211" s="123" t="s">
+      <c r="B214" s="123" t="s">
         <v>629</v>
       </c>
-      <c r="C211" s="181" t="s">
+      <c r="C214" s="181" t="s">
         <v>393</v>
       </c>
-      <c r="D211" s="36" t="s">
+      <c r="D214" s="36" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="212" spans="1:4" s="179" customFormat="1" ht="15.75">
-      <c r="A212" s="182" t="s">
-        <v>222</v>
-      </c>
-      <c r="B212" s="182" t="s">
-        <v>629</v>
-      </c>
-      <c r="C212" s="183" t="s">
-        <v>583</v>
-      </c>
-      <c r="D212" s="184" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="182" t="s">
-        <v>222</v>
-      </c>
-      <c r="B213" s="182" t="s">
-        <v>630</v>
-      </c>
-      <c r="C213" s="185" t="s">
-        <v>584</v>
-      </c>
-      <c r="D213" s="186" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="182" t="s">
-        <v>222</v>
-      </c>
-      <c r="B214" s="182" t="s">
-        <v>631</v>
-      </c>
-      <c r="C214" s="185" t="s">
-        <v>621</v>
-      </c>
-      <c r="D214" s="186" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" s="179" customFormat="1" ht="15.75">
       <c r="A215" s="182" t="s">
         <v>222</v>
       </c>
       <c r="B215" s="182" t="s">
-        <v>631</v>
-      </c>
-      <c r="C215" s="185" t="s">
-        <v>622</v>
-      </c>
-      <c r="D215" s="186" t="s">
-        <v>617</v>
+        <v>629</v>
+      </c>
+      <c r="C215" s="183" t="s">
+        <v>583</v>
+      </c>
+      <c r="D215" s="184" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -12916,13 +12955,13 @@
         <v>222</v>
       </c>
       <c r="B216" s="182" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C216" s="185" t="s">
-        <v>623</v>
+        <v>584</v>
       </c>
       <c r="D216" s="186" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -12933,10 +12972,10 @@
         <v>631</v>
       </c>
       <c r="C217" s="185" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D217" s="186" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -12947,10 +12986,10 @@
         <v>631</v>
       </c>
       <c r="C218" s="185" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D218" s="186" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -12958,17 +12997,59 @@
         <v>222</v>
       </c>
       <c r="B219" s="182" t="s">
+        <v>631</v>
+      </c>
+      <c r="C219" s="185" t="s">
+        <v>623</v>
+      </c>
+      <c r="D219" s="186" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="B220" s="182" t="s">
+        <v>631</v>
+      </c>
+      <c r="C220" s="185" t="s">
+        <v>624</v>
+      </c>
+      <c r="D220" s="186" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="B221" s="182" t="s">
+        <v>631</v>
+      </c>
+      <c r="C221" s="185" t="s">
+        <v>625</v>
+      </c>
+      <c r="D221" s="186" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222" s="182" t="s">
         <v>223</v>
       </c>
-      <c r="C219" s="185" t="s">
+      <c r="C222" s="185" t="s">
         <v>585</v>
       </c>
-      <c r="D219" s="186" t="s">
+      <c r="D222" s="186" t="s">
         <v>586</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D210" xr:uid="{85ED3410-72EE-453D-8BB3-FB7E07F682B1}"/>
+  <autoFilter ref="A2:D213" xr:uid="{85ED3410-72EE-453D-8BB3-FB7E07F682B1}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>

--- a/Tutoriales/pandas/Comandos Pandas.xlsx
+++ b/Tutoriales/pandas/Comandos Pandas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseMaría\Documents\CURSOS\data_science\mitrabajo\mi_repositorio\Tutoriales\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C286080B-7CBF-4FF5-BDA9-B3E3E37FB40F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297C0154-DC18-4690-B694-71AD3C30DDE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF4018AA-EEB9-4756-B82D-183D37B3B80A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="CONCEPTOS" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GENERALES!$A$2:$D$213</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GENERALES!$A$2:$D$214</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="646">
   <si>
     <t>FUNCIONES DE PANDAS</t>
   </si>
@@ -6491,6 +6491,12 @@
   </si>
   <si>
     <t>TO_NUMERIC</t>
+  </si>
+  <si>
+    <t>porcentaje_vac.rename(columns={'Vacunaciones 2019_x':'Vacunados 0-59 años','Vacunaciones 2019_y':'Vacunados &gt; 65 años','vacunaciones 2019':'Vacunados 60_64 años' }, inplace=True)</t>
+  </si>
+  <si>
+    <t>Cambia el nombre de las columnas que yo elija</t>
   </si>
 </sst>
 </file>
@@ -7138,7 +7144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="65" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7592,6 +7598,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7633,7 +7642,10 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9941,10 +9953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265136A6-C067-4B28-9F45-A6266FF6FD67}">
-  <dimension ref="A1:D222"/>
+  <dimension ref="A1:D223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9956,12 +9968,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="102" t="s">
@@ -10390,7 +10402,7 @@
       <c r="B32" s="101" t="s">
         <v>643</v>
       </c>
-      <c r="C32" s="212" t="s">
+      <c r="C32" s="197" t="s">
         <v>641</v>
       </c>
       <c r="D32" s="100" t="s">
@@ -10717,32 +10729,32 @@
         <v>345</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56" s="71" t="s">
-        <v>480</v>
-      </c>
-      <c r="C56" s="61" t="s">
-        <v>377</v>
-      </c>
-      <c r="D56" s="61" t="s">
-        <v>378</v>
+    <row r="56" spans="1:4" s="4" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A56" s="141" t="s">
+        <v>492</v>
+      </c>
+      <c r="B56" s="214" t="s">
+        <v>347</v>
+      </c>
+      <c r="C56" s="188" t="s">
+        <v>644</v>
+      </c>
+      <c r="D56" s="213" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="60" t="s">
-        <v>478</v>
+        <v>39</v>
       </c>
       <c r="B57" s="71" t="s">
-        <v>475</v>
-      </c>
-      <c r="C57" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" s="103" t="s">
-        <v>68</v>
+        <v>480</v>
+      </c>
+      <c r="C57" s="61" t="s">
+        <v>377</v>
+      </c>
+      <c r="D57" s="61" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -10750,13 +10762,13 @@
         <v>478</v>
       </c>
       <c r="B58" s="71" t="s">
-        <v>6</v>
+        <v>475</v>
       </c>
       <c r="C58" s="85" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="D58" s="103" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -10767,10 +10779,10 @@
         <v>6</v>
       </c>
       <c r="C59" s="85" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D59" s="103" t="s">
-        <v>477</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -10781,10 +10793,10 @@
         <v>6</v>
       </c>
       <c r="C60" s="85" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D60" s="103" t="s">
-        <v>134</v>
+        <v>477</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -10795,10 +10807,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="85" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D61" s="103" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -10809,10 +10821,10 @@
         <v>6</v>
       </c>
       <c r="C62" s="85" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D62" s="103" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -10823,10 +10835,10 @@
         <v>6</v>
       </c>
       <c r="C63" s="85" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D63" s="103" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -10834,13 +10846,13 @@
         <v>478</v>
       </c>
       <c r="B64" s="71" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C64" s="85" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="D64" s="103" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -10851,10 +10863,10 @@
         <v>114</v>
       </c>
       <c r="C65" s="85" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D65" s="103" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -10865,10 +10877,10 @@
         <v>114</v>
       </c>
       <c r="C66" s="85" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D66" s="103" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -10879,10 +10891,10 @@
         <v>114</v>
       </c>
       <c r="C67" s="85" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D67" s="103" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -10893,10 +10905,10 @@
         <v>114</v>
       </c>
       <c r="C68" s="85" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D68" s="103" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -10907,10 +10919,10 @@
         <v>114</v>
       </c>
       <c r="C69" s="85" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D69" s="103" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -10921,10 +10933,10 @@
         <v>114</v>
       </c>
       <c r="C70" s="85" t="s">
-        <v>637</v>
+        <v>142</v>
       </c>
       <c r="D70" s="103" t="s">
-        <v>638</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -10935,24 +10947,24 @@
         <v>114</v>
       </c>
       <c r="C71" s="85" t="s">
+        <v>637</v>
+      </c>
+      <c r="D71" s="103" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="60" t="s">
+        <v>478</v>
+      </c>
+      <c r="B72" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="D71" s="108" t="s">
+      <c r="D72" s="108" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="104" t="s">
-        <v>472</v>
-      </c>
-      <c r="B72" s="109" t="s">
-        <v>479</v>
-      </c>
-      <c r="C72" s="105" t="s">
-        <v>154</v>
-      </c>
-      <c r="D72" s="106" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -10963,10 +10975,10 @@
         <v>479</v>
       </c>
       <c r="C73" s="105" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D73" s="106" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -10977,10 +10989,10 @@
         <v>479</v>
       </c>
       <c r="C74" s="105" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D74" s="106" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -10990,11 +11002,11 @@
       <c r="B75" s="109" t="s">
         <v>479</v>
       </c>
-      <c r="C75" s="146" t="s">
-        <v>94</v>
-      </c>
-      <c r="D75" s="146" t="s">
-        <v>95</v>
+      <c r="C75" s="105" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" s="106" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -11002,13 +11014,13 @@
         <v>472</v>
       </c>
       <c r="B76" s="109" t="s">
-        <v>184</v>
-      </c>
-      <c r="C76" s="105" t="s">
-        <v>185</v>
-      </c>
-      <c r="D76" s="106" t="s">
-        <v>186</v>
+        <v>479</v>
+      </c>
+      <c r="C76" s="146" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" s="146" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -11016,13 +11028,13 @@
         <v>472</v>
       </c>
       <c r="B77" s="109" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="C77" s="105" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="D77" s="106" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -11033,10 +11045,10 @@
         <v>114</v>
       </c>
       <c r="C78" s="105" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D78" s="106" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -11044,13 +11056,13 @@
         <v>472</v>
       </c>
       <c r="B79" s="109" t="s">
-        <v>490</v>
-      </c>
-      <c r="C79" s="146" t="s">
-        <v>96</v>
-      </c>
-      <c r="D79" s="146" t="s">
-        <v>97</v>
+        <v>114</v>
+      </c>
+      <c r="C79" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79" s="106" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -11058,27 +11070,27 @@
         <v>472</v>
       </c>
       <c r="B80" s="109" t="s">
+        <v>490</v>
+      </c>
+      <c r="C80" s="146" t="s">
+        <v>96</v>
+      </c>
+      <c r="D80" s="146" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="104" t="s">
+        <v>472</v>
+      </c>
+      <c r="B81" s="109" t="s">
         <v>491</v>
       </c>
-      <c r="C80" s="146" t="s">
+      <c r="C81" s="146" t="s">
         <v>247</v>
       </c>
-      <c r="D80" s="146" t="s">
+      <c r="D81" s="146" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="79" t="s">
-        <v>484</v>
-      </c>
-      <c r="B81" s="76" t="s">
-        <v>71</v>
-      </c>
-      <c r="C81" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="D81" s="77" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -11086,55 +11098,55 @@
         <v>484</v>
       </c>
       <c r="B82" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="C82" s="78" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+      <c r="C82" s="77" t="s">
+        <v>83</v>
       </c>
       <c r="D82" s="77" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="79" t="s">
+        <v>484</v>
+      </c>
+      <c r="B83" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83" s="77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="79" t="s">
         <v>483</v>
       </c>
-      <c r="B83" s="76" t="s">
+      <c r="B84" s="76" t="s">
         <v>386</v>
       </c>
-      <c r="C83" s="77" t="s">
+      <c r="C84" s="77" t="s">
         <v>385</v>
       </c>
-      <c r="D83" s="77" t="s">
+      <c r="D84" s="77" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="4" customFormat="1" ht="30">
-      <c r="A84" s="124" t="s">
+    <row r="85" spans="1:4" s="4" customFormat="1" ht="30">
+      <c r="A85" s="124" t="s">
         <v>483</v>
       </c>
-      <c r="B84" s="125" t="s">
+      <c r="B85" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="C84" s="126" t="s">
+      <c r="C85" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="D84" s="126" t="s">
+      <c r="D85" s="126" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="79" t="s">
-        <v>481</v>
-      </c>
-      <c r="B85" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="C85" s="77" t="s">
-        <v>539</v>
-      </c>
-      <c r="D85" s="77" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -11142,13 +11154,13 @@
         <v>481</v>
       </c>
       <c r="B86" s="76" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="C86" s="77" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D86" s="77" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -11159,80 +11171,80 @@
         <v>26</v>
       </c>
       <c r="C87" s="77" t="s">
-        <v>120</v>
+        <v>540</v>
       </c>
       <c r="D87" s="77" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="79" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B88" s="76" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C88" s="77" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="D88" s="77" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="79" t="s">
-        <v>612</v>
-      </c>
-      <c r="B89" s="79" t="s">
-        <v>613</v>
+        <v>482</v>
+      </c>
+      <c r="B89" s="76" t="s">
+        <v>53</v>
       </c>
       <c r="C89" s="77" t="s">
-        <v>615</v>
+        <v>52</v>
       </c>
       <c r="D89" s="77" t="s">
-        <v>614</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="79" t="s">
-        <v>487</v>
-      </c>
-      <c r="B90" s="76" t="s">
-        <v>122</v>
+        <v>612</v>
+      </c>
+      <c r="B90" s="79" t="s">
+        <v>613</v>
       </c>
       <c r="C90" s="77" t="s">
-        <v>601</v>
-      </c>
-      <c r="D90" s="128" t="s">
-        <v>602</v>
+        <v>615</v>
+      </c>
+      <c r="D90" s="77" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="79" t="s">
-        <v>249</v>
+        <v>487</v>
       </c>
       <c r="B91" s="76" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77" t="s">
-        <v>246</v>
-      </c>
-      <c r="D91" s="77" t="s">
-        <v>229</v>
+        <v>601</v>
+      </c>
+      <c r="D91" s="128" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="79" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="B92" s="76" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="C92" s="77" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="D92" s="77" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -11240,13 +11252,13 @@
         <v>210</v>
       </c>
       <c r="B93" s="76" t="s">
-        <v>212</v>
-      </c>
-      <c r="C93" s="78" t="s">
-        <v>525</v>
+        <v>209</v>
+      </c>
+      <c r="C93" s="77" t="s">
+        <v>211</v>
       </c>
       <c r="D93" s="77" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -11254,13 +11266,13 @@
         <v>210</v>
       </c>
       <c r="B94" s="76" t="s">
-        <v>232</v>
-      </c>
-      <c r="C94" s="77" t="s">
-        <v>245</v>
+        <v>212</v>
+      </c>
+      <c r="C94" s="78" t="s">
+        <v>525</v>
       </c>
       <c r="D94" s="77" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -11268,13 +11280,13 @@
         <v>210</v>
       </c>
       <c r="B95" s="76" t="s">
-        <v>528</v>
+        <v>232</v>
       </c>
       <c r="C95" s="77" t="s">
-        <v>526</v>
+        <v>245</v>
       </c>
       <c r="D95" s="77" t="s">
-        <v>527</v>
+        <v>231</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -11282,13 +11294,13 @@
         <v>210</v>
       </c>
       <c r="B96" s="76" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C96" s="77" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D96" s="77" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -11296,13 +11308,13 @@
         <v>210</v>
       </c>
       <c r="B97" s="76" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C97" s="77" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D97" s="77" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -11310,41 +11322,41 @@
         <v>210</v>
       </c>
       <c r="B98" s="76" t="s">
+        <v>534</v>
+      </c>
+      <c r="C98" s="77" t="s">
+        <v>532</v>
+      </c>
+      <c r="D98" s="77" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="B99" s="76" t="s">
         <v>537</v>
       </c>
-      <c r="C98" s="77" t="s">
+      <c r="C99" s="77" t="s">
         <v>535</v>
       </c>
-      <c r="D98" s="77" t="s">
+      <c r="D99" s="77" t="s">
         <v>536</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="80" t="s">
-        <v>357</v>
-      </c>
-      <c r="B99" s="174" t="s">
-        <v>566</v>
-      </c>
-      <c r="C99" s="173" t="s">
-        <v>567</v>
-      </c>
-      <c r="D99" s="81" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="80" t="s">
         <v>357</v>
       </c>
-      <c r="B100" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="C100" s="81" t="s">
-        <v>78</v>
+      <c r="B100" s="174" t="s">
+        <v>566</v>
+      </c>
+      <c r="C100" s="173" t="s">
+        <v>567</v>
       </c>
       <c r="D100" s="81" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -11355,38 +11367,38 @@
         <v>79</v>
       </c>
       <c r="C101" s="81" t="s">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="D101" s="81" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" s="4" customFormat="1" ht="30">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="80" t="s">
         <v>357</v>
       </c>
-      <c r="B102" s="112" t="s">
+      <c r="B102" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="C102" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="C102" s="81" t="s">
+        <v>351</v>
+      </c>
+      <c r="D102" s="81" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="4" customFormat="1" ht="30">
       <c r="A103" s="80" t="s">
         <v>357</v>
       </c>
-      <c r="B103" s="110" t="s">
-        <v>380</v>
-      </c>
-      <c r="C103" s="98" t="s">
-        <v>381</v>
-      </c>
-      <c r="D103" s="111" t="s">
-        <v>382</v>
+      <c r="B103" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -11397,38 +11409,38 @@
         <v>380</v>
       </c>
       <c r="C104" s="98" t="s">
+        <v>381</v>
+      </c>
+      <c r="D104" s="111" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="80" t="s">
+        <v>357</v>
+      </c>
+      <c r="B105" s="110" t="s">
+        <v>380</v>
+      </c>
+      <c r="C105" s="98" t="s">
         <v>383</v>
       </c>
-      <c r="D104" s="111" t="s">
+      <c r="D105" s="111" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="114" t="s">
-        <v>486</v>
-      </c>
-      <c r="B105" s="113" t="s">
-        <v>40</v>
-      </c>
-      <c r="C105" s="115" t="s">
-        <v>37</v>
-      </c>
-      <c r="D105" s="115" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" s="3" customFormat="1">
+    <row r="106" spans="1:4">
       <c r="A106" s="114" t="s">
         <v>486</v>
       </c>
-      <c r="B106" s="145" t="s">
-        <v>269</v>
-      </c>
-      <c r="C106" s="116" t="s">
-        <v>263</v>
-      </c>
-      <c r="D106" s="117" t="s">
-        <v>261</v>
+      <c r="B106" s="113" t="s">
+        <v>40</v>
+      </c>
+      <c r="C106" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="D106" s="115" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:4" s="3" customFormat="1">
@@ -11439,10 +11451,10 @@
         <v>269</v>
       </c>
       <c r="C107" s="116" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D107" s="117" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:4" s="3" customFormat="1">
@@ -11450,13 +11462,13 @@
         <v>486</v>
       </c>
       <c r="B108" s="145" t="s">
-        <v>256</v>
-      </c>
-      <c r="C108" s="118" t="s">
-        <v>258</v>
+        <v>269</v>
+      </c>
+      <c r="C108" s="116" t="s">
+        <v>264</v>
       </c>
       <c r="D108" s="117" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109" spans="1:4" s="3" customFormat="1">
@@ -11464,13 +11476,13 @@
         <v>486</v>
       </c>
       <c r="B109" s="145" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C109" s="118" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D109" s="117" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110" spans="1:4" s="3" customFormat="1">
@@ -11481,38 +11493,38 @@
         <v>266</v>
       </c>
       <c r="C110" s="118" t="s">
+        <v>265</v>
+      </c>
+      <c r="D110" s="117" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" s="3" customFormat="1">
+      <c r="A111" s="114" t="s">
+        <v>486</v>
+      </c>
+      <c r="B111" s="145" t="s">
+        <v>266</v>
+      </c>
+      <c r="C111" s="118" t="s">
         <v>259</v>
       </c>
-      <c r="D110" s="117" t="s">
+      <c r="D111" s="117" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A111" s="119" t="s">
-        <v>493</v>
-      </c>
-      <c r="B111" s="120" t="s">
-        <v>220</v>
-      </c>
-      <c r="C111" s="121" t="s">
-        <v>485</v>
-      </c>
-      <c r="D111" s="122" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
       <c r="A112" s="119" t="s">
         <v>493</v>
       </c>
-      <c r="B112" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="C112" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D112" s="36" t="s">
-        <v>109</v>
+      <c r="B112" s="120" t="s">
+        <v>220</v>
+      </c>
+      <c r="C112" s="121" t="s">
+        <v>485</v>
+      </c>
+      <c r="D112" s="122" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -11520,13 +11532,13 @@
         <v>493</v>
       </c>
       <c r="B113" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C113" s="36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D113" s="36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -11534,13 +11546,13 @@
         <v>493</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C114" s="36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D114" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -11548,93 +11560,93 @@
         <v>493</v>
       </c>
       <c r="B115" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C115" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D115" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="119" t="s">
+        <v>493</v>
+      </c>
+      <c r="B116" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="C115" s="36" t="s">
+      <c r="C116" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="D115" s="36" t="s">
+      <c r="D116" s="36" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15.75">
-      <c r="A116" s="167" t="s">
+    <row r="117" spans="1:4" ht="15.75">
+      <c r="A117" s="167" t="s">
         <v>497</v>
       </c>
-      <c r="B116" s="167" t="s">
+      <c r="B117" s="167" t="s">
         <v>215</v>
       </c>
-      <c r="C116" s="171" t="s">
+      <c r="C117" s="171" t="s">
         <v>563</v>
       </c>
-      <c r="D116" s="168" t="s">
+      <c r="D117" s="168" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="30">
-      <c r="A117" s="169" t="s">
+    <row r="118" spans="1:4" ht="30">
+      <c r="A118" s="169" t="s">
         <v>497</v>
       </c>
-      <c r="B117" s="169" t="s">
+      <c r="B118" s="169" t="s">
         <v>215</v>
       </c>
-      <c r="C117" s="172" t="s">
+      <c r="C118" s="172" t="s">
         <v>564</v>
       </c>
-      <c r="D117" s="170" t="s">
+      <c r="D118" s="170" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="31.5">
-      <c r="A118" s="169"/>
-      <c r="B118" s="169"/>
-      <c r="C118" s="172" t="s">
+    <row r="119" spans="1:4" ht="31.5">
+      <c r="A119" s="169"/>
+      <c r="B119" s="169"/>
+      <c r="C119" s="172" t="s">
         <v>639</v>
       </c>
-      <c r="D118" s="170" t="s">
+      <c r="D119" s="170" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="31.5">
-      <c r="A119" s="169" t="s">
+    <row r="120" spans="1:4" ht="31.5">
+      <c r="A120" s="169" t="s">
         <v>497</v>
       </c>
-      <c r="B119" s="169" t="s">
+      <c r="B120" s="169" t="s">
         <v>215</v>
       </c>
-      <c r="C119" s="172" t="s">
+      <c r="C120" s="172" t="s">
         <v>608</v>
       </c>
-      <c r="D119" s="170" t="s">
+      <c r="D120" s="170" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="120" spans="1:4" s="3" customFormat="1">
-      <c r="A120" s="152" t="s">
+    <row r="121" spans="1:4" s="3" customFormat="1">
+      <c r="A121" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="B120" s="153" t="s">
+      <c r="B121" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="C120" s="154" t="s">
+      <c r="C121" s="154" t="s">
         <v>244</v>
       </c>
-      <c r="D120" s="155" t="s">
+      <c r="D121" s="155" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B121" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="C121" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="D121" s="61" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -11645,10 +11657,10 @@
         <v>41</v>
       </c>
       <c r="C122" s="61" t="s">
-        <v>275</v>
+        <v>42</v>
       </c>
       <c r="D122" s="61" t="s">
-        <v>274</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -11656,13 +11668,13 @@
         <v>1</v>
       </c>
       <c r="B123" s="71" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C123" s="61" t="s">
-        <v>23</v>
+        <v>275</v>
       </c>
       <c r="D123" s="61" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -11670,13 +11682,13 @@
         <v>1</v>
       </c>
       <c r="B124" s="71" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C124" s="61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D124" s="61" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -11684,13 +11696,13 @@
         <v>1</v>
       </c>
       <c r="B125" s="71" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C125" s="61" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D125" s="61" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -11698,13 +11710,13 @@
         <v>1</v>
       </c>
       <c r="B126" s="71" t="s">
-        <v>298</v>
+        <v>47</v>
       </c>
       <c r="C126" s="61" t="s">
-        <v>294</v>
+        <v>46</v>
       </c>
       <c r="D126" s="61" t="s">
-        <v>299</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -11712,13 +11724,13 @@
         <v>1</v>
       </c>
       <c r="B127" s="71" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C127" s="61" t="s">
-        <v>183</v>
+        <v>294</v>
       </c>
       <c r="D127" s="61" t="s">
-        <v>102</v>
+        <v>299</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -11729,10 +11741,10 @@
         <v>295</v>
       </c>
       <c r="C128" s="61" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="D128" s="61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -11740,13 +11752,13 @@
         <v>1</v>
       </c>
       <c r="B129" s="71" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C129" s="61" t="s">
-        <v>239</v>
+        <v>104</v>
       </c>
       <c r="D129" s="61" t="s">
-        <v>240</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -11754,13 +11766,13 @@
         <v>1</v>
       </c>
       <c r="B130" s="71" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C130" s="61" t="s">
-        <v>587</v>
+        <v>239</v>
       </c>
       <c r="D130" s="61" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -11768,13 +11780,13 @@
         <v>1</v>
       </c>
       <c r="B131" s="71" t="s">
-        <v>87</v>
+        <v>297</v>
       </c>
       <c r="C131" s="61" t="s">
-        <v>85</v>
+        <v>587</v>
       </c>
       <c r="D131" s="61" t="s">
-        <v>86</v>
+        <v>241</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -11782,13 +11794,13 @@
         <v>1</v>
       </c>
       <c r="B132" s="71" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C132" s="61" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D132" s="61" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -11796,13 +11808,13 @@
         <v>1</v>
       </c>
       <c r="B133" s="71" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C133" s="61" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D133" s="61" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -11810,13 +11822,13 @@
         <v>1</v>
       </c>
       <c r="B134" s="71" t="s">
-        <v>280</v>
-      </c>
-      <c r="C134" s="83" t="s">
-        <v>281</v>
-      </c>
-      <c r="D134" s="83" t="s">
-        <v>282</v>
+        <v>49</v>
+      </c>
+      <c r="C134" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D134" s="61" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -11824,13 +11836,13 @@
         <v>1</v>
       </c>
       <c r="B135" s="71" t="s">
-        <v>499</v>
-      </c>
-      <c r="C135" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="D135" s="61" t="s">
-        <v>70</v>
+        <v>280</v>
+      </c>
+      <c r="C135" s="83" t="s">
+        <v>281</v>
+      </c>
+      <c r="D135" s="83" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -11838,13 +11850,13 @@
         <v>1</v>
       </c>
       <c r="B136" s="71" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C136" s="61" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D136" s="61" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -11855,10 +11867,10 @@
         <v>500</v>
       </c>
       <c r="C137" s="61" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="D137" s="61" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -11866,13 +11878,13 @@
         <v>1</v>
       </c>
       <c r="B138" s="71" t="s">
-        <v>76</v>
+        <v>500</v>
       </c>
       <c r="C138" s="61" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="D138" s="61" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -11883,10 +11895,10 @@
         <v>76</v>
       </c>
       <c r="C139" s="61" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="D139" s="61" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -11897,10 +11909,10 @@
         <v>76</v>
       </c>
       <c r="C140" s="61" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D140" s="61" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -11910,11 +11922,11 @@
       <c r="B141" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="C141" s="84" t="s">
-        <v>562</v>
+      <c r="C141" s="61" t="s">
+        <v>169</v>
       </c>
       <c r="D141" s="61" t="s">
-        <v>238</v>
+        <v>168</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -11922,13 +11934,13 @@
         <v>1</v>
       </c>
       <c r="B142" s="71" t="s">
-        <v>170</v>
-      </c>
-      <c r="C142" s="61" t="s">
-        <v>172</v>
+        <v>76</v>
+      </c>
+      <c r="C142" s="84" t="s">
+        <v>562</v>
       </c>
       <c r="D142" s="61" t="s">
-        <v>171</v>
+        <v>238</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -11936,13 +11948,13 @@
         <v>1</v>
       </c>
       <c r="B143" s="71" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C143" s="61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D143" s="61" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -11950,13 +11962,13 @@
         <v>1</v>
       </c>
       <c r="B144" s="71" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="C144" s="61" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="D144" s="61" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -11964,13 +11976,13 @@
         <v>1</v>
       </c>
       <c r="B145" s="71" t="s">
-        <v>227</v>
-      </c>
-      <c r="C145" s="85" t="s">
-        <v>228</v>
+        <v>218</v>
+      </c>
+      <c r="C145" s="61" t="s">
+        <v>217</v>
       </c>
       <c r="D145" s="61" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -11978,13 +11990,13 @@
         <v>1</v>
       </c>
       <c r="B146" s="71" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C146" s="85" t="s">
-        <v>365</v>
+        <v>228</v>
       </c>
       <c r="D146" s="61" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -11992,13 +12004,13 @@
         <v>1</v>
       </c>
       <c r="B147" s="71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C147" s="85" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D147" s="61" t="s">
-        <v>364</v>
+        <v>234</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -12009,24 +12021,24 @@
         <v>235</v>
       </c>
       <c r="C148" s="85" t="s">
+        <v>363</v>
+      </c>
+      <c r="D148" s="61" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" s="71" t="s">
+        <v>235</v>
+      </c>
+      <c r="C149" s="85" t="s">
         <v>236</v>
       </c>
-      <c r="D148" s="61" t="s">
+      <c r="D149" s="61" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B149" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="C149" s="81" t="s">
-        <v>107</v>
-      </c>
-      <c r="D149" s="81" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -12034,13 +12046,13 @@
         <v>80</v>
       </c>
       <c r="B150" s="82" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="C150" s="81" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D150" s="81" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -12048,13 +12060,13 @@
         <v>80</v>
       </c>
       <c r="B151" s="82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C151" s="81" t="s">
-        <v>288</v>
+        <v>99</v>
       </c>
       <c r="D151" s="81" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -12062,13 +12074,13 @@
         <v>80</v>
       </c>
       <c r="B152" s="82" t="s">
-        <v>421</v>
+        <v>182</v>
       </c>
       <c r="C152" s="81" t="s">
-        <v>422</v>
+        <v>288</v>
       </c>
       <c r="D152" s="81" t="s">
-        <v>420</v>
+        <v>180</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -12076,13 +12088,13 @@
         <v>80</v>
       </c>
       <c r="B153" s="82" t="s">
-        <v>199</v>
+        <v>421</v>
       </c>
       <c r="C153" s="81" t="s">
-        <v>198</v>
+        <v>422</v>
       </c>
       <c r="D153" s="81" t="s">
-        <v>200</v>
+        <v>420</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -12093,10 +12105,10 @@
         <v>199</v>
       </c>
       <c r="C154" s="81" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D154" s="81" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -12107,10 +12119,10 @@
         <v>199</v>
       </c>
       <c r="C155" s="81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D155" s="81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -12118,16 +12130,16 @@
         <v>80</v>
       </c>
       <c r="B156" s="82" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C156" s="81" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D156" s="81" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="15.75">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="80" t="s">
         <v>80</v>
       </c>
@@ -12135,52 +12147,52 @@
         <v>205</v>
       </c>
       <c r="C157" s="81" t="s">
-        <v>576</v>
-      </c>
-      <c r="D157" s="177" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>197</v>
+      </c>
+      <c r="D157" s="81" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15.75">
       <c r="A158" s="80" t="s">
         <v>80</v>
       </c>
       <c r="B158" s="82" t="s">
-        <v>580</v>
+        <v>205</v>
       </c>
       <c r="C158" s="81" t="s">
-        <v>578</v>
-      </c>
-      <c r="D158" s="178" t="s">
-        <v>579</v>
+        <v>576</v>
+      </c>
+      <c r="D158" s="177" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="B159" s="130" t="s">
+      <c r="B159" s="82" t="s">
+        <v>580</v>
+      </c>
+      <c r="C159" s="81" t="s">
+        <v>578</v>
+      </c>
+      <c r="D159" s="178" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B160" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="C159" s="131" t="s">
+      <c r="C160" s="131" t="s">
         <v>207</v>
       </c>
-      <c r="D159" s="131" t="s">
+      <c r="D160" s="131" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B160" s="70" t="s">
-        <v>506</v>
-      </c>
-      <c r="C160" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="D160" s="69" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -12191,10 +12203,10 @@
         <v>506</v>
       </c>
       <c r="C161" s="69" t="s">
-        <v>509</v>
+        <v>66</v>
       </c>
       <c r="D161" s="69" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -12205,10 +12217,10 @@
         <v>506</v>
       </c>
       <c r="C162" s="69" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="D162" s="69" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -12216,13 +12228,13 @@
         <v>8</v>
       </c>
       <c r="B163" s="70" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C163" s="69" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D163" s="69" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -12230,13 +12242,13 @@
         <v>8</v>
       </c>
       <c r="B164" s="70" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="C164" s="69" t="s">
-        <v>287</v>
+        <v>510</v>
       </c>
       <c r="D164" s="69" t="s">
-        <v>443</v>
+        <v>511</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -12247,10 +12259,10 @@
         <v>447</v>
       </c>
       <c r="C165" s="69" t="s">
-        <v>448</v>
+        <v>287</v>
       </c>
       <c r="D165" s="69" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -12258,13 +12270,13 @@
         <v>8</v>
       </c>
       <c r="B166" s="70" t="s">
-        <v>289</v>
+        <v>447</v>
       </c>
       <c r="C166" s="69" t="s">
-        <v>290</v>
+        <v>448</v>
       </c>
       <c r="D166" s="69" t="s">
-        <v>291</v>
+        <v>446</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -12272,13 +12284,13 @@
         <v>8</v>
       </c>
       <c r="B167" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C167" s="68" t="s">
-        <v>9</v>
+        <v>289</v>
+      </c>
+      <c r="C167" s="69" t="s">
+        <v>290</v>
       </c>
       <c r="D167" s="69" t="s">
-        <v>11</v>
+        <v>291</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -12289,10 +12301,10 @@
         <v>8</v>
       </c>
       <c r="C168" s="68" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D168" s="69" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -12303,10 +12315,10 @@
         <v>8</v>
       </c>
       <c r="C169" s="68" t="s">
-        <v>390</v>
+        <v>20</v>
       </c>
       <c r="D169" s="69" t="s">
-        <v>391</v>
+        <v>65</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -12317,10 +12329,10 @@
         <v>8</v>
       </c>
       <c r="C170" s="68" t="s">
-        <v>9</v>
+        <v>390</v>
       </c>
       <c r="D170" s="69" t="s">
-        <v>11</v>
+        <v>391</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -12331,10 +12343,10 @@
         <v>8</v>
       </c>
       <c r="C171" s="68" t="s">
-        <v>359</v>
+        <v>9</v>
       </c>
       <c r="D171" s="69" t="s">
-        <v>360</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -12345,10 +12357,10 @@
         <v>8</v>
       </c>
       <c r="C172" s="68" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D172" s="69" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -12356,13 +12368,13 @@
         <v>8</v>
       </c>
       <c r="B173" s="70" t="s">
-        <v>438</v>
+        <v>8</v>
       </c>
       <c r="C173" s="68" t="s">
         <v>361</v>
       </c>
       <c r="D173" s="69" t="s">
-        <v>437</v>
+        <v>362</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -12376,38 +12388,38 @@
         <v>361</v>
       </c>
       <c r="D174" s="69" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" s="70" t="s">
+        <v>438</v>
+      </c>
+      <c r="C175" s="68" t="s">
+        <v>361</v>
+      </c>
+      <c r="D175" s="69" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="71" t="s">
-        <v>327</v>
-      </c>
-      <c r="B175" s="60" t="s">
-        <v>501</v>
-      </c>
-      <c r="C175" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="D175" s="61" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1">
+    <row r="176" spans="1:4">
       <c r="A176" s="71" t="s">
         <v>327</v>
       </c>
-      <c r="B176" s="129" t="s">
-        <v>432</v>
-      </c>
-      <c r="C176" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="D176" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" s="3" customFormat="1" ht="30">
+      <c r="B176" s="60" t="s">
+        <v>501</v>
+      </c>
+      <c r="C176" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="D176" s="61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1">
       <c r="A177" s="71" t="s">
         <v>327</v>
       </c>
@@ -12415,24 +12427,24 @@
         <v>432</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A178" s="72" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" s="3" customFormat="1" ht="30">
+      <c r="A178" s="71" t="s">
         <v>327</v>
       </c>
       <c r="B178" s="129" t="s">
         <v>432</v>
       </c>
-      <c r="C178" s="62" t="s">
-        <v>349</v>
+      <c r="C178" s="12" t="s">
+        <v>444</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
     </row>
     <row r="179" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
@@ -12443,38 +12455,38 @@
         <v>432</v>
       </c>
       <c r="C179" s="62" t="s">
-        <v>424</v>
+        <v>349</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" s="3" customFormat="1" ht="76.5" customHeight="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
       <c r="A180" s="72" t="s">
         <v>327</v>
       </c>
       <c r="B180" s="129" t="s">
-        <v>502</v>
-      </c>
-      <c r="C180" s="12" t="s">
-        <v>330</v>
+        <v>432</v>
+      </c>
+      <c r="C180" s="62" t="s">
+        <v>424</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" s="3" customFormat="1" ht="76.5" customHeight="1">
       <c r="A181" s="72" t="s">
         <v>327</v>
       </c>
       <c r="B181" s="129" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>431</v>
+        <v>329</v>
       </c>
     </row>
     <row r="182" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
@@ -12482,55 +12494,55 @@
         <v>327</v>
       </c>
       <c r="B182" s="129" t="s">
+        <v>503</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D182" s="12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A183" s="72" t="s">
+        <v>327</v>
+      </c>
+      <c r="B183" s="129" t="s">
         <v>426</v>
       </c>
-      <c r="C182" s="12" t="s">
+      <c r="C183" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="D182" s="12" t="s">
+      <c r="D183" s="12" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="B183" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="C183" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="D183" s="11" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
+    <row r="184" spans="1:4">
       <c r="A184" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="B184" s="63" t="s">
+      <c r="B184" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="C184" s="64" t="s">
-        <v>428</v>
-      </c>
-      <c r="D184" s="65" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+      <c r="C184" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D184" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
       <c r="A185" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="B185" s="10" t="s">
+      <c r="B185" s="63" t="s">
         <v>318</v>
       </c>
-      <c r="C185" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="D185" s="11" t="s">
-        <v>320</v>
+      <c r="C185" s="64" t="s">
+        <v>428</v>
+      </c>
+      <c r="D185" s="65" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -12541,52 +12553,52 @@
         <v>318</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" s="4" customFormat="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="B187" s="73" t="s">
+      <c r="B187" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D187" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" s="4" customFormat="1">
+      <c r="A188" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" s="73" t="s">
         <v>313</v>
       </c>
-      <c r="C187" s="65" t="s">
+      <c r="C188" s="65" t="s">
         <v>312</v>
       </c>
-      <c r="D187" s="65" t="s">
+      <c r="D188" s="65" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="75" t="s">
+    <row r="189" spans="1:4">
+      <c r="A189" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="B188" s="10" t="s">
+      <c r="B189" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C188" s="11" t="s">
+      <c r="C189" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="D188" s="65" t="s">
+      <c r="D189" s="65" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="113" t="s">
-        <v>191</v>
-      </c>
-      <c r="B189" s="113" t="s">
-        <v>189</v>
-      </c>
-      <c r="C189" s="115" t="s">
-        <v>193</v>
-      </c>
-      <c r="D189" s="115" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -12597,38 +12609,38 @@
         <v>189</v>
       </c>
       <c r="C190" s="115" t="s">
+        <v>193</v>
+      </c>
+      <c r="D190" s="115" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="113" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191" s="113" t="s">
+        <v>189</v>
+      </c>
+      <c r="C191" s="115" t="s">
         <v>195</v>
       </c>
-      <c r="D190" s="115" t="s">
+      <c r="D191" s="115" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="191" spans="1:4" s="3" customFormat="1">
-      <c r="A191" s="132" t="s">
-        <v>250</v>
-      </c>
-      <c r="B191" s="157" t="s">
-        <v>252</v>
-      </c>
-      <c r="C191" s="133" t="s">
-        <v>253</v>
-      </c>
-      <c r="D191" s="134" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" s="86" customFormat="1">
+    <row r="192" spans="1:4" s="3" customFormat="1">
       <c r="A192" s="132" t="s">
         <v>250</v>
       </c>
       <c r="B192" s="157" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="C192" s="133" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="D192" s="134" t="s">
-        <v>308</v>
+        <v>251</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="86" customFormat="1">
@@ -12636,69 +12648,69 @@
         <v>250</v>
       </c>
       <c r="B193" s="157" t="s">
+        <v>293</v>
+      </c>
+      <c r="C193" s="133" t="s">
+        <v>292</v>
+      </c>
+      <c r="D193" s="134" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" s="86" customFormat="1">
+      <c r="A194" s="132" t="s">
+        <v>250</v>
+      </c>
+      <c r="B194" s="157" t="s">
         <v>286</v>
       </c>
-      <c r="C193" s="133" t="s">
+      <c r="C194" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="D193" s="134" t="s">
+      <c r="D194" s="134" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="194" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A194" s="135" t="s">
+    <row r="195" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A195" s="135" t="s">
         <v>250</v>
       </c>
-      <c r="B194" s="157" t="s">
+      <c r="B195" s="157" t="s">
         <v>463</v>
       </c>
-      <c r="C194" s="136" t="s">
+      <c r="C195" s="136" t="s">
         <v>376</v>
       </c>
-      <c r="D194" s="137" t="s">
+      <c r="D195" s="137" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="195" spans="1:4" s="38" customFormat="1" ht="144.75" customHeight="1">
-      <c r="A195" s="138" t="s">
+    <row r="196" spans="1:4" s="38" customFormat="1" ht="144.75" customHeight="1">
+      <c r="A196" s="138" t="s">
         <v>250</v>
       </c>
-      <c r="B195" s="158" t="s">
+      <c r="B196" s="158" t="s">
         <v>504</v>
       </c>
-      <c r="C195" s="136" t="s">
+      <c r="C196" s="136" t="s">
         <v>488</v>
       </c>
-      <c r="D195" s="137" t="s">
+      <c r="D196" s="137" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="159" t="s">
+    <row r="197" spans="1:4">
+      <c r="A197" s="159" t="s">
         <v>250</v>
       </c>
-      <c r="B196" s="160" t="s">
+      <c r="B197" s="160" t="s">
         <v>512</v>
       </c>
-      <c r="C196" s="161" t="s">
+      <c r="C197" s="161" t="s">
         <v>514</v>
       </c>
-      <c r="D196" s="161" t="s">
+      <c r="D197" s="161" t="s">
         <v>511</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A197" s="138" t="s">
-        <v>250</v>
-      </c>
-      <c r="B197" s="158" t="s">
-        <v>435</v>
-      </c>
-      <c r="C197" s="139" t="s">
-        <v>458</v>
-      </c>
-      <c r="D197" s="137" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="198" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
@@ -12709,7 +12721,7 @@
         <v>435</v>
       </c>
       <c r="C198" s="139" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D198" s="137" t="s">
         <v>433</v>
@@ -12720,55 +12732,55 @@
         <v>250</v>
       </c>
       <c r="B199" s="158" t="s">
-        <v>436</v>
-      </c>
-      <c r="C199" s="140" t="s">
-        <v>441</v>
+        <v>435</v>
+      </c>
+      <c r="C199" s="139" t="s">
+        <v>459</v>
       </c>
       <c r="D199" s="137" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
       <c r="A200" s="138" t="s">
         <v>250</v>
       </c>
       <c r="B200" s="158" t="s">
-        <v>242</v>
-      </c>
-      <c r="C200" s="136" t="s">
-        <v>457</v>
+        <v>436</v>
+      </c>
+      <c r="C200" s="140" t="s">
+        <v>441</v>
       </c>
       <c r="D200" s="137" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1">
       <c r="A201" s="138" t="s">
         <v>250</v>
       </c>
       <c r="B201" s="158" t="s">
-        <v>440</v>
+        <v>242</v>
       </c>
       <c r="C201" s="136" t="s">
-        <v>517</v>
+        <v>457</v>
       </c>
       <c r="D201" s="137" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
       <c r="A202" s="138" t="s">
         <v>250</v>
       </c>
       <c r="B202" s="158" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="C202" s="136" t="s">
-        <v>456</v>
+        <v>517</v>
       </c>
       <c r="D202" s="137" t="s">
-        <v>523</v>
+        <v>451</v>
       </c>
     </row>
     <row r="203" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
@@ -12776,13 +12788,13 @@
         <v>250</v>
       </c>
       <c r="B203" s="158" t="s">
-        <v>522</v>
+        <v>455</v>
       </c>
       <c r="C203" s="136" t="s">
-        <v>521</v>
+        <v>456</v>
       </c>
       <c r="D203" s="137" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="204" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
@@ -12790,41 +12802,41 @@
         <v>250</v>
       </c>
       <c r="B204" s="158" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C204" s="136" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D204" s="137" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
       <c r="A205" s="138" t="s">
         <v>250</v>
       </c>
       <c r="B205" s="158" t="s">
+        <v>520</v>
+      </c>
+      <c r="C205" s="136" t="s">
+        <v>519</v>
+      </c>
+      <c r="D205" s="137" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A206" s="138" t="s">
+        <v>250</v>
+      </c>
+      <c r="B206" s="158" t="s">
         <v>454</v>
       </c>
-      <c r="C205" s="136" t="s">
+      <c r="C206" s="136" t="s">
         <v>452</v>
       </c>
-      <c r="D205" s="137" t="s">
+      <c r="D206" s="137" t="s">
         <v>453</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="123" t="s">
-        <v>222</v>
-      </c>
-      <c r="B206" s="123" t="s">
-        <v>223</v>
-      </c>
-      <c r="C206" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="D206" s="36" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -12835,10 +12847,10 @@
         <v>223</v>
       </c>
       <c r="C207" s="36" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="D207" s="36" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -12848,11 +12860,11 @@
       <c r="B208" s="123" t="s">
         <v>223</v>
       </c>
-      <c r="C208" s="156" t="s">
-        <v>633</v>
+      <c r="C208" s="36" t="s">
+        <v>225</v>
       </c>
       <c r="D208" s="36" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -12863,10 +12875,10 @@
         <v>223</v>
       </c>
       <c r="C209" s="156" t="s">
-        <v>306</v>
+        <v>633</v>
       </c>
       <c r="D209" s="36" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -12874,16 +12886,19 @@
         <v>222</v>
       </c>
       <c r="B210" s="123" t="s">
-        <v>626</v>
-      </c>
-      <c r="C210" s="180" t="s">
-        <v>304</v>
+        <v>223</v>
+      </c>
+      <c r="C210" s="156" t="s">
+        <v>306</v>
       </c>
       <c r="D210" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="211" spans="1:4">
+      <c r="A211" s="123" t="s">
+        <v>222</v>
+      </c>
       <c r="B211" s="123" t="s">
         <v>626</v>
       </c>
@@ -12891,21 +12906,18 @@
         <v>304</v>
       </c>
       <c r="D211" s="36" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="212" spans="1:4">
-      <c r="A212" s="123" t="s">
-        <v>222</v>
-      </c>
       <c r="B212" s="123" t="s">
         <v>626</v>
       </c>
       <c r="C212" s="180" t="s">
-        <v>634</v>
+        <v>304</v>
       </c>
       <c r="D212" s="36" t="s">
-        <v>635</v>
+        <v>305</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -12913,13 +12925,13 @@
         <v>222</v>
       </c>
       <c r="B213" s="123" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C213" s="180" t="s">
-        <v>307</v>
+        <v>634</v>
       </c>
       <c r="D213" s="36" t="s">
-        <v>301</v>
+        <v>635</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -12927,41 +12939,41 @@
         <v>222</v>
       </c>
       <c r="B214" s="123" t="s">
+        <v>628</v>
+      </c>
+      <c r="C214" s="180" t="s">
+        <v>307</v>
+      </c>
+      <c r="D214" s="36" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="123" t="s">
+        <v>222</v>
+      </c>
+      <c r="B215" s="123" t="s">
         <v>629</v>
       </c>
-      <c r="C214" s="181" t="s">
+      <c r="C215" s="181" t="s">
         <v>393</v>
       </c>
-      <c r="D214" s="36" t="s">
+      <c r="D215" s="36" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="215" spans="1:4" s="179" customFormat="1" ht="15.75">
-      <c r="A215" s="182" t="s">
-        <v>222</v>
-      </c>
-      <c r="B215" s="182" t="s">
-        <v>629</v>
-      </c>
-      <c r="C215" s="183" t="s">
-        <v>583</v>
-      </c>
-      <c r="D215" s="184" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" s="179" customFormat="1" ht="15.75">
       <c r="A216" s="182" t="s">
         <v>222</v>
       </c>
       <c r="B216" s="182" t="s">
-        <v>630</v>
-      </c>
-      <c r="C216" s="185" t="s">
-        <v>584</v>
-      </c>
-      <c r="D216" s="186" t="s">
-        <v>632</v>
+        <v>629</v>
+      </c>
+      <c r="C216" s="183" t="s">
+        <v>583</v>
+      </c>
+      <c r="D216" s="184" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -12969,13 +12981,13 @@
         <v>222</v>
       </c>
       <c r="B217" s="182" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C217" s="185" t="s">
-        <v>621</v>
+        <v>584</v>
       </c>
       <c r="D217" s="186" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -12986,10 +12998,10 @@
         <v>631</v>
       </c>
       <c r="C218" s="185" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D218" s="186" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -13000,10 +13012,10 @@
         <v>631</v>
       </c>
       <c r="C219" s="185" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D219" s="186" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -13014,10 +13026,10 @@
         <v>631</v>
       </c>
       <c r="C220" s="185" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D220" s="186" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -13028,10 +13040,10 @@
         <v>631</v>
       </c>
       <c r="C221" s="185" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D221" s="186" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -13039,17 +13051,31 @@
         <v>222</v>
       </c>
       <c r="B222" s="182" t="s">
+        <v>631</v>
+      </c>
+      <c r="C222" s="185" t="s">
+        <v>625</v>
+      </c>
+      <c r="D222" s="186" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223" s="182" t="s">
         <v>223</v>
       </c>
-      <c r="C222" s="185" t="s">
+      <c r="C223" s="185" t="s">
         <v>585</v>
       </c>
-      <c r="D222" s="186" t="s">
+      <c r="D223" s="186" t="s">
         <v>586</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D213" xr:uid="{85ED3410-72EE-453D-8BB3-FB7E07F682B1}"/>
+  <autoFilter ref="A2:D214" xr:uid="{85ED3410-72EE-453D-8BB3-FB7E07F682B1}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -13078,13 +13104,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="200" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="201"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="202"/>
     </row>
     <row r="2" spans="1:5" ht="207" customHeight="1">
       <c r="A2" s="43" t="s">
@@ -13331,22 +13357,22 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="408.95" customHeight="1">
-      <c r="A19" s="210" t="s">
+      <c r="A19" s="211" t="s">
         <v>222</v>
       </c>
-      <c r="B19" s="208" t="s">
+      <c r="B19" s="209" t="s">
         <v>592</v>
       </c>
-      <c r="C19" s="202"/>
-      <c r="D19" s="204"/>
-      <c r="E19" s="206"/>
+      <c r="C19" s="203"/>
+      <c r="D19" s="205"/>
+      <c r="E19" s="207"/>
     </row>
     <row r="20" spans="1:5" ht="351.75" customHeight="1">
-      <c r="A20" s="209"/>
-      <c r="B20" s="209"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="205"/>
-      <c r="E20" s="207"/>
+      <c r="A20" s="210"/>
+      <c r="B20" s="210"/>
+      <c r="C20" s="204"/>
+      <c r="D20" s="206"/>
+      <c r="E20" s="208"/>
     </row>
     <row r="21" spans="1:5" s="193" customFormat="1" ht="158.25" customHeight="1">
       <c r="A21" s="189" t="s">
@@ -14468,11 +14494,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="16" t="s">

--- a/Tutoriales/pandas/Comandos Pandas.xlsx
+++ b/Tutoriales/pandas/Comandos Pandas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseMaría\Documents\CURSOS\data_science\mitrabajo\mi_repositorio\Tutoriales\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297C0154-DC18-4690-B694-71AD3C30DDE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2F665C-E0E6-4DFA-A935-6CE07B4D8E91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF4018AA-EEB9-4756-B82D-183D37B3B80A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="CONCEPTOS" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GENERALES!$A$2:$D$214</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GENERALES!$A$2:$D$216</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="650">
   <si>
     <t>FUNCIONES DE PANDAS</t>
   </si>
@@ -6497,6 +6497,37 @@
   </si>
   <si>
     <t>Cambia el nombre de las columnas que yo elija</t>
+  </si>
+  <si>
+    <t>resident_age1.reindex([0,9,1,2,3,4,5,6,7,8,10,11,12,13,14,15,16,17,18,19,20])</t>
+  </si>
+  <si>
+    <t>He cambiado la posición de la fila que estaba en 9 a la segunda posicion</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gasto_vacunas_def</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>["Total empadronados CAM"]=x</t>
+    </r>
+  </si>
+  <si>
+    <t>Añado a la tabla gasto vacunas una columna total empadronados con los valores de una lista (de otra tabla) comprendida en la variable x</t>
   </si>
 </sst>
 </file>
@@ -7601,6 +7632,12 @@
     <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7641,12 +7678,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9953,10 +9984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265136A6-C067-4B28-9F45-A6266FF6FD67}">
-  <dimension ref="A1:D223"/>
+  <dimension ref="A1:D225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD56"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9968,12 +9999,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="102" t="s">
@@ -10687,32 +10718,32 @@
         <v>570</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="3" customFormat="1">
-      <c r="A53" s="7" t="s">
+    <row r="53" spans="1:4" s="4" customFormat="1" ht="30">
+      <c r="A53" s="142" t="s">
+        <v>489</v>
+      </c>
+      <c r="B53" s="72" t="s">
+        <v>270</v>
+      </c>
+      <c r="C53" s="143" t="s">
+        <v>648</v>
+      </c>
+      <c r="D53" s="144" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="3" customFormat="1">
+      <c r="A54" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B54" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C53" s="151" t="s">
+      <c r="C54" s="151" t="s">
         <v>244</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D54" s="12" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="60" t="s">
-        <v>492</v>
-      </c>
-      <c r="B54" s="71" t="s">
-        <v>343</v>
-      </c>
-      <c r="C54" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="D54" s="61" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -10720,55 +10751,55 @@
         <v>492</v>
       </c>
       <c r="B55" s="71" t="s">
+        <v>343</v>
+      </c>
+      <c r="C55" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="61" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="60" t="s">
+        <v>492</v>
+      </c>
+      <c r="B56" s="71" t="s">
         <v>347</v>
       </c>
-      <c r="C55" s="61" t="s">
+      <c r="C56" s="61" t="s">
         <v>346</v>
       </c>
-      <c r="D55" s="61" t="s">
+      <c r="D56" s="61" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="4" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A56" s="141" t="s">
+    <row r="57" spans="1:4" s="4" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A57" s="141" t="s">
         <v>492</v>
       </c>
-      <c r="B56" s="214" t="s">
+      <c r="B57" s="199" t="s">
         <v>347</v>
       </c>
-      <c r="C56" s="188" t="s">
+      <c r="C57" s="188" t="s">
         <v>644</v>
       </c>
-      <c r="D56" s="213" t="s">
+      <c r="D57" s="198" t="s">
         <v>645</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="71" t="s">
-        <v>480</v>
-      </c>
-      <c r="C57" s="61" t="s">
-        <v>377</v>
-      </c>
-      <c r="D57" s="61" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="60" t="s">
-        <v>478</v>
+        <v>39</v>
       </c>
       <c r="B58" s="71" t="s">
-        <v>475</v>
-      </c>
-      <c r="C58" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" s="103" t="s">
-        <v>68</v>
+        <v>480</v>
+      </c>
+      <c r="C58" s="61" t="s">
+        <v>377</v>
+      </c>
+      <c r="D58" s="61" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -10776,13 +10807,13 @@
         <v>478</v>
       </c>
       <c r="B59" s="71" t="s">
-        <v>6</v>
+        <v>475</v>
       </c>
       <c r="C59" s="85" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="D59" s="103" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -10793,10 +10824,10 @@
         <v>6</v>
       </c>
       <c r="C60" s="85" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D60" s="103" t="s">
-        <v>477</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -10807,10 +10838,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="85" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D61" s="103" t="s">
-        <v>134</v>
+        <v>477</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -10821,10 +10852,10 @@
         <v>6</v>
       </c>
       <c r="C62" s="85" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D62" s="103" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -10835,10 +10866,10 @@
         <v>6</v>
       </c>
       <c r="C63" s="85" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D63" s="103" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -10849,10 +10880,10 @@
         <v>6</v>
       </c>
       <c r="C64" s="85" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D64" s="103" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -10860,13 +10891,13 @@
         <v>478</v>
       </c>
       <c r="B65" s="71" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C65" s="85" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="D65" s="103" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -10877,10 +10908,10 @@
         <v>114</v>
       </c>
       <c r="C66" s="85" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D66" s="103" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -10891,10 +10922,10 @@
         <v>114</v>
       </c>
       <c r="C67" s="85" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D67" s="103" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -10905,10 +10936,10 @@
         <v>114</v>
       </c>
       <c r="C68" s="85" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D68" s="103" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -10919,10 +10950,10 @@
         <v>114</v>
       </c>
       <c r="C69" s="85" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D69" s="103" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -10933,10 +10964,10 @@
         <v>114</v>
       </c>
       <c r="C70" s="85" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D70" s="103" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -10947,10 +10978,10 @@
         <v>114</v>
       </c>
       <c r="C71" s="85" t="s">
-        <v>637</v>
+        <v>142</v>
       </c>
       <c r="D71" s="103" t="s">
-        <v>638</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -10961,24 +10992,24 @@
         <v>114</v>
       </c>
       <c r="C72" s="85" t="s">
+        <v>637</v>
+      </c>
+      <c r="D72" s="103" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="60" t="s">
+        <v>478</v>
+      </c>
+      <c r="B73" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="D72" s="108" t="s">
+      <c r="D73" s="108" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="104" t="s">
-        <v>472</v>
-      </c>
-      <c r="B73" s="109" t="s">
-        <v>479</v>
-      </c>
-      <c r="C73" s="105" t="s">
-        <v>154</v>
-      </c>
-      <c r="D73" s="106" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -10989,10 +11020,10 @@
         <v>479</v>
       </c>
       <c r="C74" s="105" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D74" s="106" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -11003,10 +11034,10 @@
         <v>479</v>
       </c>
       <c r="C75" s="105" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D75" s="106" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -11016,11 +11047,11 @@
       <c r="B76" s="109" t="s">
         <v>479</v>
       </c>
-      <c r="C76" s="146" t="s">
-        <v>94</v>
-      </c>
-      <c r="D76" s="146" t="s">
-        <v>95</v>
+      <c r="C76" s="105" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76" s="106" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -11028,13 +11059,13 @@
         <v>472</v>
       </c>
       <c r="B77" s="109" t="s">
-        <v>184</v>
-      </c>
-      <c r="C77" s="105" t="s">
-        <v>185</v>
-      </c>
-      <c r="D77" s="106" t="s">
-        <v>186</v>
+        <v>479</v>
+      </c>
+      <c r="C77" s="146" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" s="146" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -11042,13 +11073,13 @@
         <v>472</v>
       </c>
       <c r="B78" s="109" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="C78" s="105" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="D78" s="106" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -11059,10 +11090,10 @@
         <v>114</v>
       </c>
       <c r="C79" s="105" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D79" s="106" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -11070,13 +11101,13 @@
         <v>472</v>
       </c>
       <c r="B80" s="109" t="s">
-        <v>490</v>
-      </c>
-      <c r="C80" s="146" t="s">
-        <v>96</v>
-      </c>
-      <c r="D80" s="146" t="s">
-        <v>97</v>
+        <v>114</v>
+      </c>
+      <c r="C80" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80" s="106" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -11084,27 +11115,27 @@
         <v>472</v>
       </c>
       <c r="B81" s="109" t="s">
+        <v>490</v>
+      </c>
+      <c r="C81" s="146" t="s">
+        <v>96</v>
+      </c>
+      <c r="D81" s="146" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="104" t="s">
+        <v>472</v>
+      </c>
+      <c r="B82" s="109" t="s">
         <v>491</v>
       </c>
-      <c r="C81" s="146" t="s">
+      <c r="C82" s="146" t="s">
         <v>247</v>
       </c>
-      <c r="D81" s="146" t="s">
+      <c r="D82" s="146" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="79" t="s">
-        <v>484</v>
-      </c>
-      <c r="B82" s="76" t="s">
-        <v>71</v>
-      </c>
-      <c r="C82" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="D82" s="77" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -11112,55 +11143,55 @@
         <v>484</v>
       </c>
       <c r="B83" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="C83" s="78" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+      <c r="C83" s="77" t="s">
+        <v>83</v>
       </c>
       <c r="D83" s="77" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="79" t="s">
+        <v>484</v>
+      </c>
+      <c r="B84" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="D84" s="77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="79" t="s">
         <v>483</v>
       </c>
-      <c r="B84" s="76" t="s">
+      <c r="B85" s="76" t="s">
         <v>386</v>
       </c>
-      <c r="C84" s="77" t="s">
+      <c r="C85" s="77" t="s">
         <v>385</v>
       </c>
-      <c r="D84" s="77" t="s">
+      <c r="D85" s="77" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="4" customFormat="1" ht="30">
-      <c r="A85" s="124" t="s">
+    <row r="86" spans="1:4" s="4" customFormat="1" ht="30">
+      <c r="A86" s="124" t="s">
         <v>483</v>
       </c>
-      <c r="B85" s="125" t="s">
+      <c r="B86" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="C85" s="126" t="s">
+      <c r="C86" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="D85" s="126" t="s">
+      <c r="D86" s="126" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="79" t="s">
-        <v>481</v>
-      </c>
-      <c r="B86" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="C86" s="77" t="s">
-        <v>539</v>
-      </c>
-      <c r="D86" s="77" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -11168,13 +11199,13 @@
         <v>481</v>
       </c>
       <c r="B87" s="76" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="C87" s="77" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D87" s="77" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -11185,80 +11216,80 @@
         <v>26</v>
       </c>
       <c r="C88" s="77" t="s">
-        <v>120</v>
+        <v>540</v>
       </c>
       <c r="D88" s="77" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="79" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B89" s="76" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C89" s="77" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="D89" s="77" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="79" t="s">
-        <v>612</v>
-      </c>
-      <c r="B90" s="79" t="s">
-        <v>613</v>
+        <v>482</v>
+      </c>
+      <c r="B90" s="76" t="s">
+        <v>53</v>
       </c>
       <c r="C90" s="77" t="s">
-        <v>615</v>
+        <v>52</v>
       </c>
       <c r="D90" s="77" t="s">
-        <v>614</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="79" t="s">
-        <v>487</v>
-      </c>
-      <c r="B91" s="76" t="s">
-        <v>122</v>
+        <v>612</v>
+      </c>
+      <c r="B91" s="79" t="s">
+        <v>613</v>
       </c>
       <c r="C91" s="77" t="s">
-        <v>601</v>
-      </c>
-      <c r="D91" s="128" t="s">
-        <v>602</v>
+        <v>615</v>
+      </c>
+      <c r="D91" s="77" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="79" t="s">
-        <v>249</v>
+        <v>487</v>
       </c>
       <c r="B92" s="76" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C92" s="77" t="s">
-        <v>246</v>
-      </c>
-      <c r="D92" s="77" t="s">
-        <v>229</v>
+        <v>601</v>
+      </c>
+      <c r="D92" s="128" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="79" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="B93" s="76" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="D93" s="77" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -11266,13 +11297,13 @@
         <v>210</v>
       </c>
       <c r="B94" s="76" t="s">
-        <v>212</v>
-      </c>
-      <c r="C94" s="78" t="s">
-        <v>525</v>
+        <v>209</v>
+      </c>
+      <c r="C94" s="77" t="s">
+        <v>211</v>
       </c>
       <c r="D94" s="77" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -11280,13 +11311,13 @@
         <v>210</v>
       </c>
       <c r="B95" s="76" t="s">
-        <v>232</v>
-      </c>
-      <c r="C95" s="77" t="s">
-        <v>245</v>
+        <v>212</v>
+      </c>
+      <c r="C95" s="78" t="s">
+        <v>525</v>
       </c>
       <c r="D95" s="77" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -11294,13 +11325,13 @@
         <v>210</v>
       </c>
       <c r="B96" s="76" t="s">
-        <v>528</v>
+        <v>232</v>
       </c>
       <c r="C96" s="77" t="s">
-        <v>526</v>
+        <v>245</v>
       </c>
       <c r="D96" s="77" t="s">
-        <v>527</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -11308,13 +11339,13 @@
         <v>210</v>
       </c>
       <c r="B97" s="76" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C97" s="77" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D97" s="77" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -11322,13 +11353,13 @@
         <v>210</v>
       </c>
       <c r="B98" s="76" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C98" s="77" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D98" s="77" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -11336,41 +11367,41 @@
         <v>210</v>
       </c>
       <c r="B99" s="76" t="s">
+        <v>534</v>
+      </c>
+      <c r="C99" s="77" t="s">
+        <v>532</v>
+      </c>
+      <c r="D99" s="77" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="B100" s="76" t="s">
         <v>537</v>
       </c>
-      <c r="C99" s="77" t="s">
+      <c r="C100" s="77" t="s">
         <v>535</v>
       </c>
-      <c r="D99" s="77" t="s">
+      <c r="D100" s="77" t="s">
         <v>536</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="80" t="s">
-        <v>357</v>
-      </c>
-      <c r="B100" s="174" t="s">
-        <v>566</v>
-      </c>
-      <c r="C100" s="173" t="s">
-        <v>567</v>
-      </c>
-      <c r="D100" s="81" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="80" t="s">
         <v>357</v>
       </c>
-      <c r="B101" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="C101" s="81" t="s">
-        <v>78</v>
+      <c r="B101" s="174" t="s">
+        <v>566</v>
+      </c>
+      <c r="C101" s="173" t="s">
+        <v>567</v>
       </c>
       <c r="D101" s="81" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -11381,38 +11412,38 @@
         <v>79</v>
       </c>
       <c r="C102" s="81" t="s">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="D102" s="81" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" s="4" customFormat="1" ht="30">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="80" t="s">
         <v>357</v>
       </c>
-      <c r="B103" s="112" t="s">
+      <c r="B103" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="C103" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="C103" s="81" t="s">
+        <v>351</v>
+      </c>
+      <c r="D103" s="81" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" s="4" customFormat="1" ht="30">
       <c r="A104" s="80" t="s">
         <v>357</v>
       </c>
-      <c r="B104" s="110" t="s">
-        <v>380</v>
-      </c>
-      <c r="C104" s="98" t="s">
-        <v>381</v>
-      </c>
-      <c r="D104" s="111" t="s">
-        <v>382</v>
+      <c r="B104" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -11423,38 +11454,38 @@
         <v>380</v>
       </c>
       <c r="C105" s="98" t="s">
+        <v>381</v>
+      </c>
+      <c r="D105" s="111" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="80" t="s">
+        <v>357</v>
+      </c>
+      <c r="B106" s="110" t="s">
+        <v>380</v>
+      </c>
+      <c r="C106" s="98" t="s">
         <v>383</v>
       </c>
-      <c r="D105" s="111" t="s">
+      <c r="D106" s="111" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="114" t="s">
-        <v>486</v>
-      </c>
-      <c r="B106" s="113" t="s">
-        <v>40</v>
-      </c>
-      <c r="C106" s="115" t="s">
-        <v>37</v>
-      </c>
-      <c r="D106" s="115" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" s="3" customFormat="1">
+    <row r="107" spans="1:4">
       <c r="A107" s="114" t="s">
         <v>486</v>
       </c>
-      <c r="B107" s="145" t="s">
-        <v>269</v>
-      </c>
-      <c r="C107" s="116" t="s">
-        <v>263</v>
-      </c>
-      <c r="D107" s="117" t="s">
-        <v>261</v>
+      <c r="B107" s="113" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="D107" s="115" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:4" s="3" customFormat="1">
@@ -11465,10 +11496,10 @@
         <v>269</v>
       </c>
       <c r="C108" s="116" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D108" s="117" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" spans="1:4" s="3" customFormat="1">
@@ -11476,13 +11507,13 @@
         <v>486</v>
       </c>
       <c r="B109" s="145" t="s">
-        <v>256</v>
-      </c>
-      <c r="C109" s="118" t="s">
-        <v>258</v>
+        <v>269</v>
+      </c>
+      <c r="C109" s="116" t="s">
+        <v>264</v>
       </c>
       <c r="D109" s="117" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="110" spans="1:4" s="3" customFormat="1">
@@ -11490,13 +11521,13 @@
         <v>486</v>
       </c>
       <c r="B110" s="145" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C110" s="118" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D110" s="117" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="111" spans="1:4" s="3" customFormat="1">
@@ -11507,38 +11538,38 @@
         <v>266</v>
       </c>
       <c r="C111" s="118" t="s">
+        <v>265</v>
+      </c>
+      <c r="D111" s="117" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" s="3" customFormat="1">
+      <c r="A112" s="114" t="s">
+        <v>486</v>
+      </c>
+      <c r="B112" s="145" t="s">
+        <v>266</v>
+      </c>
+      <c r="C112" s="118" t="s">
         <v>259</v>
       </c>
-      <c r="D111" s="117" t="s">
+      <c r="D112" s="117" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A112" s="119" t="s">
-        <v>493</v>
-      </c>
-      <c r="B112" s="120" t="s">
-        <v>220</v>
-      </c>
-      <c r="C112" s="121" t="s">
-        <v>485</v>
-      </c>
-      <c r="D112" s="122" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
       <c r="A113" s="119" t="s">
         <v>493</v>
       </c>
-      <c r="B113" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="C113" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D113" s="36" t="s">
-        <v>109</v>
+      <c r="B113" s="120" t="s">
+        <v>220</v>
+      </c>
+      <c r="C113" s="121" t="s">
+        <v>485</v>
+      </c>
+      <c r="D113" s="122" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -11546,13 +11577,13 @@
         <v>493</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C114" s="36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D114" s="36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -11560,13 +11591,13 @@
         <v>493</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C115" s="36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D115" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -11574,93 +11605,93 @@
         <v>493</v>
       </c>
       <c r="B116" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C116" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D116" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="119" t="s">
+        <v>493</v>
+      </c>
+      <c r="B117" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="C116" s="36" t="s">
+      <c r="C117" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="D116" s="36" t="s">
+      <c r="D117" s="36" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15.75">
-      <c r="A117" s="167" t="s">
+    <row r="118" spans="1:4" ht="15.75">
+      <c r="A118" s="167" t="s">
         <v>497</v>
       </c>
-      <c r="B117" s="167" t="s">
+      <c r="B118" s="167" t="s">
         <v>215</v>
       </c>
-      <c r="C117" s="171" t="s">
+      <c r="C118" s="171" t="s">
         <v>563</v>
       </c>
-      <c r="D117" s="168" t="s">
+      <c r="D118" s="168" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="30">
-      <c r="A118" s="169" t="s">
+    <row r="119" spans="1:4" ht="30">
+      <c r="A119" s="169" t="s">
         <v>497</v>
       </c>
-      <c r="B118" s="169" t="s">
+      <c r="B119" s="169" t="s">
         <v>215</v>
       </c>
-      <c r="C118" s="172" t="s">
+      <c r="C119" s="172" t="s">
         <v>564</v>
       </c>
-      <c r="D118" s="170" t="s">
+      <c r="D119" s="170" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="31.5">
-      <c r="A119" s="169"/>
-      <c r="B119" s="169"/>
-      <c r="C119" s="172" t="s">
+    <row r="120" spans="1:4" ht="31.5">
+      <c r="A120" s="169"/>
+      <c r="B120" s="169"/>
+      <c r="C120" s="172" t="s">
         <v>639</v>
       </c>
-      <c r="D119" s="170" t="s">
+      <c r="D120" s="170" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="31.5">
-      <c r="A120" s="169" t="s">
+    <row r="121" spans="1:4" ht="31.5">
+      <c r="A121" s="169" t="s">
         <v>497</v>
       </c>
-      <c r="B120" s="169" t="s">
+      <c r="B121" s="169" t="s">
         <v>215</v>
       </c>
-      <c r="C120" s="172" t="s">
+      <c r="C121" s="172" t="s">
         <v>608</v>
       </c>
-      <c r="D120" s="170" t="s">
+      <c r="D121" s="170" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="121" spans="1:4" s="3" customFormat="1">
-      <c r="A121" s="152" t="s">
+    <row r="122" spans="1:4" s="3" customFormat="1">
+      <c r="A122" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="B121" s="153" t="s">
+      <c r="B122" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="C121" s="154" t="s">
+      <c r="C122" s="154" t="s">
         <v>244</v>
       </c>
-      <c r="D121" s="155" t="s">
+      <c r="D122" s="155" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B122" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="C122" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="D122" s="61" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -11671,10 +11702,10 @@
         <v>41</v>
       </c>
       <c r="C123" s="61" t="s">
-        <v>275</v>
+        <v>42</v>
       </c>
       <c r="D123" s="61" t="s">
-        <v>274</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -11682,13 +11713,13 @@
         <v>1</v>
       </c>
       <c r="B124" s="71" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C124" s="61" t="s">
-        <v>23</v>
+        <v>275</v>
       </c>
       <c r="D124" s="61" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -11696,13 +11727,13 @@
         <v>1</v>
       </c>
       <c r="B125" s="71" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C125" s="61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D125" s="61" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -11710,13 +11741,13 @@
         <v>1</v>
       </c>
       <c r="B126" s="71" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C126" s="61" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D126" s="61" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -11724,13 +11755,13 @@
         <v>1</v>
       </c>
       <c r="B127" s="71" t="s">
-        <v>298</v>
+        <v>47</v>
       </c>
       <c r="C127" s="61" t="s">
-        <v>294</v>
+        <v>46</v>
       </c>
       <c r="D127" s="61" t="s">
-        <v>299</v>
+        <v>48</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -11738,13 +11769,13 @@
         <v>1</v>
       </c>
       <c r="B128" s="71" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C128" s="61" t="s">
-        <v>183</v>
+        <v>294</v>
       </c>
       <c r="D128" s="61" t="s">
-        <v>102</v>
+        <v>299</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -11755,10 +11786,10 @@
         <v>295</v>
       </c>
       <c r="C129" s="61" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="D129" s="61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -11766,13 +11797,13 @@
         <v>1</v>
       </c>
       <c r="B130" s="71" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C130" s="61" t="s">
-        <v>239</v>
+        <v>104</v>
       </c>
       <c r="D130" s="61" t="s">
-        <v>240</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -11780,13 +11811,13 @@
         <v>1</v>
       </c>
       <c r="B131" s="71" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C131" s="61" t="s">
-        <v>587</v>
+        <v>239</v>
       </c>
       <c r="D131" s="61" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -11794,13 +11825,13 @@
         <v>1</v>
       </c>
       <c r="B132" s="71" t="s">
-        <v>87</v>
+        <v>297</v>
       </c>
       <c r="C132" s="61" t="s">
-        <v>85</v>
+        <v>587</v>
       </c>
       <c r="D132" s="61" t="s">
-        <v>86</v>
+        <v>241</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -11808,13 +11839,13 @@
         <v>1</v>
       </c>
       <c r="B133" s="71" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C133" s="61" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D133" s="61" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -11822,13 +11853,13 @@
         <v>1</v>
       </c>
       <c r="B134" s="71" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C134" s="61" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D134" s="61" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -11836,13 +11867,13 @@
         <v>1</v>
       </c>
       <c r="B135" s="71" t="s">
-        <v>280</v>
-      </c>
-      <c r="C135" s="83" t="s">
-        <v>281</v>
-      </c>
-      <c r="D135" s="83" t="s">
-        <v>282</v>
+        <v>49</v>
+      </c>
+      <c r="C135" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D135" s="61" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -11850,13 +11881,13 @@
         <v>1</v>
       </c>
       <c r="B136" s="71" t="s">
-        <v>499</v>
-      </c>
-      <c r="C136" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="D136" s="61" t="s">
-        <v>70</v>
+        <v>280</v>
+      </c>
+      <c r="C136" s="83" t="s">
+        <v>281</v>
+      </c>
+      <c r="D136" s="83" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -11864,13 +11895,13 @@
         <v>1</v>
       </c>
       <c r="B137" s="71" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C137" s="61" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D137" s="61" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -11881,10 +11912,10 @@
         <v>500</v>
       </c>
       <c r="C138" s="61" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="D138" s="61" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -11892,13 +11923,13 @@
         <v>1</v>
       </c>
       <c r="B139" s="71" t="s">
-        <v>76</v>
+        <v>500</v>
       </c>
       <c r="C139" s="61" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="D139" s="61" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -11909,10 +11940,10 @@
         <v>76</v>
       </c>
       <c r="C140" s="61" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="D140" s="61" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -11923,10 +11954,10 @@
         <v>76</v>
       </c>
       <c r="C141" s="61" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D141" s="61" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -11936,11 +11967,11 @@
       <c r="B142" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="C142" s="84" t="s">
-        <v>562</v>
+      <c r="C142" s="61" t="s">
+        <v>169</v>
       </c>
       <c r="D142" s="61" t="s">
-        <v>238</v>
+        <v>168</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -11948,13 +11979,13 @@
         <v>1</v>
       </c>
       <c r="B143" s="71" t="s">
-        <v>170</v>
-      </c>
-      <c r="C143" s="61" t="s">
-        <v>172</v>
+        <v>76</v>
+      </c>
+      <c r="C143" s="84" t="s">
+        <v>562</v>
       </c>
       <c r="D143" s="61" t="s">
-        <v>171</v>
+        <v>238</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -11962,13 +11993,13 @@
         <v>1</v>
       </c>
       <c r="B144" s="71" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C144" s="61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D144" s="61" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -11976,13 +12007,13 @@
         <v>1</v>
       </c>
       <c r="B145" s="71" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="C145" s="61" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="D145" s="61" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -11990,13 +12021,13 @@
         <v>1</v>
       </c>
       <c r="B146" s="71" t="s">
-        <v>227</v>
-      </c>
-      <c r="C146" s="85" t="s">
-        <v>228</v>
+        <v>218</v>
+      </c>
+      <c r="C146" s="61" t="s">
+        <v>217</v>
       </c>
       <c r="D146" s="61" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -12004,13 +12035,13 @@
         <v>1</v>
       </c>
       <c r="B147" s="71" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C147" s="85" t="s">
-        <v>365</v>
+        <v>228</v>
       </c>
       <c r="D147" s="61" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -12018,13 +12049,13 @@
         <v>1</v>
       </c>
       <c r="B148" s="71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C148" s="85" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D148" s="61" t="s">
-        <v>364</v>
+        <v>234</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -12035,24 +12066,24 @@
         <v>235</v>
       </c>
       <c r="C149" s="85" t="s">
+        <v>363</v>
+      </c>
+      <c r="D149" s="61" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150" s="71" t="s">
+        <v>235</v>
+      </c>
+      <c r="C150" s="85" t="s">
         <v>236</v>
       </c>
-      <c r="D149" s="61" t="s">
+      <c r="D150" s="61" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B150" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="C150" s="81" t="s">
-        <v>107</v>
-      </c>
-      <c r="D150" s="81" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -12060,13 +12091,13 @@
         <v>80</v>
       </c>
       <c r="B151" s="82" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="C151" s="81" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D151" s="81" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -12074,13 +12105,13 @@
         <v>80</v>
       </c>
       <c r="B152" s="82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C152" s="81" t="s">
-        <v>288</v>
+        <v>99</v>
       </c>
       <c r="D152" s="81" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -12088,13 +12119,13 @@
         <v>80</v>
       </c>
       <c r="B153" s="82" t="s">
-        <v>421</v>
+        <v>182</v>
       </c>
       <c r="C153" s="81" t="s">
-        <v>422</v>
+        <v>288</v>
       </c>
       <c r="D153" s="81" t="s">
-        <v>420</v>
+        <v>180</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -12102,13 +12133,13 @@
         <v>80</v>
       </c>
       <c r="B154" s="82" t="s">
-        <v>199</v>
+        <v>421</v>
       </c>
       <c r="C154" s="81" t="s">
-        <v>198</v>
+        <v>422</v>
       </c>
       <c r="D154" s="81" t="s">
-        <v>200</v>
+        <v>420</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -12119,10 +12150,10 @@
         <v>199</v>
       </c>
       <c r="C155" s="81" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D155" s="81" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -12133,10 +12164,10 @@
         <v>199</v>
       </c>
       <c r="C156" s="81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D156" s="81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -12144,16 +12175,16 @@
         <v>80</v>
       </c>
       <c r="B157" s="82" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C157" s="81" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D157" s="81" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="15.75">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="80" t="s">
         <v>80</v>
       </c>
@@ -12161,52 +12192,52 @@
         <v>205</v>
       </c>
       <c r="C158" s="81" t="s">
-        <v>576</v>
-      </c>
-      <c r="D158" s="177" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>197</v>
+      </c>
+      <c r="D158" s="81" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15.75">
       <c r="A159" s="80" t="s">
         <v>80</v>
       </c>
       <c r="B159" s="82" t="s">
-        <v>580</v>
+        <v>205</v>
       </c>
       <c r="C159" s="81" t="s">
-        <v>578</v>
-      </c>
-      <c r="D159" s="178" t="s">
-        <v>579</v>
+        <v>576</v>
+      </c>
+      <c r="D159" s="177" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="B160" s="130" t="s">
+      <c r="B160" s="82" t="s">
+        <v>580</v>
+      </c>
+      <c r="C160" s="81" t="s">
+        <v>578</v>
+      </c>
+      <c r="D160" s="178" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B161" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="C160" s="131" t="s">
+      <c r="C161" s="131" t="s">
         <v>207</v>
       </c>
-      <c r="D160" s="131" t="s">
+      <c r="D161" s="131" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B161" s="70" t="s">
-        <v>506</v>
-      </c>
-      <c r="C161" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="D161" s="69" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -12217,10 +12248,10 @@
         <v>506</v>
       </c>
       <c r="C162" s="69" t="s">
-        <v>509</v>
+        <v>66</v>
       </c>
       <c r="D162" s="69" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -12231,10 +12262,10 @@
         <v>506</v>
       </c>
       <c r="C163" s="69" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="D163" s="69" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -12242,13 +12273,13 @@
         <v>8</v>
       </c>
       <c r="B164" s="70" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C164" s="69" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D164" s="69" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -12256,13 +12287,13 @@
         <v>8</v>
       </c>
       <c r="B165" s="70" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="C165" s="69" t="s">
-        <v>287</v>
+        <v>510</v>
       </c>
       <c r="D165" s="69" t="s">
-        <v>443</v>
+        <v>511</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -12273,10 +12304,10 @@
         <v>447</v>
       </c>
       <c r="C166" s="69" t="s">
-        <v>448</v>
+        <v>287</v>
       </c>
       <c r="D166" s="69" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -12284,13 +12315,13 @@
         <v>8</v>
       </c>
       <c r="B167" s="70" t="s">
-        <v>289</v>
+        <v>447</v>
       </c>
       <c r="C167" s="69" t="s">
-        <v>290</v>
+        <v>448</v>
       </c>
       <c r="D167" s="69" t="s">
-        <v>291</v>
+        <v>446</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -12298,13 +12329,13 @@
         <v>8</v>
       </c>
       <c r="B168" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" s="68" t="s">
-        <v>9</v>
+        <v>289</v>
+      </c>
+      <c r="C168" s="69" t="s">
+        <v>290</v>
       </c>
       <c r="D168" s="69" t="s">
-        <v>11</v>
+        <v>291</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -12315,10 +12346,10 @@
         <v>8</v>
       </c>
       <c r="C169" s="68" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D169" s="69" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -12329,10 +12360,10 @@
         <v>8</v>
       </c>
       <c r="C170" s="68" t="s">
-        <v>390</v>
+        <v>20</v>
       </c>
       <c r="D170" s="69" t="s">
-        <v>391</v>
+        <v>65</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -12343,10 +12374,10 @@
         <v>8</v>
       </c>
       <c r="C171" s="68" t="s">
-        <v>9</v>
+        <v>390</v>
       </c>
       <c r="D171" s="69" t="s">
-        <v>11</v>
+        <v>391</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -12357,10 +12388,10 @@
         <v>8</v>
       </c>
       <c r="C172" s="68" t="s">
-        <v>359</v>
+        <v>9</v>
       </c>
       <c r="D172" s="69" t="s">
-        <v>360</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -12371,10 +12402,10 @@
         <v>8</v>
       </c>
       <c r="C173" s="68" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D173" s="69" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -12382,13 +12413,13 @@
         <v>8</v>
       </c>
       <c r="B174" s="70" t="s">
-        <v>438</v>
+        <v>8</v>
       </c>
       <c r="C174" s="68" t="s">
         <v>361</v>
       </c>
       <c r="D174" s="69" t="s">
-        <v>437</v>
+        <v>362</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -12396,97 +12427,97 @@
         <v>8</v>
       </c>
       <c r="B175" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" s="68" t="s">
+        <v>646</v>
+      </c>
+      <c r="D175" s="69" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" s="70" t="s">
         <v>438</v>
       </c>
-      <c r="C175" s="68" t="s">
+      <c r="C176" s="68" t="s">
         <v>361</v>
       </c>
-      <c r="D175" s="69" t="s">
+      <c r="D176" s="69" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" s="70" t="s">
+        <v>438</v>
+      </c>
+      <c r="C177" s="68" t="s">
+        <v>361</v>
+      </c>
+      <c r="D177" s="69" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="71" t="s">
-        <v>327</v>
-      </c>
-      <c r="B176" s="60" t="s">
-        <v>501</v>
-      </c>
-      <c r="C176" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="D176" s="61" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A177" s="71" t="s">
-        <v>327</v>
-      </c>
-      <c r="B177" s="129" t="s">
-        <v>432</v>
-      </c>
-      <c r="C177" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="D177" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" s="3" customFormat="1" ht="30">
+    <row r="178" spans="1:4">
       <c r="A178" s="71" t="s">
         <v>327</v>
       </c>
-      <c r="B178" s="129" t="s">
-        <v>432</v>
-      </c>
-      <c r="C178" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="D178" s="12" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A179" s="72" t="s">
+      <c r="B178" s="60" t="s">
+        <v>501</v>
+      </c>
+      <c r="C178" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="D178" s="61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A179" s="71" t="s">
         <v>327</v>
       </c>
       <c r="B179" s="129" t="s">
         <v>432</v>
       </c>
-      <c r="C179" s="62" t="s">
-        <v>349</v>
+      <c r="C179" s="12" t="s">
+        <v>423</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A180" s="72" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" s="3" customFormat="1" ht="30">
+      <c r="A180" s="71" t="s">
         <v>327</v>
       </c>
       <c r="B180" s="129" t="s">
         <v>432</v>
       </c>
-      <c r="C180" s="62" t="s">
-        <v>424</v>
+      <c r="C180" s="12" t="s">
+        <v>444</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" s="3" customFormat="1" ht="76.5" customHeight="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
       <c r="A181" s="72" t="s">
         <v>327</v>
       </c>
       <c r="B181" s="129" t="s">
-        <v>502</v>
-      </c>
-      <c r="C181" s="12" t="s">
-        <v>330</v>
+        <v>432</v>
+      </c>
+      <c r="C181" s="62" t="s">
+        <v>349</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
     </row>
     <row r="182" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
@@ -12494,55 +12525,55 @@
         <v>327</v>
       </c>
       <c r="B182" s="129" t="s">
-        <v>503</v>
-      </c>
-      <c r="C182" s="12" t="s">
-        <v>331</v>
+        <v>432</v>
+      </c>
+      <c r="C182" s="62" t="s">
+        <v>424</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" s="3" customFormat="1" ht="76.5" customHeight="1">
       <c r="A183" s="72" t="s">
         <v>327</v>
       </c>
       <c r="B183" s="129" t="s">
+        <v>502</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="D183" s="12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A184" s="72" t="s">
+        <v>327</v>
+      </c>
+      <c r="B184" s="129" t="s">
+        <v>503</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D184" s="12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A185" s="72" t="s">
+        <v>327</v>
+      </c>
+      <c r="B185" s="129" t="s">
         <v>426</v>
       </c>
-      <c r="C183" s="12" t="s">
+      <c r="C185" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="D183" s="12" t="s">
+      <c r="D185" s="12" t="s">
         <v>425</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="B184" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="C184" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="D184" s="11" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A185" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="B185" s="63" t="s">
-        <v>318</v>
-      </c>
-      <c r="C185" s="64" t="s">
-        <v>428</v>
-      </c>
-      <c r="D185" s="65" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -12553,192 +12584,192 @@
         <v>318</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
       <c r="A187" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="B187" s="10" t="s">
+      <c r="B187" s="63" t="s">
         <v>318</v>
       </c>
-      <c r="C187" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="D187" s="11" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" s="4" customFormat="1">
+      <c r="C187" s="64" t="s">
+        <v>428</v>
+      </c>
+      <c r="D187" s="65" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="B188" s="73" t="s">
+      <c r="B188" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D189" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" s="4" customFormat="1">
+      <c r="A190" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="B190" s="73" t="s">
         <v>313</v>
       </c>
-      <c r="C188" s="65" t="s">
+      <c r="C190" s="65" t="s">
         <v>312</v>
       </c>
-      <c r="D188" s="65" t="s">
+      <c r="D190" s="65" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="75" t="s">
+    <row r="191" spans="1:4">
+      <c r="A191" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="B189" s="10" t="s">
+      <c r="B191" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C189" s="11" t="s">
+      <c r="C191" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="D189" s="65" t="s">
+      <c r="D191" s="65" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="113" t="s">
+    <row r="192" spans="1:4">
+      <c r="A192" s="113" t="s">
         <v>191</v>
       </c>
-      <c r="B190" s="113" t="s">
+      <c r="B192" s="113" t="s">
         <v>189</v>
       </c>
-      <c r="C190" s="115" t="s">
+      <c r="C192" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="D190" s="115" t="s">
+      <c r="D192" s="115" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="113" t="s">
+    <row r="193" spans="1:4">
+      <c r="A193" s="113" t="s">
         <v>191</v>
       </c>
-      <c r="B191" s="113" t="s">
+      <c r="B193" s="113" t="s">
         <v>189</v>
       </c>
-      <c r="C191" s="115" t="s">
+      <c r="C193" s="115" t="s">
         <v>195</v>
       </c>
-      <c r="D191" s="115" t="s">
+      <c r="D193" s="115" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="192" spans="1:4" s="3" customFormat="1">
-      <c r="A192" s="132" t="s">
-        <v>250</v>
-      </c>
-      <c r="B192" s="157" t="s">
-        <v>252</v>
-      </c>
-      <c r="C192" s="133" t="s">
-        <v>253</v>
-      </c>
-      <c r="D192" s="134" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" s="86" customFormat="1">
-      <c r="A193" s="132" t="s">
-        <v>250</v>
-      </c>
-      <c r="B193" s="157" t="s">
-        <v>293</v>
-      </c>
-      <c r="C193" s="133" t="s">
-        <v>292</v>
-      </c>
-      <c r="D193" s="134" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" s="86" customFormat="1">
+    <row r="194" spans="1:4" s="3" customFormat="1">
       <c r="A194" s="132" t="s">
         <v>250</v>
       </c>
       <c r="B194" s="157" t="s">
+        <v>252</v>
+      </c>
+      <c r="C194" s="133" t="s">
+        <v>253</v>
+      </c>
+      <c r="D194" s="134" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" s="86" customFormat="1">
+      <c r="A195" s="132" t="s">
+        <v>250</v>
+      </c>
+      <c r="B195" s="157" t="s">
+        <v>293</v>
+      </c>
+      <c r="C195" s="133" t="s">
+        <v>292</v>
+      </c>
+      <c r="D195" s="134" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" s="86" customFormat="1">
+      <c r="A196" s="132" t="s">
+        <v>250</v>
+      </c>
+      <c r="B196" s="157" t="s">
         <v>286</v>
       </c>
-      <c r="C194" s="133" t="s">
+      <c r="C196" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="D194" s="134" t="s">
+      <c r="D196" s="134" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="195" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A195" s="135" t="s">
+    <row r="197" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A197" s="135" t="s">
         <v>250</v>
       </c>
-      <c r="B195" s="157" t="s">
+      <c r="B197" s="157" t="s">
         <v>463</v>
       </c>
-      <c r="C195" s="136" t="s">
+      <c r="C197" s="136" t="s">
         <v>376</v>
       </c>
-      <c r="D195" s="137" t="s">
+      <c r="D197" s="137" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="196" spans="1:4" s="38" customFormat="1" ht="144.75" customHeight="1">
-      <c r="A196" s="138" t="s">
-        <v>250</v>
-      </c>
-      <c r="B196" s="158" t="s">
-        <v>504</v>
-      </c>
-      <c r="C196" s="136" t="s">
-        <v>488</v>
-      </c>
-      <c r="D196" s="137" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="159" t="s">
-        <v>250</v>
-      </c>
-      <c r="B197" s="160" t="s">
-        <v>512</v>
-      </c>
-      <c r="C197" s="161" t="s">
-        <v>514</v>
-      </c>
-      <c r="D197" s="161" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
+    <row r="198" spans="1:4" s="38" customFormat="1" ht="144.75" customHeight="1">
       <c r="A198" s="138" t="s">
         <v>250</v>
       </c>
       <c r="B198" s="158" t="s">
-        <v>435</v>
-      </c>
-      <c r="C198" s="139" t="s">
-        <v>458</v>
+        <v>504</v>
+      </c>
+      <c r="C198" s="136" t="s">
+        <v>488</v>
       </c>
       <c r="D198" s="137" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A199" s="138" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="159" t="s">
         <v>250</v>
       </c>
-      <c r="B199" s="158" t="s">
-        <v>435</v>
-      </c>
-      <c r="C199" s="139" t="s">
-        <v>459</v>
-      </c>
-      <c r="D199" s="137" t="s">
-        <v>433</v>
+      <c r="B199" s="160" t="s">
+        <v>512</v>
+      </c>
+      <c r="C199" s="161" t="s">
+        <v>514</v>
+      </c>
+      <c r="D199" s="161" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="200" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
@@ -12746,69 +12777,69 @@
         <v>250</v>
       </c>
       <c r="B200" s="158" t="s">
-        <v>436</v>
-      </c>
-      <c r="C200" s="140" t="s">
-        <v>441</v>
+        <v>435</v>
+      </c>
+      <c r="C200" s="139" t="s">
+        <v>458</v>
       </c>
       <c r="D200" s="137" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
       <c r="A201" s="138" t="s">
         <v>250</v>
       </c>
       <c r="B201" s="158" t="s">
-        <v>242</v>
-      </c>
-      <c r="C201" s="136" t="s">
-        <v>457</v>
+        <v>435</v>
+      </c>
+      <c r="C201" s="139" t="s">
+        <v>459</v>
       </c>
       <c r="D201" s="137" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
       <c r="A202" s="138" t="s">
         <v>250</v>
       </c>
       <c r="B202" s="158" t="s">
-        <v>440</v>
-      </c>
-      <c r="C202" s="136" t="s">
-        <v>517</v>
+        <v>436</v>
+      </c>
+      <c r="C202" s="140" t="s">
+        <v>441</v>
       </c>
       <c r="D202" s="137" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1">
       <c r="A203" s="138" t="s">
         <v>250</v>
       </c>
       <c r="B203" s="158" t="s">
-        <v>455</v>
+        <v>242</v>
       </c>
       <c r="C203" s="136" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D203" s="137" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
       <c r="A204" s="138" t="s">
         <v>250</v>
       </c>
       <c r="B204" s="158" t="s">
-        <v>522</v>
+        <v>440</v>
       </c>
       <c r="C204" s="136" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D204" s="137" t="s">
-        <v>524</v>
+        <v>451</v>
       </c>
     </row>
     <row r="205" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
@@ -12816,55 +12847,55 @@
         <v>250</v>
       </c>
       <c r="B205" s="158" t="s">
-        <v>520</v>
+        <v>455</v>
       </c>
       <c r="C205" s="136" t="s">
-        <v>519</v>
+        <v>456</v>
       </c>
       <c r="D205" s="137" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
       <c r="A206" s="138" t="s">
         <v>250</v>
       </c>
       <c r="B206" s="158" t="s">
+        <v>522</v>
+      </c>
+      <c r="C206" s="136" t="s">
+        <v>521</v>
+      </c>
+      <c r="D206" s="137" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A207" s="138" t="s">
+        <v>250</v>
+      </c>
+      <c r="B207" s="158" t="s">
+        <v>520</v>
+      </c>
+      <c r="C207" s="136" t="s">
+        <v>519</v>
+      </c>
+      <c r="D207" s="137" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A208" s="138" t="s">
+        <v>250</v>
+      </c>
+      <c r="B208" s="158" t="s">
         <v>454</v>
       </c>
-      <c r="C206" s="136" t="s">
+      <c r="C208" s="136" t="s">
         <v>452</v>
       </c>
-      <c r="D206" s="137" t="s">
+      <c r="D208" s="137" t="s">
         <v>453</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="123" t="s">
-        <v>222</v>
-      </c>
-      <c r="B207" s="123" t="s">
-        <v>223</v>
-      </c>
-      <c r="C207" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="D207" s="36" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="123" t="s">
-        <v>222</v>
-      </c>
-      <c r="B208" s="123" t="s">
-        <v>223</v>
-      </c>
-      <c r="C208" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="D208" s="36" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -12874,11 +12905,11 @@
       <c r="B209" s="123" t="s">
         <v>223</v>
       </c>
-      <c r="C209" s="156" t="s">
-        <v>633</v>
+      <c r="C209" s="36" t="s">
+        <v>248</v>
       </c>
       <c r="D209" s="36" t="s">
-        <v>300</v>
+        <v>224</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -12888,11 +12919,11 @@
       <c r="B210" s="123" t="s">
         <v>223</v>
       </c>
-      <c r="C210" s="156" t="s">
-        <v>306</v>
+      <c r="C210" s="36" t="s">
+        <v>225</v>
       </c>
       <c r="D210" s="36" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -12900,24 +12931,27 @@
         <v>222</v>
       </c>
       <c r="B211" s="123" t="s">
-        <v>626</v>
-      </c>
-      <c r="C211" s="180" t="s">
-        <v>304</v>
+        <v>223</v>
+      </c>
+      <c r="C211" s="156" t="s">
+        <v>633</v>
       </c>
       <c r="D211" s="36" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="212" spans="1:4">
+      <c r="A212" s="123" t="s">
+        <v>222</v>
+      </c>
       <c r="B212" s="123" t="s">
-        <v>626</v>
-      </c>
-      <c r="C212" s="180" t="s">
-        <v>304</v>
+        <v>223</v>
+      </c>
+      <c r="C212" s="156" t="s">
+        <v>306</v>
       </c>
       <c r="D212" s="36" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -12928,24 +12962,21 @@
         <v>626</v>
       </c>
       <c r="C213" s="180" t="s">
-        <v>634</v>
+        <v>304</v>
       </c>
       <c r="D213" s="36" t="s">
-        <v>635</v>
+        <v>303</v>
       </c>
     </row>
     <row r="214" spans="1:4">
-      <c r="A214" s="123" t="s">
-        <v>222</v>
-      </c>
       <c r="B214" s="123" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C214" s="180" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D214" s="36" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -12953,55 +12984,55 @@
         <v>222</v>
       </c>
       <c r="B215" s="123" t="s">
+        <v>626</v>
+      </c>
+      <c r="C215" s="180" t="s">
+        <v>634</v>
+      </c>
+      <c r="D215" s="36" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="123" t="s">
+        <v>222</v>
+      </c>
+      <c r="B216" s="123" t="s">
+        <v>628</v>
+      </c>
+      <c r="C216" s="180" t="s">
+        <v>307</v>
+      </c>
+      <c r="D216" s="36" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="123" t="s">
+        <v>222</v>
+      </c>
+      <c r="B217" s="123" t="s">
         <v>629</v>
       </c>
-      <c r="C215" s="181" t="s">
+      <c r="C217" s="181" t="s">
         <v>393</v>
       </c>
-      <c r="D215" s="36" t="s">
+      <c r="D217" s="36" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="216" spans="1:4" s="179" customFormat="1" ht="15.75">
-      <c r="A216" s="182" t="s">
-        <v>222</v>
-      </c>
-      <c r="B216" s="182" t="s">
-        <v>629</v>
-      </c>
-      <c r="C216" s="183" t="s">
-        <v>583</v>
-      </c>
-      <c r="D216" s="184" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="182" t="s">
-        <v>222</v>
-      </c>
-      <c r="B217" s="182" t="s">
-        <v>630</v>
-      </c>
-      <c r="C217" s="185" t="s">
-        <v>584</v>
-      </c>
-      <c r="D217" s="186" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" s="179" customFormat="1" ht="15.75">
       <c r="A218" s="182" t="s">
         <v>222</v>
       </c>
       <c r="B218" s="182" t="s">
-        <v>631</v>
-      </c>
-      <c r="C218" s="185" t="s">
-        <v>621</v>
-      </c>
-      <c r="D218" s="186" t="s">
-        <v>616</v>
+        <v>629</v>
+      </c>
+      <c r="C218" s="183" t="s">
+        <v>583</v>
+      </c>
+      <c r="D218" s="184" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -13009,13 +13040,13 @@
         <v>222</v>
       </c>
       <c r="B219" s="182" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C219" s="185" t="s">
-        <v>622</v>
+        <v>584</v>
       </c>
       <c r="D219" s="186" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -13026,10 +13057,10 @@
         <v>631</v>
       </c>
       <c r="C220" s="185" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D220" s="186" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -13040,10 +13071,10 @@
         <v>631</v>
       </c>
       <c r="C221" s="185" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D221" s="186" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -13054,10 +13085,10 @@
         <v>631</v>
       </c>
       <c r="C222" s="185" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D222" s="186" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -13065,17 +13096,45 @@
         <v>222</v>
       </c>
       <c r="B223" s="182" t="s">
+        <v>631</v>
+      </c>
+      <c r="C223" s="185" t="s">
+        <v>624</v>
+      </c>
+      <c r="D223" s="186" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="B224" s="182" t="s">
+        <v>631</v>
+      </c>
+      <c r="C224" s="185" t="s">
+        <v>625</v>
+      </c>
+      <c r="D224" s="186" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="B225" s="182" t="s">
         <v>223</v>
       </c>
-      <c r="C223" s="185" t="s">
+      <c r="C225" s="185" t="s">
         <v>585</v>
       </c>
-      <c r="D223" s="186" t="s">
+      <c r="D225" s="186" t="s">
         <v>586</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D214" xr:uid="{85ED3410-72EE-453D-8BB3-FB7E07F682B1}"/>
+  <autoFilter ref="A2:D216" xr:uid="{85ED3410-72EE-453D-8BB3-FB7E07F682B1}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -13104,13 +13163,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="202" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="202"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="204"/>
     </row>
     <row r="2" spans="1:5" ht="207" customHeight="1">
       <c r="A2" s="43" t="s">
@@ -13357,22 +13416,22 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="408.95" customHeight="1">
-      <c r="A19" s="211" t="s">
+      <c r="A19" s="213" t="s">
         <v>222</v>
       </c>
-      <c r="B19" s="209" t="s">
+      <c r="B19" s="211" t="s">
         <v>592</v>
       </c>
-      <c r="C19" s="203"/>
-      <c r="D19" s="205"/>
-      <c r="E19" s="207"/>
+      <c r="C19" s="205"/>
+      <c r="D19" s="207"/>
+      <c r="E19" s="209"/>
     </row>
     <row r="20" spans="1:5" ht="351.75" customHeight="1">
-      <c r="A20" s="210"/>
-      <c r="B20" s="210"/>
-      <c r="C20" s="204"/>
-      <c r="D20" s="206"/>
-      <c r="E20" s="208"/>
+      <c r="A20" s="212"/>
+      <c r="B20" s="212"/>
+      <c r="C20" s="206"/>
+      <c r="D20" s="208"/>
+      <c r="E20" s="210"/>
     </row>
     <row r="21" spans="1:5" s="193" customFormat="1" ht="158.25" customHeight="1">
       <c r="A21" s="189" t="s">
@@ -14494,11 +14553,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="16" t="s">

--- a/Tutoriales/pandas/Comandos Pandas.xlsx
+++ b/Tutoriales/pandas/Comandos Pandas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseMaría\Documents\CURSOS\data_science\mitrabajo\mi_repositorio\Tutoriales\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2F665C-E0E6-4DFA-A935-6CE07B4D8E91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AFD3CA-062C-4381-9BAD-F578718ACC7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF4018AA-EEB9-4756-B82D-183D37B3B80A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="CONCEPTOS" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GENERALES!$A$2:$D$216</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GENERALES!$A$2:$D$218</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="657">
   <si>
     <t>FUNCIONES DE PANDAS</t>
   </si>
@@ -6528,6 +6528,27 @@
   </si>
   <si>
     <t>Añado a la tabla gasto vacunas una columna total empadronados con los valores de una lista (de otra tabla) comprendida en la variable x</t>
+  </si>
+  <si>
+    <t>plt.ylabel("Lo que queramos")</t>
+  </si>
+  <si>
+    <t>plt.xticks([])</t>
+  </si>
+  <si>
+    <t>Me quita los ticks del eje x</t>
+  </si>
+  <si>
+    <t>TICKS</t>
+  </si>
+  <si>
+    <t>Tengo un indice con targuet de edad y puedo reindexar cambiando el orden llamando a reindex</t>
+  </si>
+  <si>
+    <t>nombre_funcion.reindex(["De 0 a 4 años","De 5 a 9 años","De 10 a 14 años","De 15 a 19 años","De 20 a 24 años","De 25 a 29 años","De 50 a 54 años","De 55 a 59 años"])</t>
+  </si>
+  <si>
+    <t>REINDEX</t>
   </si>
 </sst>
 </file>
@@ -6537,7 +6558,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="66">
+  <fonts count="67">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6965,6 +6986,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="21">
     <fill>
@@ -7175,7 +7202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="65" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7678,6 +7705,15 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9984,10 +10020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265136A6-C067-4B28-9F45-A6266FF6FD67}">
-  <dimension ref="A1:D225"/>
+  <dimension ref="A1:D227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:B53"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12254,18 +12290,18 @@
         <v>507</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="67" t="s">
+    <row r="163" spans="1:4" s="217" customFormat="1" ht="30">
+      <c r="A163" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B163" s="70" t="s">
-        <v>506</v>
-      </c>
-      <c r="C163" s="69" t="s">
-        <v>509</v>
-      </c>
-      <c r="D163" s="69" t="s">
-        <v>508</v>
+      <c r="B163" s="216" t="s">
+        <v>656</v>
+      </c>
+      <c r="C163" s="215" t="s">
+        <v>655</v>
+      </c>
+      <c r="D163" s="92" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -12276,10 +12312,10 @@
         <v>506</v>
       </c>
       <c r="C164" s="69" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="D164" s="69" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -12287,13 +12323,13 @@
         <v>8</v>
       </c>
       <c r="B165" s="70" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C165" s="69" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D165" s="69" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -12301,13 +12337,13 @@
         <v>8</v>
       </c>
       <c r="B166" s="70" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="C166" s="69" t="s">
-        <v>287</v>
+        <v>510</v>
       </c>
       <c r="D166" s="69" t="s">
-        <v>443</v>
+        <v>511</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -12318,10 +12354,10 @@
         <v>447</v>
       </c>
       <c r="C167" s="69" t="s">
-        <v>448</v>
+        <v>287</v>
       </c>
       <c r="D167" s="69" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -12329,13 +12365,13 @@
         <v>8</v>
       </c>
       <c r="B168" s="70" t="s">
-        <v>289</v>
+        <v>447</v>
       </c>
       <c r="C168" s="69" t="s">
-        <v>290</v>
+        <v>448</v>
       </c>
       <c r="D168" s="69" t="s">
-        <v>291</v>
+        <v>446</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -12343,13 +12379,13 @@
         <v>8</v>
       </c>
       <c r="B169" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="68" t="s">
-        <v>9</v>
+        <v>289</v>
+      </c>
+      <c r="C169" s="69" t="s">
+        <v>290</v>
       </c>
       <c r="D169" s="69" t="s">
-        <v>11</v>
+        <v>291</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -12360,10 +12396,10 @@
         <v>8</v>
       </c>
       <c r="C170" s="68" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D170" s="69" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -12374,10 +12410,10 @@
         <v>8</v>
       </c>
       <c r="C171" s="68" t="s">
-        <v>390</v>
+        <v>20</v>
       </c>
       <c r="D171" s="69" t="s">
-        <v>391</v>
+        <v>65</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -12388,10 +12424,10 @@
         <v>8</v>
       </c>
       <c r="C172" s="68" t="s">
-        <v>9</v>
+        <v>390</v>
       </c>
       <c r="D172" s="69" t="s">
-        <v>11</v>
+        <v>391</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -12402,10 +12438,10 @@
         <v>8</v>
       </c>
       <c r="C173" s="68" t="s">
-        <v>359</v>
+        <v>9</v>
       </c>
       <c r="D173" s="69" t="s">
-        <v>360</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -12416,10 +12452,10 @@
         <v>8</v>
       </c>
       <c r="C174" s="68" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D174" s="69" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -12430,10 +12466,10 @@
         <v>8</v>
       </c>
       <c r="C175" s="68" t="s">
-        <v>646</v>
+        <v>361</v>
       </c>
       <c r="D175" s="69" t="s">
-        <v>647</v>
+        <v>362</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -12441,13 +12477,13 @@
         <v>8</v>
       </c>
       <c r="B176" s="70" t="s">
-        <v>438</v>
+        <v>8</v>
       </c>
       <c r="C176" s="68" t="s">
-        <v>361</v>
+        <v>646</v>
       </c>
       <c r="D176" s="69" t="s">
-        <v>437</v>
+        <v>647</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -12461,38 +12497,38 @@
         <v>361</v>
       </c>
       <c r="D177" s="69" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" s="70" t="s">
+        <v>438</v>
+      </c>
+      <c r="C178" s="68" t="s">
+        <v>361</v>
+      </c>
+      <c r="D178" s="69" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="71" t="s">
-        <v>327</v>
-      </c>
-      <c r="B178" s="60" t="s">
-        <v>501</v>
-      </c>
-      <c r="C178" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="D178" s="61" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1">
+    <row r="179" spans="1:4">
       <c r="A179" s="71" t="s">
         <v>327</v>
       </c>
-      <c r="B179" s="129" t="s">
-        <v>432</v>
-      </c>
-      <c r="C179" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="D179" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" s="3" customFormat="1" ht="30">
+      <c r="B179" s="60" t="s">
+        <v>501</v>
+      </c>
+      <c r="C179" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="D179" s="61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1">
       <c r="A180" s="71" t="s">
         <v>327</v>
       </c>
@@ -12500,24 +12536,24 @@
         <v>432</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A181" s="72" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" s="3" customFormat="1" ht="30">
+      <c r="A181" s="71" t="s">
         <v>327</v>
       </c>
       <c r="B181" s="129" t="s">
         <v>432</v>
       </c>
-      <c r="C181" s="62" t="s">
-        <v>349</v>
+      <c r="C181" s="12" t="s">
+        <v>444</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
     </row>
     <row r="182" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
@@ -12528,38 +12564,38 @@
         <v>432</v>
       </c>
       <c r="C182" s="62" t="s">
-        <v>424</v>
+        <v>349</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" s="3" customFormat="1" ht="76.5" customHeight="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
       <c r="A183" s="72" t="s">
         <v>327</v>
       </c>
       <c r="B183" s="129" t="s">
-        <v>502</v>
-      </c>
-      <c r="C183" s="12" t="s">
-        <v>330</v>
+        <v>432</v>
+      </c>
+      <c r="C183" s="62" t="s">
+        <v>424</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" s="3" customFormat="1" ht="76.5" customHeight="1">
       <c r="A184" s="72" t="s">
         <v>327</v>
       </c>
       <c r="B184" s="129" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D184" s="12" t="s">
-        <v>431</v>
+        <v>329</v>
       </c>
     </row>
     <row r="185" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
@@ -12567,55 +12603,55 @@
         <v>327</v>
       </c>
       <c r="B185" s="129" t="s">
+        <v>503</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D185" s="12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A186" s="72" t="s">
+        <v>327</v>
+      </c>
+      <c r="B186" s="129" t="s">
         <v>426</v>
       </c>
-      <c r="C185" s="12" t="s">
+      <c r="C186" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="D185" s="12" t="s">
+      <c r="D186" s="12" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="B186" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="C186" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="D186" s="11" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
+    <row r="187" spans="1:4">
       <c r="A187" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="B187" s="63" t="s">
+      <c r="B187" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="C187" s="64" t="s">
-        <v>428</v>
-      </c>
-      <c r="D187" s="65" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
+      <c r="C187" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D187" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
       <c r="A188" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="B188" s="10" t="s">
+      <c r="B188" s="63" t="s">
         <v>318</v>
       </c>
-      <c r="C188" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="D188" s="11" t="s">
-        <v>320</v>
+      <c r="C188" s="64" t="s">
+        <v>428</v>
+      </c>
+      <c r="D188" s="65" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -12626,52 +12662,52 @@
         <v>318</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" s="4" customFormat="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="B190" s="73" t="s">
+      <c r="B190" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D190" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" s="4" customFormat="1">
+      <c r="A191" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="B191" s="73" t="s">
         <v>313</v>
       </c>
-      <c r="C190" s="65" t="s">
+      <c r="C191" s="65" t="s">
         <v>312</v>
       </c>
-      <c r="D190" s="65" t="s">
+      <c r="D191" s="65" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="75" t="s">
+    <row r="192" spans="1:4">
+      <c r="A192" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="B192" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C191" s="11" t="s">
+      <c r="C192" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="D191" s="65" t="s">
+      <c r="D192" s="65" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="113" t="s">
-        <v>191</v>
-      </c>
-      <c r="B192" s="113" t="s">
-        <v>189</v>
-      </c>
-      <c r="C192" s="115" t="s">
-        <v>193</v>
-      </c>
-      <c r="D192" s="115" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -12682,38 +12718,38 @@
         <v>189</v>
       </c>
       <c r="C193" s="115" t="s">
+        <v>193</v>
+      </c>
+      <c r="D193" s="115" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="113" t="s">
+        <v>191</v>
+      </c>
+      <c r="B194" s="113" t="s">
+        <v>189</v>
+      </c>
+      <c r="C194" s="115" t="s">
         <v>195</v>
       </c>
-      <c r="D193" s="115" t="s">
+      <c r="D194" s="115" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="194" spans="1:4" s="3" customFormat="1">
-      <c r="A194" s="132" t="s">
-        <v>250</v>
-      </c>
-      <c r="B194" s="157" t="s">
-        <v>252</v>
-      </c>
-      <c r="C194" s="133" t="s">
-        <v>253</v>
-      </c>
-      <c r="D194" s="134" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" s="86" customFormat="1">
+    <row r="195" spans="1:4" s="3" customFormat="1">
       <c r="A195" s="132" t="s">
         <v>250</v>
       </c>
       <c r="B195" s="157" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="C195" s="133" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="D195" s="134" t="s">
-        <v>308</v>
+        <v>251</v>
       </c>
     </row>
     <row r="196" spans="1:4" s="86" customFormat="1">
@@ -12721,69 +12757,69 @@
         <v>250</v>
       </c>
       <c r="B196" s="157" t="s">
+        <v>293</v>
+      </c>
+      <c r="C196" s="133" t="s">
+        <v>292</v>
+      </c>
+      <c r="D196" s="134" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" s="86" customFormat="1">
+      <c r="A197" s="132" t="s">
+        <v>250</v>
+      </c>
+      <c r="B197" s="157" t="s">
         <v>286</v>
       </c>
-      <c r="C196" s="133" t="s">
+      <c r="C197" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="D196" s="134" t="s">
+      <c r="D197" s="134" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="197" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A197" s="135" t="s">
+    <row r="198" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A198" s="135" t="s">
         <v>250</v>
       </c>
-      <c r="B197" s="157" t="s">
+      <c r="B198" s="157" t="s">
         <v>463</v>
       </c>
-      <c r="C197" s="136" t="s">
+      <c r="C198" s="136" t="s">
         <v>376</v>
       </c>
-      <c r="D197" s="137" t="s">
+      <c r="D198" s="137" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="198" spans="1:4" s="38" customFormat="1" ht="144.75" customHeight="1">
-      <c r="A198" s="138" t="s">
+    <row r="199" spans="1:4" s="38" customFormat="1" ht="144.75" customHeight="1">
+      <c r="A199" s="138" t="s">
         <v>250</v>
       </c>
-      <c r="B198" s="158" t="s">
+      <c r="B199" s="158" t="s">
         <v>504</v>
       </c>
-      <c r="C198" s="136" t="s">
+      <c r="C199" s="136" t="s">
         <v>488</v>
       </c>
-      <c r="D198" s="137" t="s">
+      <c r="D199" s="137" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="159" t="s">
+    <row r="200" spans="1:4">
+      <c r="A200" s="159" t="s">
         <v>250</v>
       </c>
-      <c r="B199" s="160" t="s">
+      <c r="B200" s="160" t="s">
         <v>512</v>
       </c>
-      <c r="C199" s="161" t="s">
+      <c r="C200" s="161" t="s">
         <v>514</v>
       </c>
-      <c r="D199" s="161" t="s">
+      <c r="D200" s="161" t="s">
         <v>511</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A200" s="138" t="s">
-        <v>250</v>
-      </c>
-      <c r="B200" s="158" t="s">
-        <v>435</v>
-      </c>
-      <c r="C200" s="139" t="s">
-        <v>458</v>
-      </c>
-      <c r="D200" s="137" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="201" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
@@ -12794,7 +12830,7 @@
         <v>435</v>
       </c>
       <c r="C201" s="139" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D201" s="137" t="s">
         <v>433</v>
@@ -12805,55 +12841,55 @@
         <v>250</v>
       </c>
       <c r="B202" s="158" t="s">
-        <v>436</v>
-      </c>
-      <c r="C202" s="140" t="s">
-        <v>441</v>
+        <v>435</v>
+      </c>
+      <c r="C202" s="139" t="s">
+        <v>459</v>
       </c>
       <c r="D202" s="137" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
       <c r="A203" s="138" t="s">
         <v>250</v>
       </c>
       <c r="B203" s="158" t="s">
-        <v>242</v>
-      </c>
-      <c r="C203" s="136" t="s">
-        <v>457</v>
+        <v>436</v>
+      </c>
+      <c r="C203" s="140" t="s">
+        <v>441</v>
       </c>
       <c r="D203" s="137" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1">
       <c r="A204" s="138" t="s">
         <v>250</v>
       </c>
       <c r="B204" s="158" t="s">
-        <v>440</v>
+        <v>242</v>
       </c>
       <c r="C204" s="136" t="s">
-        <v>517</v>
+        <v>457</v>
       </c>
       <c r="D204" s="137" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
       <c r="A205" s="138" t="s">
         <v>250</v>
       </c>
       <c r="B205" s="158" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="C205" s="136" t="s">
-        <v>456</v>
+        <v>517</v>
       </c>
       <c r="D205" s="137" t="s">
-        <v>523</v>
+        <v>451</v>
       </c>
     </row>
     <row r="206" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
@@ -12861,13 +12897,13 @@
         <v>250</v>
       </c>
       <c r="B206" s="158" t="s">
-        <v>522</v>
+        <v>455</v>
       </c>
       <c r="C206" s="136" t="s">
-        <v>521</v>
+        <v>456</v>
       </c>
       <c r="D206" s="137" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="207" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
@@ -12875,41 +12911,41 @@
         <v>250</v>
       </c>
       <c r="B207" s="158" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C207" s="136" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D207" s="137" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
       <c r="A208" s="138" t="s">
         <v>250</v>
       </c>
       <c r="B208" s="158" t="s">
+        <v>520</v>
+      </c>
+      <c r="C208" s="136" t="s">
+        <v>519</v>
+      </c>
+      <c r="D208" s="137" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A209" s="138" t="s">
+        <v>250</v>
+      </c>
+      <c r="B209" s="158" t="s">
         <v>454</v>
       </c>
-      <c r="C208" s="136" t="s">
+      <c r="C209" s="136" t="s">
         <v>452</v>
       </c>
-      <c r="D208" s="137" t="s">
+      <c r="D209" s="137" t="s">
         <v>453</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="123" t="s">
-        <v>222</v>
-      </c>
-      <c r="B209" s="123" t="s">
-        <v>223</v>
-      </c>
-      <c r="C209" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="D209" s="36" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -12920,10 +12956,10 @@
         <v>223</v>
       </c>
       <c r="C210" s="36" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="D210" s="36" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -12933,11 +12969,11 @@
       <c r="B211" s="123" t="s">
         <v>223</v>
       </c>
-      <c r="C211" s="156" t="s">
-        <v>633</v>
+      <c r="C211" s="36" t="s">
+        <v>225</v>
       </c>
       <c r="D211" s="36" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -12948,10 +12984,10 @@
         <v>223</v>
       </c>
       <c r="C212" s="156" t="s">
-        <v>306</v>
+        <v>633</v>
       </c>
       <c r="D212" s="36" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -12959,16 +12995,19 @@
         <v>222</v>
       </c>
       <c r="B213" s="123" t="s">
-        <v>626</v>
-      </c>
-      <c r="C213" s="180" t="s">
-        <v>304</v>
+        <v>223</v>
+      </c>
+      <c r="C213" s="156" t="s">
+        <v>306</v>
       </c>
       <c r="D213" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="214" spans="1:4">
+      <c r="A214" s="123" t="s">
+        <v>222</v>
+      </c>
       <c r="B214" s="123" t="s">
         <v>626</v>
       </c>
@@ -12976,7 +13015,7 @@
         <v>304</v>
       </c>
       <c r="D214" s="36" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -12987,10 +13026,10 @@
         <v>626</v>
       </c>
       <c r="C215" s="180" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="D215" s="36" t="s">
-        <v>635</v>
+        <v>305</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -12998,13 +13037,13 @@
         <v>222</v>
       </c>
       <c r="B216" s="123" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C216" s="180" t="s">
-        <v>307</v>
+        <v>634</v>
       </c>
       <c r="D216" s="36" t="s">
-        <v>301</v>
+        <v>635</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -13012,55 +13051,55 @@
         <v>222</v>
       </c>
       <c r="B217" s="123" t="s">
+        <v>653</v>
+      </c>
+      <c r="C217" s="180" t="s">
+        <v>651</v>
+      </c>
+      <c r="D217" s="36" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="123" t="s">
+        <v>222</v>
+      </c>
+      <c r="B218" s="123" t="s">
+        <v>628</v>
+      </c>
+      <c r="C218" s="180" t="s">
+        <v>307</v>
+      </c>
+      <c r="D218" s="36" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="123" t="s">
+        <v>222</v>
+      </c>
+      <c r="B219" s="123" t="s">
         <v>629</v>
       </c>
-      <c r="C217" s="181" t="s">
+      <c r="C219" s="181" t="s">
         <v>393</v>
       </c>
-      <c r="D217" s="36" t="s">
+      <c r="D219" s="36" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="218" spans="1:4" s="179" customFormat="1" ht="15.75">
-      <c r="A218" s="182" t="s">
-        <v>222</v>
-      </c>
-      <c r="B218" s="182" t="s">
-        <v>629</v>
-      </c>
-      <c r="C218" s="183" t="s">
-        <v>583</v>
-      </c>
-      <c r="D218" s="184" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="182" t="s">
-        <v>222</v>
-      </c>
-      <c r="B219" s="182" t="s">
-        <v>630</v>
-      </c>
-      <c r="C219" s="185" t="s">
-        <v>584</v>
-      </c>
-      <c r="D219" s="186" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" s="179" customFormat="1" ht="15.75">
       <c r="A220" s="182" t="s">
         <v>222</v>
       </c>
       <c r="B220" s="182" t="s">
-        <v>631</v>
-      </c>
-      <c r="C220" s="185" t="s">
-        <v>621</v>
-      </c>
-      <c r="D220" s="186" t="s">
-        <v>616</v>
+        <v>629</v>
+      </c>
+      <c r="C220" s="183" t="s">
+        <v>583</v>
+      </c>
+      <c r="D220" s="184" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -13068,13 +13107,13 @@
         <v>222</v>
       </c>
       <c r="B221" s="182" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C221" s="185" t="s">
-        <v>622</v>
+        <v>584</v>
       </c>
       <c r="D221" s="186" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -13085,10 +13124,10 @@
         <v>631</v>
       </c>
       <c r="C222" s="185" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D222" s="186" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -13099,10 +13138,10 @@
         <v>631</v>
       </c>
       <c r="C223" s="185" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D223" s="186" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -13113,10 +13152,10 @@
         <v>631</v>
       </c>
       <c r="C224" s="185" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D224" s="186" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -13124,17 +13163,45 @@
         <v>222</v>
       </c>
       <c r="B225" s="182" t="s">
+        <v>631</v>
+      </c>
+      <c r="C225" s="185" t="s">
+        <v>624</v>
+      </c>
+      <c r="D225" s="186" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="B226" s="182" t="s">
+        <v>631</v>
+      </c>
+      <c r="C226" s="185" t="s">
+        <v>625</v>
+      </c>
+      <c r="D226" s="186" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="B227" s="182" t="s">
         <v>223</v>
       </c>
-      <c r="C225" s="185" t="s">
+      <c r="C227" s="185" t="s">
         <v>585</v>
       </c>
-      <c r="D225" s="186" t="s">
+      <c r="D227" s="186" t="s">
         <v>586</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D216" xr:uid="{85ED3410-72EE-453D-8BB3-FB7E07F682B1}"/>
+  <autoFilter ref="A2:D218" xr:uid="{85ED3410-72EE-453D-8BB3-FB7E07F682B1}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -13148,8 +13215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C42D88-9A2B-46D3-B46D-33526406379A}">
   <dimension ref="A1:E228"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25"/>

--- a/Tutoriales/pandas/Comandos Pandas.xlsx
+++ b/Tutoriales/pandas/Comandos Pandas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseMaría\Documents\CURSOS\data_science\mitrabajo\mi_repositorio\Tutoriales\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AFD3CA-062C-4381-9BAD-F578718ACC7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2189F6-EE4A-492A-A22F-B5720224DFD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF4018AA-EEB9-4756-B82D-183D37B3B80A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AF4018AA-EEB9-4756-B82D-183D37B3B80A}"/>
   </bookViews>
   <sheets>
     <sheet name="GENERALES" sheetId="1" r:id="rId1"/>
@@ -10022,8 +10022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265136A6-C067-4B28-9F45-A6266FF6FD67}">
   <dimension ref="A1:D227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+    <sheetView topLeftCell="B129" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13215,8 +13215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C42D88-9A2B-46D3-B46D-33526406379A}">
   <dimension ref="A1:E228"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25"/>

--- a/Tutoriales/pandas/Comandos Pandas.xlsx
+++ b/Tutoriales/pandas/Comandos Pandas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseMaría\Documents\CURSOS\data_science\mitrabajo\mi_repositorio\Tutoriales\pandas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseMaría\Documents\cursos\data_science\mitrabajo\mi_repositorio\Tutoriales\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2189F6-EE4A-492A-A22F-B5720224DFD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0351DD-A04A-46B0-812B-536C988512E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AF4018AA-EEB9-4756-B82D-183D37B3B80A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF4018AA-EEB9-4756-B82D-183D37B3B80A}"/>
   </bookViews>
   <sheets>
     <sheet name="GENERALES" sheetId="1" r:id="rId1"/>
@@ -7665,6 +7665,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="66" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7705,15 +7714,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10022,8 +10022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265136A6-C067-4B28-9F45-A6266FF6FD67}">
   <dimension ref="A1:D227"/>
   <sheetViews>
-    <sheetView topLeftCell="B129" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10035,12 +10035,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="102" t="s">
@@ -12290,14 +12290,14 @@
         <v>507</v>
       </c>
     </row>
-    <row r="163" spans="1:4" s="217" customFormat="1" ht="30">
+    <row r="163" spans="1:4" s="202" customFormat="1" ht="30">
       <c r="A163" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B163" s="216" t="s">
+      <c r="B163" s="201" t="s">
         <v>656</v>
       </c>
-      <c r="C163" s="215" t="s">
+      <c r="C163" s="200" t="s">
         <v>655</v>
       </c>
       <c r="D163" s="92" t="s">
@@ -13215,7 +13215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C42D88-9A2B-46D3-B46D-33526406379A}">
   <dimension ref="A1:E228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -13230,13 +13230,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="205" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="204"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="207"/>
     </row>
     <row r="2" spans="1:5" ht="207" customHeight="1">
       <c r="A2" s="43" t="s">
@@ -13483,22 +13483,22 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="408.95" customHeight="1">
-      <c r="A19" s="213" t="s">
+      <c r="A19" s="216" t="s">
         <v>222</v>
       </c>
-      <c r="B19" s="211" t="s">
+      <c r="B19" s="214" t="s">
         <v>592</v>
       </c>
-      <c r="C19" s="205"/>
-      <c r="D19" s="207"/>
-      <c r="E19" s="209"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="212"/>
     </row>
     <row r="20" spans="1:5" ht="351.75" customHeight="1">
-      <c r="A20" s="212"/>
-      <c r="B20" s="212"/>
-      <c r="C20" s="206"/>
-      <c r="D20" s="208"/>
-      <c r="E20" s="210"/>
+      <c r="A20" s="215"/>
+      <c r="B20" s="215"/>
+      <c r="C20" s="209"/>
+      <c r="D20" s="211"/>
+      <c r="E20" s="213"/>
     </row>
     <row r="21" spans="1:5" s="193" customFormat="1" ht="158.25" customHeight="1">
       <c r="A21" s="189" t="s">
@@ -14620,11 +14620,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="217" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="16" t="s">

--- a/Tutoriales/pandas/Comandos Pandas.xlsx
+++ b/Tutoriales/pandas/Comandos Pandas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseMaría\Documents\cursos\data_science\mitrabajo\mi_repositorio\Tutoriales\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0351DD-A04A-46B0-812B-536C988512E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0D5C67-1012-4615-8B06-13AFD10BA2DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF4018AA-EEB9-4756-B82D-183D37B3B80A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="663">
   <si>
     <t>FUNCIONES DE PANDAS</t>
   </si>
@@ -6549,6 +6549,64 @@
   </si>
   <si>
     <t>REINDEX</t>
+  </si>
+  <si>
+    <t>Determina ancho de barra</t>
+  </si>
+  <si>
+    <t>ANCHO DE BARRAS</t>
+  </si>
+  <si>
+    <t>Las barras tienen un borde negro independientemente del color de la barra</t>
+  </si>
+  <si>
+    <t>BARRAS CON BORDE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hist_kws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=nombredataframe(edgecolor=black)     *necesario poner lo resaltado negrita</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hist_kws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=nombredataframe(linewhidth=1)     *necesario poner lo resaltado negrita</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -10020,10 +10078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265136A6-C067-4B28-9F45-A6266FF6FD67}">
-  <dimension ref="A1:D227"/>
+  <dimension ref="A1:D229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13121,13 +13179,13 @@
         <v>222</v>
       </c>
       <c r="B222" s="182" t="s">
-        <v>631</v>
+        <v>660</v>
       </c>
       <c r="C222" s="185" t="s">
-        <v>621</v>
+        <v>661</v>
       </c>
       <c r="D222" s="186" t="s">
-        <v>616</v>
+        <v>659</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -13135,13 +13193,13 @@
         <v>222</v>
       </c>
       <c r="B223" s="182" t="s">
-        <v>631</v>
+        <v>658</v>
       </c>
       <c r="C223" s="185" t="s">
-        <v>622</v>
+        <v>662</v>
       </c>
       <c r="D223" s="186" t="s">
-        <v>617</v>
+        <v>657</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -13152,10 +13210,10 @@
         <v>631</v>
       </c>
       <c r="C224" s="185" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D224" s="186" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -13166,10 +13224,10 @@
         <v>631</v>
       </c>
       <c r="C225" s="185" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D225" s="186" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -13180,10 +13238,10 @@
         <v>631</v>
       </c>
       <c r="C226" s="185" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D226" s="186" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -13191,12 +13249,40 @@
         <v>222</v>
       </c>
       <c r="B227" s="182" t="s">
+        <v>631</v>
+      </c>
+      <c r="C227" s="185" t="s">
+        <v>624</v>
+      </c>
+      <c r="D227" s="186" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="B228" s="182" t="s">
+        <v>631</v>
+      </c>
+      <c r="C228" s="185" t="s">
+        <v>625</v>
+      </c>
+      <c r="D228" s="186" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="B229" s="182" t="s">
         <v>223</v>
       </c>
-      <c r="C227" s="185" t="s">
+      <c r="C229" s="185" t="s">
         <v>585</v>
       </c>
-      <c r="D227" s="186" t="s">
+      <c r="D229" s="186" t="s">
         <v>586</v>
       </c>
     </row>

--- a/Tutoriales/pandas/Comandos Pandas.xlsx
+++ b/Tutoriales/pandas/Comandos Pandas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseMaría\Documents\cursos\data_science\mitrabajo\mi_repositorio\Tutoriales\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0D5C67-1012-4615-8B06-13AFD10BA2DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B750A12-17CC-4D60-8141-D43E1C5A4F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF4018AA-EEB9-4756-B82D-183D37B3B80A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="CONCEPTOS" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GENERALES!$A$2:$D$218</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GENERALES!$A$2:$D$219</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="666">
   <si>
     <t>FUNCIONES DE PANDAS</t>
   </si>
@@ -6607,6 +6607,16 @@
       </rPr>
       <t>=nombredataframe(linewhidth=1)     *necesario poner lo resaltado negrita</t>
     </r>
+  </si>
+  <si>
+    <t>Me cambia los valores float de una columna y me los pasa a integuer redondeados</t>
+  </si>
+  <si>
+    <t>CAMBIO TYPE COLUMNA DATAFRAME</t>
+  </si>
+  <si>
+    <t>df_2["Avg. Area Number of Bedrooms"] = np.round(df["Avg. Area Number of Bedrooms"],decimals = 0)
+df_2["Avg. Area Number of Bedrooms"] = df_2["Avg. Area Number of Bedrooms"].astype(int)</t>
   </si>
 </sst>
 </file>
@@ -7260,7 +7270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="65" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7772,6 +7782,18 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10078,10 +10100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265136A6-C067-4B28-9F45-A6266FF6FD67}">
-  <dimension ref="A1:D229"/>
+  <dimension ref="A1:D230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="C216" sqref="C216"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11358,46 +11380,46 @@
         <v>614</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="79" t="s">
-        <v>487</v>
-      </c>
-      <c r="B92" s="76" t="s">
-        <v>122</v>
-      </c>
-      <c r="C92" s="77" t="s">
-        <v>601</v>
-      </c>
-      <c r="D92" s="128" t="s">
-        <v>602</v>
+    <row r="92" spans="1:4" s="220" customFormat="1" ht="30">
+      <c r="A92" s="221" t="s">
+        <v>612</v>
+      </c>
+      <c r="B92" s="221" t="s">
+        <v>664</v>
+      </c>
+      <c r="C92" s="218" t="s">
+        <v>665</v>
+      </c>
+      <c r="D92" s="219" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="79" t="s">
-        <v>249</v>
+        <v>487</v>
       </c>
       <c r="B93" s="76" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C93" s="77" t="s">
-        <v>246</v>
-      </c>
-      <c r="D93" s="77" t="s">
-        <v>229</v>
+        <v>601</v>
+      </c>
+      <c r="D93" s="128" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="79" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="B94" s="76" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="C94" s="77" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="D94" s="77" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -11405,13 +11427,13 @@
         <v>210</v>
       </c>
       <c r="B95" s="76" t="s">
-        <v>212</v>
-      </c>
-      <c r="C95" s="78" t="s">
-        <v>525</v>
+        <v>209</v>
+      </c>
+      <c r="C95" s="77" t="s">
+        <v>211</v>
       </c>
       <c r="D95" s="77" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -11419,13 +11441,13 @@
         <v>210</v>
       </c>
       <c r="B96" s="76" t="s">
-        <v>232</v>
-      </c>
-      <c r="C96" s="77" t="s">
-        <v>245</v>
+        <v>212</v>
+      </c>
+      <c r="C96" s="78" t="s">
+        <v>525</v>
       </c>
       <c r="D96" s="77" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -11433,13 +11455,13 @@
         <v>210</v>
       </c>
       <c r="B97" s="76" t="s">
-        <v>528</v>
+        <v>232</v>
       </c>
       <c r="C97" s="77" t="s">
-        <v>526</v>
+        <v>245</v>
       </c>
       <c r="D97" s="77" t="s">
-        <v>527</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -11447,13 +11469,13 @@
         <v>210</v>
       </c>
       <c r="B98" s="76" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C98" s="77" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D98" s="77" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -11461,13 +11483,13 @@
         <v>210</v>
       </c>
       <c r="B99" s="76" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C99" s="77" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D99" s="77" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -11475,41 +11497,41 @@
         <v>210</v>
       </c>
       <c r="B100" s="76" t="s">
+        <v>534</v>
+      </c>
+      <c r="C100" s="77" t="s">
+        <v>532</v>
+      </c>
+      <c r="D100" s="77" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="B101" s="76" t="s">
         <v>537</v>
       </c>
-      <c r="C100" s="77" t="s">
+      <c r="C101" s="77" t="s">
         <v>535</v>
       </c>
-      <c r="D100" s="77" t="s">
+      <c r="D101" s="77" t="s">
         <v>536</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="80" t="s">
-        <v>357</v>
-      </c>
-      <c r="B101" s="174" t="s">
-        <v>566</v>
-      </c>
-      <c r="C101" s="173" t="s">
-        <v>567</v>
-      </c>
-      <c r="D101" s="81" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="80" t="s">
         <v>357</v>
       </c>
-      <c r="B102" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="C102" s="81" t="s">
-        <v>78</v>
+      <c r="B102" s="174" t="s">
+        <v>566</v>
+      </c>
+      <c r="C102" s="173" t="s">
+        <v>567</v>
       </c>
       <c r="D102" s="81" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -11520,38 +11542,38 @@
         <v>79</v>
       </c>
       <c r="C103" s="81" t="s">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="D103" s="81" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" s="4" customFormat="1" ht="30">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="80" t="s">
         <v>357</v>
       </c>
-      <c r="B104" s="112" t="s">
+      <c r="B104" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="C104" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="C104" s="81" t="s">
+        <v>351</v>
+      </c>
+      <c r="D104" s="81" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="4" customFormat="1" ht="30">
       <c r="A105" s="80" t="s">
         <v>357</v>
       </c>
-      <c r="B105" s="110" t="s">
-        <v>380</v>
-      </c>
-      <c r="C105" s="98" t="s">
-        <v>381</v>
-      </c>
-      <c r="D105" s="111" t="s">
-        <v>382</v>
+      <c r="B105" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -11562,38 +11584,38 @@
         <v>380</v>
       </c>
       <c r="C106" s="98" t="s">
+        <v>381</v>
+      </c>
+      <c r="D106" s="111" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="80" t="s">
+        <v>357</v>
+      </c>
+      <c r="B107" s="110" t="s">
+        <v>380</v>
+      </c>
+      <c r="C107" s="98" t="s">
         <v>383</v>
       </c>
-      <c r="D106" s="111" t="s">
+      <c r="D107" s="111" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="114" t="s">
-        <v>486</v>
-      </c>
-      <c r="B107" s="113" t="s">
-        <v>40</v>
-      </c>
-      <c r="C107" s="115" t="s">
-        <v>37</v>
-      </c>
-      <c r="D107" s="115" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" s="3" customFormat="1">
+    <row r="108" spans="1:4">
       <c r="A108" s="114" t="s">
         <v>486</v>
       </c>
-      <c r="B108" s="145" t="s">
-        <v>269</v>
-      </c>
-      <c r="C108" s="116" t="s">
-        <v>263</v>
-      </c>
-      <c r="D108" s="117" t="s">
-        <v>261</v>
+      <c r="B108" s="113" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="D108" s="115" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:4" s="3" customFormat="1">
@@ -11604,10 +11626,10 @@
         <v>269</v>
       </c>
       <c r="C109" s="116" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D109" s="117" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="110" spans="1:4" s="3" customFormat="1">
@@ -11615,13 +11637,13 @@
         <v>486</v>
       </c>
       <c r="B110" s="145" t="s">
-        <v>256</v>
-      </c>
-      <c r="C110" s="118" t="s">
-        <v>258</v>
+        <v>269</v>
+      </c>
+      <c r="C110" s="116" t="s">
+        <v>264</v>
       </c>
       <c r="D110" s="117" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111" spans="1:4" s="3" customFormat="1">
@@ -11629,13 +11651,13 @@
         <v>486</v>
       </c>
       <c r="B111" s="145" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C111" s="118" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D111" s="117" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="112" spans="1:4" s="3" customFormat="1">
@@ -11646,38 +11668,38 @@
         <v>266</v>
       </c>
       <c r="C112" s="118" t="s">
+        <v>265</v>
+      </c>
+      <c r="D112" s="117" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" s="3" customFormat="1">
+      <c r="A113" s="114" t="s">
+        <v>486</v>
+      </c>
+      <c r="B113" s="145" t="s">
+        <v>266</v>
+      </c>
+      <c r="C113" s="118" t="s">
         <v>259</v>
       </c>
-      <c r="D112" s="117" t="s">
+      <c r="D113" s="117" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="113" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A113" s="119" t="s">
-        <v>493</v>
-      </c>
-      <c r="B113" s="120" t="s">
-        <v>220</v>
-      </c>
-      <c r="C113" s="121" t="s">
-        <v>485</v>
-      </c>
-      <c r="D113" s="122" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
       <c r="A114" s="119" t="s">
         <v>493</v>
       </c>
-      <c r="B114" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="C114" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D114" s="36" t="s">
-        <v>109</v>
+      <c r="B114" s="120" t="s">
+        <v>220</v>
+      </c>
+      <c r="C114" s="121" t="s">
+        <v>485</v>
+      </c>
+      <c r="D114" s="122" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -11685,13 +11707,13 @@
         <v>493</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C115" s="36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D115" s="36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -11699,13 +11721,13 @@
         <v>493</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C116" s="36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D116" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -11713,93 +11735,93 @@
         <v>493</v>
       </c>
       <c r="B117" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C117" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D117" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="119" t="s">
+        <v>493</v>
+      </c>
+      <c r="B118" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="C117" s="36" t="s">
+      <c r="C118" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="D117" s="36" t="s">
+      <c r="D118" s="36" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15.75">
-      <c r="A118" s="167" t="s">
+    <row r="119" spans="1:4" ht="15.75">
+      <c r="A119" s="167" t="s">
         <v>497</v>
       </c>
-      <c r="B118" s="167" t="s">
+      <c r="B119" s="167" t="s">
         <v>215</v>
       </c>
-      <c r="C118" s="171" t="s">
+      <c r="C119" s="171" t="s">
         <v>563</v>
       </c>
-      <c r="D118" s="168" t="s">
+      <c r="D119" s="168" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="30">
-      <c r="A119" s="169" t="s">
+    <row r="120" spans="1:4" ht="30">
+      <c r="A120" s="169" t="s">
         <v>497</v>
       </c>
-      <c r="B119" s="169" t="s">
+      <c r="B120" s="169" t="s">
         <v>215</v>
       </c>
-      <c r="C119" s="172" t="s">
+      <c r="C120" s="172" t="s">
         <v>564</v>
       </c>
-      <c r="D119" s="170" t="s">
+      <c r="D120" s="170" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="31.5">
-      <c r="A120" s="169"/>
-      <c r="B120" s="169"/>
-      <c r="C120" s="172" t="s">
+    <row r="121" spans="1:4" ht="31.5">
+      <c r="A121" s="169"/>
+      <c r="B121" s="169"/>
+      <c r="C121" s="172" t="s">
         <v>639</v>
       </c>
-      <c r="D120" s="170" t="s">
+      <c r="D121" s="170" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="31.5">
-      <c r="A121" s="169" t="s">
+    <row r="122" spans="1:4" ht="31.5">
+      <c r="A122" s="169" t="s">
         <v>497</v>
       </c>
-      <c r="B121" s="169" t="s">
+      <c r="B122" s="169" t="s">
         <v>215</v>
       </c>
-      <c r="C121" s="172" t="s">
+      <c r="C122" s="172" t="s">
         <v>608</v>
       </c>
-      <c r="D121" s="170" t="s">
+      <c r="D122" s="170" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="122" spans="1:4" s="3" customFormat="1">
-      <c r="A122" s="152" t="s">
+    <row r="123" spans="1:4" s="3" customFormat="1">
+      <c r="A123" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="B122" s="153" t="s">
+      <c r="B123" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="C122" s="154" t="s">
+      <c r="C123" s="154" t="s">
         <v>244</v>
       </c>
-      <c r="D122" s="155" t="s">
+      <c r="D123" s="155" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="C123" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="D123" s="61" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -11810,10 +11832,10 @@
         <v>41</v>
       </c>
       <c r="C124" s="61" t="s">
-        <v>275</v>
+        <v>42</v>
       </c>
       <c r="D124" s="61" t="s">
-        <v>274</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -11821,13 +11843,13 @@
         <v>1</v>
       </c>
       <c r="B125" s="71" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C125" s="61" t="s">
-        <v>23</v>
+        <v>275</v>
       </c>
       <c r="D125" s="61" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -11835,13 +11857,13 @@
         <v>1</v>
       </c>
       <c r="B126" s="71" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C126" s="61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D126" s="61" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -11849,13 +11871,13 @@
         <v>1</v>
       </c>
       <c r="B127" s="71" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C127" s="61" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D127" s="61" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -11863,13 +11885,13 @@
         <v>1</v>
       </c>
       <c r="B128" s="71" t="s">
-        <v>298</v>
+        <v>47</v>
       </c>
       <c r="C128" s="61" t="s">
-        <v>294</v>
+        <v>46</v>
       </c>
       <c r="D128" s="61" t="s">
-        <v>299</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -11877,13 +11899,13 @@
         <v>1</v>
       </c>
       <c r="B129" s="71" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C129" s="61" t="s">
-        <v>183</v>
+        <v>294</v>
       </c>
       <c r="D129" s="61" t="s">
-        <v>102</v>
+        <v>299</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -11894,10 +11916,10 @@
         <v>295</v>
       </c>
       <c r="C130" s="61" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="D130" s="61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -11905,13 +11927,13 @@
         <v>1</v>
       </c>
       <c r="B131" s="71" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C131" s="61" t="s">
-        <v>239</v>
+        <v>104</v>
       </c>
       <c r="D131" s="61" t="s">
-        <v>240</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -11919,13 +11941,13 @@
         <v>1</v>
       </c>
       <c r="B132" s="71" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C132" s="61" t="s">
-        <v>587</v>
+        <v>239</v>
       </c>
       <c r="D132" s="61" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -11933,13 +11955,13 @@
         <v>1</v>
       </c>
       <c r="B133" s="71" t="s">
-        <v>87</v>
+        <v>297</v>
       </c>
       <c r="C133" s="61" t="s">
-        <v>85</v>
+        <v>587</v>
       </c>
       <c r="D133" s="61" t="s">
-        <v>86</v>
+        <v>241</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -11947,13 +11969,13 @@
         <v>1</v>
       </c>
       <c r="B134" s="71" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C134" s="61" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D134" s="61" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -11961,13 +11983,13 @@
         <v>1</v>
       </c>
       <c r="B135" s="71" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C135" s="61" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D135" s="61" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -11975,13 +11997,13 @@
         <v>1</v>
       </c>
       <c r="B136" s="71" t="s">
-        <v>280</v>
-      </c>
-      <c r="C136" s="83" t="s">
-        <v>281</v>
-      </c>
-      <c r="D136" s="83" t="s">
-        <v>282</v>
+        <v>49</v>
+      </c>
+      <c r="C136" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D136" s="61" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -11989,13 +12011,13 @@
         <v>1</v>
       </c>
       <c r="B137" s="71" t="s">
-        <v>499</v>
-      </c>
-      <c r="C137" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="D137" s="61" t="s">
-        <v>70</v>
+        <v>280</v>
+      </c>
+      <c r="C137" s="83" t="s">
+        <v>281</v>
+      </c>
+      <c r="D137" s="83" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -12003,13 +12025,13 @@
         <v>1</v>
       </c>
       <c r="B138" s="71" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C138" s="61" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D138" s="61" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -12020,10 +12042,10 @@
         <v>500</v>
       </c>
       <c r="C139" s="61" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="D139" s="61" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -12031,13 +12053,13 @@
         <v>1</v>
       </c>
       <c r="B140" s="71" t="s">
-        <v>76</v>
+        <v>500</v>
       </c>
       <c r="C140" s="61" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="D140" s="61" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -12048,10 +12070,10 @@
         <v>76</v>
       </c>
       <c r="C141" s="61" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="D141" s="61" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -12062,10 +12084,10 @@
         <v>76</v>
       </c>
       <c r="C142" s="61" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D142" s="61" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -12075,11 +12097,11 @@
       <c r="B143" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="C143" s="84" t="s">
-        <v>562</v>
+      <c r="C143" s="61" t="s">
+        <v>169</v>
       </c>
       <c r="D143" s="61" t="s">
-        <v>238</v>
+        <v>168</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -12087,13 +12109,13 @@
         <v>1</v>
       </c>
       <c r="B144" s="71" t="s">
-        <v>170</v>
-      </c>
-      <c r="C144" s="61" t="s">
-        <v>172</v>
+        <v>76</v>
+      </c>
+      <c r="C144" s="84" t="s">
+        <v>562</v>
       </c>
       <c r="D144" s="61" t="s">
-        <v>171</v>
+        <v>238</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -12101,13 +12123,13 @@
         <v>1</v>
       </c>
       <c r="B145" s="71" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C145" s="61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D145" s="61" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -12115,13 +12137,13 @@
         <v>1</v>
       </c>
       <c r="B146" s="71" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="C146" s="61" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="D146" s="61" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -12129,13 +12151,13 @@
         <v>1</v>
       </c>
       <c r="B147" s="71" t="s">
-        <v>227</v>
-      </c>
-      <c r="C147" s="85" t="s">
-        <v>228</v>
+        <v>218</v>
+      </c>
+      <c r="C147" s="61" t="s">
+        <v>217</v>
       </c>
       <c r="D147" s="61" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -12143,13 +12165,13 @@
         <v>1</v>
       </c>
       <c r="B148" s="71" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C148" s="85" t="s">
-        <v>365</v>
+        <v>228</v>
       </c>
       <c r="D148" s="61" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -12157,13 +12179,13 @@
         <v>1</v>
       </c>
       <c r="B149" s="71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C149" s="85" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D149" s="61" t="s">
-        <v>364</v>
+        <v>234</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -12174,24 +12196,24 @@
         <v>235</v>
       </c>
       <c r="C150" s="85" t="s">
+        <v>363</v>
+      </c>
+      <c r="D150" s="61" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B151" s="71" t="s">
+        <v>235</v>
+      </c>
+      <c r="C151" s="85" t="s">
         <v>236</v>
       </c>
-      <c r="D150" s="61" t="s">
+      <c r="D151" s="61" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B151" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="C151" s="81" t="s">
-        <v>107</v>
-      </c>
-      <c r="D151" s="81" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -12199,13 +12221,13 @@
         <v>80</v>
       </c>
       <c r="B152" s="82" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="C152" s="81" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D152" s="81" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -12213,13 +12235,13 @@
         <v>80</v>
       </c>
       <c r="B153" s="82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C153" s="81" t="s">
-        <v>288</v>
+        <v>99</v>
       </c>
       <c r="D153" s="81" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -12227,13 +12249,13 @@
         <v>80</v>
       </c>
       <c r="B154" s="82" t="s">
-        <v>421</v>
+        <v>182</v>
       </c>
       <c r="C154" s="81" t="s">
-        <v>422</v>
+        <v>288</v>
       </c>
       <c r="D154" s="81" t="s">
-        <v>420</v>
+        <v>180</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -12241,13 +12263,13 @@
         <v>80</v>
       </c>
       <c r="B155" s="82" t="s">
-        <v>199</v>
+        <v>421</v>
       </c>
       <c r="C155" s="81" t="s">
-        <v>198</v>
+        <v>422</v>
       </c>
       <c r="D155" s="81" t="s">
-        <v>200</v>
+        <v>420</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -12258,10 +12280,10 @@
         <v>199</v>
       </c>
       <c r="C156" s="81" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D156" s="81" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -12272,10 +12294,10 @@
         <v>199</v>
       </c>
       <c r="C157" s="81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D157" s="81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -12283,16 +12305,16 @@
         <v>80</v>
       </c>
       <c r="B158" s="82" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C158" s="81" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D158" s="81" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="15.75">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" s="80" t="s">
         <v>80</v>
       </c>
@@ -12300,80 +12322,80 @@
         <v>205</v>
       </c>
       <c r="C159" s="81" t="s">
-        <v>576</v>
-      </c>
-      <c r="D159" s="177" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>197</v>
+      </c>
+      <c r="D159" s="81" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15.75">
       <c r="A160" s="80" t="s">
         <v>80</v>
       </c>
       <c r="B160" s="82" t="s">
-        <v>580</v>
+        <v>205</v>
       </c>
       <c r="C160" s="81" t="s">
-        <v>578</v>
-      </c>
-      <c r="D160" s="178" t="s">
-        <v>579</v>
+        <v>576</v>
+      </c>
+      <c r="D160" s="177" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="B161" s="130" t="s">
+      <c r="B161" s="82" t="s">
+        <v>580</v>
+      </c>
+      <c r="C161" s="81" t="s">
+        <v>578</v>
+      </c>
+      <c r="D161" s="178" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B162" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="C161" s="131" t="s">
+      <c r="C162" s="131" t="s">
         <v>207</v>
       </c>
-      <c r="D161" s="131" t="s">
+      <c r="D162" s="131" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="67" t="s">
+    <row r="163" spans="1:4">
+      <c r="A163" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B162" s="70" t="s">
+      <c r="B163" s="70" t="s">
         <v>506</v>
       </c>
-      <c r="C162" s="69" t="s">
+      <c r="C163" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="D162" s="69" t="s">
+      <c r="D163" s="69" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="163" spans="1:4" s="202" customFormat="1" ht="30">
-      <c r="A163" s="96" t="s">
+    <row r="164" spans="1:4" s="202" customFormat="1" ht="30">
+      <c r="A164" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B163" s="201" t="s">
+      <c r="B164" s="201" t="s">
         <v>656</v>
       </c>
-      <c r="C163" s="200" t="s">
+      <c r="C164" s="200" t="s">
         <v>655</v>
       </c>
-      <c r="D163" s="92" t="s">
+      <c r="D164" s="92" t="s">
         <v>654</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B164" s="70" t="s">
-        <v>506</v>
-      </c>
-      <c r="C164" s="69" t="s">
-        <v>509</v>
-      </c>
-      <c r="D164" s="69" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -12384,10 +12406,10 @@
         <v>506</v>
       </c>
       <c r="C165" s="69" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="D165" s="69" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -12395,13 +12417,13 @@
         <v>8</v>
       </c>
       <c r="B166" s="70" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C166" s="69" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D166" s="69" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -12409,13 +12431,13 @@
         <v>8</v>
       </c>
       <c r="B167" s="70" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="C167" s="69" t="s">
-        <v>287</v>
+        <v>510</v>
       </c>
       <c r="D167" s="69" t="s">
-        <v>443</v>
+        <v>511</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -12426,10 +12448,10 @@
         <v>447</v>
       </c>
       <c r="C168" s="69" t="s">
-        <v>448</v>
+        <v>287</v>
       </c>
       <c r="D168" s="69" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -12437,13 +12459,13 @@
         <v>8</v>
       </c>
       <c r="B169" s="70" t="s">
-        <v>289</v>
+        <v>447</v>
       </c>
       <c r="C169" s="69" t="s">
-        <v>290</v>
+        <v>448</v>
       </c>
       <c r="D169" s="69" t="s">
-        <v>291</v>
+        <v>446</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -12451,13 +12473,13 @@
         <v>8</v>
       </c>
       <c r="B170" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" s="68" t="s">
-        <v>9</v>
+        <v>289</v>
+      </c>
+      <c r="C170" s="69" t="s">
+        <v>290</v>
       </c>
       <c r="D170" s="69" t="s">
-        <v>11</v>
+        <v>291</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -12468,10 +12490,10 @@
         <v>8</v>
       </c>
       <c r="C171" s="68" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D171" s="69" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -12482,10 +12504,10 @@
         <v>8</v>
       </c>
       <c r="C172" s="68" t="s">
-        <v>390</v>
+        <v>20</v>
       </c>
       <c r="D172" s="69" t="s">
-        <v>391</v>
+        <v>65</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -12496,10 +12518,10 @@
         <v>8</v>
       </c>
       <c r="C173" s="68" t="s">
-        <v>9</v>
+        <v>390</v>
       </c>
       <c r="D173" s="69" t="s">
-        <v>11</v>
+        <v>391</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -12510,10 +12532,10 @@
         <v>8</v>
       </c>
       <c r="C174" s="68" t="s">
-        <v>359</v>
+        <v>9</v>
       </c>
       <c r="D174" s="69" t="s">
-        <v>360</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -12524,10 +12546,10 @@
         <v>8</v>
       </c>
       <c r="C175" s="68" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D175" s="69" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -12538,10 +12560,10 @@
         <v>8</v>
       </c>
       <c r="C176" s="68" t="s">
-        <v>646</v>
+        <v>361</v>
       </c>
       <c r="D176" s="69" t="s">
-        <v>647</v>
+        <v>362</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -12549,13 +12571,13 @@
         <v>8</v>
       </c>
       <c r="B177" s="70" t="s">
-        <v>438</v>
+        <v>8</v>
       </c>
       <c r="C177" s="68" t="s">
-        <v>361</v>
+        <v>646</v>
       </c>
       <c r="D177" s="69" t="s">
-        <v>437</v>
+        <v>647</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -12569,38 +12591,38 @@
         <v>361</v>
       </c>
       <c r="D178" s="69" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" s="70" t="s">
+        <v>438</v>
+      </c>
+      <c r="C179" s="68" t="s">
+        <v>361</v>
+      </c>
+      <c r="D179" s="69" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="71" t="s">
-        <v>327</v>
-      </c>
-      <c r="B179" s="60" t="s">
-        <v>501</v>
-      </c>
-      <c r="C179" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="D179" s="61" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1">
+    <row r="180" spans="1:4">
       <c r="A180" s="71" t="s">
         <v>327</v>
       </c>
-      <c r="B180" s="129" t="s">
-        <v>432</v>
-      </c>
-      <c r="C180" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="D180" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" s="3" customFormat="1" ht="30">
+      <c r="B180" s="60" t="s">
+        <v>501</v>
+      </c>
+      <c r="C180" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="D180" s="61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1">
       <c r="A181" s="71" t="s">
         <v>327</v>
       </c>
@@ -12608,24 +12630,24 @@
         <v>432</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A182" s="72" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" s="3" customFormat="1" ht="30">
+      <c r="A182" s="71" t="s">
         <v>327</v>
       </c>
       <c r="B182" s="129" t="s">
         <v>432</v>
       </c>
-      <c r="C182" s="62" t="s">
-        <v>349</v>
+      <c r="C182" s="12" t="s">
+        <v>444</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
     </row>
     <row r="183" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
@@ -12636,38 +12658,38 @@
         <v>432</v>
       </c>
       <c r="C183" s="62" t="s">
-        <v>424</v>
+        <v>349</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" s="3" customFormat="1" ht="76.5" customHeight="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
       <c r="A184" s="72" t="s">
         <v>327</v>
       </c>
       <c r="B184" s="129" t="s">
-        <v>502</v>
-      </c>
-      <c r="C184" s="12" t="s">
-        <v>330</v>
+        <v>432</v>
+      </c>
+      <c r="C184" s="62" t="s">
+        <v>424</v>
       </c>
       <c r="D184" s="12" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" s="3" customFormat="1" ht="76.5" customHeight="1">
       <c r="A185" s="72" t="s">
         <v>327</v>
       </c>
       <c r="B185" s="129" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>431</v>
+        <v>329</v>
       </c>
     </row>
     <row r="186" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
@@ -12675,55 +12697,55 @@
         <v>327</v>
       </c>
       <c r="B186" s="129" t="s">
+        <v>503</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D186" s="12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" s="3" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A187" s="72" t="s">
+        <v>327</v>
+      </c>
+      <c r="B187" s="129" t="s">
         <v>426</v>
       </c>
-      <c r="C186" s="12" t="s">
+      <c r="C187" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="D186" s="12" t="s">
+      <c r="D187" s="12" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="B187" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="C187" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="D187" s="11" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
+    <row r="188" spans="1:4">
       <c r="A188" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="B188" s="63" t="s">
+      <c r="B188" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="C188" s="64" t="s">
-        <v>428</v>
-      </c>
-      <c r="D188" s="65" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+      <c r="C188" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" s="4" customFormat="1" ht="39.75" customHeight="1">
       <c r="A189" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="B189" s="10" t="s">
+      <c r="B189" s="63" t="s">
         <v>318</v>
       </c>
-      <c r="C189" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="D189" s="11" t="s">
-        <v>320</v>
+      <c r="C189" s="64" t="s">
+        <v>428</v>
+      </c>
+      <c r="D189" s="65" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -12734,52 +12756,52 @@
         <v>318</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" s="4" customFormat="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="B191" s="73" t="s">
+      <c r="B191" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D191" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" s="4" customFormat="1">
+      <c r="A192" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="B192" s="73" t="s">
         <v>313</v>
       </c>
-      <c r="C191" s="65" t="s">
+      <c r="C192" s="65" t="s">
         <v>312</v>
       </c>
-      <c r="D191" s="65" t="s">
+      <c r="D192" s="65" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="75" t="s">
+    <row r="193" spans="1:4">
+      <c r="A193" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="B192" s="10" t="s">
+      <c r="B193" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C192" s="11" t="s">
+      <c r="C193" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="D192" s="65" t="s">
+      <c r="D193" s="65" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="113" t="s">
-        <v>191</v>
-      </c>
-      <c r="B193" s="113" t="s">
-        <v>189</v>
-      </c>
-      <c r="C193" s="115" t="s">
-        <v>193</v>
-      </c>
-      <c r="D193" s="115" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -12790,38 +12812,38 @@
         <v>189</v>
       </c>
       <c r="C194" s="115" t="s">
+        <v>193</v>
+      </c>
+      <c r="D194" s="115" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="113" t="s">
+        <v>191</v>
+      </c>
+      <c r="B195" s="113" t="s">
+        <v>189</v>
+      </c>
+      <c r="C195" s="115" t="s">
         <v>195</v>
       </c>
-      <c r="D194" s="115" t="s">
+      <c r="D195" s="115" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:4" s="3" customFormat="1">
-      <c r="A195" s="132" t="s">
-        <v>250</v>
-      </c>
-      <c r="B195" s="157" t="s">
-        <v>252</v>
-      </c>
-      <c r="C195" s="133" t="s">
-        <v>253</v>
-      </c>
-      <c r="D195" s="134" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" s="86" customFormat="1">
+    <row r="196" spans="1:4" s="3" customFormat="1">
       <c r="A196" s="132" t="s">
         <v>250</v>
       </c>
       <c r="B196" s="157" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="C196" s="133" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="D196" s="134" t="s">
-        <v>308</v>
+        <v>251</v>
       </c>
     </row>
     <row r="197" spans="1:4" s="86" customFormat="1">
@@ -12829,69 +12851,69 @@
         <v>250</v>
       </c>
       <c r="B197" s="157" t="s">
+        <v>293</v>
+      </c>
+      <c r="C197" s="133" t="s">
+        <v>292</v>
+      </c>
+      <c r="D197" s="134" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" s="86" customFormat="1">
+      <c r="A198" s="132" t="s">
+        <v>250</v>
+      </c>
+      <c r="B198" s="157" t="s">
         <v>286</v>
       </c>
-      <c r="C197" s="133" t="s">
+      <c r="C198" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="D197" s="134" t="s">
+      <c r="D198" s="134" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="198" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A198" s="135" t="s">
+    <row r="199" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A199" s="135" t="s">
         <v>250</v>
       </c>
-      <c r="B198" s="157" t="s">
+      <c r="B199" s="157" t="s">
         <v>463</v>
       </c>
-      <c r="C198" s="136" t="s">
+      <c r="C199" s="136" t="s">
         <v>376</v>
       </c>
-      <c r="D198" s="137" t="s">
+      <c r="D199" s="137" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="199" spans="1:4" s="38" customFormat="1" ht="144.75" customHeight="1">
-      <c r="A199" s="138" t="s">
+    <row r="200" spans="1:4" s="38" customFormat="1" ht="144.75" customHeight="1">
+      <c r="A200" s="138" t="s">
         <v>250</v>
       </c>
-      <c r="B199" s="158" t="s">
+      <c r="B200" s="158" t="s">
         <v>504</v>
       </c>
-      <c r="C199" s="136" t="s">
+      <c r="C200" s="136" t="s">
         <v>488</v>
       </c>
-      <c r="D199" s="137" t="s">
+      <c r="D200" s="137" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="159" t="s">
+    <row r="201" spans="1:4">
+      <c r="A201" s="159" t="s">
         <v>250</v>
       </c>
-      <c r="B200" s="160" t="s">
+      <c r="B201" s="160" t="s">
         <v>512</v>
       </c>
-      <c r="C200" s="161" t="s">
+      <c r="C201" s="161" t="s">
         <v>514</v>
       </c>
-      <c r="D200" s="161" t="s">
+      <c r="D201" s="161" t="s">
         <v>511</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A201" s="138" t="s">
-        <v>250</v>
-      </c>
-      <c r="B201" s="158" t="s">
-        <v>435</v>
-      </c>
-      <c r="C201" s="139" t="s">
-        <v>458</v>
-      </c>
-      <c r="D201" s="137" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="202" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
@@ -12902,7 +12924,7 @@
         <v>435</v>
       </c>
       <c r="C202" s="139" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D202" s="137" t="s">
         <v>433</v>
@@ -12913,55 +12935,55 @@
         <v>250</v>
       </c>
       <c r="B203" s="158" t="s">
-        <v>436</v>
-      </c>
-      <c r="C203" s="140" t="s">
-        <v>441</v>
+        <v>435</v>
+      </c>
+      <c r="C203" s="139" t="s">
+        <v>459</v>
       </c>
       <c r="D203" s="137" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" s="38" customFormat="1" ht="28.5" customHeight="1">
       <c r="A204" s="138" t="s">
         <v>250</v>
       </c>
       <c r="B204" s="158" t="s">
-        <v>242</v>
-      </c>
-      <c r="C204" s="136" t="s">
-        <v>457</v>
+        <v>436</v>
+      </c>
+      <c r="C204" s="140" t="s">
+        <v>441</v>
       </c>
       <c r="D204" s="137" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1">
       <c r="A205" s="138" t="s">
         <v>250</v>
       </c>
       <c r="B205" s="158" t="s">
-        <v>440</v>
+        <v>242</v>
       </c>
       <c r="C205" s="136" t="s">
-        <v>517</v>
+        <v>457</v>
       </c>
       <c r="D205" s="137" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
       <c r="A206" s="138" t="s">
         <v>250</v>
       </c>
       <c r="B206" s="158" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="C206" s="136" t="s">
-        <v>456</v>
+        <v>517</v>
       </c>
       <c r="D206" s="137" t="s">
-        <v>523</v>
+        <v>451</v>
       </c>
     </row>
     <row r="207" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
@@ -12969,13 +12991,13 @@
         <v>250</v>
       </c>
       <c r="B207" s="158" t="s">
-        <v>522</v>
+        <v>455</v>
       </c>
       <c r="C207" s="136" t="s">
-        <v>521</v>
+        <v>456</v>
       </c>
       <c r="D207" s="137" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="208" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
@@ -12983,41 +13005,41 @@
         <v>250</v>
       </c>
       <c r="B208" s="158" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C208" s="136" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D208" s="137" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" s="4" customFormat="1" ht="36.75" customHeight="1">
       <c r="A209" s="138" t="s">
         <v>250</v>
       </c>
       <c r="B209" s="158" t="s">
+        <v>520</v>
+      </c>
+      <c r="C209" s="136" t="s">
+        <v>519</v>
+      </c>
+      <c r="D209" s="137" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" s="4" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A210" s="138" t="s">
+        <v>250</v>
+      </c>
+      <c r="B210" s="158" t="s">
         <v>454</v>
       </c>
-      <c r="C209" s="136" t="s">
+      <c r="C210" s="136" t="s">
         <v>452</v>
       </c>
-      <c r="D209" s="137" t="s">
+      <c r="D210" s="137" t="s">
         <v>453</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="123" t="s">
-        <v>222</v>
-      </c>
-      <c r="B210" s="123" t="s">
-        <v>223</v>
-      </c>
-      <c r="C210" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="D210" s="36" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -13028,10 +13050,10 @@
         <v>223</v>
       </c>
       <c r="C211" s="36" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="D211" s="36" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -13041,11 +13063,11 @@
       <c r="B212" s="123" t="s">
         <v>223</v>
       </c>
-      <c r="C212" s="156" t="s">
-        <v>633</v>
+      <c r="C212" s="36" t="s">
+        <v>225</v>
       </c>
       <c r="D212" s="36" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -13056,10 +13078,10 @@
         <v>223</v>
       </c>
       <c r="C213" s="156" t="s">
-        <v>306</v>
+        <v>633</v>
       </c>
       <c r="D213" s="36" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -13067,13 +13089,13 @@
         <v>222</v>
       </c>
       <c r="B214" s="123" t="s">
-        <v>626</v>
-      </c>
-      <c r="C214" s="180" t="s">
-        <v>304</v>
+        <v>223</v>
+      </c>
+      <c r="C214" s="156" t="s">
+        <v>306</v>
       </c>
       <c r="D214" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -13084,10 +13106,10 @@
         <v>626</v>
       </c>
       <c r="C215" s="180" t="s">
-        <v>650</v>
+        <v>304</v>
       </c>
       <c r="D215" s="36" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -13098,10 +13120,10 @@
         <v>626</v>
       </c>
       <c r="C216" s="180" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="D216" s="36" t="s">
-        <v>635</v>
+        <v>305</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -13109,13 +13131,13 @@
         <v>222</v>
       </c>
       <c r="B217" s="123" t="s">
-        <v>653</v>
+        <v>626</v>
       </c>
       <c r="C217" s="180" t="s">
-        <v>651</v>
+        <v>634</v>
       </c>
       <c r="D217" s="36" t="s">
-        <v>652</v>
+        <v>635</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -13123,13 +13145,13 @@
         <v>222</v>
       </c>
       <c r="B218" s="123" t="s">
-        <v>628</v>
+        <v>653</v>
       </c>
       <c r="C218" s="180" t="s">
-        <v>307</v>
+        <v>651</v>
       </c>
       <c r="D218" s="36" t="s">
-        <v>301</v>
+        <v>652</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -13137,41 +13159,41 @@
         <v>222</v>
       </c>
       <c r="B219" s="123" t="s">
+        <v>628</v>
+      </c>
+      <c r="C219" s="180" t="s">
+        <v>307</v>
+      </c>
+      <c r="D219" s="36" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="123" t="s">
+        <v>222</v>
+      </c>
+      <c r="B220" s="123" t="s">
         <v>629</v>
       </c>
-      <c r="C219" s="181" t="s">
+      <c r="C220" s="181" t="s">
         <v>393</v>
       </c>
-      <c r="D219" s="36" t="s">
+      <c r="D220" s="36" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="220" spans="1:4" s="179" customFormat="1" ht="15.75">
-      <c r="A220" s="182" t="s">
-        <v>222</v>
-      </c>
-      <c r="B220" s="182" t="s">
-        <v>629</v>
-      </c>
-      <c r="C220" s="183" t="s">
-        <v>583</v>
-      </c>
-      <c r="D220" s="184" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" s="179" customFormat="1" ht="15.75">
       <c r="A221" s="182" t="s">
         <v>222</v>
       </c>
       <c r="B221" s="182" t="s">
-        <v>630</v>
-      </c>
-      <c r="C221" s="185" t="s">
-        <v>584</v>
-      </c>
-      <c r="D221" s="186" t="s">
-        <v>632</v>
+        <v>629</v>
+      </c>
+      <c r="C221" s="183" t="s">
+        <v>583</v>
+      </c>
+      <c r="D221" s="184" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -13179,13 +13201,13 @@
         <v>222</v>
       </c>
       <c r="B222" s="182" t="s">
-        <v>660</v>
+        <v>630</v>
       </c>
       <c r="C222" s="185" t="s">
-        <v>661</v>
+        <v>584</v>
       </c>
       <c r="D222" s="186" t="s">
-        <v>659</v>
+        <v>632</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -13193,13 +13215,13 @@
         <v>222</v>
       </c>
       <c r="B223" s="182" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C223" s="185" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D223" s="186" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -13207,13 +13229,13 @@
         <v>222</v>
       </c>
       <c r="B224" s="182" t="s">
-        <v>631</v>
+        <v>658</v>
       </c>
       <c r="C224" s="185" t="s">
-        <v>621</v>
+        <v>662</v>
       </c>
       <c r="D224" s="186" t="s">
-        <v>616</v>
+        <v>657</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -13224,10 +13246,10 @@
         <v>631</v>
       </c>
       <c r="C225" s="185" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D225" s="186" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -13238,10 +13260,10 @@
         <v>631</v>
       </c>
       <c r="C226" s="185" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D226" s="186" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -13252,10 +13274,10 @@
         <v>631</v>
       </c>
       <c r="C227" s="185" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D227" s="186" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -13266,10 +13288,10 @@
         <v>631</v>
       </c>
       <c r="C228" s="185" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D228" s="186" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -13277,17 +13299,31 @@
         <v>222</v>
       </c>
       <c r="B229" s="182" t="s">
+        <v>631</v>
+      </c>
+      <c r="C229" s="185" t="s">
+        <v>625</v>
+      </c>
+      <c r="D229" s="186" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="B230" s="182" t="s">
         <v>223</v>
       </c>
-      <c r="C229" s="185" t="s">
+      <c r="C230" s="185" t="s">
         <v>585</v>
       </c>
-      <c r="D229" s="186" t="s">
+      <c r="D230" s="186" t="s">
         <v>586</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D218" xr:uid="{85ED3410-72EE-453D-8BB3-FB7E07F682B1}"/>
+  <autoFilter ref="A2:D219" xr:uid="{85ED3410-72EE-453D-8BB3-FB7E07F682B1}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
